--- a/utils/excel_to_json/questions.xlsx
+++ b/utils/excel_to_json/questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koncz/react-ivos/ivosjatek/utils/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koncz/react-ivos/ivosjatek/utils/excel_to_json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CBECE5-8B23-EF40-B4FE-826D62503CC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37793D0-03F1-7F4D-86F3-775ADFBAE718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -410,9 +410,6 @@
     <t>For all players: Tell a porn publisher (e.g. Brazzers) one after another until one of you can't, they drink.</t>
   </si>
   <si>
-    <t>Mindenki mond egy pornószínészt/pornószínésznőt. A jobbra ülő kezd, és addig mennek a körök, amíg valaki már nem tud mondani. Ő iszik.</t>
-  </si>
-  <si>
     <t>For all players: Tell a porn actor/actress one after another until one of you can't, they drink.</t>
   </si>
   <si>
@@ -2961,6 +2958,9 @@
   </si>
   <si>
     <t>Read loud: the first player who tells your name backwards can choose who drinks a shot.</t>
+  </si>
+  <si>
+    <t>Mindenki mond egy pornószínészt / pornószínésznőt. A jobbra ülő kezd, és addig mennek a körök, amíg valaki már nem tud mondani. Ő iszik.</t>
   </si>
 </sst>
 </file>
@@ -3599,8 +3599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ1163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C286" sqref="C286"/>
+    <sheetView tabSelected="1" topLeftCell="A337" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C345" sqref="C345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -3622,13 +3622,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>248</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -3639,10 +3639,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>249</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -3653,10 +3653,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>251</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -3667,10 +3667,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>253</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -3681,10 +3681,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>255</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -3695,7 +3695,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>3</v>
@@ -3709,7 +3709,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>4</v>
@@ -3723,10 +3723,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>259</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -3737,10 +3737,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>261</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -3751,13 +3751,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>264</v>
-      </c>
       <c r="E10" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -3768,13 +3768,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>266</v>
-      </c>
       <c r="E11" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -3785,13 +3785,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>268</v>
-      </c>
       <c r="E12" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -3802,13 +3802,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>270</v>
-      </c>
       <c r="E13" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -3822,10 +3822,10 @@
         <v>5</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -3836,13 +3836,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -3853,13 +3853,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -3870,13 +3870,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>273</v>
-      </c>
       <c r="E17" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -3887,13 +3887,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>275</v>
-      </c>
       <c r="E18" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -3904,13 +3904,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>277</v>
-      </c>
       <c r="E19" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -3924,7 +3924,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -3938,10 +3938,10 @@
         <v>7</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -3952,7 +3952,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>8</v>
@@ -3966,7 +3966,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>9</v>
@@ -3980,7 +3980,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>10</v>
@@ -3994,7 +3994,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>11</v>
@@ -4008,10 +4008,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>284</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>285</v>
       </c>
       <c r="E26" s="10"/>
     </row>
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>286</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>287</v>
       </c>
       <c r="E27" s="10"/>
     </row>
@@ -4038,10 +4038,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>288</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4052,10 +4052,10 @@
         <v>2</v>
       </c>
       <c r="C29" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>290</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4066,13 +4066,13 @@
         <v>2</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4083,7 +4083,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>12</v>
@@ -4097,7 +4097,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>13</v>
@@ -4111,10 +4111,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D33" s="19" t="s">
         <v>294</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>295</v>
       </c>
       <c r="E33" s="9"/>
     </row>
@@ -4126,10 +4126,10 @@
         <v>14</v>
       </c>
       <c r="C34" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>296</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4140,10 +4140,10 @@
         <v>14</v>
       </c>
       <c r="C35" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="D35" s="17" t="s">
         <v>298</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4154,10 +4154,10 @@
         <v>14</v>
       </c>
       <c r="C36" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>300</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4168,10 +4168,10 @@
         <v>14</v>
       </c>
       <c r="C37" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D37" s="17" t="s">
         <v>302</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4182,10 +4182,10 @@
         <v>14</v>
       </c>
       <c r="C38" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="D38" s="17" t="s">
         <v>304</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4196,10 +4196,10 @@
         <v>14</v>
       </c>
       <c r="C39" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>306</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4210,10 +4210,10 @@
         <v>14</v>
       </c>
       <c r="C40" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="D40" s="20" t="s">
         <v>308</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4224,10 +4224,10 @@
         <v>14</v>
       </c>
       <c r="C41" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="D41" s="20" t="s">
         <v>310</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4238,10 +4238,10 @@
         <v>14</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4252,10 +4252,10 @@
         <v>14</v>
       </c>
       <c r="C43" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D43" s="20" t="s">
         <v>312</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4266,10 +4266,10 @@
         <v>14</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4280,7 +4280,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D45" s="17" t="s">
         <v>15</v>
@@ -4294,7 +4294,7 @@
         <v>14</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D46" s="17" t="s">
         <v>16</v>
@@ -4308,7 +4308,7 @@
         <v>14</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>17</v>
@@ -4322,7 +4322,7 @@
         <v>14</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D48" s="19" t="s">
         <v>18</v>
@@ -4337,7 +4337,7 @@
         <v>19</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D49" s="17" t="s">
         <v>20</v>
@@ -4351,10 +4351,10 @@
         <v>19</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4365,10 +4365,10 @@
         <v>19</v>
       </c>
       <c r="C51" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="D51" s="17" t="s">
         <v>319</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4379,10 +4379,10 @@
         <v>19</v>
       </c>
       <c r="C52" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="D52" s="17" t="s">
         <v>321</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>322</v>
       </c>
       <c r="E52" s="10"/>
     </row>
@@ -4394,10 +4394,10 @@
         <v>19</v>
       </c>
       <c r="C53" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="D53" s="17" t="s">
         <v>323</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>324</v>
       </c>
       <c r="E53" s="10"/>
     </row>
@@ -4409,13 +4409,13 @@
         <v>19</v>
       </c>
       <c r="C54" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D54" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="D54" s="17" t="s">
-        <v>326</v>
-      </c>
       <c r="E54" s="10" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -4426,10 +4426,10 @@
         <v>19</v>
       </c>
       <c r="C55" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="D55" s="19" t="s">
         <v>327</v>
-      </c>
-      <c r="D55" s="19" t="s">
-        <v>328</v>
       </c>
       <c r="E55" s="10"/>
     </row>
@@ -4441,10 +4441,10 @@
         <v>21</v>
       </c>
       <c r="C56" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="D56" s="17" t="s">
         <v>329</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4455,10 +4455,10 @@
         <v>21</v>
       </c>
       <c r="C57" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="D57" s="17" t="s">
         <v>331</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4469,10 +4469,10 @@
         <v>21</v>
       </c>
       <c r="C58" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="D58" s="17" t="s">
         <v>333</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4483,10 +4483,10 @@
         <v>21</v>
       </c>
       <c r="C59" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="D59" s="17" t="s">
         <v>335</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4497,10 +4497,10 @@
         <v>21</v>
       </c>
       <c r="C60" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="D60" s="17" t="s">
         <v>337</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4511,10 +4511,10 @@
         <v>21</v>
       </c>
       <c r="C61" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="D61" s="17" t="s">
         <v>339</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4525,10 +4525,10 @@
         <v>21</v>
       </c>
       <c r="C62" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="D62" s="17" t="s">
         <v>341</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>342</v>
       </c>
       <c r="E62" s="10"/>
     </row>
@@ -4540,10 +4540,10 @@
         <v>21</v>
       </c>
       <c r="C63" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="D63" s="17" t="s">
         <v>343</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4554,10 +4554,10 @@
         <v>21</v>
       </c>
       <c r="C64" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="D64" s="17" t="s">
         <v>345</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4568,10 +4568,10 @@
         <v>21</v>
       </c>
       <c r="C65" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="D65" s="17" t="s">
         <v>347</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4582,10 +4582,10 @@
         <v>21</v>
       </c>
       <c r="C66" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D66" s="20" t="s">
         <v>349</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4596,10 +4596,10 @@
         <v>21</v>
       </c>
       <c r="C67" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="D67" s="17" t="s">
         <v>351</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -4610,10 +4610,10 @@
         <v>21</v>
       </c>
       <c r="C68" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="D68" s="19" t="s">
         <v>353</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>354</v>
       </c>
       <c r="E68" s="9"/>
     </row>
@@ -4625,10 +4625,10 @@
         <v>22</v>
       </c>
       <c r="C69" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="D69" s="17" t="s">
         <v>355</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4639,7 +4639,7 @@
         <v>22</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D70" s="17" t="s">
         <v>23</v>
@@ -4653,7 +4653,7 @@
         <v>22</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D71" s="17" t="s">
         <v>24</v>
@@ -4667,10 +4667,10 @@
         <v>22</v>
       </c>
       <c r="C72" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="D72" s="19" t="s">
         <v>359</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>360</v>
       </c>
       <c r="E72" s="9"/>
     </row>
@@ -4682,10 +4682,10 @@
         <v>25</v>
       </c>
       <c r="C73" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="D73" s="17" t="s">
         <v>361</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>362</v>
       </c>
       <c r="E73" s="9"/>
     </row>
@@ -4697,7 +4697,7 @@
         <v>25</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D74" s="17" t="s">
         <v>26</v>
@@ -4711,10 +4711,10 @@
         <v>25</v>
       </c>
       <c r="C75" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="D75" s="20" t="s">
         <v>364</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -4725,10 +4725,10 @@
         <v>25</v>
       </c>
       <c r="C76" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D76" s="19" t="s">
         <v>366</v>
-      </c>
-      <c r="D76" s="19" t="s">
-        <v>367</v>
       </c>
       <c r="E76" s="9"/>
     </row>
@@ -4740,10 +4740,10 @@
         <v>27</v>
       </c>
       <c r="C77" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="D77" s="22" t="s">
         <v>368</v>
-      </c>
-      <c r="D77" s="22" t="s">
-        <v>369</v>
       </c>
       <c r="E77" s="9"/>
     </row>
@@ -4755,10 +4755,10 @@
         <v>28</v>
       </c>
       <c r="C78" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="D78" s="17" t="s">
         <v>370</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -4769,10 +4769,10 @@
         <v>28</v>
       </c>
       <c r="C79" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="D79" s="19" t="s">
         <v>372</v>
-      </c>
-      <c r="D79" s="19" t="s">
-        <v>373</v>
       </c>
       <c r="E79" s="9"/>
     </row>
@@ -4784,10 +4784,10 @@
         <v>29</v>
       </c>
       <c r="C80" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="D80" s="20" t="s">
         <v>374</v>
-      </c>
-      <c r="D80" s="20" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4798,7 +4798,7 @@
         <v>29</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D81" s="20" t="s">
         <v>30</v>
@@ -4812,10 +4812,10 @@
         <v>29</v>
       </c>
       <c r="C82" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="D82" s="20" t="s">
         <v>377</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="83" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4826,10 +4826,10 @@
         <v>29</v>
       </c>
       <c r="C83" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="D83" s="20" t="s">
         <v>379</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4840,7 +4840,7 @@
         <v>29</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D84" s="17" t="s">
         <v>31</v>
@@ -4855,13 +4855,13 @@
         <v>29</v>
       </c>
       <c r="C85" s="20" t="s">
+        <v>757</v>
+      </c>
+      <c r="D85" s="17" t="s">
         <v>758</v>
       </c>
-      <c r="D85" s="17" t="s">
-        <v>759</v>
-      </c>
       <c r="E85" s="10" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="86" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4872,10 +4872,10 @@
         <v>29</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E86" s="10"/>
     </row>
@@ -4887,10 +4887,10 @@
         <v>29</v>
       </c>
       <c r="C87" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="D87" s="20" t="s">
         <v>383</v>
-      </c>
-      <c r="D87" s="20" t="s">
-        <v>384</v>
       </c>
       <c r="E87" s="10"/>
     </row>
@@ -4902,10 +4902,10 @@
         <v>29</v>
       </c>
       <c r="C88" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="D88" s="20" t="s">
         <v>385</v>
-      </c>
-      <c r="D88" s="20" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4916,10 +4916,10 @@
         <v>29</v>
       </c>
       <c r="C89" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="D89" s="20" t="s">
         <v>387</v>
-      </c>
-      <c r="D89" s="20" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="90" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4930,10 +4930,10 @@
         <v>29</v>
       </c>
       <c r="C90" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="D90" s="20" t="s">
         <v>389</v>
-      </c>
-      <c r="D90" s="20" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="91" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4944,10 +4944,10 @@
         <v>29</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4958,10 +4958,10 @@
         <v>29</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="93" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4972,10 +4972,10 @@
         <v>29</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4986,10 +4986,10 @@
         <v>29</v>
       </c>
       <c r="C94" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="D94" s="20" t="s">
         <v>391</v>
-      </c>
-      <c r="D94" s="20" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5000,10 +5000,10 @@
         <v>29</v>
       </c>
       <c r="C95" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="D95" s="20" t="s">
         <v>393</v>
-      </c>
-      <c r="D95" s="20" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="96" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5014,10 +5014,10 @@
         <v>29</v>
       </c>
       <c r="C96" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="D96" s="20" t="s">
         <v>395</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="97" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5028,10 +5028,10 @@
         <v>29</v>
       </c>
       <c r="C97" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="D97" s="20" t="s">
         <v>397</v>
-      </c>
-      <c r="D97" s="20" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5056,10 +5056,10 @@
         <v>29</v>
       </c>
       <c r="C99" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="D99" s="20" t="s">
         <v>399</v>
-      </c>
-      <c r="D99" s="20" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -5070,10 +5070,10 @@
         <v>29</v>
       </c>
       <c r="C100" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="D100" s="23" t="s">
         <v>401</v>
-      </c>
-      <c r="D100" s="23" t="s">
-        <v>402</v>
       </c>
       <c r="E100" s="9"/>
     </row>
@@ -5085,13 +5085,13 @@
         <v>34</v>
       </c>
       <c r="C101" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="D101" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="D101" s="20" t="s">
-        <v>404</v>
-      </c>
       <c r="E101" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="102" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5102,13 +5102,13 @@
         <v>34</v>
       </c>
       <c r="C102" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="D102" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="D102" s="20" t="s">
-        <v>406</v>
-      </c>
       <c r="E102" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="103" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5119,13 +5119,13 @@
         <v>34</v>
       </c>
       <c r="C103" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="D103" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="D103" s="20" t="s">
-        <v>408</v>
-      </c>
       <c r="E103" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="104" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5136,13 +5136,13 @@
         <v>34</v>
       </c>
       <c r="C104" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="D104" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="D104" s="20" t="s">
-        <v>410</v>
-      </c>
       <c r="E104" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5153,13 +5153,13 @@
         <v>34</v>
       </c>
       <c r="C105" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="D105" s="20" t="s">
         <v>411</v>
       </c>
-      <c r="D105" s="20" t="s">
-        <v>412</v>
-      </c>
       <c r="E105" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="106" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5170,13 +5170,13 @@
         <v>34</v>
       </c>
       <c r="C106" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="D106" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="D106" s="20" t="s">
-        <v>414</v>
-      </c>
       <c r="E106" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="107" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5187,13 +5187,13 @@
         <v>34</v>
       </c>
       <c r="C107" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="D107" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="D107" s="20" t="s">
-        <v>416</v>
-      </c>
       <c r="E107" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="108" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5204,10 +5204,10 @@
         <v>34</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="109" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5218,10 +5218,10 @@
         <v>34</v>
       </c>
       <c r="C109" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="D109" s="20" t="s">
         <v>417</v>
-      </c>
-      <c r="D109" s="20" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="110" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5232,10 +5232,10 @@
         <v>34</v>
       </c>
       <c r="C110" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="D110" s="20" t="s">
         <v>419</v>
-      </c>
-      <c r="D110" s="20" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="111" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5246,10 +5246,10 @@
         <v>34</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="112" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5260,10 +5260,10 @@
         <v>34</v>
       </c>
       <c r="C112" s="17" t="s">
+        <v>882</v>
+      </c>
+      <c r="D112" s="20" t="s">
         <v>883</v>
-      </c>
-      <c r="D112" s="20" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="113" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5274,10 +5274,10 @@
         <v>34</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="114" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5288,10 +5288,10 @@
         <v>34</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="115" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5302,10 +5302,10 @@
         <v>34</v>
       </c>
       <c r="C115" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="D115" s="20" t="s">
         <v>421</v>
-      </c>
-      <c r="D115" s="20" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="116" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5316,10 +5316,10 @@
         <v>34</v>
       </c>
       <c r="C116" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="D116" s="20" t="s">
         <v>423</v>
-      </c>
-      <c r="D116" s="20" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="117" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5330,13 +5330,13 @@
         <v>34</v>
       </c>
       <c r="C117" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="D117" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="D117" s="20" t="s">
-        <v>426</v>
-      </c>
       <c r="E117" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="118" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5347,7 +5347,7 @@
         <v>34</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D118" s="17" t="s">
         <v>35</v>
@@ -5361,7 +5361,7 @@
         <v>34</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D119" s="17" t="s">
         <v>36</v>
@@ -5375,13 +5375,13 @@
         <v>34</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D120" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="121" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5392,13 +5392,13 @@
         <v>34</v>
       </c>
       <c r="C121" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="D121" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="D121" s="20" t="s">
-        <v>431</v>
-      </c>
       <c r="E121" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="122" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -5409,13 +5409,13 @@
         <v>34</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D122" s="23" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="123" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5426,10 +5426,10 @@
         <v>38</v>
       </c>
       <c r="C123" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="D123" s="20" t="s">
         <v>433</v>
-      </c>
-      <c r="D123" s="20" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="124" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5440,10 +5440,10 @@
         <v>38</v>
       </c>
       <c r="C124" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="D124" s="20" t="s">
         <v>435</v>
-      </c>
-      <c r="D124" s="20" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="125" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5454,10 +5454,10 @@
         <v>38</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D125" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="126" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5468,10 +5468,10 @@
         <v>38</v>
       </c>
       <c r="C126" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="D126" s="20" t="s">
         <v>438</v>
-      </c>
-      <c r="D126" s="20" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="127" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5482,10 +5482,10 @@
         <v>38</v>
       </c>
       <c r="C127" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="D127" s="20" t="s">
         <v>440</v>
-      </c>
-      <c r="D127" s="20" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="128" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5496,10 +5496,10 @@
         <v>38</v>
       </c>
       <c r="C128" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="D128" s="20" t="s">
         <v>442</v>
-      </c>
-      <c r="D128" s="20" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="129" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5510,10 +5510,10 @@
         <v>38</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D129" s="20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="130" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5524,10 +5524,10 @@
         <v>38</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D130" s="20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="131" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5538,10 +5538,10 @@
         <v>38</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="132" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5552,10 +5552,10 @@
         <v>38</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="133" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5566,10 +5566,10 @@
         <v>38</v>
       </c>
       <c r="C133" s="29" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D133" s="20" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="134" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5580,10 +5580,10 @@
         <v>38</v>
       </c>
       <c r="C134" s="29" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="135" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5594,10 +5594,10 @@
         <v>38</v>
       </c>
       <c r="C135" s="29" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="136" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5608,10 +5608,10 @@
         <v>38</v>
       </c>
       <c r="C136" s="29" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D136" s="20" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="137" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5622,10 +5622,10 @@
         <v>38</v>
       </c>
       <c r="C137" s="29" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="138" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5636,10 +5636,10 @@
         <v>38</v>
       </c>
       <c r="C138" s="29" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D138" s="20" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="139" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5650,10 +5650,10 @@
         <v>38</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D139" s="32" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E139" s="33"/>
     </row>
@@ -5665,7 +5665,7 @@
         <v>38</v>
       </c>
       <c r="C140" s="32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D140" s="34" t="s">
         <v>39</v>
@@ -5680,10 +5680,10 @@
         <v>38</v>
       </c>
       <c r="C141" s="32" t="s">
+        <v>444</v>
+      </c>
+      <c r="D141" s="32" t="s">
         <v>445</v>
-      </c>
-      <c r="D141" s="32" t="s">
-        <v>446</v>
       </c>
       <c r="E141" s="33"/>
     </row>
@@ -5695,7 +5695,7 @@
         <v>38</v>
       </c>
       <c r="C142" s="36" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D142" s="37" t="s">
         <v>40</v>
@@ -5710,10 +5710,10 @@
         <v>41</v>
       </c>
       <c r="C143" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="D143" s="32" t="s">
         <v>448</v>
-      </c>
-      <c r="D143" s="32" t="s">
-        <v>449</v>
       </c>
       <c r="E143" s="33"/>
     </row>
@@ -5725,10 +5725,10 @@
         <v>41</v>
       </c>
       <c r="C144" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="D144" s="32" t="s">
         <v>450</v>
-      </c>
-      <c r="D144" s="32" t="s">
-        <v>451</v>
       </c>
       <c r="E144" s="33"/>
     </row>
@@ -5740,10 +5740,10 @@
         <v>41</v>
       </c>
       <c r="C145" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="D145" s="32" t="s">
         <v>452</v>
-      </c>
-      <c r="D145" s="32" t="s">
-        <v>453</v>
       </c>
       <c r="E145" s="33"/>
     </row>
@@ -5755,10 +5755,10 @@
         <v>41</v>
       </c>
       <c r="C146" s="32" t="s">
+        <v>453</v>
+      </c>
+      <c r="D146" s="32" t="s">
         <v>454</v>
-      </c>
-      <c r="D146" s="32" t="s">
-        <v>455</v>
       </c>
       <c r="E146" s="33"/>
     </row>
@@ -5770,10 +5770,10 @@
         <v>41</v>
       </c>
       <c r="C147" s="32" t="s">
+        <v>455</v>
+      </c>
+      <c r="D147" s="32" t="s">
         <v>456</v>
-      </c>
-      <c r="D147" s="32" t="s">
-        <v>457</v>
       </c>
       <c r="E147" s="33"/>
     </row>
@@ -5785,10 +5785,10 @@
         <v>41</v>
       </c>
       <c r="C148" s="32" t="s">
+        <v>457</v>
+      </c>
+      <c r="D148" s="32" t="s">
         <v>458</v>
-      </c>
-      <c r="D148" s="32" t="s">
-        <v>459</v>
       </c>
       <c r="E148" s="33"/>
     </row>
@@ -5800,7 +5800,7 @@
         <v>41</v>
       </c>
       <c r="C149" s="32" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D149" s="34" t="s">
         <v>42</v>
@@ -5815,10 +5815,10 @@
         <v>41</v>
       </c>
       <c r="C150" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="D150" s="32" t="s">
         <v>461</v>
-      </c>
-      <c r="D150" s="32" t="s">
-        <v>462</v>
       </c>
       <c r="E150" s="33"/>
     </row>
@@ -5830,10 +5830,10 @@
         <v>41</v>
       </c>
       <c r="C151" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="D151" s="32" t="s">
         <v>463</v>
-      </c>
-      <c r="D151" s="32" t="s">
-        <v>464</v>
       </c>
       <c r="E151" s="33"/>
     </row>
@@ -5845,10 +5845,10 @@
         <v>41</v>
       </c>
       <c r="C152" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="D152" s="32" t="s">
         <v>465</v>
-      </c>
-      <c r="D152" s="32" t="s">
-        <v>466</v>
       </c>
       <c r="E152" s="33"/>
     </row>
@@ -5860,10 +5860,10 @@
         <v>41</v>
       </c>
       <c r="C153" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="D153" s="32" t="s">
         <v>467</v>
-      </c>
-      <c r="D153" s="32" t="s">
-        <v>468</v>
       </c>
       <c r="E153" s="33"/>
     </row>
@@ -5875,10 +5875,10 @@
         <v>41</v>
       </c>
       <c r="C154" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="D154" s="32" t="s">
         <v>469</v>
-      </c>
-      <c r="D154" s="32" t="s">
-        <v>470</v>
       </c>
       <c r="E154" s="33"/>
     </row>
@@ -5890,10 +5890,10 @@
         <v>41</v>
       </c>
       <c r="C155" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="D155" s="32" t="s">
         <v>471</v>
-      </c>
-      <c r="D155" s="32" t="s">
-        <v>472</v>
       </c>
       <c r="E155" s="33"/>
     </row>
@@ -5905,10 +5905,10 @@
         <v>41</v>
       </c>
       <c r="C156" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="D156" s="32" t="s">
         <v>473</v>
-      </c>
-      <c r="D156" s="32" t="s">
-        <v>474</v>
       </c>
       <c r="E156" s="33"/>
     </row>
@@ -5920,10 +5920,10 @@
         <v>41</v>
       </c>
       <c r="C157" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="D157" s="32" t="s">
         <v>475</v>
-      </c>
-      <c r="D157" s="32" t="s">
-        <v>476</v>
       </c>
       <c r="E157" s="33"/>
     </row>
@@ -5935,13 +5935,13 @@
         <v>41</v>
       </c>
       <c r="C158" s="32" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D158" s="32" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="159" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5952,10 +5952,10 @@
         <v>41</v>
       </c>
       <c r="C159" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="D159" s="32" t="s">
         <v>477</v>
-      </c>
-      <c r="D159" s="32" t="s">
-        <v>478</v>
       </c>
       <c r="E159" s="33"/>
     </row>
@@ -5967,10 +5967,10 @@
         <v>41</v>
       </c>
       <c r="C160" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="D160" s="32" t="s">
         <v>479</v>
-      </c>
-      <c r="D160" s="32" t="s">
-        <v>480</v>
       </c>
       <c r="E160" s="33"/>
     </row>
@@ -5982,10 +5982,10 @@
         <v>41</v>
       </c>
       <c r="C161" s="32" t="s">
+        <v>480</v>
+      </c>
+      <c r="D161" s="32" t="s">
         <v>481</v>
-      </c>
-      <c r="D161" s="32" t="s">
-        <v>482</v>
       </c>
       <c r="E161" s="33"/>
     </row>
@@ -5997,10 +5997,10 @@
         <v>41</v>
       </c>
       <c r="C162" s="32" t="s">
+        <v>482</v>
+      </c>
+      <c r="D162" s="32" t="s">
         <v>483</v>
-      </c>
-      <c r="D162" s="32" t="s">
-        <v>484</v>
       </c>
       <c r="E162" s="33"/>
     </row>
@@ -6012,10 +6012,10 @@
         <v>41</v>
       </c>
       <c r="C163" s="32" t="s">
+        <v>484</v>
+      </c>
+      <c r="D163" s="32" t="s">
         <v>485</v>
-      </c>
-      <c r="D163" s="32" t="s">
-        <v>486</v>
       </c>
       <c r="E163" s="33"/>
     </row>
@@ -6027,7 +6027,7 @@
         <v>41</v>
       </c>
       <c r="C164" s="32" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D164" s="32" t="s">
         <v>49</v>
@@ -6042,7 +6042,7 @@
         <v>41</v>
       </c>
       <c r="C165" s="32" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D165" s="34" t="s">
         <v>43</v>
@@ -6057,10 +6057,10 @@
         <v>41</v>
       </c>
       <c r="C166" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="D166" s="32" t="s">
         <v>489</v>
-      </c>
-      <c r="D166" s="32" t="s">
-        <v>490</v>
       </c>
       <c r="E166" s="33"/>
     </row>
@@ -6072,10 +6072,10 @@
         <v>41</v>
       </c>
       <c r="C167" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="D167" s="32" t="s">
         <v>491</v>
-      </c>
-      <c r="D167" s="32" t="s">
-        <v>492</v>
       </c>
       <c r="E167" s="33"/>
     </row>
@@ -6087,7 +6087,7 @@
         <v>41</v>
       </c>
       <c r="C168" s="32" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D168" s="32" t="s">
         <v>44</v>
@@ -6102,7 +6102,7 @@
         <v>41</v>
       </c>
       <c r="C169" s="32" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D169" s="34" t="s">
         <v>45</v>
@@ -6117,10 +6117,10 @@
         <v>41</v>
       </c>
       <c r="C170" s="32" t="s">
+        <v>494</v>
+      </c>
+      <c r="D170" s="32" t="s">
         <v>495</v>
-      </c>
-      <c r="D170" s="32" t="s">
-        <v>496</v>
       </c>
       <c r="E170" s="33"/>
     </row>
@@ -6132,10 +6132,10 @@
         <v>41</v>
       </c>
       <c r="C171" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="D171" s="32" t="s">
         <v>497</v>
-      </c>
-      <c r="D171" s="32" t="s">
-        <v>498</v>
       </c>
       <c r="E171" s="33"/>
     </row>
@@ -6147,10 +6147,10 @@
         <v>41</v>
       </c>
       <c r="C172" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="D172" s="32" t="s">
         <v>499</v>
-      </c>
-      <c r="D172" s="32" t="s">
-        <v>500</v>
       </c>
       <c r="E172" s="33"/>
     </row>
@@ -6162,7 +6162,7 @@
         <v>41</v>
       </c>
       <c r="C173" s="32" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D173" s="34" t="s">
         <v>46</v>
@@ -6177,10 +6177,10 @@
         <v>41</v>
       </c>
       <c r="C174" s="32" t="s">
+        <v>501</v>
+      </c>
+      <c r="D174" s="32" t="s">
         <v>502</v>
-      </c>
-      <c r="D174" s="32" t="s">
-        <v>503</v>
       </c>
       <c r="E174" s="33"/>
     </row>
@@ -6192,10 +6192,10 @@
         <v>41</v>
       </c>
       <c r="C175" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="D175" s="32" t="s">
         <v>504</v>
-      </c>
-      <c r="D175" s="32" t="s">
-        <v>505</v>
       </c>
       <c r="E175" s="33"/>
     </row>
@@ -6207,10 +6207,10 @@
         <v>41</v>
       </c>
       <c r="C176" s="32" t="s">
+        <v>505</v>
+      </c>
+      <c r="D176" s="32" t="s">
         <v>506</v>
-      </c>
-      <c r="D176" s="32" t="s">
-        <v>507</v>
       </c>
       <c r="E176" s="33"/>
     </row>
@@ -6222,10 +6222,10 @@
         <v>41</v>
       </c>
       <c r="C177" s="32" t="s">
+        <v>507</v>
+      </c>
+      <c r="D177" s="32" t="s">
         <v>508</v>
-      </c>
-      <c r="D177" s="32" t="s">
-        <v>509</v>
       </c>
       <c r="E177" s="33"/>
     </row>
@@ -6237,10 +6237,10 @@
         <v>41</v>
       </c>
       <c r="C178" s="32" t="s">
+        <v>509</v>
+      </c>
+      <c r="D178" s="32" t="s">
         <v>510</v>
-      </c>
-      <c r="D178" s="32" t="s">
-        <v>511</v>
       </c>
       <c r="E178" s="33"/>
     </row>
@@ -6252,10 +6252,10 @@
         <v>41</v>
       </c>
       <c r="C179" s="32" t="s">
+        <v>511</v>
+      </c>
+      <c r="D179" s="32" t="s">
         <v>512</v>
-      </c>
-      <c r="D179" s="32" t="s">
-        <v>513</v>
       </c>
       <c r="E179" s="33"/>
     </row>
@@ -6267,10 +6267,10 @@
         <v>41</v>
       </c>
       <c r="C180" s="32" t="s">
+        <v>513</v>
+      </c>
+      <c r="D180" s="32" t="s">
         <v>514</v>
-      </c>
-      <c r="D180" s="32" t="s">
-        <v>515</v>
       </c>
       <c r="E180" s="33"/>
     </row>
@@ -6282,10 +6282,10 @@
         <v>41</v>
       </c>
       <c r="C181" s="32" t="s">
+        <v>515</v>
+      </c>
+      <c r="D181" s="32" t="s">
         <v>516</v>
-      </c>
-      <c r="D181" s="32" t="s">
-        <v>517</v>
       </c>
       <c r="E181" s="33"/>
     </row>
@@ -6297,10 +6297,10 @@
         <v>41</v>
       </c>
       <c r="C182" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="D182" s="32" t="s">
         <v>518</v>
-      </c>
-      <c r="D182" s="32" t="s">
-        <v>519</v>
       </c>
       <c r="E182" s="33"/>
     </row>
@@ -6312,7 +6312,7 @@
         <v>41</v>
       </c>
       <c r="C183" s="32" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D183" s="34" t="s">
         <v>47</v>
@@ -6327,10 +6327,10 @@
         <v>41</v>
       </c>
       <c r="C184" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="D184" s="32" t="s">
         <v>521</v>
-      </c>
-      <c r="D184" s="32" t="s">
-        <v>522</v>
       </c>
       <c r="E184" s="33"/>
     </row>
@@ -6342,10 +6342,10 @@
         <v>41</v>
       </c>
       <c r="C185" s="32" t="s">
+        <v>522</v>
+      </c>
+      <c r="D185" s="32" t="s">
         <v>523</v>
-      </c>
-      <c r="D185" s="32" t="s">
-        <v>524</v>
       </c>
       <c r="E185" s="33"/>
     </row>
@@ -6357,10 +6357,10 @@
         <v>41</v>
       </c>
       <c r="C186" s="32" t="s">
+        <v>751</v>
+      </c>
+      <c r="D186" s="32" t="s">
         <v>752</v>
-      </c>
-      <c r="D186" s="32" t="s">
-        <v>753</v>
       </c>
       <c r="E186" s="33"/>
     </row>
@@ -6372,10 +6372,10 @@
         <v>41</v>
       </c>
       <c r="C187" s="32" t="s">
+        <v>524</v>
+      </c>
+      <c r="D187" s="32" t="s">
         <v>525</v>
-      </c>
-      <c r="D187" s="32" t="s">
-        <v>526</v>
       </c>
       <c r="E187" s="33"/>
     </row>
@@ -6387,10 +6387,10 @@
         <v>41</v>
       </c>
       <c r="C188" s="32" t="s">
+        <v>526</v>
+      </c>
+      <c r="D188" s="32" t="s">
         <v>527</v>
-      </c>
-      <c r="D188" s="32" t="s">
-        <v>528</v>
       </c>
       <c r="E188" s="33"/>
     </row>
@@ -6402,10 +6402,10 @@
         <v>41</v>
       </c>
       <c r="C189" s="32" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D189" s="34" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E189" s="33"/>
     </row>
@@ -6417,10 +6417,10 @@
         <v>41</v>
       </c>
       <c r="C190" s="32" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D190" s="34" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E190" s="33"/>
     </row>
@@ -6432,10 +6432,10 @@
         <v>41</v>
       </c>
       <c r="C191" s="32" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D191" s="34" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E191" s="33"/>
     </row>
@@ -6447,10 +6447,10 @@
         <v>41</v>
       </c>
       <c r="C192" s="32" t="s">
+        <v>839</v>
+      </c>
+      <c r="D192" s="34" t="s">
         <v>840</v>
-      </c>
-      <c r="D192" s="34" t="s">
-        <v>841</v>
       </c>
       <c r="E192" s="33"/>
     </row>
@@ -6462,10 +6462,10 @@
         <v>41</v>
       </c>
       <c r="C193" s="32" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D193" s="34" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E193" s="33"/>
     </row>
@@ -6477,10 +6477,10 @@
         <v>41</v>
       </c>
       <c r="C194" s="32" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D194" s="34" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E194" s="33"/>
     </row>
@@ -6492,10 +6492,10 @@
         <v>41</v>
       </c>
       <c r="C195" s="32" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D195" s="34" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E195" s="33"/>
     </row>
@@ -6507,7 +6507,7 @@
         <v>41</v>
       </c>
       <c r="C196" s="32" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D196" s="34" t="s">
         <v>48</v>
@@ -6522,7 +6522,7 @@
         <v>41</v>
       </c>
       <c r="C197" s="36" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D197" s="37" t="s">
         <v>49</v>
@@ -6537,10 +6537,10 @@
         <v>50</v>
       </c>
       <c r="C198" s="32" t="s">
+        <v>531</v>
+      </c>
+      <c r="D198" s="32" t="s">
         <v>532</v>
-      </c>
-      <c r="D198" s="32" t="s">
-        <v>533</v>
       </c>
       <c r="E198" s="33"/>
     </row>
@@ -6552,7 +6552,7 @@
         <v>50</v>
       </c>
       <c r="C199" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D199" s="32" t="s">
         <v>51</v>
@@ -6567,10 +6567,10 @@
         <v>50</v>
       </c>
       <c r="C200" s="32" t="s">
+        <v>534</v>
+      </c>
+      <c r="D200" s="32" t="s">
         <v>535</v>
-      </c>
-      <c r="D200" s="32" t="s">
-        <v>536</v>
       </c>
       <c r="E200" s="33"/>
     </row>
@@ -6582,10 +6582,10 @@
         <v>50</v>
       </c>
       <c r="C201" s="32" t="s">
+        <v>536</v>
+      </c>
+      <c r="D201" s="32" t="s">
         <v>537</v>
-      </c>
-      <c r="D201" s="32" t="s">
-        <v>538</v>
       </c>
       <c r="E201" s="33"/>
     </row>
@@ -6597,10 +6597,10 @@
         <v>50</v>
       </c>
       <c r="C202" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D202" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E202" s="33"/>
     </row>
@@ -6612,10 +6612,10 @@
         <v>50</v>
       </c>
       <c r="C203" s="32" t="s">
+        <v>539</v>
+      </c>
+      <c r="D203" s="32" t="s">
         <v>540</v>
-      </c>
-      <c r="D203" s="32" t="s">
-        <v>541</v>
       </c>
       <c r="E203" s="33"/>
     </row>
@@ -6627,10 +6627,10 @@
         <v>50</v>
       </c>
       <c r="C204" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="D204" s="32" t="s">
         <v>542</v>
-      </c>
-      <c r="D204" s="32" t="s">
-        <v>543</v>
       </c>
       <c r="E204" s="33"/>
     </row>
@@ -6642,10 +6642,10 @@
         <v>50</v>
       </c>
       <c r="C205" s="32" t="s">
+        <v>543</v>
+      </c>
+      <c r="D205" s="32" t="s">
         <v>544</v>
-      </c>
-      <c r="D205" s="32" t="s">
-        <v>545</v>
       </c>
       <c r="E205" s="33"/>
     </row>
@@ -6657,10 +6657,10 @@
         <v>50</v>
       </c>
       <c r="C206" s="32" t="s">
+        <v>545</v>
+      </c>
+      <c r="D206" s="32" t="s">
         <v>546</v>
-      </c>
-      <c r="D206" s="32" t="s">
-        <v>547</v>
       </c>
       <c r="E206" s="33"/>
     </row>
@@ -6672,10 +6672,10 @@
         <v>50</v>
       </c>
       <c r="C207" s="32" t="s">
+        <v>547</v>
+      </c>
+      <c r="D207" s="32" t="s">
         <v>548</v>
-      </c>
-      <c r="D207" s="32" t="s">
-        <v>549</v>
       </c>
       <c r="E207" s="33"/>
     </row>
@@ -6687,7 +6687,7 @@
         <v>50</v>
       </c>
       <c r="C208" s="32" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D208" s="32" t="s">
         <v>52</v>
@@ -6702,10 +6702,10 @@
         <v>50</v>
       </c>
       <c r="C209" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="D209" s="32" t="s">
         <v>551</v>
-      </c>
-      <c r="D209" s="32" t="s">
-        <v>552</v>
       </c>
       <c r="E209" s="33"/>
     </row>
@@ -6717,10 +6717,10 @@
         <v>50</v>
       </c>
       <c r="C210" s="32" t="s">
+        <v>552</v>
+      </c>
+      <c r="D210" s="32" t="s">
         <v>553</v>
-      </c>
-      <c r="D210" s="32" t="s">
-        <v>554</v>
       </c>
       <c r="E210" s="33"/>
     </row>
@@ -6732,10 +6732,10 @@
         <v>50</v>
       </c>
       <c r="C211" s="32" t="s">
+        <v>543</v>
+      </c>
+      <c r="D211" s="32" t="s">
         <v>544</v>
-      </c>
-      <c r="D211" s="32" t="s">
-        <v>545</v>
       </c>
       <c r="E211" s="33"/>
     </row>
@@ -6747,7 +6747,7 @@
         <v>50</v>
       </c>
       <c r="C212" s="32" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D212" s="32" t="s">
         <v>53</v>
@@ -6762,10 +6762,10 @@
         <v>50</v>
       </c>
       <c r="C213" s="32" t="s">
+        <v>555</v>
+      </c>
+      <c r="D213" s="32" t="s">
         <v>556</v>
-      </c>
-      <c r="D213" s="32" t="s">
-        <v>557</v>
       </c>
       <c r="E213" s="33"/>
     </row>
@@ -6777,10 +6777,10 @@
         <v>50</v>
       </c>
       <c r="C214" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="D214" s="32" t="s">
         <v>558</v>
-      </c>
-      <c r="D214" s="32" t="s">
-        <v>559</v>
       </c>
       <c r="E214" s="33"/>
     </row>
@@ -6792,10 +6792,10 @@
         <v>50</v>
       </c>
       <c r="C215" s="32" t="s">
+        <v>559</v>
+      </c>
+      <c r="D215" s="32" t="s">
         <v>560</v>
-      </c>
-      <c r="D215" s="32" t="s">
-        <v>561</v>
       </c>
       <c r="E215" s="33"/>
     </row>
@@ -6807,10 +6807,10 @@
         <v>50</v>
       </c>
       <c r="C216" s="32" t="s">
+        <v>561</v>
+      </c>
+      <c r="D216" s="32" t="s">
         <v>562</v>
-      </c>
-      <c r="D216" s="32" t="s">
-        <v>563</v>
       </c>
       <c r="E216" s="33"/>
     </row>
@@ -6822,10 +6822,10 @@
         <v>50</v>
       </c>
       <c r="C217" s="32" t="s">
+        <v>563</v>
+      </c>
+      <c r="D217" s="32" t="s">
         <v>564</v>
-      </c>
-      <c r="D217" s="32" t="s">
-        <v>565</v>
       </c>
       <c r="E217" s="33"/>
     </row>
@@ -6837,10 +6837,10 @@
         <v>50</v>
       </c>
       <c r="C218" s="32" t="s">
+        <v>565</v>
+      </c>
+      <c r="D218" s="32" t="s">
         <v>566</v>
-      </c>
-      <c r="D218" s="32" t="s">
-        <v>567</v>
       </c>
       <c r="E218" s="33"/>
     </row>
@@ -6852,7 +6852,7 @@
         <v>50</v>
       </c>
       <c r="C219" s="32" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D219" s="32" t="s">
         <v>54</v>
@@ -6867,10 +6867,10 @@
         <v>50</v>
       </c>
       <c r="C220" s="32" t="s">
+        <v>568</v>
+      </c>
+      <c r="D220" s="32" t="s">
         <v>569</v>
-      </c>
-      <c r="D220" s="32" t="s">
-        <v>570</v>
       </c>
       <c r="E220" s="33"/>
     </row>
@@ -6882,10 +6882,10 @@
         <v>50</v>
       </c>
       <c r="C221" s="32" t="s">
+        <v>570</v>
+      </c>
+      <c r="D221" s="32" t="s">
         <v>571</v>
-      </c>
-      <c r="D221" s="32" t="s">
-        <v>572</v>
       </c>
       <c r="E221" s="33"/>
     </row>
@@ -6897,7 +6897,7 @@
         <v>50</v>
       </c>
       <c r="C222" s="32" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D222" s="32" t="s">
         <v>55</v>
@@ -6912,7 +6912,7 @@
         <v>50</v>
       </c>
       <c r="C223" s="32" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D223" s="32" t="s">
         <v>56</v>
@@ -6927,10 +6927,10 @@
         <v>50</v>
       </c>
       <c r="C224" s="32" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D224" s="32" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E224" s="33"/>
     </row>
@@ -6942,10 +6942,10 @@
         <v>50</v>
       </c>
       <c r="C225" s="32" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D225" s="32" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E225" s="33"/>
     </row>
@@ -6957,10 +6957,10 @@
         <v>50</v>
       </c>
       <c r="C226" s="32" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D226" s="32" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E226" s="33"/>
     </row>
@@ -6972,10 +6972,10 @@
         <v>50</v>
       </c>
       <c r="C227" s="32" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D227" s="32" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E227" s="33"/>
     </row>
@@ -6987,10 +6987,10 @@
         <v>50</v>
       </c>
       <c r="C228" s="32" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D228" s="32" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E228" s="33"/>
     </row>
@@ -7002,10 +7002,10 @@
         <v>50</v>
       </c>
       <c r="C229" s="32" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D229" s="32" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E229" s="33"/>
     </row>
@@ -7017,10 +7017,10 @@
         <v>50</v>
       </c>
       <c r="C230" s="32" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D230" s="32" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E230" s="33"/>
     </row>
@@ -7032,10 +7032,10 @@
         <v>50</v>
       </c>
       <c r="C231" s="32" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D231" s="32" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E231" s="33"/>
     </row>
@@ -7047,10 +7047,10 @@
         <v>50</v>
       </c>
       <c r="C232" s="32" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D232" s="39" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E232" s="33"/>
     </row>
@@ -7062,10 +7062,10 @@
         <v>50</v>
       </c>
       <c r="C233" s="32" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D233" s="39" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E233" s="33"/>
     </row>
@@ -7077,10 +7077,10 @@
         <v>50</v>
       </c>
       <c r="C234" s="32" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D234" s="32" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E234" s="33"/>
     </row>
@@ -7092,10 +7092,10 @@
         <v>50</v>
       </c>
       <c r="C235" s="32" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D235" s="32" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E235" s="33"/>
     </row>
@@ -7107,10 +7107,10 @@
         <v>50</v>
       </c>
       <c r="C236" s="32" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D236" s="32" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E236" s="33"/>
     </row>
@@ -7122,10 +7122,10 @@
         <v>50</v>
       </c>
       <c r="C237" s="32" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D237" s="32" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E237" s="33"/>
     </row>
@@ -7137,10 +7137,10 @@
         <v>50</v>
       </c>
       <c r="C238" s="32" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D238" s="32" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E238" s="33"/>
     </row>
@@ -7152,10 +7152,10 @@
         <v>50</v>
       </c>
       <c r="C239" s="32" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D239" s="32" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E239" s="33"/>
     </row>
@@ -7167,10 +7167,10 @@
         <v>50</v>
       </c>
       <c r="C240" s="32" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D240" s="32" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E240" s="33"/>
     </row>
@@ -7182,10 +7182,10 @@
         <v>50</v>
       </c>
       <c r="C241" s="32" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D241" s="32" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E241" s="33"/>
     </row>
@@ -7197,10 +7197,10 @@
         <v>50</v>
       </c>
       <c r="C242" s="32" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D242" s="32" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E242" s="33"/>
     </row>
@@ -7212,10 +7212,10 @@
         <v>50</v>
       </c>
       <c r="C243" s="32" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D243" s="39" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E243" s="33"/>
     </row>
@@ -7227,10 +7227,10 @@
         <v>50</v>
       </c>
       <c r="C244" s="32" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D244" s="39" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E244" s="33"/>
     </row>
@@ -7242,10 +7242,10 @@
         <v>50</v>
       </c>
       <c r="C245" s="32" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D245" s="39" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E245" s="33"/>
     </row>
@@ -7257,10 +7257,10 @@
         <v>50</v>
       </c>
       <c r="C246" s="32" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D246" s="39" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E246" s="33"/>
     </row>
@@ -7272,10 +7272,10 @@
         <v>50</v>
       </c>
       <c r="C247" s="32" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D247" s="39" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E247" s="33"/>
     </row>
@@ -7287,10 +7287,10 @@
         <v>50</v>
       </c>
       <c r="C248" s="32" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D248" s="39" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E248" s="33"/>
     </row>
@@ -7302,10 +7302,10 @@
         <v>50</v>
       </c>
       <c r="C249" s="32" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D249" s="39" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E249" s="33"/>
     </row>
@@ -7317,10 +7317,10 @@
         <v>50</v>
       </c>
       <c r="C250" s="32" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D250" s="39" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E250" s="33"/>
     </row>
@@ -7332,10 +7332,10 @@
         <v>50</v>
       </c>
       <c r="C251" s="32" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D251" s="39" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E251" s="33"/>
     </row>
@@ -7347,10 +7347,10 @@
         <v>50</v>
       </c>
       <c r="C252" s="32" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D252" s="39" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E252" s="33"/>
     </row>
@@ -7362,10 +7362,10 @@
         <v>50</v>
       </c>
       <c r="C253" s="32" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D253" s="39" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E253" s="33"/>
     </row>
@@ -7377,10 +7377,10 @@
         <v>50</v>
       </c>
       <c r="C254" s="32" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D254" s="39" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E254" s="33"/>
     </row>
@@ -7392,10 +7392,10 @@
         <v>50</v>
       </c>
       <c r="C255" s="32" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D255" s="39" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E255" s="33"/>
     </row>
@@ -7407,10 +7407,10 @@
         <v>50</v>
       </c>
       <c r="C256" s="32" t="s">
+        <v>574</v>
+      </c>
+      <c r="D256" s="32" t="s">
         <v>575</v>
-      </c>
-      <c r="D256" s="32" t="s">
-        <v>576</v>
       </c>
       <c r="E256" s="33"/>
     </row>
@@ -7422,10 +7422,10 @@
         <v>50</v>
       </c>
       <c r="C257" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="D257" s="32" t="s">
         <v>577</v>
-      </c>
-      <c r="D257" s="32" t="s">
-        <v>578</v>
       </c>
       <c r="E257" s="33"/>
     </row>
@@ -7437,7 +7437,7 @@
         <v>50</v>
       </c>
       <c r="C258" s="32" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D258" s="32" t="s">
         <v>57</v>
@@ -7452,7 +7452,7 @@
         <v>50</v>
       </c>
       <c r="C259" s="32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D259" s="32" t="s">
         <v>58</v>
@@ -7467,10 +7467,10 @@
         <v>50</v>
       </c>
       <c r="C260" s="32" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D260" s="32" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E260" s="33"/>
     </row>
@@ -7482,10 +7482,10 @@
         <v>50</v>
       </c>
       <c r="C261" s="36" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D261" s="32" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E261" s="33"/>
     </row>
@@ -7497,10 +7497,10 @@
         <v>59</v>
       </c>
       <c r="C262" s="32" t="s">
+        <v>582</v>
+      </c>
+      <c r="D262" s="32" t="s">
         <v>583</v>
-      </c>
-      <c r="D262" s="32" t="s">
-        <v>584</v>
       </c>
       <c r="E262" s="33"/>
     </row>
@@ -7512,10 +7512,10 @@
         <v>59</v>
       </c>
       <c r="C263" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="D263" s="32" t="s">
         <v>585</v>
-      </c>
-      <c r="D263" s="32" t="s">
-        <v>586</v>
       </c>
       <c r="E263" s="33"/>
     </row>
@@ -7527,10 +7527,10 @@
         <v>59</v>
       </c>
       <c r="C264" s="32" t="s">
+        <v>586</v>
+      </c>
+      <c r="D264" s="32" t="s">
         <v>587</v>
-      </c>
-      <c r="D264" s="32" t="s">
-        <v>588</v>
       </c>
       <c r="E264" s="33"/>
     </row>
@@ -7542,10 +7542,10 @@
         <v>59</v>
       </c>
       <c r="C265" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="D265" s="32" t="s">
         <v>589</v>
-      </c>
-      <c r="D265" s="32" t="s">
-        <v>590</v>
       </c>
       <c r="E265" s="33"/>
     </row>
@@ -7557,10 +7557,10 @@
         <v>59</v>
       </c>
       <c r="C266" s="32" t="s">
+        <v>590</v>
+      </c>
+      <c r="D266" s="32" t="s">
         <v>591</v>
-      </c>
-      <c r="D266" s="32" t="s">
-        <v>592</v>
       </c>
       <c r="E266" s="33"/>
     </row>
@@ -7572,10 +7572,10 @@
         <v>59</v>
       </c>
       <c r="C267" s="32" t="s">
+        <v>592</v>
+      </c>
+      <c r="D267" s="32" t="s">
         <v>593</v>
-      </c>
-      <c r="D267" s="32" t="s">
-        <v>594</v>
       </c>
       <c r="E267" s="33"/>
     </row>
@@ -7587,10 +7587,10 @@
         <v>59</v>
       </c>
       <c r="C268" s="36" t="s">
+        <v>594</v>
+      </c>
+      <c r="D268" s="32" t="s">
         <v>595</v>
-      </c>
-      <c r="D268" s="32" t="s">
-        <v>596</v>
       </c>
       <c r="E268" s="33"/>
     </row>
@@ -7602,10 +7602,10 @@
         <v>60</v>
       </c>
       <c r="C269" s="32" t="s">
+        <v>596</v>
+      </c>
+      <c r="D269" s="32" t="s">
         <v>597</v>
-      </c>
-      <c r="D269" s="32" t="s">
-        <v>598</v>
       </c>
       <c r="E269" s="33"/>
     </row>
@@ -7617,10 +7617,10 @@
         <v>60</v>
       </c>
       <c r="C270" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="D270" s="32" t="s">
         <v>599</v>
-      </c>
-      <c r="D270" s="32" t="s">
-        <v>600</v>
       </c>
       <c r="E270" s="33"/>
     </row>
@@ -7632,7 +7632,7 @@
         <v>60</v>
       </c>
       <c r="C271" s="32" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D271" s="34" t="s">
         <v>61</v>
@@ -7662,10 +7662,10 @@
         <v>60</v>
       </c>
       <c r="C273" s="36" t="s">
+        <v>601</v>
+      </c>
+      <c r="D273" s="32" t="s">
         <v>602</v>
-      </c>
-      <c r="D273" s="32" t="s">
-        <v>603</v>
       </c>
       <c r="E273" s="33"/>
     </row>
@@ -7677,10 +7677,10 @@
         <v>64</v>
       </c>
       <c r="C274" s="32" t="s">
+        <v>603</v>
+      </c>
+      <c r="D274" s="32" t="s">
         <v>604</v>
-      </c>
-      <c r="D274" s="32" t="s">
-        <v>605</v>
       </c>
       <c r="E274" s="33"/>
     </row>
@@ -7692,10 +7692,10 @@
         <v>64</v>
       </c>
       <c r="C275" s="32" t="s">
+        <v>605</v>
+      </c>
+      <c r="D275" s="32" t="s">
         <v>606</v>
-      </c>
-      <c r="D275" s="32" t="s">
-        <v>607</v>
       </c>
       <c r="E275" s="33"/>
     </row>
@@ -7707,10 +7707,10 @@
         <v>64</v>
       </c>
       <c r="C276" s="32" t="s">
+        <v>607</v>
+      </c>
+      <c r="D276" s="32" t="s">
         <v>608</v>
-      </c>
-      <c r="D276" s="32" t="s">
-        <v>609</v>
       </c>
       <c r="E276" s="33"/>
     </row>
@@ -7722,10 +7722,10 @@
         <v>64</v>
       </c>
       <c r="C277" s="32" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D277" s="32" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E277" s="33"/>
     </row>
@@ -7737,10 +7737,10 @@
         <v>64</v>
       </c>
       <c r="C278" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="D278" s="32" t="s">
         <v>610</v>
-      </c>
-      <c r="D278" s="32" t="s">
-        <v>611</v>
       </c>
       <c r="E278" s="33"/>
     </row>
@@ -7752,10 +7752,10 @@
         <v>64</v>
       </c>
       <c r="C279" s="32" t="s">
+        <v>611</v>
+      </c>
+      <c r="D279" s="32" t="s">
         <v>612</v>
-      </c>
-      <c r="D279" s="32" t="s">
-        <v>613</v>
       </c>
       <c r="E279" s="33"/>
     </row>
@@ -7767,10 +7767,10 @@
         <v>64</v>
       </c>
       <c r="C280" s="32" t="s">
+        <v>613</v>
+      </c>
+      <c r="D280" s="32" t="s">
         <v>614</v>
-      </c>
-      <c r="D280" s="32" t="s">
-        <v>615</v>
       </c>
       <c r="E280" s="33"/>
     </row>
@@ -7782,7 +7782,7 @@
         <v>64</v>
       </c>
       <c r="C281" s="34" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D281" s="34" t="s">
         <v>65</v>
@@ -7797,7 +7797,7 @@
         <v>64</v>
       </c>
       <c r="C282" s="34" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D282" s="34" t="s">
         <v>66</v>
@@ -7812,7 +7812,7 @@
         <v>64</v>
       </c>
       <c r="C283" s="34" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D283" s="34" t="s">
         <v>67</v>
@@ -7827,10 +7827,10 @@
         <v>64</v>
       </c>
       <c r="C284" s="34" t="s">
+        <v>618</v>
+      </c>
+      <c r="D284" s="34" t="s">
         <v>619</v>
-      </c>
-      <c r="D284" s="34" t="s">
-        <v>620</v>
       </c>
       <c r="E284" s="33"/>
     </row>
@@ -7842,10 +7842,10 @@
         <v>64</v>
       </c>
       <c r="C285" s="36" t="s">
+        <v>620</v>
+      </c>
+      <c r="D285" s="32" t="s">
         <v>621</v>
-      </c>
-      <c r="D285" s="32" t="s">
-        <v>622</v>
       </c>
       <c r="E285" s="33"/>
     </row>
@@ -7857,7 +7857,7 @@
         <v>68</v>
       </c>
       <c r="C286" s="32" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D286" s="34" t="s">
         <v>69</v>
@@ -7887,7 +7887,7 @@
         <v>68</v>
       </c>
       <c r="C288" s="32" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D288" s="34" t="s">
         <v>72</v>
@@ -7902,10 +7902,10 @@
         <v>68</v>
       </c>
       <c r="C289" s="32" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D289" s="34" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E289" s="33"/>
     </row>
@@ -7917,10 +7917,10 @@
         <v>68</v>
       </c>
       <c r="C290" s="32" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D290" s="34" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E290" s="33"/>
     </row>
@@ -7932,10 +7932,10 @@
         <v>68</v>
       </c>
       <c r="C291" s="32" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D291" s="34" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E291" s="33"/>
     </row>
@@ -7947,10 +7947,10 @@
         <v>68</v>
       </c>
       <c r="C292" s="32" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D292" s="34" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E292" s="33"/>
     </row>
@@ -7962,10 +7962,10 @@
         <v>68</v>
       </c>
       <c r="C293" s="32" t="s">
+        <v>624</v>
+      </c>
+      <c r="D293" s="32" t="s">
         <v>625</v>
-      </c>
-      <c r="D293" s="32" t="s">
-        <v>626</v>
       </c>
       <c r="E293" s="33"/>
     </row>
@@ -7977,10 +7977,10 @@
         <v>68</v>
       </c>
       <c r="C294" s="36" t="s">
+        <v>626</v>
+      </c>
+      <c r="D294" s="32" t="s">
         <v>627</v>
-      </c>
-      <c r="D294" s="32" t="s">
-        <v>628</v>
       </c>
       <c r="E294" s="33"/>
     </row>
@@ -7992,10 +7992,10 @@
         <v>73</v>
       </c>
       <c r="C295" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="D295" s="32" t="s">
         <v>629</v>
-      </c>
-      <c r="D295" s="32" t="s">
-        <v>630</v>
       </c>
       <c r="E295" s="33"/>
     </row>
@@ -8007,10 +8007,10 @@
         <v>73</v>
       </c>
       <c r="C296" s="32" t="s">
+        <v>630</v>
+      </c>
+      <c r="D296" s="32" t="s">
         <v>631</v>
-      </c>
-      <c r="D296" s="32" t="s">
-        <v>632</v>
       </c>
       <c r="E296" s="33"/>
     </row>
@@ -8022,10 +8022,10 @@
         <v>73</v>
       </c>
       <c r="C297" s="32" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D297" s="32" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E297" s="33"/>
     </row>
@@ -8037,10 +8037,10 @@
         <v>73</v>
       </c>
       <c r="C298" s="32" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D298" s="32" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E298" s="33"/>
     </row>
@@ -8052,10 +8052,10 @@
         <v>73</v>
       </c>
       <c r="C299" s="32" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D299" s="32" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E299" s="33"/>
     </row>
@@ -8067,10 +8067,10 @@
         <v>73</v>
       </c>
       <c r="C300" s="32" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D300" s="32" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E300" s="33"/>
     </row>
@@ -8082,10 +8082,10 @@
         <v>73</v>
       </c>
       <c r="C301" s="32" t="s">
+        <v>632</v>
+      </c>
+      <c r="D301" s="32" t="s">
         <v>633</v>
-      </c>
-      <c r="D301" s="32" t="s">
-        <v>634</v>
       </c>
       <c r="E301" s="33"/>
     </row>
@@ -8097,10 +8097,10 @@
         <v>73</v>
       </c>
       <c r="C302" s="32" t="s">
+        <v>634</v>
+      </c>
+      <c r="D302" s="32" t="s">
         <v>635</v>
-      </c>
-      <c r="D302" s="32" t="s">
-        <v>636</v>
       </c>
       <c r="E302" s="33"/>
     </row>
@@ -8112,10 +8112,10 @@
         <v>73</v>
       </c>
       <c r="C303" s="32" t="s">
+        <v>636</v>
+      </c>
+      <c r="D303" s="32" t="s">
         <v>637</v>
-      </c>
-      <c r="D303" s="32" t="s">
-        <v>638</v>
       </c>
       <c r="E303" s="33"/>
     </row>
@@ -8127,7 +8127,7 @@
         <v>73</v>
       </c>
       <c r="C304" s="32" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D304" s="32" t="s">
         <v>74</v>
@@ -8142,10 +8142,10 @@
         <v>73</v>
       </c>
       <c r="C305" s="32" t="s">
+        <v>639</v>
+      </c>
+      <c r="D305" s="32" t="s">
         <v>640</v>
-      </c>
-      <c r="D305" s="32" t="s">
-        <v>641</v>
       </c>
       <c r="E305" s="33"/>
     </row>
@@ -8157,10 +8157,10 @@
         <v>73</v>
       </c>
       <c r="C306" s="36" t="s">
+        <v>641</v>
+      </c>
+      <c r="D306" s="32" t="s">
         <v>642</v>
-      </c>
-      <c r="D306" s="32" t="s">
-        <v>643</v>
       </c>
       <c r="E306" s="33"/>
     </row>
@@ -8172,10 +8172,10 @@
         <v>75</v>
       </c>
       <c r="C307" s="32" t="s">
+        <v>643</v>
+      </c>
+      <c r="D307" s="32" t="s">
         <v>644</v>
-      </c>
-      <c r="D307" s="32" t="s">
-        <v>645</v>
       </c>
       <c r="E307" s="33"/>
     </row>
@@ -8187,10 +8187,10 @@
         <v>75</v>
       </c>
       <c r="C308" s="32" t="s">
+        <v>645</v>
+      </c>
+      <c r="D308" s="32" t="s">
         <v>646</v>
-      </c>
-      <c r="D308" s="32" t="s">
-        <v>647</v>
       </c>
       <c r="E308" s="33"/>
     </row>
@@ -8202,10 +8202,10 @@
         <v>75</v>
       </c>
       <c r="C309" s="32" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D309" s="32" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E309" s="33"/>
     </row>
@@ -8217,10 +8217,10 @@
         <v>75</v>
       </c>
       <c r="C310" s="32" t="s">
+        <v>647</v>
+      </c>
+      <c r="D310" s="32" t="s">
         <v>648</v>
-      </c>
-      <c r="D310" s="32" t="s">
-        <v>649</v>
       </c>
       <c r="E310" s="33"/>
     </row>
@@ -8232,10 +8232,10 @@
         <v>75</v>
       </c>
       <c r="C311" s="32" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D311" s="32" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E311" s="33"/>
     </row>
@@ -8247,7 +8247,7 @@
         <v>75</v>
       </c>
       <c r="C312" s="32" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D312" s="32" t="s">
         <v>76</v>
@@ -8262,10 +8262,10 @@
         <v>75</v>
       </c>
       <c r="C313" s="32" t="s">
+        <v>853</v>
+      </c>
+      <c r="D313" s="32" t="s">
         <v>854</v>
-      </c>
-      <c r="D313" s="32" t="s">
-        <v>855</v>
       </c>
       <c r="E313" s="33"/>
     </row>
@@ -8277,10 +8277,10 @@
         <v>75</v>
       </c>
       <c r="C314" s="32" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D314" s="32" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E314" s="33"/>
     </row>
@@ -8292,10 +8292,10 @@
         <v>75</v>
       </c>
       <c r="C315" s="32" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D315" s="32" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E315" s="33"/>
     </row>
@@ -8307,10 +8307,10 @@
         <v>75</v>
       </c>
       <c r="C316" s="32" t="s">
+        <v>650</v>
+      </c>
+      <c r="D316" s="32" t="s">
         <v>651</v>
-      </c>
-      <c r="D316" s="32" t="s">
-        <v>652</v>
       </c>
       <c r="E316" s="33"/>
     </row>
@@ -8322,10 +8322,10 @@
         <v>75</v>
       </c>
       <c r="C317" s="32" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D317" s="32" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E317" s="33"/>
     </row>
@@ -8337,10 +8337,10 @@
         <v>75</v>
       </c>
       <c r="C318" s="32" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D318" s="32" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E318" s="33"/>
     </row>
@@ -8352,10 +8352,10 @@
         <v>75</v>
       </c>
       <c r="C319" s="32" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D319" s="32" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E319" s="33"/>
     </row>
@@ -8367,10 +8367,10 @@
         <v>75</v>
       </c>
       <c r="C320" s="32" t="s">
+        <v>652</v>
+      </c>
+      <c r="D320" s="32" t="s">
         <v>653</v>
-      </c>
-      <c r="D320" s="32" t="s">
-        <v>654</v>
       </c>
       <c r="E320" s="33"/>
     </row>
@@ -8382,7 +8382,7 @@
         <v>75</v>
       </c>
       <c r="C321" s="32" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D321" s="32" t="s">
         <v>77</v>
@@ -8397,10 +8397,10 @@
         <v>75</v>
       </c>
       <c r="C322" s="32" t="s">
+        <v>655</v>
+      </c>
+      <c r="D322" s="32" t="s">
         <v>656</v>
-      </c>
-      <c r="D322" s="32" t="s">
-        <v>657</v>
       </c>
       <c r="E322" s="33"/>
     </row>
@@ -8412,10 +8412,10 @@
         <v>75</v>
       </c>
       <c r="C323" s="32" t="s">
+        <v>657</v>
+      </c>
+      <c r="D323" s="32" t="s">
         <v>658</v>
-      </c>
-      <c r="D323" s="32" t="s">
-        <v>659</v>
       </c>
       <c r="E323" s="33"/>
     </row>
@@ -8427,7 +8427,7 @@
         <v>75</v>
       </c>
       <c r="C324" s="36" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D324" s="37" t="s">
         <v>78</v>
@@ -9791,10 +9791,10 @@
         <v>90</v>
       </c>
       <c r="C347" s="34" t="s">
+        <v>975</v>
+      </c>
+      <c r="D347" s="34" t="s">
         <v>125</v>
-      </c>
-      <c r="D347" s="34" t="s">
-        <v>126</v>
       </c>
       <c r="E347" s="33"/>
     </row>
@@ -9806,10 +9806,10 @@
         <v>90</v>
       </c>
       <c r="C348" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D348" s="34" t="s">
         <v>127</v>
-      </c>
-      <c r="D348" s="34" t="s">
-        <v>128</v>
       </c>
       <c r="E348" s="33"/>
     </row>
@@ -9821,10 +9821,10 @@
         <v>90</v>
       </c>
       <c r="C349" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D349" s="34" t="s">
         <v>129</v>
-      </c>
-      <c r="D349" s="34" t="s">
-        <v>130</v>
       </c>
       <c r="E349" s="33"/>
     </row>
@@ -9836,10 +9836,10 @@
         <v>90</v>
       </c>
       <c r="C350" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D350" s="34" t="s">
         <v>131</v>
-      </c>
-      <c r="D350" s="34" t="s">
-        <v>132</v>
       </c>
       <c r="E350" s="33"/>
     </row>
@@ -9851,10 +9851,10 @@
         <v>90</v>
       </c>
       <c r="C351" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D351" s="34" t="s">
         <v>133</v>
-      </c>
-      <c r="D351" s="34" t="s">
-        <v>134</v>
       </c>
       <c r="E351" s="33"/>
     </row>
@@ -9866,10 +9866,10 @@
         <v>90</v>
       </c>
       <c r="C352" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D352" s="34" t="s">
         <v>135</v>
-      </c>
-      <c r="D352" s="34" t="s">
-        <v>136</v>
       </c>
       <c r="E352" s="33"/>
     </row>
@@ -9881,10 +9881,10 @@
         <v>90</v>
       </c>
       <c r="C353" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D353" s="34" t="s">
         <v>137</v>
-      </c>
-      <c r="D353" s="34" t="s">
-        <v>138</v>
       </c>
       <c r="E353" s="33"/>
     </row>
@@ -9896,10 +9896,10 @@
         <v>90</v>
       </c>
       <c r="C354" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D354" s="34" t="s">
         <v>139</v>
-      </c>
-      <c r="D354" s="34" t="s">
-        <v>140</v>
       </c>
       <c r="E354" s="33"/>
     </row>
@@ -9911,10 +9911,10 @@
         <v>90</v>
       </c>
       <c r="C355" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D355" s="34" t="s">
         <v>141</v>
-      </c>
-      <c r="D355" s="34" t="s">
-        <v>142</v>
       </c>
       <c r="E355" s="33"/>
     </row>
@@ -9926,10 +9926,10 @@
         <v>90</v>
       </c>
       <c r="C356" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D356" s="34" t="s">
         <v>143</v>
-      </c>
-      <c r="D356" s="34" t="s">
-        <v>144</v>
       </c>
       <c r="E356" s="33"/>
     </row>
@@ -9941,10 +9941,10 @@
         <v>90</v>
       </c>
       <c r="C357" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D357" s="34" t="s">
         <v>145</v>
-      </c>
-      <c r="D357" s="34" t="s">
-        <v>146</v>
       </c>
       <c r="E357" s="33"/>
     </row>
@@ -9956,10 +9956,10 @@
         <v>90</v>
       </c>
       <c r="C358" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D358" s="34" t="s">
         <v>147</v>
-      </c>
-      <c r="D358" s="34" t="s">
-        <v>148</v>
       </c>
       <c r="E358" s="33"/>
     </row>
@@ -9971,10 +9971,10 @@
         <v>90</v>
       </c>
       <c r="C359" s="34" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D359" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E359" s="33"/>
     </row>
@@ -9986,10 +9986,10 @@
         <v>90</v>
       </c>
       <c r="C360" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D360" s="34" t="s">
         <v>149</v>
-      </c>
-      <c r="D360" s="34" t="s">
-        <v>150</v>
       </c>
       <c r="E360" s="33"/>
     </row>
@@ -10001,10 +10001,10 @@
         <v>90</v>
       </c>
       <c r="C361" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D361" s="34" t="s">
         <v>151</v>
-      </c>
-      <c r="D361" s="34" t="s">
-        <v>152</v>
       </c>
       <c r="E361" s="33"/>
     </row>
@@ -10016,10 +10016,10 @@
         <v>90</v>
       </c>
       <c r="C362" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D362" s="34" t="s">
         <v>153</v>
-      </c>
-      <c r="D362" s="34" t="s">
-        <v>154</v>
       </c>
       <c r="E362" s="33"/>
     </row>
@@ -10031,10 +10031,10 @@
         <v>90</v>
       </c>
       <c r="C363" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="D363" s="34" t="s">
         <v>155</v>
-      </c>
-      <c r="D363" s="34" t="s">
-        <v>156</v>
       </c>
       <c r="E363" s="33"/>
     </row>
@@ -10046,13 +10046,13 @@
         <v>90</v>
       </c>
       <c r="C364" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="D364" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="D364" s="34" t="s">
-        <v>158</v>
-      </c>
       <c r="E364" s="33" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="365" spans="1:1024" ht="35" customHeight="1">
@@ -10063,13 +10063,13 @@
         <v>90</v>
       </c>
       <c r="C365" s="34" t="s">
+        <v>754</v>
+      </c>
+      <c r="D365" s="34" t="s">
+        <v>753</v>
+      </c>
+      <c r="E365" s="33" t="s">
         <v>755</v>
-      </c>
-      <c r="D365" s="34" t="s">
-        <v>754</v>
-      </c>
-      <c r="E365" s="33" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="366" spans="1:1024" ht="35" customHeight="1">
@@ -10080,10 +10080,10 @@
         <v>90</v>
       </c>
       <c r="C366" s="34" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D366" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E366" s="33"/>
     </row>
@@ -10095,10 +10095,10 @@
         <v>90</v>
       </c>
       <c r="C367" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D367" s="34" t="s">
         <v>159</v>
-      </c>
-      <c r="D367" s="34" t="s">
-        <v>160</v>
       </c>
       <c r="E367" s="33"/>
     </row>
@@ -10110,10 +10110,10 @@
         <v>90</v>
       </c>
       <c r="C368" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D368" s="37" t="s">
         <v>161</v>
-      </c>
-      <c r="D368" s="37" t="s">
-        <v>162</v>
       </c>
       <c r="E368" s="38"/>
       <c r="F368" s="3"/>
@@ -11141,16 +11141,16 @@
         <v>368</v>
       </c>
       <c r="B369" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C369" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="C369" s="34" t="s">
+      <c r="D369" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="D369" s="34" t="s">
-        <v>165</v>
-      </c>
       <c r="E369" s="33" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="370" spans="1:5" ht="35" customHeight="1">
@@ -11158,13 +11158,13 @@
         <v>369</v>
       </c>
       <c r="B370" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C370" s="17" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D370" s="17" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E370" s="10"/>
     </row>
@@ -11173,13 +11173,13 @@
         <v>370</v>
       </c>
       <c r="B371" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C371" s="17" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D371" s="17" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E371" s="10"/>
     </row>
@@ -11188,13 +11188,13 @@
         <v>371</v>
       </c>
       <c r="B372" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C372" s="17" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D372" s="17" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E372" s="10"/>
     </row>
@@ -11203,13 +11203,13 @@
         <v>372</v>
       </c>
       <c r="B373" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C373" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D373" s="17" t="s">
         <v>166</v>
-      </c>
-      <c r="D373" s="17" t="s">
-        <v>167</v>
       </c>
       <c r="E373" s="9"/>
     </row>
@@ -11218,13 +11218,13 @@
         <v>373</v>
       </c>
       <c r="B374" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C374" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D374" s="17" t="s">
         <v>168</v>
-      </c>
-      <c r="D374" s="17" t="s">
-        <v>169</v>
       </c>
       <c r="E374" s="10"/>
     </row>
@@ -11233,13 +11233,13 @@
         <v>374</v>
       </c>
       <c r="B375" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C375" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D375" s="17" t="s">
         <v>170</v>
-      </c>
-      <c r="D375" s="17" t="s">
-        <v>171</v>
       </c>
       <c r="E375" s="10"/>
     </row>
@@ -11248,13 +11248,13 @@
         <v>375</v>
       </c>
       <c r="B376" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C376" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D376" s="17" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E376" s="10"/>
     </row>
@@ -11263,13 +11263,13 @@
         <v>376</v>
       </c>
       <c r="B377" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C377" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D377" s="17" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E377" s="9"/>
     </row>
@@ -11278,13 +11278,13 @@
         <v>377</v>
       </c>
       <c r="B378" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C378" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D378" s="17" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E378" s="9"/>
     </row>
@@ -11293,13 +11293,13 @@
         <v>378</v>
       </c>
       <c r="B379" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C379" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D379" s="17" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E379" s="9"/>
     </row>
@@ -11308,13 +11308,13 @@
         <v>379</v>
       </c>
       <c r="B380" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C380" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D380" s="17" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E380" s="9"/>
     </row>
@@ -11323,13 +11323,13 @@
         <v>380</v>
       </c>
       <c r="B381" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C381" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D381" s="17" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E381" s="9"/>
     </row>
@@ -11338,13 +11338,13 @@
         <v>381</v>
       </c>
       <c r="B382" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C382" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D382" s="17" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E382" s="9"/>
     </row>
@@ -11353,13 +11353,13 @@
         <v>382</v>
       </c>
       <c r="B383" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C383" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D383" s="17" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E383" s="10"/>
     </row>
@@ -11368,13 +11368,13 @@
         <v>383</v>
       </c>
       <c r="B384" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C384" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D384" s="17" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E384" s="10"/>
     </row>
@@ -11383,13 +11383,13 @@
         <v>384</v>
       </c>
       <c r="B385" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C385" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D385" s="17" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E385" s="10"/>
     </row>
@@ -11398,13 +11398,13 @@
         <v>385</v>
       </c>
       <c r="B386" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C386" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D386" s="17" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E386" s="10"/>
     </row>
@@ -11413,13 +11413,13 @@
         <v>386</v>
       </c>
       <c r="B387" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C387" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D387" s="17" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E387" s="10"/>
     </row>
@@ -11428,13 +11428,13 @@
         <v>387</v>
       </c>
       <c r="B388" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C388" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D388" s="17" t="s">
         <v>184</v>
-      </c>
-      <c r="D388" s="17" t="s">
-        <v>185</v>
       </c>
       <c r="E388" s="10"/>
     </row>
@@ -11443,13 +11443,13 @@
         <v>388</v>
       </c>
       <c r="B389" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C389" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D389" s="19" t="s">
         <v>186</v>
-      </c>
-      <c r="D389" s="19" t="s">
-        <v>187</v>
       </c>
       <c r="E389" s="10"/>
       <c r="F389" s="3"/>
@@ -12477,16 +12477,16 @@
         <v>389</v>
       </c>
       <c r="B390" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C390" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C390" s="17" t="s">
+      <c r="D390" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="D390" s="17" t="s">
-        <v>190</v>
-      </c>
       <c r="E390" s="10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="391" spans="1:1024" ht="35" customHeight="1">
@@ -12494,16 +12494,16 @@
         <v>390</v>
       </c>
       <c r="B391" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C391" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D391" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="D391" s="17" t="s">
-        <v>192</v>
-      </c>
       <c r="E391" s="10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="392" spans="1:1024" ht="35" customHeight="1">
@@ -12511,13 +12511,13 @@
         <v>391</v>
       </c>
       <c r="B392" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C392" s="17" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D392" s="17" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E392" s="10"/>
     </row>
@@ -12526,13 +12526,13 @@
         <v>392</v>
       </c>
       <c r="B393" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C393" s="17" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D393" s="17" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E393" s="10"/>
     </row>
@@ -12541,16 +12541,16 @@
         <v>393</v>
       </c>
       <c r="B394" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C394" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D394" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D394" s="17" t="s">
-        <v>194</v>
-      </c>
       <c r="E394" s="10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="395" spans="1:1024" ht="35" customHeight="1">
@@ -12558,16 +12558,16 @@
         <v>394</v>
       </c>
       <c r="B395" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C395" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D395" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="D395" s="17" t="s">
-        <v>196</v>
-      </c>
       <c r="E395" s="10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="396" spans="1:1024" ht="35" customHeight="1">
@@ -12575,16 +12575,16 @@
         <v>395</v>
       </c>
       <c r="B396" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C396" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D396" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D396" s="17" t="s">
-        <v>198</v>
-      </c>
       <c r="E396" s="10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="397" spans="1:1024" ht="35" customHeight="1">
@@ -12592,13 +12592,13 @@
         <v>396</v>
       </c>
       <c r="B397" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C397" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D397" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="D397" s="17" t="s">
-        <v>200</v>
       </c>
       <c r="E397" s="9"/>
     </row>
@@ -12607,13 +12607,13 @@
         <v>397</v>
       </c>
       <c r="B398" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C398" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D398" s="17" t="s">
         <v>201</v>
-      </c>
-      <c r="D398" s="17" t="s">
-        <v>202</v>
       </c>
       <c r="E398" s="9"/>
     </row>
@@ -12622,13 +12622,13 @@
         <v>398</v>
       </c>
       <c r="B399" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C399" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D399" s="17" t="s">
         <v>203</v>
-      </c>
-      <c r="D399" s="17" t="s">
-        <v>204</v>
       </c>
       <c r="E399" s="9"/>
     </row>
@@ -12637,13 +12637,13 @@
         <v>399</v>
       </c>
       <c r="B400" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C400" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="D400" s="17" t="s">
         <v>205</v>
-      </c>
-      <c r="D400" s="17" t="s">
-        <v>206</v>
       </c>
       <c r="E400" s="9"/>
     </row>
@@ -12652,13 +12652,13 @@
         <v>400</v>
       </c>
       <c r="B401" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C401" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D401" s="17" t="s">
         <v>207</v>
-      </c>
-      <c r="D401" s="17" t="s">
-        <v>208</v>
       </c>
       <c r="E401" s="9"/>
     </row>
@@ -12667,13 +12667,13 @@
         <v>401</v>
       </c>
       <c r="B402" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C402" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="D402" s="17" t="s">
         <v>209</v>
-      </c>
-      <c r="D402" s="17" t="s">
-        <v>210</v>
       </c>
       <c r="E402" s="9"/>
     </row>
@@ -12682,13 +12682,13 @@
         <v>402</v>
       </c>
       <c r="B403" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C403" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D403" s="17" t="s">
         <v>211</v>
-      </c>
-      <c r="D403" s="17" t="s">
-        <v>212</v>
       </c>
       <c r="E403" s="10"/>
     </row>
@@ -12697,13 +12697,13 @@
         <v>403</v>
       </c>
       <c r="B404" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C404" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D404" s="17" t="s">
         <v>213</v>
-      </c>
-      <c r="D404" s="17" t="s">
-        <v>214</v>
       </c>
       <c r="E404" s="10"/>
     </row>
@@ -12712,13 +12712,13 @@
         <v>404</v>
       </c>
       <c r="B405" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C405" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D405" s="17" t="s">
         <v>215</v>
-      </c>
-      <c r="D405" s="17" t="s">
-        <v>216</v>
       </c>
       <c r="E405" s="10"/>
     </row>
@@ -12727,13 +12727,13 @@
         <v>405</v>
       </c>
       <c r="B406" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C406" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="D406" s="17" t="s">
         <v>217</v>
-      </c>
-      <c r="D406" s="17" t="s">
-        <v>218</v>
       </c>
       <c r="E406" s="10"/>
     </row>
@@ -12742,13 +12742,13 @@
         <v>406</v>
       </c>
       <c r="B407" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C407" s="20" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D407" s="17" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E407" s="10"/>
     </row>
@@ -12757,13 +12757,13 @@
         <v>407</v>
       </c>
       <c r="B408" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C408" s="20" t="s">
+        <v>855</v>
+      </c>
+      <c r="D408" s="17" t="s">
         <v>856</v>
-      </c>
-      <c r="D408" s="17" t="s">
-        <v>857</v>
       </c>
       <c r="E408" s="10"/>
     </row>
@@ -12772,13 +12772,13 @@
         <v>408</v>
       </c>
       <c r="B409" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C409" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D409" s="17" t="s">
         <v>219</v>
-      </c>
-      <c r="D409" s="17" t="s">
-        <v>220</v>
       </c>
       <c r="E409" s="10"/>
     </row>
@@ -12787,13 +12787,13 @@
         <v>409</v>
       </c>
       <c r="B410" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C410" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D410" s="19" t="s">
         <v>221</v>
-      </c>
-      <c r="D410" s="19" t="s">
-        <v>222</v>
       </c>
       <c r="E410" s="10"/>
       <c r="F410" s="3"/>
@@ -13821,13 +13821,13 @@
         <v>410</v>
       </c>
       <c r="B411" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C411" s="20" t="s">
+        <v>661</v>
+      </c>
+      <c r="D411" s="20" t="s">
         <v>662</v>
-      </c>
-      <c r="D411" s="20" t="s">
-        <v>663</v>
       </c>
       <c r="E411" s="9"/>
     </row>
@@ -13836,13 +13836,13 @@
         <v>411</v>
       </c>
       <c r="B412" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C412" s="20" t="s">
+        <v>663</v>
+      </c>
+      <c r="D412" s="20" t="s">
         <v>664</v>
-      </c>
-      <c r="D412" s="20" t="s">
-        <v>665</v>
       </c>
       <c r="E412" s="9"/>
     </row>
@@ -13851,13 +13851,13 @@
         <v>412</v>
       </c>
       <c r="B413" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C413" s="20" t="s">
+        <v>665</v>
+      </c>
+      <c r="D413" s="20" t="s">
         <v>666</v>
-      </c>
-      <c r="D413" s="20" t="s">
-        <v>667</v>
       </c>
       <c r="E413" s="10"/>
     </row>
@@ -13866,13 +13866,13 @@
         <v>413</v>
       </c>
       <c r="B414" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C414" s="20" t="s">
+        <v>667</v>
+      </c>
+      <c r="D414" s="20" t="s">
         <v>668</v>
-      </c>
-      <c r="D414" s="20" t="s">
-        <v>669</v>
       </c>
       <c r="E414" s="10"/>
     </row>
@@ -13881,13 +13881,13 @@
         <v>414</v>
       </c>
       <c r="B415" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C415" s="20" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D415" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E415" s="10"/>
     </row>
@@ -13896,13 +13896,13 @@
         <v>415</v>
       </c>
       <c r="B416" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C416" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D416" s="20" t="s">
         <v>671</v>
-      </c>
-      <c r="D416" s="20" t="s">
-        <v>672</v>
       </c>
       <c r="E416" s="9"/>
     </row>
@@ -13911,13 +13911,13 @@
         <v>416</v>
       </c>
       <c r="B417" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C417" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D417" s="20" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E417" s="9"/>
     </row>
@@ -13926,13 +13926,13 @@
         <v>417</v>
       </c>
       <c r="B418" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C418" s="20" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D418" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E418" s="9"/>
     </row>
@@ -13941,13 +13941,13 @@
         <v>418</v>
       </c>
       <c r="B419" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C419" s="20" t="s">
+        <v>674</v>
+      </c>
+      <c r="D419" s="20" t="s">
         <v>675</v>
-      </c>
-      <c r="D419" s="20" t="s">
-        <v>676</v>
       </c>
       <c r="E419" s="9"/>
     </row>
@@ -13956,13 +13956,13 @@
         <v>419</v>
       </c>
       <c r="B420" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C420" s="20" t="s">
+        <v>676</v>
+      </c>
+      <c r="D420" s="20" t="s">
         <v>677</v>
-      </c>
-      <c r="D420" s="20" t="s">
-        <v>678</v>
       </c>
       <c r="E420" s="9"/>
     </row>
@@ -13971,13 +13971,13 @@
         <v>420</v>
       </c>
       <c r="B421" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C421" s="20" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D421" s="20" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E421" s="9"/>
     </row>
@@ -13986,13 +13986,13 @@
         <v>421</v>
       </c>
       <c r="B422" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C422" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="D422" s="20" t="s">
         <v>679</v>
-      </c>
-      <c r="D422" s="20" t="s">
-        <v>680</v>
       </c>
       <c r="E422" s="9"/>
     </row>
@@ -14001,13 +14001,13 @@
         <v>422</v>
       </c>
       <c r="B423" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C423" s="20" t="s">
+        <v>680</v>
+      </c>
+      <c r="D423" s="20" t="s">
         <v>681</v>
-      </c>
-      <c r="D423" s="20" t="s">
-        <v>682</v>
       </c>
       <c r="E423" s="10"/>
     </row>
@@ -14016,13 +14016,13 @@
         <v>423</v>
       </c>
       <c r="B424" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C424" s="20" t="s">
+        <v>682</v>
+      </c>
+      <c r="D424" s="20" t="s">
         <v>683</v>
-      </c>
-      <c r="D424" s="20" t="s">
-        <v>684</v>
       </c>
       <c r="E424" s="10"/>
     </row>
@@ -14031,13 +14031,13 @@
         <v>424</v>
       </c>
       <c r="B425" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C425" s="20" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D425" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E425" s="10"/>
     </row>
@@ -14046,13 +14046,13 @@
         <v>425</v>
       </c>
       <c r="B426" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C426" s="23" t="s">
+        <v>685</v>
+      </c>
+      <c r="D426" s="19" t="s">
         <v>223</v>
-      </c>
-      <c r="C426" s="23" t="s">
-        <v>686</v>
-      </c>
-      <c r="D426" s="19" t="s">
-        <v>224</v>
       </c>
       <c r="E426" s="10"/>
       <c r="F426" s="3"/>
@@ -15080,13 +15080,13 @@
         <v>426</v>
       </c>
       <c r="B427" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C427" s="20" t="s">
+        <v>686</v>
+      </c>
+      <c r="D427" s="20" t="s">
         <v>687</v>
-      </c>
-      <c r="D427" s="20" t="s">
-        <v>688</v>
       </c>
       <c r="E427" s="10"/>
     </row>
@@ -15095,13 +15095,13 @@
         <v>427</v>
       </c>
       <c r="B428" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C428" s="20" t="s">
+        <v>688</v>
+      </c>
+      <c r="D428" s="20" t="s">
         <v>689</v>
-      </c>
-      <c r="D428" s="20" t="s">
-        <v>690</v>
       </c>
       <c r="E428" s="10"/>
     </row>
@@ -15110,13 +15110,13 @@
         <v>428</v>
       </c>
       <c r="B429" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C429" s="20" t="s">
+        <v>690</v>
+      </c>
+      <c r="D429" s="20" t="s">
         <v>691</v>
-      </c>
-      <c r="D429" s="20" t="s">
-        <v>692</v>
       </c>
       <c r="E429" s="10"/>
     </row>
@@ -15125,13 +15125,13 @@
         <v>429</v>
       </c>
       <c r="B430" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C430" s="20" t="s">
+        <v>692</v>
+      </c>
+      <c r="D430" s="20" t="s">
         <v>693</v>
-      </c>
-      <c r="D430" s="20" t="s">
-        <v>694</v>
       </c>
       <c r="E430" s="9"/>
     </row>
@@ -15140,13 +15140,13 @@
         <v>430</v>
       </c>
       <c r="B431" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C431" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="D431" s="17" t="s">
         <v>228</v>
-      </c>
-      <c r="C431" s="20" t="s">
-        <v>695</v>
-      </c>
-      <c r="D431" s="17" t="s">
-        <v>229</v>
       </c>
       <c r="E431" s="9"/>
     </row>
@@ -15155,13 +15155,13 @@
         <v>431</v>
       </c>
       <c r="B432" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C432" s="20" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D432" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E432" s="10"/>
     </row>
@@ -15170,13 +15170,13 @@
         <v>432</v>
       </c>
       <c r="B433" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C433" s="20" t="s">
+        <v>696</v>
+      </c>
+      <c r="D433" s="20" t="s">
         <v>697</v>
-      </c>
-      <c r="D433" s="20" t="s">
-        <v>698</v>
       </c>
       <c r="E433" s="10"/>
     </row>
@@ -15185,13 +15185,13 @@
         <v>433</v>
       </c>
       <c r="B434" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C434" s="20" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D434" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E434" s="10"/>
     </row>
@@ -15200,13 +15200,13 @@
         <v>434</v>
       </c>
       <c r="B435" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C435" s="20" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D435" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E435" s="9"/>
     </row>
@@ -15215,13 +15215,13 @@
         <v>435</v>
       </c>
       <c r="B436" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C436" s="20" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D436" s="17" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E436" s="9"/>
     </row>
@@ -15230,13 +15230,13 @@
         <v>436</v>
       </c>
       <c r="B437" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C437" s="20" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D437" s="17" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E437" s="9"/>
     </row>
@@ -15245,16 +15245,16 @@
         <v>437</v>
       </c>
       <c r="B438" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C438" s="20" t="s">
+        <v>700</v>
+      </c>
+      <c r="D438" s="20" t="s">
         <v>701</v>
       </c>
-      <c r="D438" s="20" t="s">
-        <v>702</v>
-      </c>
       <c r="E438" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="439" spans="1:1024" ht="35" customHeight="1">
@@ -15262,13 +15262,13 @@
         <v>438</v>
       </c>
       <c r="B439" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C439" s="20" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D439" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E439" s="9"/>
     </row>
@@ -15277,13 +15277,13 @@
         <v>439</v>
       </c>
       <c r="B440" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C440" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="D440" s="20" t="s">
         <v>704</v>
-      </c>
-      <c r="D440" s="20" t="s">
-        <v>705</v>
       </c>
       <c r="E440" s="9"/>
     </row>
@@ -15292,13 +15292,13 @@
         <v>440</v>
       </c>
       <c r="B441" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C441" s="23" t="s">
+        <v>705</v>
+      </c>
+      <c r="D441" s="23" t="s">
         <v>706</v>
-      </c>
-      <c r="D441" s="23" t="s">
-        <v>707</v>
       </c>
       <c r="E441" s="9"/>
       <c r="F441" s="3"/>
@@ -16326,13 +16326,13 @@
         <v>441</v>
       </c>
       <c r="B442" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C442" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="D442" s="20" t="s">
         <v>708</v>
-      </c>
-      <c r="D442" s="20" t="s">
-        <v>709</v>
       </c>
       <c r="E442" s="9"/>
     </row>
@@ -16341,13 +16341,13 @@
         <v>442</v>
       </c>
       <c r="B443" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C443" s="20" t="s">
+        <v>709</v>
+      </c>
+      <c r="D443" s="20" t="s">
         <v>710</v>
-      </c>
-      <c r="D443" s="20" t="s">
-        <v>711</v>
       </c>
       <c r="E443" s="10"/>
     </row>
@@ -16356,13 +16356,13 @@
         <v>443</v>
       </c>
       <c r="B444" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C444" s="20" t="s">
+        <v>711</v>
+      </c>
+      <c r="D444" s="20" t="s">
         <v>712</v>
-      </c>
-      <c r="D444" s="20" t="s">
-        <v>713</v>
       </c>
       <c r="E444" s="10"/>
     </row>
@@ -16371,13 +16371,13 @@
         <v>444</v>
       </c>
       <c r="B445" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C445" s="20" t="s">
+        <v>713</v>
+      </c>
+      <c r="D445" s="20" t="s">
         <v>714</v>
-      </c>
-      <c r="D445" s="20" t="s">
-        <v>715</v>
       </c>
       <c r="E445" s="10"/>
     </row>
@@ -16386,13 +16386,13 @@
         <v>445</v>
       </c>
       <c r="B446" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C446" s="20" t="s">
+        <v>715</v>
+      </c>
+      <c r="D446" s="20" t="s">
         <v>716</v>
-      </c>
-      <c r="D446" s="20" t="s">
-        <v>717</v>
       </c>
       <c r="E446" s="10"/>
     </row>
@@ -16401,13 +16401,13 @@
         <v>446</v>
       </c>
       <c r="B447" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C447" s="20" t="s">
+        <v>717</v>
+      </c>
+      <c r="D447" s="20" t="s">
         <v>718</v>
-      </c>
-      <c r="D447" s="20" t="s">
-        <v>719</v>
       </c>
       <c r="E447" s="10"/>
     </row>
@@ -16416,13 +16416,13 @@
         <v>447</v>
       </c>
       <c r="B448" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C448" s="20" t="s">
+        <v>719</v>
+      </c>
+      <c r="D448" s="20" t="s">
         <v>720</v>
-      </c>
-      <c r="D448" s="20" t="s">
-        <v>721</v>
       </c>
       <c r="E448" s="10"/>
     </row>
@@ -16431,13 +16431,13 @@
         <v>448</v>
       </c>
       <c r="B449" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C449" s="20" t="s">
+        <v>721</v>
+      </c>
+      <c r="D449" s="20" t="s">
         <v>722</v>
-      </c>
-      <c r="D449" s="20" t="s">
-        <v>723</v>
       </c>
       <c r="E449" s="10"/>
     </row>
@@ -16446,13 +16446,13 @@
         <v>449</v>
       </c>
       <c r="B450" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C450" s="20" t="s">
+        <v>723</v>
+      </c>
+      <c r="D450" s="20" t="s">
         <v>724</v>
-      </c>
-      <c r="D450" s="20" t="s">
-        <v>725</v>
       </c>
       <c r="E450" s="9"/>
     </row>
@@ -16461,13 +16461,13 @@
         <v>450</v>
       </c>
       <c r="B451" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C451" s="23" t="s">
+        <v>725</v>
+      </c>
+      <c r="D451" s="23" t="s">
         <v>726</v>
-      </c>
-      <c r="D451" s="23" t="s">
-        <v>727</v>
       </c>
       <c r="E451" s="9"/>
       <c r="F451" s="3"/>
@@ -17495,13 +17495,13 @@
         <v>451</v>
       </c>
       <c r="B452" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C452" s="29" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D452" s="17" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E452" s="9"/>
       <c r="F452" s="5"/>
@@ -18529,13 +18529,13 @@
         <v>452</v>
       </c>
       <c r="B453" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C453" s="29" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D453" s="40" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E453" s="9"/>
       <c r="F453" s="5"/>
@@ -19563,13 +19563,13 @@
         <v>453</v>
       </c>
       <c r="B454" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C454" s="26" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D454" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E454" s="10"/>
     </row>
@@ -19578,13 +19578,13 @@
         <v>454</v>
       </c>
       <c r="B455" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C455" s="26" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D455" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E455" s="10"/>
     </row>
@@ -19593,13 +19593,13 @@
         <v>455</v>
       </c>
       <c r="B456" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C456" s="26" t="s">
+        <v>729</v>
+      </c>
+      <c r="D456" s="17" t="s">
         <v>730</v>
-      </c>
-      <c r="D456" s="17" t="s">
-        <v>731</v>
       </c>
       <c r="E456" s="10"/>
     </row>
@@ -19608,13 +19608,13 @@
         <v>456</v>
       </c>
       <c r="B457" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C457" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="D457" s="17" t="s">
         <v>732</v>
-      </c>
-      <c r="D457" s="17" t="s">
-        <v>733</v>
       </c>
       <c r="E457" s="9"/>
     </row>
@@ -19623,13 +19623,13 @@
         <v>457</v>
       </c>
       <c r="B458" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C458" s="26" t="s">
+        <v>733</v>
+      </c>
+      <c r="D458" s="17" t="s">
         <v>734</v>
-      </c>
-      <c r="D458" s="17" t="s">
-        <v>735</v>
       </c>
       <c r="E458" s="9"/>
     </row>
@@ -19638,13 +19638,13 @@
         <v>458</v>
       </c>
       <c r="B459" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C459" s="26" t="s">
+        <v>735</v>
+      </c>
+      <c r="D459" s="17" t="s">
         <v>736</v>
-      </c>
-      <c r="D459" s="17" t="s">
-        <v>737</v>
       </c>
       <c r="E459" s="9"/>
     </row>
@@ -19653,13 +19653,13 @@
         <v>459</v>
       </c>
       <c r="B460" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C460" s="26" t="s">
+        <v>733</v>
+      </c>
+      <c r="D460" s="17" t="s">
         <v>734</v>
-      </c>
-      <c r="D460" s="17" t="s">
-        <v>735</v>
       </c>
       <c r="E460" s="9"/>
     </row>
@@ -19668,13 +19668,13 @@
         <v>460</v>
       </c>
       <c r="B461" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C461" s="26" t="s">
+        <v>737</v>
+      </c>
+      <c r="D461" s="17" t="s">
         <v>738</v>
-      </c>
-      <c r="D461" s="17" t="s">
-        <v>739</v>
       </c>
       <c r="E461" s="9"/>
     </row>
@@ -19683,13 +19683,13 @@
         <v>461</v>
       </c>
       <c r="B462" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C462" s="26" t="s">
+        <v>739</v>
+      </c>
+      <c r="D462" s="17" t="s">
         <v>740</v>
-      </c>
-      <c r="D462" s="17" t="s">
-        <v>741</v>
       </c>
       <c r="E462" s="9"/>
     </row>
@@ -19698,13 +19698,13 @@
         <v>462</v>
       </c>
       <c r="B463" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C463" s="26" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D463" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E463" s="10"/>
     </row>
@@ -19713,13 +19713,13 @@
         <v>463</v>
       </c>
       <c r="B464" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C464" s="26" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D464" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E464" s="10"/>
     </row>
@@ -19728,13 +19728,13 @@
         <v>464</v>
       </c>
       <c r="B465" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C465" s="26" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D465" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E465" s="10"/>
     </row>
@@ -19743,13 +19743,13 @@
         <v>465</v>
       </c>
       <c r="B466" s="27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C466" s="28" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D466" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E466" s="10"/>
       <c r="F466" s="3"/>
@@ -20777,13 +20777,13 @@
         <v>466</v>
       </c>
       <c r="B467" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C467" s="29" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D467" s="17" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E467" s="10"/>
       <c r="F467" s="5"/>
@@ -21811,13 +21811,13 @@
         <v>467</v>
       </c>
       <c r="B468" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C468" s="29" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D468" s="17" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E468" s="10"/>
       <c r="F468" s="5"/>
@@ -22845,13 +22845,13 @@
         <v>468</v>
       </c>
       <c r="B469" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C469" s="29" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D469" s="17" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E469" s="10"/>
       <c r="F469" s="5"/>
@@ -23879,13 +23879,13 @@
         <v>469</v>
       </c>
       <c r="B470" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C470" s="29" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D470" s="17" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E470" s="10"/>
       <c r="F470" s="5"/>
@@ -24913,16 +24913,16 @@
         <v>470</v>
       </c>
       <c r="B471" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C471" s="25" t="s">
+        <v>745</v>
+      </c>
+      <c r="D471" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="C471" s="25" t="s">
-        <v>746</v>
-      </c>
-      <c r="D471" s="17" t="s">
-        <v>243</v>
-      </c>
       <c r="E471" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="472" spans="1:1024" ht="52" customHeight="1">
@@ -24930,13 +24930,13 @@
         <v>471</v>
       </c>
       <c r="B472" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C472" s="25" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D472" s="17" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E472" s="9"/>
     </row>
@@ -24945,13 +24945,13 @@
         <v>472</v>
       </c>
       <c r="B473" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C473" s="25" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D473" s="17" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E473" s="9"/>
     </row>
@@ -24960,13 +24960,13 @@
         <v>473</v>
       </c>
       <c r="B474" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C474" s="25" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D474" s="17" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E474" s="9"/>
     </row>
@@ -24975,13 +24975,13 @@
         <v>474</v>
       </c>
       <c r="B475" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C475" s="25" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D475" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E475" s="10"/>
     </row>
@@ -24990,13 +24990,13 @@
         <v>475</v>
       </c>
       <c r="B476" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C476" s="25" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D476" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E476" s="10"/>
     </row>
@@ -25005,13 +25005,13 @@
         <v>476</v>
       </c>
       <c r="B477" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C477" s="27" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D477" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E477" s="9"/>
       <c r="F477" s="3"/>

--- a/utils/excel_to_json/questions.xlsx
+++ b/utils/excel_to_json/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koncz/react-ivos/ivosjatek/utils/excel_to_json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37DF203-50DA-5E49-BAB8-CDA4D48006D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EFB31F-0B5F-4345-B0C9-D957D20A7E45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3623,8 +3623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ1167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView tabSelected="1" topLeftCell="A473" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C483" sqref="C483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>

--- a/utils/excel_to_json/questions.xlsx
+++ b/utils/excel_to_json/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koncz/react-ivos/ivosjatek/utils/excel_to_json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE886AE7-4950-6445-861E-FA4029E4CB89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BDEE75-7748-224C-A4CD-26E1378487AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2579,9 +2579,6 @@
     <t>%NAME%: Szopkodd valaki hüvelykujját, vagy igyál kettőt!</t>
   </si>
   <si>
-    <t>%NAME%: Puszild meg a szemben ülő játékos, ahol ő akarja, vagy iszol egy rövidet!</t>
-  </si>
-  <si>
     <t>%NAME%: Igyál egy kortyot a balra ülő poharából!</t>
   </si>
   <si>
@@ -2982,6 +2979,9 @@
   </si>
   <si>
     <t>A többiek próbálják kitalálni! %NAME%: Ha választanod kellene, hogy kivel feküdj le: Brad Pitt vagy Jason Momoa, melyiket választanád? Aki rosszul tippel, az iszik.</t>
+  </si>
+  <si>
+    <t>%NAME%: Puszild meg a szemben ülő játékost, ahol ő akarja, vagy iszol egy rövidet!</t>
   </si>
 </sst>
 </file>
@@ -3614,8 +3614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMI1167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A453" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B460" sqref="B460"/>
+    <sheetView tabSelected="1" topLeftCell="A422" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B430" sqref="B430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -11377,7 +11377,7 @@
         <v>812</v>
       </c>
       <c r="C394" s="15" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D394" s="10" t="s">
         <v>496</v>
@@ -11391,7 +11391,7 @@
         <v>813</v>
       </c>
       <c r="C395" s="15" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D395" s="10" t="s">
         <v>496</v>
@@ -11405,7 +11405,7 @@
         <v>814</v>
       </c>
       <c r="C396" s="15" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D396" s="10"/>
     </row>
@@ -11417,7 +11417,7 @@
         <v>815</v>
       </c>
       <c r="C397" s="15" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D397" s="10"/>
     </row>
@@ -11429,7 +11429,7 @@
         <v>816</v>
       </c>
       <c r="C398" s="15" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D398" s="10" t="s">
         <v>496</v>
@@ -11443,7 +11443,7 @@
         <v>817</v>
       </c>
       <c r="C399" s="15" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D399" s="10" t="s">
         <v>496</v>
@@ -11457,7 +11457,7 @@
         <v>818</v>
       </c>
       <c r="C400" s="15" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D400" s="10" t="s">
         <v>496</v>
@@ -11471,7 +11471,7 @@
         <v>819</v>
       </c>
       <c r="C401" s="15" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D401" s="9"/>
     </row>
@@ -11483,7 +11483,7 @@
         <v>820</v>
       </c>
       <c r="C402" s="15" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D402" s="9"/>
     </row>
@@ -11495,7 +11495,7 @@
         <v>821</v>
       </c>
       <c r="C403" s="15" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D403" s="9"/>
     </row>
@@ -11507,7 +11507,7 @@
         <v>822</v>
       </c>
       <c r="C404" s="15" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D404" s="9"/>
     </row>
@@ -11519,7 +11519,7 @@
         <v>823</v>
       </c>
       <c r="C405" s="15" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D405" s="9"/>
     </row>
@@ -11531,7 +11531,7 @@
         <v>824</v>
       </c>
       <c r="C406" s="15" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D406" s="9"/>
     </row>
@@ -11543,7 +11543,7 @@
         <v>825</v>
       </c>
       <c r="C407" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D407" s="10"/>
     </row>
@@ -11555,7 +11555,7 @@
         <v>826</v>
       </c>
       <c r="C408" s="15" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D408" s="10"/>
     </row>
@@ -11567,7 +11567,7 @@
         <v>827</v>
       </c>
       <c r="C409" s="15" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D409" s="10"/>
     </row>
@@ -11579,7 +11579,7 @@
         <v>828</v>
       </c>
       <c r="C410" s="15" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D410" s="10"/>
     </row>
@@ -11591,7 +11591,7 @@
         <v>829</v>
       </c>
       <c r="C411" s="15" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D411" s="10"/>
     </row>
@@ -11603,7 +11603,7 @@
         <v>830</v>
       </c>
       <c r="C412" s="15" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D412" s="10"/>
     </row>
@@ -11615,7 +11615,7 @@
         <v>831</v>
       </c>
       <c r="C413" s="15" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D413" s="10"/>
     </row>
@@ -11627,7 +11627,7 @@
         <v>832</v>
       </c>
       <c r="C414" s="17" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D414" s="10"/>
       <c r="E414" s="3"/>
@@ -12658,7 +12658,7 @@
         <v>833</v>
       </c>
       <c r="C415" s="18" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D415" s="9"/>
     </row>
@@ -12670,7 +12670,7 @@
         <v>834</v>
       </c>
       <c r="C416" s="18" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D416" s="9"/>
     </row>
@@ -12682,7 +12682,7 @@
         <v>835</v>
       </c>
       <c r="C417" s="18" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D417" s="10"/>
     </row>
@@ -12694,7 +12694,7 @@
         <v>836</v>
       </c>
       <c r="C418" s="18" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D418" s="10"/>
     </row>
@@ -12706,7 +12706,7 @@
         <v>837</v>
       </c>
       <c r="C419" s="15" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D419" s="10"/>
     </row>
@@ -12718,7 +12718,7 @@
         <v>838</v>
       </c>
       <c r="C420" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D420" s="9"/>
     </row>
@@ -12730,7 +12730,7 @@
         <v>839</v>
       </c>
       <c r="C421" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D421" s="9"/>
     </row>
@@ -12742,7 +12742,7 @@
         <v>840</v>
       </c>
       <c r="C422" s="15" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D422" s="9"/>
     </row>
@@ -12754,7 +12754,7 @@
         <v>841</v>
       </c>
       <c r="C423" s="18" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D423" s="9"/>
     </row>
@@ -12766,7 +12766,7 @@
         <v>842</v>
       </c>
       <c r="C424" s="18" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D424" s="9"/>
     </row>
@@ -12778,7 +12778,7 @@
         <v>843</v>
       </c>
       <c r="C425" s="18" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D425" s="9"/>
     </row>
@@ -12790,7 +12790,7 @@
         <v>844</v>
       </c>
       <c r="C426" s="18" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D426" s="9"/>
     </row>
@@ -12802,7 +12802,7 @@
         <v>845</v>
       </c>
       <c r="C427" s="18" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D427" s="10"/>
     </row>
@@ -12814,7 +12814,7 @@
         <v>846</v>
       </c>
       <c r="C428" s="18" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D428" s="10"/>
     </row>
@@ -12826,7 +12826,7 @@
         <v>847</v>
       </c>
       <c r="C429" s="15" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D429" s="10"/>
     </row>
@@ -12835,10 +12835,10 @@
         <v>89</v>
       </c>
       <c r="B430" s="21" t="s">
-        <v>848</v>
+        <v>982</v>
       </c>
       <c r="C430" s="17" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D430" s="10"/>
       <c r="E430" s="3"/>
@@ -13866,10 +13866,10 @@
         <v>90</v>
       </c>
       <c r="B431" s="18" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C431" s="18" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D431" s="10"/>
     </row>
@@ -13878,10 +13878,10 @@
         <v>90</v>
       </c>
       <c r="B432" s="18" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C432" s="18" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D432" s="10"/>
     </row>
@@ -13890,10 +13890,10 @@
         <v>90</v>
       </c>
       <c r="B433" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C433" s="18" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D433" s="10"/>
     </row>
@@ -13902,10 +13902,10 @@
         <v>90</v>
       </c>
       <c r="B434" s="18" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C434" s="18" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D434" s="9"/>
     </row>
@@ -13914,10 +13914,10 @@
         <v>90</v>
       </c>
       <c r="B435" s="18" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C435" s="15" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D435" s="9"/>
     </row>
@@ -13926,10 +13926,10 @@
         <v>90</v>
       </c>
       <c r="B436" s="18" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C436" s="15" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D436" s="10"/>
     </row>
@@ -13938,10 +13938,10 @@
         <v>90</v>
       </c>
       <c r="B437" s="18" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C437" s="18" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D437" s="10"/>
     </row>
@@ -13950,10 +13950,10 @@
         <v>90</v>
       </c>
       <c r="B438" s="18" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C438" s="15" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D438" s="10"/>
     </row>
@@ -13962,10 +13962,10 @@
         <v>90</v>
       </c>
       <c r="B439" s="18" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C439" s="15" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D439" s="9"/>
     </row>
@@ -13974,10 +13974,10 @@
         <v>90</v>
       </c>
       <c r="B440" s="18" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C440" s="15" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D440" s="9"/>
     </row>
@@ -13986,10 +13986,10 @@
         <v>90</v>
       </c>
       <c r="B441" s="18" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C441" s="15" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D441" s="9"/>
     </row>
@@ -13998,10 +13998,10 @@
         <v>90</v>
       </c>
       <c r="B442" s="18" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C442" s="18" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D442" s="9" t="s">
         <v>493</v>
@@ -14012,10 +14012,10 @@
         <v>90</v>
       </c>
       <c r="B443" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C443" s="15" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D443" s="9"/>
     </row>
@@ -14024,10 +14024,10 @@
         <v>90</v>
       </c>
       <c r="B444" s="18" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C444" s="18" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D444" s="9"/>
     </row>
@@ -14036,10 +14036,10 @@
         <v>90</v>
       </c>
       <c r="B445" s="21" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C445" s="21" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D445" s="9"/>
       <c r="E445" s="3"/>
@@ -15067,10 +15067,10 @@
         <v>91</v>
       </c>
       <c r="B446" s="18" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C446" s="18" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D446" s="9"/>
     </row>
@@ -15079,10 +15079,10 @@
         <v>91</v>
       </c>
       <c r="B447" s="18" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C447" s="18" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D447" s="10"/>
     </row>
@@ -15091,10 +15091,10 @@
         <v>91</v>
       </c>
       <c r="B448" s="18" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C448" s="18" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D448" s="10"/>
     </row>
@@ -15103,10 +15103,10 @@
         <v>91</v>
       </c>
       <c r="B449" s="18" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C449" s="18" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D449" s="10"/>
     </row>
@@ -15115,10 +15115,10 @@
         <v>91</v>
       </c>
       <c r="B450" s="18" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C450" s="18" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D450" s="10"/>
     </row>
@@ -15127,10 +15127,10 @@
         <v>91</v>
       </c>
       <c r="B451" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C451" s="18" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D451" s="10"/>
     </row>
@@ -15139,10 +15139,10 @@
         <v>91</v>
       </c>
       <c r="B452" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C452" s="18" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D452" s="10"/>
     </row>
@@ -15151,10 +15151,10 @@
         <v>91</v>
       </c>
       <c r="B453" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C453" s="18" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D453" s="10"/>
     </row>
@@ -15166,7 +15166,7 @@
         <v>491</v>
       </c>
       <c r="C454" s="18" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D454" s="9"/>
     </row>
@@ -15175,10 +15175,10 @@
         <v>91</v>
       </c>
       <c r="B455" s="21" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C455" s="21" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D455" s="9"/>
       <c r="E455" s="3"/>
@@ -16206,10 +16206,10 @@
         <v>92</v>
       </c>
       <c r="B456" s="27" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C456" s="15" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D456" s="9"/>
       <c r="E456" s="5"/>
@@ -17237,10 +17237,10 @@
         <v>92</v>
       </c>
       <c r="B457" s="27" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C457" s="38" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D457" s="9"/>
       <c r="E457" s="5"/>
@@ -18268,10 +18268,10 @@
         <v>92</v>
       </c>
       <c r="B458" s="24" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C458" s="15" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D458" s="10"/>
     </row>
@@ -18280,10 +18280,10 @@
         <v>92</v>
       </c>
       <c r="B459" s="24" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C459" s="15" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D459" s="10"/>
     </row>
@@ -18292,10 +18292,10 @@
         <v>92</v>
       </c>
       <c r="B460" s="24" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C460" s="15" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D460" s="10"/>
     </row>
@@ -18304,10 +18304,10 @@
         <v>92</v>
       </c>
       <c r="B461" s="24" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C461" s="15" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D461" s="9"/>
     </row>
@@ -18316,10 +18316,10 @@
         <v>92</v>
       </c>
       <c r="B462" s="24" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C462" s="15" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D462" s="9"/>
     </row>
@@ -18328,10 +18328,10 @@
         <v>92</v>
       </c>
       <c r="B463" s="24" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C463" s="15" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D463" s="9"/>
     </row>
@@ -18340,10 +18340,10 @@
         <v>92</v>
       </c>
       <c r="B464" s="24" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C464" s="15" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D464" s="9"/>
     </row>
@@ -18352,10 +18352,10 @@
         <v>92</v>
       </c>
       <c r="B465" s="24" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C465" s="15" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D465" s="9"/>
     </row>
@@ -18364,10 +18364,10 @@
         <v>92</v>
       </c>
       <c r="B466" s="24" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C466" s="15" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D466" s="9"/>
     </row>
@@ -18376,10 +18376,10 @@
         <v>92</v>
       </c>
       <c r="B467" s="24" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C467" s="15" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D467" s="10"/>
     </row>
@@ -18388,10 +18388,10 @@
         <v>92</v>
       </c>
       <c r="B468" s="24" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C468" s="15" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D468" s="10"/>
     </row>
@@ -18400,10 +18400,10 @@
         <v>92</v>
       </c>
       <c r="B469" s="24" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C469" s="15" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D469" s="10"/>
     </row>
@@ -18412,10 +18412,10 @@
         <v>92</v>
       </c>
       <c r="B470" s="26" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C470" s="17" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D470" s="10"/>
       <c r="E470" s="3"/>
@@ -19443,10 +19443,10 @@
         <v>93</v>
       </c>
       <c r="B471" s="27" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C471" s="15" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D471" s="10"/>
       <c r="E471" s="5"/>
@@ -20477,7 +20477,7 @@
         <v>545</v>
       </c>
       <c r="C472" s="15" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D472" s="10"/>
       <c r="E472" s="5"/>
@@ -21505,10 +21505,10 @@
         <v>93</v>
       </c>
       <c r="B473" s="27" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C473" s="15" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D473" s="10"/>
       <c r="E473" s="5"/>
@@ -22536,10 +22536,10 @@
         <v>93</v>
       </c>
       <c r="B474" s="27" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C474" s="15" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D474" s="10"/>
       <c r="E474" s="5"/>
@@ -23567,10 +23567,10 @@
         <v>93</v>
       </c>
       <c r="B475" s="23" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C475" s="15" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D475" s="9" t="s">
         <v>493</v>
@@ -23581,10 +23581,10 @@
         <v>93</v>
       </c>
       <c r="B476" s="23" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C476" s="15" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D476" s="9"/>
     </row>
@@ -23593,10 +23593,10 @@
         <v>93</v>
       </c>
       <c r="B477" s="23" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C477" s="15" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D477" s="9"/>
     </row>
@@ -23605,10 +23605,10 @@
         <v>93</v>
       </c>
       <c r="B478" s="23" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C478" s="15" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D478" s="9"/>
     </row>
@@ -23617,10 +23617,10 @@
         <v>93</v>
       </c>
       <c r="B479" s="23" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C479" s="15" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D479" s="10"/>
     </row>
@@ -23629,10 +23629,10 @@
         <v>93</v>
       </c>
       <c r="B480" s="23" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C480" s="15" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D480" s="10"/>
     </row>
@@ -23641,10 +23641,10 @@
         <v>93</v>
       </c>
       <c r="B481" s="25" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C481" s="17" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D481" s="9"/>
       <c r="E481" s="3"/>

--- a/utils/excel_to_json/questions.xlsx
+++ b/utils/excel_to_json/questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koncz/react-ivos/ivosjatek/utils/excel_to_json/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koncz/ivosjatek/utils/excel_to_json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E17305-6F5F-0A4A-A07C-E54D79CAA8C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0814EBC3-D6AB-704A-80E3-3A8279B3876F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="1026">
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>outer_quality</t>
   </si>
   <si>
@@ -1508,9 +1505,6 @@
     <t>Új szabály! Aki mostantól az asztalhoz ér, iszik egyet.</t>
   </si>
   <si>
-    <t>logo</t>
-  </si>
-  <si>
     <t>viztorony</t>
   </si>
   <si>
@@ -3111,6 +3105,12 @@
   </si>
   <si>
     <t>Drink if you have ever kissed a coworker.</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>im</t>
   </si>
 </sst>
 </file>
@@ -3746,8 +3746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMI1188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C265" sqref="C265"/>
+    <sheetView tabSelected="1" topLeftCell="A462" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A494" sqref="A494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -3762,4214 +3762,4214 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="35" customHeight="1" thickBot="1">
       <c r="A1" s="12" t="s">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>95</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>491</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>1</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>111</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>113</v>
-      </c>
       <c r="D9" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>115</v>
-      </c>
       <c r="D10" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>117</v>
-      </c>
       <c r="D11" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A15" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>120</v>
-      </c>
       <c r="D15" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A16" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>122</v>
-      </c>
       <c r="D16" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A17" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>124</v>
-      </c>
       <c r="D17" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A20" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A21" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>131</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>132</v>
       </c>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A25" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>133</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>134</v>
       </c>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>135</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>137</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A29" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
       <c r="A31" s="16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>141</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>142</v>
       </c>
       <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>147</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>149</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>151</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>153</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>157</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A41" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A43" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="18" t="s">
         <v>159</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A44" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A45" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>13</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A46" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
       <c r="A48" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D48" s="9"/>
     </row>
     <row r="49" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A49" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C49" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A51" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B51" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>166</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B52" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>168</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>169</v>
       </c>
       <c r="D52" s="10"/>
     </row>
     <row r="53" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A53" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B53" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>170</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>171</v>
       </c>
       <c r="D53" s="10"/>
     </row>
     <row r="54" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A55" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B55" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>173</v>
-      </c>
       <c r="D55" s="10" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
       <c r="A56" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B56" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" s="17" t="s">
         <v>174</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>175</v>
       </c>
       <c r="D56" s="10"/>
     </row>
     <row r="57" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B57" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57" s="15" t="s">
         <v>176</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B58" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58" s="15" t="s">
         <v>178</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A59" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B59" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" s="15" t="s">
         <v>180</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A60" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B60" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C60" s="15" t="s">
         <v>182</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A61" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B61" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="15" t="s">
         <v>184</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B62" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" s="15" t="s">
         <v>186</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A63" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B63" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" s="15" t="s">
         <v>188</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>189</v>
       </c>
       <c r="D63" s="10"/>
     </row>
     <row r="64" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A64" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D64" s="10"/>
     </row>
     <row r="65" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D65" s="10"/>
     </row>
     <row r="66" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B66" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C66" s="15" t="s">
         <v>190</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A68" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B68" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C68" s="15" t="s">
         <v>193</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A69" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B69" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" s="18" t="s">
         <v>195</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A70" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B70" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" s="15" t="s">
         <v>197</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
       <c r="A71" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B71" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>200</v>
       </c>
       <c r="D71" s="9"/>
     </row>
     <row r="72" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A72" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B72" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C72" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A73" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C73" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
       <c r="A75" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B75" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75" s="17" t="s">
         <v>205</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>206</v>
       </c>
       <c r="D75" s="9"/>
     </row>
     <row r="76" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
       <c r="A76" s="14" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D76" s="9"/>
     </row>
     <row r="77" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
       <c r="A77" s="14" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="D77" s="9"/>
     </row>
     <row r="78" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
       <c r="A78" s="14" t="s">
+        <v>986</v>
+      </c>
+      <c r="B78" s="15" t="s">
         <v>988</v>
       </c>
-      <c r="B78" s="15" t="s">
-        <v>990</v>
-      </c>
       <c r="C78" s="15" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D78" s="9"/>
     </row>
     <row r="79" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
       <c r="A79" s="14" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D79" s="9"/>
     </row>
     <row r="80" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
       <c r="A80" s="14" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D80" s="9"/>
     </row>
     <row r="81" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
       <c r="A81" s="16" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D81" s="39"/>
     </row>
     <row r="82" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
       <c r="A82" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B82" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C82" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>208</v>
       </c>
       <c r="D82" s="9"/>
     </row>
     <row r="83" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A83" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="C83" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="B83" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A84" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B84" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C84" s="18" t="s">
         <v>210</v>
-      </c>
-      <c r="C84" s="18" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="85" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
       <c r="A85" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B85" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C85" s="17" t="s">
         <v>212</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>213</v>
       </c>
       <c r="D85" s="9"/>
     </row>
     <row r="86" spans="1:4" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A86" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B86" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C86" s="20" t="s">
         <v>214</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>215</v>
       </c>
       <c r="D86" s="9"/>
     </row>
     <row r="87" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A87" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B87" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C87" s="15" t="s">
         <v>216</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="88" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
       <c r="A88" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B88" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C88" s="17" t="s">
         <v>218</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>219</v>
       </c>
       <c r="D88" s="9"/>
     </row>
     <row r="89" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A89" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B89" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C89" s="18" t="s">
         <v>220</v>
-      </c>
-      <c r="C89" s="18" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A90" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C90" s="18" t="s">
         <v>28</v>
-      </c>
-      <c r="B90" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="C90" s="18" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A91" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B91" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C91" s="18" t="s">
         <v>223</v>
-      </c>
-      <c r="C91" s="18" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="92" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B92" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C92" s="18" t="s">
         <v>225</v>
-      </c>
-      <c r="C92" s="18" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="93" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A93" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D93" s="10"/>
     </row>
     <row r="94" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C94" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="D94" s="10" t="s">
         <v>498</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="95" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A95" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D95" s="10"/>
     </row>
     <row r="96" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B96" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C96" s="18" t="s">
         <v>229</v>
-      </c>
-      <c r="C96" s="18" t="s">
-        <v>230</v>
       </c>
       <c r="D96" s="10"/>
     </row>
     <row r="97" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A97" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B97" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C97" s="18" t="s">
         <v>231</v>
-      </c>
-      <c r="C97" s="18" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="98" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A98" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B98" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C98" s="18" t="s">
         <v>233</v>
-      </c>
-      <c r="C98" s="18" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="99" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A99" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B99" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C99" s="18" t="s">
         <v>235</v>
-      </c>
-      <c r="C99" s="18" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="100" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A100" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="101" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A101" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>578</v>
+        <v>236</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>580</v>
+        <v>237</v>
       </c>
     </row>
     <row r="102" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A102" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>579</v>
+        <v>238</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>581</v>
+        <v>239</v>
       </c>
     </row>
     <row r="103" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A103" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A104" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="105" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A105" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B105" s="18" t="s">
-        <v>241</v>
+        <v>27</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>242</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A106" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B106" s="18" t="s">
-        <v>243</v>
+        <v>27</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
-      <c r="A107" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B107" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C107" s="18" t="s">
-        <v>32</v>
-      </c>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
+      <c r="A107" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="D107" s="9"/>
     </row>
     <row r="108" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A108" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B108" s="15" t="s">
-        <v>245</v>
+        <v>32</v>
+      </c>
+      <c r="B108" s="18" t="s">
+        <v>576</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
-      <c r="A109" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B109" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="C109" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="D109" s="9"/>
+        <v>578</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
+      <c r="A109" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>577</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="110" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A110" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B110" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C110" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="C110" s="18" t="s">
-        <v>250</v>
-      </c>
       <c r="D110" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="111" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A111" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B111" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C111" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="C111" s="18" t="s">
-        <v>252</v>
-      </c>
       <c r="D111" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="112" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A112" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B112" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C112" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="C112" s="18" t="s">
-        <v>254</v>
-      </c>
       <c r="D112" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="113" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A113" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B113" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="C113" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="C113" s="18" t="s">
-        <v>256</v>
-      </c>
       <c r="D113" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="114" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A114" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B114" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C114" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="C114" s="18" t="s">
-        <v>258</v>
-      </c>
       <c r="D114" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="115" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A115" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B115" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="C115" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="C115" s="18" t="s">
-        <v>260</v>
-      </c>
       <c r="D115" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="116" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A116" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B116" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C116" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="C116" s="18" t="s">
-        <v>262</v>
-      </c>
       <c r="D116" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="117" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A117" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="118" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A118" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B118" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C118" s="18" t="s">
         <v>263</v>
-      </c>
-      <c r="C118" s="18" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="119" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A119" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B119" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C119" s="18" t="s">
         <v>265</v>
-      </c>
-      <c r="C119" s="18" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="120" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A120" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="121" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A121" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="122" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A122" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="123" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A123" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="124" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A124" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B124" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="C124" s="18" t="s">
         <v>267</v>
-      </c>
-      <c r="C124" s="18" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="125" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A125" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="126" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A126" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B126" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C126" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="C126" s="18" t="s">
-        <v>270</v>
-      </c>
       <c r="D126" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="127" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A127" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="C127" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="B127" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="C127" s="15" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="128" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A128" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="129" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A129" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="130" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A130" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="131" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A131" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B131" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C131" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="C131" s="18" t="s">
-        <v>275</v>
-      </c>
       <c r="D131" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="132" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
       <c r="A132" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B132" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="133" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A133" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="134" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="135" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A135" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="136" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A136" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="137" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A137" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="138" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A138" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="139" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A139" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="140" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A140" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C140" s="18" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="141" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A141" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="142" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A142" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B142" s="18" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="143" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A143" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B143" s="18" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C143" s="18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="144" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A144" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B144" s="27" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C144" s="18" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="145" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A145" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B145" s="27" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="146" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A146" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B146" s="27" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C146" s="18" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="147" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A147" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B147" s="27" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C147" s="18" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="148" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A148" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B148" s="27" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C148" s="18" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="149" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A149" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B149" s="27" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C149" s="18" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="150" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A150" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C150" s="30" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D150" s="31"/>
     </row>
     <row r="151" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A151" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B151" s="30" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D151" s="31"/>
     </row>
     <row r="152" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A152" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B152" s="30" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C152" s="30" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D152" s="31"/>
     </row>
     <row r="153" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
       <c r="A153" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B153" s="34" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C153" s="35" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D153" s="31"/>
     </row>
     <row r="154" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A154" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B154" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="C154" s="30" t="s">
         <v>277</v>
-      </c>
-      <c r="C154" s="30" t="s">
-        <v>278</v>
       </c>
       <c r="D154" s="31"/>
     </row>
     <row r="155" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A155" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B155" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="C155" s="30" t="s">
         <v>279</v>
-      </c>
-      <c r="C155" s="30" t="s">
-        <v>280</v>
       </c>
       <c r="D155" s="31"/>
     </row>
     <row r="156" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A156" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B156" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="C156" s="30" t="s">
         <v>281</v>
-      </c>
-      <c r="C156" s="30" t="s">
-        <v>282</v>
       </c>
       <c r="D156" s="31"/>
     </row>
     <row r="157" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A157" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B157" s="30" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C157" s="30" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D157" s="31"/>
     </row>
     <row r="158" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A158" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B158" s="30" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C158" s="30" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D158" s="31"/>
     </row>
     <row r="159" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A159" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B159" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="C159" s="30" t="s">
         <v>283</v>
-      </c>
-      <c r="C159" s="30" t="s">
-        <v>284</v>
       </c>
       <c r="D159" s="31"/>
     </row>
     <row r="160" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A160" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B160" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="C160" s="30" t="s">
         <v>285</v>
-      </c>
-      <c r="C160" s="30" t="s">
-        <v>286</v>
       </c>
       <c r="D160" s="31"/>
     </row>
     <row r="161" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A161" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B161" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="C161" s="30" t="s">
         <v>287</v>
-      </c>
-      <c r="C161" s="30" t="s">
-        <v>288</v>
       </c>
       <c r="D161" s="31"/>
     </row>
     <row r="162" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A162" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B162" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="C162" s="32" t="s">
         <v>38</v>
-      </c>
-      <c r="B162" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="C162" s="32" t="s">
-        <v>39</v>
       </c>
       <c r="D162" s="31"/>
     </row>
     <row r="163" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A163" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B163" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="C163" s="30" t="s">
         <v>290</v>
-      </c>
-      <c r="C163" s="30" t="s">
-        <v>291</v>
       </c>
       <c r="D163" s="31"/>
     </row>
     <row r="164" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A164" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B164" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="C164" s="30" t="s">
         <v>292</v>
-      </c>
-      <c r="C164" s="30" t="s">
-        <v>293</v>
       </c>
       <c r="D164" s="31"/>
     </row>
     <row r="165" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A165" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B165" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="C165" s="30" t="s">
         <v>294</v>
-      </c>
-      <c r="C165" s="30" t="s">
-        <v>295</v>
       </c>
       <c r="D165" s="31"/>
     </row>
     <row r="166" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A166" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B166" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="C166" s="30" t="s">
         <v>296</v>
-      </c>
-      <c r="C166" s="30" t="s">
-        <v>297</v>
       </c>
       <c r="D166" s="31"/>
     </row>
     <row r="167" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A167" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B167" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="C167" s="30" t="s">
         <v>298</v>
-      </c>
-      <c r="C167" s="30" t="s">
-        <v>299</v>
       </c>
       <c r="D167" s="31"/>
     </row>
     <row r="168" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A168" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B168" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C168" s="30" t="s">
         <v>300</v>
-      </c>
-      <c r="C168" s="30" t="s">
-        <v>301</v>
       </c>
       <c r="D168" s="31"/>
     </row>
     <row r="169" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A169" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B169" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="C169" s="30" t="s">
         <v>302</v>
-      </c>
-      <c r="C169" s="30" t="s">
-        <v>303</v>
       </c>
       <c r="D169" s="31"/>
     </row>
     <row r="170" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A170" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B170" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="C170" s="30" t="s">
         <v>304</v>
-      </c>
-      <c r="C170" s="30" t="s">
-        <v>305</v>
       </c>
       <c r="D170" s="31"/>
     </row>
     <row r="171" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A171" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B171" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C171" s="30" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="172" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A172" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B172" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="C172" s="30" t="s">
         <v>306</v>
-      </c>
-      <c r="C172" s="30" t="s">
-        <v>307</v>
       </c>
       <c r="D172" s="31"/>
     </row>
     <row r="173" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A173" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B173" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="C173" s="30" t="s">
         <v>308</v>
-      </c>
-      <c r="C173" s="30" t="s">
-        <v>309</v>
       </c>
       <c r="D173" s="31"/>
     </row>
     <row r="174" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A174" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B174" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="C174" s="30" t="s">
         <v>310</v>
-      </c>
-      <c r="C174" s="30" t="s">
-        <v>311</v>
       </c>
       <c r="D174" s="31"/>
     </row>
     <row r="175" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A175" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B175" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="C175" s="30" t="s">
         <v>312</v>
-      </c>
-      <c r="C175" s="30" t="s">
-        <v>313</v>
       </c>
       <c r="D175" s="31"/>
     </row>
     <row r="176" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A176" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B176" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="C176" s="30" t="s">
         <v>314</v>
-      </c>
-      <c r="C176" s="30" t="s">
-        <v>315</v>
       </c>
       <c r="D176" s="31"/>
     </row>
     <row r="177" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A177" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B177" s="30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C177" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D177" s="31"/>
     </row>
     <row r="178" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A178" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B178" s="30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C178" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D178" s="31"/>
     </row>
     <row r="179" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A179" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B179" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="C179" s="30" t="s">
         <v>318</v>
-      </c>
-      <c r="C179" s="30" t="s">
-        <v>319</v>
       </c>
       <c r="D179" s="31"/>
     </row>
     <row r="180" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A180" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B180" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="C180" s="30" t="s">
         <v>320</v>
-      </c>
-      <c r="C180" s="30" t="s">
-        <v>321</v>
       </c>
       <c r="D180" s="31"/>
     </row>
     <row r="181" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A181" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B181" s="30" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C181" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D181" s="31"/>
     </row>
     <row r="182" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A182" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B182" s="30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C182" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D182" s="31"/>
     </row>
     <row r="183" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A183" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B183" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="C183" s="30" t="s">
         <v>324</v>
-      </c>
-      <c r="C183" s="30" t="s">
-        <v>325</v>
       </c>
       <c r="D183" s="31"/>
     </row>
     <row r="184" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A184" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B184" s="30" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C184" s="30" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D184" s="31"/>
     </row>
     <row r="185" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A185" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B185" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="C185" s="30" t="s">
         <v>326</v>
-      </c>
-      <c r="C185" s="30" t="s">
-        <v>327</v>
       </c>
       <c r="D185" s="31"/>
     </row>
     <row r="186" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A186" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B186" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="C186" s="30" t="s">
         <v>328</v>
-      </c>
-      <c r="C186" s="30" t="s">
-        <v>329</v>
       </c>
       <c r="D186" s="31"/>
     </row>
     <row r="187" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A187" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B187" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C187" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D187" s="31"/>
     </row>
     <row r="188" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A188" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B188" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="C188" s="30" t="s">
         <v>331</v>
-      </c>
-      <c r="C188" s="30" t="s">
-        <v>332</v>
       </c>
       <c r="D188" s="31"/>
     </row>
     <row r="189" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A189" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B189" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="C189" s="30" t="s">
         <v>333</v>
-      </c>
-      <c r="C189" s="30" t="s">
-        <v>334</v>
       </c>
       <c r="D189" s="31"/>
     </row>
     <row r="190" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A190" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B190" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="C190" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="C190" s="30" t="s">
-        <v>336</v>
-      </c>
       <c r="D190" s="31" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="191" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A191" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B191" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="C191" s="30" t="s">
         <v>337</v>
-      </c>
-      <c r="C191" s="30" t="s">
-        <v>338</v>
       </c>
       <c r="D191" s="31"/>
     </row>
     <row r="192" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A192" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B192" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="C192" s="30" t="s">
         <v>339</v>
-      </c>
-      <c r="C192" s="30" t="s">
-        <v>340</v>
       </c>
       <c r="D192" s="31"/>
     </row>
     <row r="193" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A193" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B193" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="C193" s="30" t="s">
         <v>341</v>
-      </c>
-      <c r="C193" s="30" t="s">
-        <v>342</v>
       </c>
       <c r="D193" s="31"/>
     </row>
     <row r="194" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A194" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B194" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="C194" s="30" t="s">
         <v>343</v>
-      </c>
-      <c r="C194" s="30" t="s">
-        <v>344</v>
       </c>
       <c r="D194" s="31"/>
     </row>
     <row r="195" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A195" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B195" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="C195" s="30" t="s">
         <v>345</v>
-      </c>
-      <c r="C195" s="30" t="s">
-        <v>346</v>
       </c>
       <c r="D195" s="31"/>
     </row>
     <row r="196" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A196" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B196" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="C196" s="30" t="s">
         <v>347</v>
-      </c>
-      <c r="C196" s="30" t="s">
-        <v>348</v>
       </c>
       <c r="D196" s="31"/>
     </row>
     <row r="197" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A197" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B197" s="30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C197" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D197" s="31"/>
     </row>
     <row r="198" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A198" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B198" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="C198" s="30" t="s">
         <v>350</v>
-      </c>
-      <c r="C198" s="30" t="s">
-        <v>351</v>
       </c>
       <c r="D198" s="31"/>
     </row>
     <row r="199" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A199" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B199" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="C199" s="30" t="s">
         <v>352</v>
-      </c>
-      <c r="C199" s="30" t="s">
-        <v>353</v>
       </c>
       <c r="D199" s="31"/>
     </row>
     <row r="200" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A200" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B200" s="30" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C200" s="30" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D200" s="31"/>
     </row>
     <row r="201" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A201" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B201" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="C201" s="30" t="s">
         <v>354</v>
-      </c>
-      <c r="C201" s="30" t="s">
-        <v>355</v>
       </c>
       <c r="D201" s="31"/>
     </row>
     <row r="202" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A202" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B202" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="C202" s="30" t="s">
         <v>356</v>
-      </c>
-      <c r="C202" s="30" t="s">
-        <v>357</v>
       </c>
       <c r="D202" s="31"/>
     </row>
     <row r="203" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A203" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B203" s="30" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C203" s="32" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D203" s="31"/>
     </row>
     <row r="204" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A204" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B204" s="30" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C204" s="32" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D204" s="31"/>
     </row>
     <row r="205" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A205" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B205" s="30" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C205" s="32" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D205" s="31"/>
     </row>
     <row r="206" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A206" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B206" s="30" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C206" s="32" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D206" s="31"/>
     </row>
     <row r="207" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A207" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B207" s="30" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C207" s="32" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D207" s="31"/>
     </row>
     <row r="208" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A208" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B208" s="30" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C208" s="32" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D208" s="31"/>
     </row>
     <row r="209" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A209" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B209" s="30" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C209" s="32" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D209" s="31"/>
     </row>
     <row r="210" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A210" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B210" s="30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C210" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D210" s="31"/>
     </row>
     <row r="211" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
       <c r="A211" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B211" s="34" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C211" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D211" s="31"/>
     </row>
     <row r="212" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A212" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B212" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="C212" s="30" t="s">
         <v>361</v>
-      </c>
-      <c r="C212" s="30" t="s">
-        <v>362</v>
       </c>
       <c r="D212" s="31"/>
     </row>
     <row r="213" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A213" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B213" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C213" s="30" t="s">
         <v>47</v>
-      </c>
-      <c r="B213" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="C213" s="30" t="s">
-        <v>48</v>
       </c>
       <c r="D213" s="31"/>
     </row>
     <row r="214" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A214" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B214" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C214" s="30" t="s">
         <v>364</v>
-      </c>
-      <c r="C214" s="30" t="s">
-        <v>365</v>
       </c>
       <c r="D214" s="31"/>
     </row>
     <row r="215" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A215" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B215" s="30" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C215" s="30" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D215" s="31"/>
     </row>
     <row r="216" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A216" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B216" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="C216" s="30" t="s">
         <v>366</v>
-      </c>
-      <c r="C216" s="30" t="s">
-        <v>367</v>
       </c>
       <c r="D216" s="31"/>
     </row>
     <row r="217" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A217" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B217" s="30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C217" s="30" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D217" s="31"/>
     </row>
     <row r="218" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A218" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B218" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="C218" s="30" t="s">
         <v>369</v>
-      </c>
-      <c r="C218" s="30" t="s">
-        <v>370</v>
       </c>
       <c r="D218" s="31"/>
     </row>
     <row r="219" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A219" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B219" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="C219" s="30" t="s">
         <v>371</v>
-      </c>
-      <c r="C219" s="30" t="s">
-        <v>372</v>
       </c>
       <c r="D219" s="31"/>
     </row>
     <row r="220" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A220" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B220" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="C220" s="30" t="s">
         <v>373</v>
-      </c>
-      <c r="C220" s="30" t="s">
-        <v>374</v>
       </c>
       <c r="D220" s="31"/>
     </row>
     <row r="221" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A221" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B221" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="C221" s="30" t="s">
         <v>375</v>
-      </c>
-      <c r="C221" s="30" t="s">
-        <v>376</v>
       </c>
       <c r="D221" s="31"/>
     </row>
     <row r="222" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A222" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B222" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="C222" s="30" t="s">
         <v>377</v>
-      </c>
-      <c r="C222" s="30" t="s">
-        <v>378</v>
       </c>
       <c r="D222" s="31"/>
     </row>
     <row r="223" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A223" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B223" s="30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C223" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D223" s="31"/>
     </row>
     <row r="224" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A224" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B224" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C224" s="30" t="s">
         <v>380</v>
-      </c>
-      <c r="C224" s="30" t="s">
-        <v>381</v>
       </c>
       <c r="D224" s="31"/>
     </row>
     <row r="225" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A225" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B225" s="30" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C225" s="30" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D225" s="31"/>
     </row>
     <row r="226" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A226" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B226" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="C226" s="30" t="s">
         <v>382</v>
-      </c>
-      <c r="C226" s="30" t="s">
-        <v>383</v>
       </c>
       <c r="D226" s="31"/>
     </row>
     <row r="227" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A227" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B227" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="C227" s="30" t="s">
         <v>373</v>
-      </c>
-      <c r="C227" s="30" t="s">
-        <v>374</v>
       </c>
       <c r="D227" s="31"/>
     </row>
     <row r="228" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A228" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B228" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C228" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D228" s="31"/>
     </row>
     <row r="229" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A229" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B229" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="C229" s="30" t="s">
         <v>385</v>
-      </c>
-      <c r="C229" s="30" t="s">
-        <v>386</v>
       </c>
       <c r="D229" s="31"/>
     </row>
     <row r="230" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A230" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B230" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="C230" s="30" t="s">
         <v>387</v>
-      </c>
-      <c r="C230" s="30" t="s">
-        <v>388</v>
       </c>
       <c r="D230" s="31"/>
     </row>
     <row r="231" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A231" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B231" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="C231" s="30" t="s">
         <v>389</v>
-      </c>
-      <c r="C231" s="30" t="s">
-        <v>390</v>
       </c>
       <c r="D231" s="31"/>
     </row>
     <row r="232" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A232" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B232" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="C232" s="30" t="s">
         <v>391</v>
-      </c>
-      <c r="C232" s="30" t="s">
-        <v>392</v>
       </c>
       <c r="D232" s="31"/>
     </row>
     <row r="233" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A233" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B233" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="C233" s="30" t="s">
         <v>393</v>
-      </c>
-      <c r="C233" s="30" t="s">
-        <v>394</v>
       </c>
       <c r="D233" s="31"/>
     </row>
     <row r="234" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A234" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B234" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="C234" s="30" t="s">
         <v>395</v>
-      </c>
-      <c r="C234" s="30" t="s">
-        <v>396</v>
       </c>
       <c r="D234" s="31"/>
     </row>
     <row r="235" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A235" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B235" s="30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C235" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D235" s="31"/>
     </row>
     <row r="236" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A236" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B236" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="C236" s="30" t="s">
         <v>398</v>
-      </c>
-      <c r="C236" s="30" t="s">
-        <v>399</v>
       </c>
       <c r="D236" s="31"/>
     </row>
     <row r="237" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A237" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B237" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="C237" s="30" t="s">
         <v>400</v>
-      </c>
-      <c r="C237" s="30" t="s">
-        <v>401</v>
       </c>
       <c r="D237" s="31"/>
     </row>
     <row r="238" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A238" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B238" s="30" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C238" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D238" s="31"/>
     </row>
     <row r="239" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A239" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B239" s="30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C239" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D239" s="31"/>
     </row>
     <row r="240" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A240" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B240" s="30" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C240" s="30" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D240" s="31"/>
     </row>
     <row r="241" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A241" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B241" s="30" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C241" s="30" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D241" s="31"/>
     </row>
     <row r="242" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A242" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B242" s="30" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C242" s="30" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D242" s="31"/>
     </row>
     <row r="243" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A243" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B243" s="30" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C243" s="30" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D243" s="31"/>
     </row>
     <row r="244" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A244" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B244" s="30" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C244" s="30" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D244" s="31"/>
     </row>
     <row r="245" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A245" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B245" s="30" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C245" s="30" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D245" s="31"/>
     </row>
     <row r="246" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A246" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B246" s="30" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C246" s="30" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D246" s="31"/>
     </row>
     <row r="247" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A247" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B247" s="30" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C247" s="30" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D247" s="31"/>
     </row>
     <row r="248" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A248" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B248" s="30" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C248" s="37" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D248" s="31"/>
     </row>
     <row r="249" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A249" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B249" s="30" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C249" s="37" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D249" s="31"/>
     </row>
     <row r="250" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A250" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B250" s="30" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C250" s="30" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D250" s="31"/>
     </row>
     <row r="251" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A251" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B251" s="30" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C251" s="30" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D251" s="31"/>
     </row>
     <row r="252" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A252" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B252" s="30" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C252" s="30" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D252" s="31"/>
     </row>
     <row r="253" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A253" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B253" s="30" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C253" s="30" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D253" s="31"/>
     </row>
     <row r="254" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A254" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B254" s="30" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C254" s="30" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D254" s="31"/>
     </row>
     <row r="255" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A255" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B255" s="30" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C255" s="30" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D255" s="31"/>
     </row>
     <row r="256" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A256" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B256" s="30" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C256" s="30" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D256" s="31"/>
     </row>
     <row r="257" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A257" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B257" s="30" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C257" s="30" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D257" s="31"/>
     </row>
     <row r="258" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A258" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B258" s="30" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C258" s="30" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D258" s="31"/>
     </row>
     <row r="259" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A259" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B259" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C259" s="30" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D259" s="31"/>
     </row>
     <row r="260" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A260" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B260" s="30" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C260" s="37" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D260" s="31"/>
     </row>
     <row r="261" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A261" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B261" s="30" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C261" s="37" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D261" s="31"/>
     </row>
     <row r="262" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A262" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B262" s="30" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C262" s="37" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D262" s="31"/>
     </row>
     <row r="263" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A263" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B263" s="30" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C263" s="37" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D263" s="31"/>
     </row>
     <row r="264" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A264" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B264" s="30" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C264" s="37" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="D264" s="31"/>
     </row>
     <row r="265" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A265" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B265" s="30" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C265" s="37" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D265" s="31"/>
     </row>
     <row r="266" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A266" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B266" s="30" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C266" s="37" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D266" s="31"/>
     </row>
     <row r="267" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A267" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B267" s="30" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C267" s="37" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D267" s="31"/>
     </row>
     <row r="268" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A268" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B268" s="30" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C268" s="37" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D268" s="31"/>
     </row>
     <row r="269" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A269" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B269" s="30" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C269" s="37" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D269" s="31"/>
     </row>
     <row r="270" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A270" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B270" s="30" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C270" s="37" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D270" s="31"/>
     </row>
     <row r="271" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A271" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B271" s="30" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C271" s="37" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D271" s="31"/>
     </row>
     <row r="272" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A272" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B272" s="30" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C272" s="37" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D272" s="31"/>
     </row>
     <row r="273" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A273" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B273" s="30" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C273" s="37" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D273" s="31"/>
     </row>
     <row r="274" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A274" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B274" s="30" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C274" s="37" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D274" s="31"/>
     </row>
     <row r="275" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A275" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B275" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="C275" s="30" t="s">
         <v>404</v>
-      </c>
-      <c r="C275" s="30" t="s">
-        <v>405</v>
       </c>
       <c r="D275" s="31"/>
     </row>
     <row r="276" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A276" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B276" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="C276" s="30" t="s">
         <v>406</v>
-      </c>
-      <c r="C276" s="30" t="s">
-        <v>407</v>
       </c>
       <c r="D276" s="31"/>
     </row>
     <row r="277" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A277" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B277" s="30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C277" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D277" s="31"/>
     </row>
     <row r="278" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A278" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B278" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C278" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D278" s="31"/>
     </row>
     <row r="279" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A279" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B279" s="30" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C279" s="30" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D279" s="31"/>
     </row>
     <row r="280" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
       <c r="A280" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B280" s="34" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C280" s="30" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D280" s="31"/>
     </row>
     <row r="281" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
       <c r="A281" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B281" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="C281" s="30" t="s">
         <v>412</v>
-      </c>
-      <c r="C281" s="30" t="s">
-        <v>413</v>
       </c>
       <c r="D281" s="31"/>
     </row>
     <row r="282" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A282" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B282" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="C282" s="30" t="s">
         <v>414</v>
-      </c>
-      <c r="C282" s="30" t="s">
-        <v>415</v>
       </c>
       <c r="D282" s="31"/>
     </row>
     <row r="283" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
       <c r="A283" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B283" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="C283" s="30" t="s">
         <v>416</v>
-      </c>
-      <c r="C283" s="30" t="s">
-        <v>417</v>
       </c>
       <c r="D283" s="31"/>
     </row>
     <row r="284" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
       <c r="A284" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B284" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="C284" s="30" t="s">
         <v>418</v>
-      </c>
-      <c r="C284" s="30" t="s">
-        <v>419</v>
       </c>
       <c r="D284" s="31"/>
     </row>
     <row r="285" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
       <c r="A285" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B285" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="C285" s="30" t="s">
         <v>420</v>
-      </c>
-      <c r="C285" s="30" t="s">
-        <v>421</v>
       </c>
       <c r="D285" s="31"/>
     </row>
     <row r="286" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A286" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B286" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="C286" s="30" t="s">
         <v>422</v>
-      </c>
-      <c r="C286" s="30" t="s">
-        <v>423</v>
       </c>
       <c r="D286" s="31"/>
     </row>
     <row r="287" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
       <c r="A287" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B287" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="C287" s="30" t="s">
         <v>424</v>
-      </c>
-      <c r="C287" s="30" t="s">
-        <v>425</v>
       </c>
       <c r="D287" s="31"/>
     </row>
     <row r="288" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A288" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B288" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="C288" s="30" t="s">
         <v>426</v>
-      </c>
-      <c r="C288" s="30" t="s">
-        <v>427</v>
       </c>
       <c r="D288" s="31"/>
     </row>
     <row r="289" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A289" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B289" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="C289" s="30" t="s">
         <v>428</v>
-      </c>
-      <c r="C289" s="30" t="s">
-        <v>429</v>
       </c>
       <c r="D289" s="31"/>
     </row>
     <row r="290" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A290" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B290" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="C290" s="32" t="s">
         <v>57</v>
-      </c>
-      <c r="B290" s="30" t="s">
-        <v>430</v>
-      </c>
-      <c r="C290" s="32" t="s">
-        <v>58</v>
       </c>
       <c r="D290" s="31"/>
     </row>
     <row r="291" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A291" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B291" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C291" s="30" t="s">
         <v>59</v>
-      </c>
-      <c r="C291" s="30" t="s">
-        <v>60</v>
       </c>
       <c r="D291" s="31"/>
     </row>
     <row r="292" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
       <c r="A292" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B292" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="C292" s="30" t="s">
         <v>431</v>
-      </c>
-      <c r="C292" s="30" t="s">
-        <v>432</v>
       </c>
       <c r="D292" s="31"/>
     </row>
     <row r="293" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A293" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B293" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="C293" s="30" t="s">
         <v>433</v>
-      </c>
-      <c r="C293" s="30" t="s">
-        <v>434</v>
       </c>
       <c r="D293" s="31"/>
     </row>
     <row r="294" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A294" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B294" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="C294" s="30" t="s">
         <v>435</v>
-      </c>
-      <c r="C294" s="30" t="s">
-        <v>436</v>
       </c>
       <c r="D294" s="31"/>
     </row>
     <row r="295" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A295" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B295" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="C295" s="30" t="s">
         <v>437</v>
-      </c>
-      <c r="C295" s="30" t="s">
-        <v>438</v>
       </c>
       <c r="D295" s="31"/>
     </row>
     <row r="296" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A296" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B296" s="30" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C296" s="30" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D296" s="31"/>
     </row>
     <row r="297" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A297" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B297" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="C297" s="30" t="s">
         <v>439</v>
-      </c>
-      <c r="C297" s="30" t="s">
-        <v>440</v>
       </c>
       <c r="D297" s="31"/>
     </row>
     <row r="298" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A298" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B298" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="C298" s="30" t="s">
         <v>441</v>
-      </c>
-      <c r="C298" s="30" t="s">
-        <v>442</v>
       </c>
       <c r="D298" s="31"/>
     </row>
     <row r="299" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A299" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B299" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="C299" s="30" t="s">
         <v>443</v>
-      </c>
-      <c r="C299" s="30" t="s">
-        <v>444</v>
       </c>
       <c r="D299" s="31"/>
     </row>
     <row r="300" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A300" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B300" s="32" t="s">
+        <v>444</v>
+      </c>
+      <c r="C300" s="32" t="s">
         <v>61</v>
-      </c>
-      <c r="B300" s="32" t="s">
-        <v>445</v>
-      </c>
-      <c r="C300" s="32" t="s">
-        <v>62</v>
       </c>
       <c r="D300" s="31"/>
     </row>
     <row r="301" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A301" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B301" s="32" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C301" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D301" s="31"/>
     </row>
     <row r="302" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A302" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B302" s="32" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C302" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D302" s="31"/>
     </row>
     <row r="303" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A303" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B303" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="C303" s="32" t="s">
         <v>448</v>
-      </c>
-      <c r="C303" s="32" t="s">
-        <v>449</v>
       </c>
       <c r="D303" s="31"/>
     </row>
     <row r="304" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
       <c r="A304" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B304" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="C304" s="30" t="s">
         <v>450</v>
-      </c>
-      <c r="C304" s="30" t="s">
-        <v>451</v>
       </c>
       <c r="D304" s="31"/>
     </row>
     <row r="305" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
       <c r="A305" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B305" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="C305" s="32" t="s">
         <v>65</v>
-      </c>
-      <c r="B305" s="30" t="s">
-        <v>452</v>
-      </c>
-      <c r="C305" s="32" t="s">
-        <v>66</v>
       </c>
       <c r="D305" s="31"/>
     </row>
     <row r="306" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
       <c r="A306" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B306" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C306" s="32" t="s">
         <v>67</v>
-      </c>
-      <c r="C306" s="32" t="s">
-        <v>68</v>
       </c>
       <c r="D306" s="31"/>
     </row>
     <row r="307" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
       <c r="A307" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B307" s="30" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C307" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D307" s="31"/>
     </row>
     <row r="308" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
       <c r="A308" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B308" s="30" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C308" s="32" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D308" s="31"/>
     </row>
     <row r="309" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
       <c r="A309" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B309" s="32" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C309" s="32" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D309" s="31"/>
     </row>
     <row r="310" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
       <c r="A310" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B310" s="32" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C310" s="32" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D310" s="31"/>
     </row>
     <row r="311" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
       <c r="A311" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B311" s="32" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C311" s="32" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D311" s="31"/>
     </row>
     <row r="312" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
       <c r="A312" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B312" s="30" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C312" s="32" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D312" s="31"/>
     </row>
     <row r="313" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
       <c r="A313" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B313" s="30" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C313" s="32" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D313" s="31"/>
     </row>
     <row r="314" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
       <c r="A314" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B314" s="30" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C314" s="32" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D314" s="31"/>
     </row>
     <row r="315" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A315" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B315" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="C315" s="30" t="s">
         <v>454</v>
-      </c>
-      <c r="C315" s="30" t="s">
-        <v>455</v>
       </c>
       <c r="D315" s="31"/>
     </row>
     <row r="316" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
       <c r="A316" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B316" s="34" t="s">
+        <v>455</v>
+      </c>
+      <c r="C316" s="30" t="s">
         <v>456</v>
-      </c>
-      <c r="C316" s="30" t="s">
-        <v>457</v>
       </c>
       <c r="D316" s="31"/>
     </row>
     <row r="317" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A317" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B317" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="C317" s="30" t="s">
         <v>458</v>
-      </c>
-      <c r="C317" s="30" t="s">
-        <v>459</v>
       </c>
       <c r="D317" s="31"/>
     </row>
     <row r="318" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A318" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B318" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="C318" s="30" t="s">
         <v>460</v>
-      </c>
-      <c r="C318" s="30" t="s">
-        <v>461</v>
       </c>
       <c r="D318" s="31"/>
     </row>
     <row r="319" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A319" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B319" s="30" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C319" s="30" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D319" s="31"/>
     </row>
     <row r="320" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A320" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B320" s="30" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C320" s="30" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D320" s="31"/>
     </row>
     <row r="321" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A321" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B321" s="30" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C321" s="30" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D321" s="31"/>
     </row>
     <row r="322" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A322" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B322" s="30" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C322" s="30" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D322" s="31"/>
     </row>
     <row r="323" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A323" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B323" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="C323" s="30" t="s">
         <v>462</v>
-      </c>
-      <c r="C323" s="30" t="s">
-        <v>463</v>
       </c>
       <c r="D323" s="31"/>
     </row>
     <row r="324" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A324" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B324" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="C324" s="30" t="s">
         <v>464</v>
-      </c>
-      <c r="C324" s="30" t="s">
-        <v>465</v>
       </c>
       <c r="D324" s="31"/>
     </row>
     <row r="325" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A325" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B325" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="C325" s="30" t="s">
         <v>466</v>
-      </c>
-      <c r="C325" s="30" t="s">
-        <v>467</v>
       </c>
       <c r="D325" s="31"/>
     </row>
     <row r="326" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A326" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B326" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="C326" s="30" t="s">
         <v>70</v>
-      </c>
-      <c r="B326" s="30" t="s">
-        <v>468</v>
-      </c>
-      <c r="C326" s="30" t="s">
-        <v>71</v>
       </c>
       <c r="D326" s="31"/>
     </row>
     <row r="327" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A327" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B327" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="C327" s="30" t="s">
         <v>469</v>
-      </c>
-      <c r="C327" s="30" t="s">
-        <v>470</v>
       </c>
       <c r="D327" s="31"/>
     </row>
     <row r="328" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
       <c r="A328" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B328" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="C328" s="30" t="s">
         <v>471</v>
-      </c>
-      <c r="C328" s="30" t="s">
-        <v>472</v>
       </c>
       <c r="D328" s="31"/>
     </row>
     <row r="329" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A329" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B329" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="C329" s="30" t="s">
         <v>473</v>
-      </c>
-      <c r="C329" s="30" t="s">
-        <v>474</v>
       </c>
       <c r="D329" s="31"/>
     </row>
     <row r="330" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A330" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B330" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="C330" s="30" t="s">
         <v>475</v>
-      </c>
-      <c r="C330" s="30" t="s">
-        <v>476</v>
       </c>
       <c r="D330" s="31"/>
     </row>
     <row r="331" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A331" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B331" s="30" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C331" s="30" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D331" s="31"/>
     </row>
     <row r="332" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A332" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B332" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="C332" s="30" t="s">
         <v>477</v>
-      </c>
-      <c r="C332" s="30" t="s">
-        <v>478</v>
       </c>
       <c r="D332" s="31"/>
     </row>
     <row r="333" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A333" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B333" s="30" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C333" s="30" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D333" s="31"/>
     </row>
     <row r="334" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A334" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B334" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="C334" s="30" t="s">
         <v>72</v>
-      </c>
-      <c r="B334" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="C334" s="30" t="s">
-        <v>73</v>
       </c>
       <c r="D334" s="31"/>
     </row>
     <row r="335" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A335" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B335" s="30" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C335" s="30" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D335" s="31"/>
     </row>
     <row r="336" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A336" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B336" s="30" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C336" s="30" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D336" s="31"/>
     </row>
     <row r="337" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A337" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B337" s="30" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C337" s="30" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D337" s="31"/>
     </row>
     <row r="338" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A338" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B338" s="30" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C338" s="30" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D338" s="31"/>
     </row>
     <row r="339" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A339" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B339" s="30" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C339" s="30" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D339" s="31"/>
     </row>
     <row r="340" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A340" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B340" s="30" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C340" s="30" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D340" s="31"/>
     </row>
     <row r="341" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A341" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B341" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="C341" s="30" t="s">
         <v>480</v>
-      </c>
-      <c r="C341" s="30" t="s">
-        <v>481</v>
       </c>
       <c r="D341" s="31"/>
     </row>
     <row r="342" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A342" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B342" s="30" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C342" s="30" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D342" s="31"/>
     </row>
     <row r="343" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A343" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B343" s="30" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C343" s="30" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D343" s="31"/>
     </row>
     <row r="344" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A344" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B344" s="30" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C344" s="30" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D344" s="31"/>
     </row>
     <row r="345" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A345" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B345" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="C345" s="30" t="s">
         <v>482</v>
-      </c>
-      <c r="C345" s="30" t="s">
-        <v>483</v>
       </c>
       <c r="D345" s="31"/>
     </row>
     <row r="346" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A346" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B346" s="30" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C346" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D346" s="31"/>
     </row>
     <row r="347" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A347" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B347" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="C347" s="30" t="s">
         <v>485</v>
-      </c>
-      <c r="C347" s="30" t="s">
-        <v>486</v>
       </c>
       <c r="D347" s="31"/>
     </row>
     <row r="348" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A348" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B348" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="C348" s="30" t="s">
         <v>487</v>
-      </c>
-      <c r="C348" s="30" t="s">
-        <v>488</v>
       </c>
       <c r="D348" s="31"/>
     </row>
     <row r="349" spans="1:4" s="7" customFormat="1" ht="35" customHeight="1">
       <c r="A349" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B349" s="34" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C349" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D349" s="31"/>
     </row>
     <row r="350" spans="1:4" ht="35" customHeight="1">
       <c r="A350" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B350" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B350" s="32" t="s">
+      <c r="C350" s="32" t="s">
         <v>77</v>
-      </c>
-      <c r="C350" s="32" t="s">
-        <v>78</v>
       </c>
       <c r="D350" s="31"/>
     </row>
     <row r="351" spans="1:4" ht="35" customHeight="1">
       <c r="A351" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B351" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C351" s="32" t="s">
         <v>79</v>
-      </c>
-      <c r="C351" s="32" t="s">
-        <v>80</v>
       </c>
       <c r="D351" s="31"/>
     </row>
     <row r="352" spans="1:4" ht="35" customHeight="1">
       <c r="A352" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B352" s="32" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C352" s="32" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D352" s="31"/>
     </row>
     <row r="353" spans="1:1023" ht="35" customHeight="1">
       <c r="A353" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B353" s="32" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C353" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D353" s="31"/>
     </row>
     <row r="354" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
       <c r="A354" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B354" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C354" s="35" t="s">
         <v>82</v>
-      </c>
-      <c r="C354" s="35" t="s">
-        <v>83</v>
       </c>
       <c r="D354" s="31"/>
       <c r="E354" s="3"/>
@@ -8994,473 +8994,473 @@
     </row>
     <row r="355" spans="1:1023" ht="35" customHeight="1">
       <c r="A355" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B355" s="32" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C355" s="32" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D355" s="31"/>
     </row>
     <row r="356" spans="1:1023" ht="35" customHeight="1">
       <c r="A356" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B356" s="32" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C356" s="32" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D356" s="31"/>
     </row>
     <row r="357" spans="1:1023" ht="35" customHeight="1">
       <c r="A357" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B357" s="32" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C357" s="32" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D357" s="31"/>
     </row>
     <row r="358" spans="1:1023" ht="35" customHeight="1">
       <c r="A358" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B358" s="32" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C358" s="32" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D358" s="31"/>
     </row>
     <row r="359" spans="1:1023" ht="35" customHeight="1">
       <c r="A359" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B359" s="32" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C359" s="32" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D359" s="31"/>
     </row>
     <row r="360" spans="1:1023" ht="35" customHeight="1">
       <c r="A360" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B360" s="32" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C360" s="32" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D360" s="31"/>
     </row>
     <row r="361" spans="1:1023" ht="35" customHeight="1">
       <c r="A361" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B361" s="32" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C361" s="32" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D361" s="31"/>
     </row>
     <row r="362" spans="1:1023" ht="35" customHeight="1">
       <c r="A362" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B362" s="32" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C362" s="32" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D362" s="31"/>
     </row>
     <row r="363" spans="1:1023" ht="35" customHeight="1">
       <c r="A363" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B363" s="32" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C363" s="32" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D363" s="31"/>
     </row>
     <row r="364" spans="1:1023" ht="35" customHeight="1">
       <c r="A364" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B364" s="32" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C364" s="32" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D364" s="31"/>
     </row>
     <row r="365" spans="1:1023" ht="35" customHeight="1">
       <c r="A365" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B365" s="32" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C365" s="32" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D365" s="31"/>
     </row>
     <row r="366" spans="1:1023" ht="35" customHeight="1">
       <c r="A366" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B366" s="32" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C366" s="32" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D366" s="31"/>
     </row>
     <row r="367" spans="1:1023" ht="35" customHeight="1">
       <c r="A367" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B367" s="32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C367" s="32" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D367" s="31"/>
     </row>
     <row r="368" spans="1:1023" ht="35" customHeight="1">
       <c r="A368" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B368" s="32" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C368" s="32" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D368" s="31"/>
     </row>
     <row r="369" spans="1:4" ht="35" customHeight="1">
       <c r="A369" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B369" s="32" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C369" s="32" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D369" s="31"/>
     </row>
     <row r="370" spans="1:4" ht="35" customHeight="1">
       <c r="A370" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B370" s="32" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C370" s="32" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D370" s="31"/>
     </row>
     <row r="371" spans="1:4" ht="35" customHeight="1">
       <c r="A371" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B371" s="32" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C371" s="32" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D371" s="31"/>
     </row>
     <row r="372" spans="1:4" ht="35" customHeight="1">
       <c r="A372" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B372" s="32" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C372" s="32" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D372" s="31"/>
     </row>
     <row r="373" spans="1:4" ht="35" customHeight="1">
       <c r="A373" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B373" s="32" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C373" s="32" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D373" s="31"/>
     </row>
     <row r="374" spans="1:4" ht="35" customHeight="1">
       <c r="A374" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B374" s="32" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C374" s="32" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D374" s="31"/>
     </row>
     <row r="375" spans="1:4" ht="35" customHeight="1">
       <c r="A375" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B375" s="32" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C375" s="32" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D375" s="31"/>
     </row>
     <row r="376" spans="1:4" ht="35" customHeight="1">
       <c r="A376" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B376" s="32" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C376" s="32" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D376" s="31"/>
     </row>
     <row r="377" spans="1:4" ht="35" customHeight="1">
       <c r="A377" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B377" s="32" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C377" s="32" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D377" s="31"/>
     </row>
     <row r="378" spans="1:4" ht="35" customHeight="1">
       <c r="A378" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B378" s="32" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C378" s="32" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D378" s="31"/>
     </row>
     <row r="379" spans="1:4" ht="35" customHeight="1">
       <c r="A379" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B379" s="32" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C379" s="32" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D379" s="31"/>
     </row>
     <row r="380" spans="1:4" ht="35" customHeight="1">
       <c r="A380" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B380" s="32" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C380" s="32" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D380" s="31"/>
     </row>
     <row r="381" spans="1:4" ht="35" customHeight="1">
       <c r="A381" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B381" s="32" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C381" s="32" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D381" s="31"/>
     </row>
     <row r="382" spans="1:4" ht="35" customHeight="1">
       <c r="A382" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B382" s="32" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C382" s="32" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D382" s="31"/>
     </row>
     <row r="383" spans="1:4" ht="35" customHeight="1">
       <c r="A383" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B383" s="32" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C383" s="32" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D383" s="31"/>
     </row>
     <row r="384" spans="1:4" ht="35" customHeight="1">
       <c r="A384" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B384" s="32" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C384" s="32" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D384" s="31"/>
     </row>
     <row r="385" spans="1:1023" ht="35" customHeight="1">
       <c r="A385" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B385" s="32" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C385" s="32" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D385" s="31"/>
     </row>
     <row r="386" spans="1:1023" ht="35" customHeight="1">
       <c r="A386" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B386" s="32" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C386" s="32" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D386" s="31"/>
     </row>
     <row r="387" spans="1:1023" ht="35" customHeight="1">
       <c r="A387" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B387" s="32" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C387" s="32" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D387" s="31"/>
     </row>
     <row r="388" spans="1:1023" ht="35" customHeight="1">
       <c r="A388" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B388" s="32" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C388" s="32" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D388" s="31"/>
     </row>
     <row r="389" spans="1:1023" ht="35" customHeight="1">
       <c r="A389" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B389" s="32" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C389" s="32" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D389" s="31" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="390" spans="1:1023" ht="35" customHeight="1">
       <c r="A390" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B390" s="32" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C390" s="32" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D390" s="31" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="391" spans="1:1023" ht="35" customHeight="1">
       <c r="A391" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B391" s="32" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C391" s="32" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D391" s="31"/>
     </row>
     <row r="392" spans="1:1023" ht="35" customHeight="1">
       <c r="A392" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B392" s="32" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C392" s="32" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D392" s="31"/>
     </row>
     <row r="393" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
       <c r="A393" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B393" s="35" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C393" s="35" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D393" s="36"/>
       <c r="E393" s="3"/>
@@ -10485,255 +10485,255 @@
     </row>
     <row r="394" spans="1:1023" ht="35" customHeight="1">
       <c r="A394" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B394" s="32" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C394" s="32" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D394" s="31" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="395" spans="1:1023" ht="35" customHeight="1">
       <c r="A395" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C395" s="15" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D395" s="10"/>
     </row>
     <row r="396" spans="1:1023" ht="35" customHeight="1">
       <c r="A396" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B396" s="15" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C396" s="15" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D396" s="10"/>
     </row>
     <row r="397" spans="1:1023" ht="35" customHeight="1">
       <c r="A397" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B397" s="15" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C397" s="15" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D397" s="10"/>
     </row>
     <row r="398" spans="1:1023" ht="35" customHeight="1">
       <c r="A398" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B398" s="15" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C398" s="15" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D398" s="9"/>
     </row>
     <row r="399" spans="1:1023" ht="35" customHeight="1">
       <c r="A399" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B399" s="15" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C399" s="15" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D399" s="10"/>
     </row>
     <row r="400" spans="1:1023" ht="35" customHeight="1">
       <c r="A400" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B400" s="15" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C400" s="15" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D400" s="10"/>
     </row>
     <row r="401" spans="1:1023" ht="35" customHeight="1">
       <c r="A401" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B401" s="15" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C401" s="15" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D401" s="10"/>
     </row>
     <row r="402" spans="1:1023" ht="35" customHeight="1">
       <c r="A402" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B402" s="15" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C402" s="15" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D402" s="9"/>
     </row>
     <row r="403" spans="1:1023" ht="35" customHeight="1">
       <c r="A403" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B403" s="15" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C403" s="15" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D403" s="9"/>
     </row>
     <row r="404" spans="1:1023" ht="35" customHeight="1">
       <c r="A404" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B404" s="15" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C404" s="15" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D404" s="9"/>
     </row>
     <row r="405" spans="1:1023" ht="35" customHeight="1">
       <c r="A405" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B405" s="15" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C405" s="15" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D405" s="9"/>
     </row>
     <row r="406" spans="1:1023" ht="35" customHeight="1">
       <c r="A406" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B406" s="15" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C406" s="15" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D406" s="9"/>
     </row>
     <row r="407" spans="1:1023" ht="35" customHeight="1">
       <c r="A407" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B407" s="15" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C407" s="15" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D407" s="9"/>
     </row>
     <row r="408" spans="1:1023" ht="35" customHeight="1">
       <c r="A408" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B408" s="15" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C408" s="15" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D408" s="10"/>
     </row>
     <row r="409" spans="1:1023" ht="35" customHeight="1">
       <c r="A409" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B409" s="15" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C409" s="15" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D409" s="10"/>
     </row>
     <row r="410" spans="1:1023" ht="35" customHeight="1">
       <c r="A410" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B410" s="15" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C410" s="15" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D410" s="10"/>
     </row>
     <row r="411" spans="1:1023" ht="35" customHeight="1">
       <c r="A411" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B411" s="15" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C411" s="15" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D411" s="10"/>
     </row>
     <row r="412" spans="1:1023" ht="35" customHeight="1">
       <c r="A412" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B412" s="15" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C412" s="15" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D412" s="10"/>
     </row>
     <row r="413" spans="1:1023" ht="35" customHeight="1">
       <c r="A413" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B413" s="15" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C413" s="15" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D413" s="10"/>
     </row>
     <row r="414" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
       <c r="A414" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B414" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B414" s="17" t="s">
+      <c r="C414" s="17" t="s">
         <v>86</v>
-      </c>
-      <c r="C414" s="17" t="s">
-        <v>87</v>
       </c>
       <c r="D414" s="10"/>
       <c r="E414" s="3"/>
@@ -11758,263 +11758,263 @@
     </row>
     <row r="415" spans="1:1023" ht="35" customHeight="1">
       <c r="A415" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B415" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C415" s="15" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D415" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="416" spans="1:1023" ht="35" customHeight="1">
       <c r="A416" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B416" s="15" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C416" s="15" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D416" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="417" spans="1:4" ht="35" customHeight="1">
       <c r="A417" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B417" s="15" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C417" s="15" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D417" s="10"/>
     </row>
     <row r="418" spans="1:4" ht="35" customHeight="1">
       <c r="A418" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B418" s="15" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C418" s="15" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D418" s="10"/>
     </row>
     <row r="419" spans="1:4" ht="35" customHeight="1">
       <c r="A419" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B419" s="15" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C419" s="15" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D419" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="420" spans="1:4" ht="35" customHeight="1">
       <c r="A420" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B420" s="15" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C420" s="15" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D420" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="421" spans="1:4" ht="35" customHeight="1">
       <c r="A421" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B421" s="15" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C421" s="15" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D421" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="422" spans="1:4" ht="35" customHeight="1">
       <c r="A422" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B422" s="15" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C422" s="15" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D422" s="9"/>
     </row>
     <row r="423" spans="1:4" ht="35" customHeight="1">
       <c r="A423" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B423" s="15" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C423" s="15" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D423" s="9"/>
     </row>
     <row r="424" spans="1:4" ht="35" customHeight="1">
       <c r="A424" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B424" s="15" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C424" s="15" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D424" s="9"/>
     </row>
     <row r="425" spans="1:4" ht="35" customHeight="1">
       <c r="A425" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B425" s="15" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C425" s="15" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D425" s="9"/>
     </row>
     <row r="426" spans="1:4" ht="35" customHeight="1">
       <c r="A426" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B426" s="15" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C426" s="15" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D426" s="9"/>
     </row>
     <row r="427" spans="1:4" ht="35" customHeight="1">
       <c r="A427" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B427" s="15" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C427" s="15" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D427" s="9"/>
     </row>
     <row r="428" spans="1:4" ht="35" customHeight="1">
       <c r="A428" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B428" s="15" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C428" s="15" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D428" s="10"/>
     </row>
     <row r="429" spans="1:4" ht="35" customHeight="1">
       <c r="A429" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B429" s="15" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C429" s="15" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D429" s="10"/>
     </row>
     <row r="430" spans="1:4" ht="35" customHeight="1">
       <c r="A430" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B430" s="15" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C430" s="15" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D430" s="10"/>
     </row>
     <row r="431" spans="1:4" ht="35" customHeight="1">
       <c r="A431" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B431" s="15" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C431" s="15" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D431" s="10"/>
     </row>
     <row r="432" spans="1:4" ht="35" customHeight="1">
       <c r="A432" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B432" s="18" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C432" s="15" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D432" s="10"/>
     </row>
     <row r="433" spans="1:1023" ht="35" customHeight="1">
       <c r="A433" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B433" s="18" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C433" s="15" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D433" s="10"/>
     </row>
     <row r="434" spans="1:1023" ht="35" customHeight="1">
       <c r="A434" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B434" s="15" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C434" s="15" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D434" s="10"/>
     </row>
     <row r="435" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
       <c r="A435" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B435" s="17" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C435" s="17" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D435" s="10"/>
       <c r="E435" s="3"/>
@@ -13039,193 +13039,193 @@
     </row>
     <row r="436" spans="1:1023" ht="35" customHeight="1">
       <c r="A436" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B436" s="18" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C436" s="18" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D436" s="9"/>
     </row>
     <row r="437" spans="1:1023" ht="35" customHeight="1">
       <c r="A437" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B437" s="18" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C437" s="18" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D437" s="9"/>
     </row>
     <row r="438" spans="1:1023" ht="35" customHeight="1">
       <c r="A438" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B438" s="18" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C438" s="18" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D438" s="10"/>
     </row>
     <row r="439" spans="1:1023" ht="35" customHeight="1">
       <c r="A439" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B439" s="18" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C439" s="18" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D439" s="10"/>
     </row>
     <row r="440" spans="1:1023" ht="35" customHeight="1">
       <c r="A440" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B440" s="18" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C440" s="15" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D440" s="10"/>
     </row>
     <row r="441" spans="1:1023" ht="35" customHeight="1">
       <c r="A441" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B441" s="18" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C441" s="18" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D441" s="9"/>
     </row>
     <row r="442" spans="1:1023" ht="35" customHeight="1">
       <c r="A442" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B442" s="18" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C442" s="18" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D442" s="9"/>
     </row>
     <row r="443" spans="1:1023" ht="35" customHeight="1">
       <c r="A443" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B443" s="18" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C443" s="15" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D443" s="9"/>
     </row>
     <row r="444" spans="1:1023" ht="35" customHeight="1">
       <c r="A444" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B444" s="18" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C444" s="18" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D444" s="9"/>
     </row>
     <row r="445" spans="1:1023" ht="35" customHeight="1">
       <c r="A445" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B445" s="18" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C445" s="18" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D445" s="9"/>
     </row>
     <row r="446" spans="1:1023" ht="35" customHeight="1">
       <c r="A446" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B446" s="18" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C446" s="18" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D446" s="9"/>
     </row>
     <row r="447" spans="1:1023" ht="35" customHeight="1">
       <c r="A447" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B447" s="18" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C447" s="18" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D447" s="9"/>
     </row>
     <row r="448" spans="1:1023" ht="35" customHeight="1">
       <c r="A448" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B448" s="18" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C448" s="18" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D448" s="10"/>
     </row>
     <row r="449" spans="1:1023" ht="35" customHeight="1">
       <c r="A449" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B449" s="18" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C449" s="18" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D449" s="10"/>
     </row>
     <row r="450" spans="1:1023" ht="35" customHeight="1">
       <c r="A450" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B450" s="18" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C450" s="15" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D450" s="10"/>
     </row>
     <row r="451" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
       <c r="A451" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B451" s="21" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C451" s="17" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D451" s="10"/>
       <c r="E451" s="3"/>
@@ -14250,183 +14250,183 @@
     </row>
     <row r="452" spans="1:1023" ht="35" customHeight="1">
       <c r="A452" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B452" s="18" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C452" s="18" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D452" s="10"/>
     </row>
     <row r="453" spans="1:1023" ht="35" customHeight="1">
       <c r="A453" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B453" s="18" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C453" s="18" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D453" s="10"/>
     </row>
     <row r="454" spans="1:1023" ht="35" customHeight="1">
       <c r="A454" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B454" s="18" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C454" s="18" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D454" s="10"/>
     </row>
     <row r="455" spans="1:1023" ht="35" customHeight="1">
       <c r="A455" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B455" s="18" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C455" s="18" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D455" s="9"/>
     </row>
     <row r="456" spans="1:1023" ht="35" customHeight="1">
       <c r="A456" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B456" s="18" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C456" s="15" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D456" s="9"/>
     </row>
     <row r="457" spans="1:1023" ht="35" customHeight="1">
       <c r="A457" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B457" s="18" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C457" s="15" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D457" s="10"/>
     </row>
     <row r="458" spans="1:1023" ht="35" customHeight="1">
       <c r="A458" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B458" s="18" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C458" s="18" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D458" s="10"/>
     </row>
     <row r="459" spans="1:1023" ht="35" customHeight="1">
       <c r="A459" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B459" s="18" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C459" s="15" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D459" s="10"/>
     </row>
     <row r="460" spans="1:1023" ht="35" customHeight="1">
       <c r="A460" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B460" s="18" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C460" s="15" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D460" s="9"/>
     </row>
     <row r="461" spans="1:1023" ht="35" customHeight="1">
       <c r="A461" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B461" s="18" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C461" s="15" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D461" s="9"/>
     </row>
     <row r="462" spans="1:1023" ht="35" customHeight="1">
       <c r="A462" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B462" s="18" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C462" s="15" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D462" s="9"/>
     </row>
     <row r="463" spans="1:1023" ht="35" customHeight="1">
       <c r="A463" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B463" s="18" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C463" s="18" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D463" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="464" spans="1:1023" ht="35" customHeight="1">
       <c r="A464" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B464" s="18" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C464" s="15" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D464" s="9"/>
     </row>
     <row r="465" spans="1:1023" ht="35" customHeight="1">
       <c r="A465" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B465" s="18" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C465" s="18" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D465" s="9"/>
     </row>
     <row r="466" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
       <c r="A466" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B466" s="21" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C466" s="21" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D466" s="9"/>
       <c r="E466" s="3"/>
@@ -15451,121 +15451,121 @@
     </row>
     <row r="467" spans="1:1023" ht="35" customHeight="1">
       <c r="A467" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B467" s="18" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C467" s="18" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D467" s="9"/>
     </row>
     <row r="468" spans="1:1023" ht="35" customHeight="1">
       <c r="A468" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B468" s="18" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C468" s="18" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D468" s="10"/>
     </row>
     <row r="469" spans="1:1023" ht="35" customHeight="1">
       <c r="A469" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B469" s="18" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C469" s="18" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D469" s="10"/>
     </row>
     <row r="470" spans="1:1023" ht="35" customHeight="1">
       <c r="A470" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B470" s="18" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C470" s="18" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D470" s="10"/>
     </row>
     <row r="471" spans="1:1023" ht="35" customHeight="1">
       <c r="A471" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B471" s="18" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C471" s="18" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D471" s="10"/>
     </row>
     <row r="472" spans="1:1023" ht="35" customHeight="1">
       <c r="A472" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B472" s="18" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C472" s="18" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D472" s="10"/>
     </row>
     <row r="473" spans="1:1023" ht="35" customHeight="1">
       <c r="A473" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B473" s="18" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C473" s="18" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D473" s="10"/>
     </row>
     <row r="474" spans="1:1023" ht="35" customHeight="1">
       <c r="A474" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B474" s="18" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C474" s="18" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D474" s="10"/>
     </row>
     <row r="475" spans="1:1023" ht="35" customHeight="1">
       <c r="A475" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B475" s="18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C475" s="18" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D475" s="9"/>
     </row>
     <row r="476" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
       <c r="A476" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B476" s="21" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C476" s="21" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D476" s="9"/>
       <c r="E476" s="3"/>
@@ -16590,13 +16590,13 @@
     </row>
     <row r="477" spans="1:1023" s="28" customFormat="1" ht="35" customHeight="1">
       <c r="A477" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B477" s="27" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C477" s="15" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D477" s="9"/>
       <c r="E477" s="5"/>
@@ -17621,13 +17621,13 @@
     </row>
     <row r="478" spans="1:1023" s="28" customFormat="1" ht="35" customHeight="1">
       <c r="A478" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B478" s="27" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C478" s="38" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D478" s="9"/>
       <c r="E478" s="5"/>
@@ -18652,157 +18652,157 @@
     </row>
     <row r="479" spans="1:1023" ht="35" customHeight="1">
       <c r="A479" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B479" s="24" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C479" s="15" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D479" s="10"/>
     </row>
     <row r="480" spans="1:1023" ht="35" customHeight="1">
       <c r="A480" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B480" s="24" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C480" s="15" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D480" s="10"/>
     </row>
     <row r="481" spans="1:1023" ht="35" customHeight="1">
       <c r="A481" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B481" s="24" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C481" s="15" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D481" s="10"/>
     </row>
     <row r="482" spans="1:1023" ht="35" customHeight="1">
       <c r="A482" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B482" s="24" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C482" s="15" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D482" s="9"/>
     </row>
     <row r="483" spans="1:1023" ht="35" customHeight="1">
       <c r="A483" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B483" s="24" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C483" s="15" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D483" s="9"/>
     </row>
     <row r="484" spans="1:1023" ht="35" customHeight="1">
       <c r="A484" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B484" s="24" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C484" s="15" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D484" s="9"/>
     </row>
     <row r="485" spans="1:1023" ht="35" customHeight="1">
       <c r="A485" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B485" s="24" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C485" s="15" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D485" s="9"/>
     </row>
     <row r="486" spans="1:1023" ht="35" customHeight="1">
       <c r="A486" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B486" s="24" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C486" s="15" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D486" s="9"/>
     </row>
     <row r="487" spans="1:1023" ht="35" customHeight="1">
       <c r="A487" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B487" s="24" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C487" s="15" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D487" s="9"/>
     </row>
     <row r="488" spans="1:1023" ht="35" customHeight="1">
       <c r="A488" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B488" s="24" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C488" s="15" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D488" s="10"/>
     </row>
     <row r="489" spans="1:1023" ht="35" customHeight="1">
       <c r="A489" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B489" s="24" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C489" s="15" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D489" s="10"/>
     </row>
     <row r="490" spans="1:1023" ht="35" customHeight="1">
       <c r="A490" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B490" s="24" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C490" s="15" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D490" s="10"/>
     </row>
     <row r="491" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
       <c r="A491" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B491" s="26" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C491" s="17" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D491" s="10"/>
       <c r="E491" s="3"/>
@@ -19827,13 +19827,13 @@
     </row>
     <row r="492" spans="1:1023" s="28" customFormat="1" ht="35" customHeight="1">
       <c r="A492" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B492" s="27" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C492" s="15" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D492" s="10"/>
       <c r="E492" s="5"/>
@@ -20858,13 +20858,13 @@
     </row>
     <row r="493" spans="1:1023" s="28" customFormat="1" ht="35" customHeight="1">
       <c r="A493" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B493" s="27" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C493" s="15" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D493" s="10"/>
       <c r="E493" s="5"/>
@@ -21889,13 +21889,13 @@
     </row>
     <row r="494" spans="1:1023" s="28" customFormat="1" ht="35" customHeight="1">
       <c r="A494" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B494" s="27" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C494" s="15" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D494" s="10"/>
       <c r="E494" s="5"/>
@@ -22920,13 +22920,13 @@
     </row>
     <row r="495" spans="1:1023" s="28" customFormat="1" ht="35" customHeight="1">
       <c r="A495" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B495" s="27" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C495" s="15" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D495" s="10"/>
       <c r="E495" s="5"/>
@@ -23951,87 +23951,87 @@
     </row>
     <row r="496" spans="1:1023" ht="35" customHeight="1">
       <c r="A496" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B496" s="23" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C496" s="15" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D496" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="497" spans="1:1023" ht="52" customHeight="1">
       <c r="A497" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B497" s="23" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C497" s="15" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D497" s="9"/>
     </row>
     <row r="498" spans="1:1023" ht="35" customHeight="1">
       <c r="A498" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B498" s="23" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C498" s="15" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D498" s="9"/>
     </row>
     <row r="499" spans="1:1023" ht="35" customHeight="1">
       <c r="A499" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B499" s="23" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C499" s="15" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D499" s="9"/>
     </row>
     <row r="500" spans="1:1023" ht="35" customHeight="1">
       <c r="A500" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B500" s="23" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C500" s="15" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D500" s="10"/>
     </row>
     <row r="501" spans="1:1023" ht="35" customHeight="1">
       <c r="A501" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B501" s="23" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C501" s="15" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D501" s="10"/>
     </row>
     <row r="502" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
       <c r="A502" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B502" s="25" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C502" s="17" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D502" s="9"/>
       <c r="E502" s="3"/>

--- a/utils/excel_to_json/questions.xlsx
+++ b/utils/excel_to_json/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koncz/ivosjatek/utils/excel_to_json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAEBFE4-9CB8-464A-9109-15D6948E8544}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8726B7-EAD4-6A43-A38A-DE2D6CCAAC6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3758,8 +3758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMI1189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A497" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A496" sqref="A496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -4222,8 +4222,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
-      <c r="A38" s="29" t="s">
-        <v>37</v>
+      <c r="A38" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="B38" s="30" t="s">
         <v>309</v>

--- a/utils/excel_to_json/questions.xlsx
+++ b/utils/excel_to_json/questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koncz/ivosjatek/web/utils/excel_to_json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D9F0B0-A983-5D40-B9AD-343BB7C2B0BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C9ABDB-FECD-2A40-932B-767A0188021C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="1091">
   <si>
     <t>outer_quality</t>
   </si>
@@ -3303,6 +3303,9 @@
   </si>
   <si>
     <t>The player with the skinniest jeans must drink.</t>
+  </si>
+  <si>
+    <t>csillag</t>
   </si>
 </sst>
 </file>
@@ -3897,8 +3900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMI1218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A491" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -4329,6 +4332,9 @@
       <c r="C33" s="15" t="s">
         <v>143</v>
       </c>
+      <c r="D33" s="9" t="s">
+        <v>1090</v>
+      </c>
     </row>
     <row r="34" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A34" s="14" t="s">
@@ -4340,6 +4346,9 @@
       <c r="C34" s="15" t="s">
         <v>145</v>
       </c>
+      <c r="D34" s="9" t="s">
+        <v>1090</v>
+      </c>
     </row>
     <row r="35" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A35" s="14" t="s">
@@ -4373,6 +4382,9 @@
       <c r="C37" s="15" t="s">
         <v>151</v>
       </c>
+      <c r="D37" s="9" t="s">
+        <v>1090</v>
+      </c>
     </row>
     <row r="38" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A38" s="14" t="s">
@@ -4384,6 +4396,9 @@
       <c r="C38" s="15" t="s">
         <v>153</v>
       </c>
+      <c r="D38" s="9" t="s">
+        <v>1090</v>
+      </c>
     </row>
     <row r="39" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A39" s="14" t="s">
@@ -4437,6 +4452,9 @@
       <c r="C42" s="15" t="s">
         <v>106</v>
       </c>
+      <c r="D42" s="9" t="s">
+        <v>1090</v>
+      </c>
     </row>
     <row r="43" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A43" s="14" t="s">
@@ -4448,6 +4466,9 @@
       <c r="C43" s="15" t="s">
         <v>108</v>
       </c>
+      <c r="D43" s="9" t="s">
+        <v>1090</v>
+      </c>
     </row>
     <row r="44" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A44" s="14" t="s">
@@ -4459,6 +4480,9 @@
       <c r="C44" s="18" t="s">
         <v>573</v>
       </c>
+      <c r="D44" s="9" t="s">
+        <v>1090</v>
+      </c>
     </row>
     <row r="45" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A45" s="14" t="s">
@@ -4470,6 +4494,9 @@
       <c r="C45" s="18" t="s">
         <v>159</v>
       </c>
+      <c r="D45" s="9" t="s">
+        <v>1090</v>
+      </c>
     </row>
     <row r="46" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A46" s="14" t="s">
@@ -4481,6 +4508,9 @@
       <c r="C46" s="18" t="s">
         <v>983</v>
       </c>
+      <c r="D46" s="9" t="s">
+        <v>1090</v>
+      </c>
     </row>
     <row r="47" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A47" s="14" t="s">
@@ -4492,6 +4522,9 @@
       <c r="C47" s="15" t="s">
         <v>13</v>
       </c>
+      <c r="D47" s="9" t="s">
+        <v>1090</v>
+      </c>
     </row>
     <row r="48" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A48" s="14" t="s">
@@ -4503,6 +4536,9 @@
       <c r="C48" s="15" t="s">
         <v>14</v>
       </c>
+      <c r="D48" s="9" t="s">
+        <v>1090</v>
+      </c>
     </row>
     <row r="49" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A49" s="14" t="s">
@@ -4514,6 +4550,9 @@
       <c r="C49" s="15" t="s">
         <v>15</v>
       </c>
+      <c r="D49" s="9" t="s">
+        <v>1090</v>
+      </c>
     </row>
     <row r="50" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
       <c r="A50" s="16" t="s">
@@ -4525,7 +4564,9 @@
       <c r="C50" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="9"/>
+      <c r="D50" s="9" t="s">
+        <v>1090</v>
+      </c>
     </row>
     <row r="51" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A51" s="14" t="s">
@@ -4691,7 +4732,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
+    <row r="65" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A65" s="14" t="s">
         <v>19</v>
       </c>
@@ -4702,7 +4743,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
+    <row r="66" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A66" s="14" t="s">
         <v>19</v>
       </c>
@@ -4713,7 +4754,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
+    <row r="67" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A67" s="14" t="s">
         <v>19</v>
       </c>
@@ -4724,7 +4765,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
+    <row r="68" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A68" s="14" t="s">
         <v>19</v>
       </c>
@@ -4735,7 +4776,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
+    <row r="69" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A69" s="14" t="s">
         <v>19</v>
       </c>
@@ -4746,7 +4787,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
+    <row r="70" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A70" s="14" t="s">
         <v>19</v>
       </c>
@@ -4757,7 +4798,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
+    <row r="71" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A71" s="14" t="s">
         <v>19</v>
       </c>
@@ -4768,7 +4809,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
+    <row r="72" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A72" s="14" t="s">
         <v>19</v>
       </c>
@@ -4779,7 +4820,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
+    <row r="73" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A73" s="14" t="s">
         <v>19</v>
       </c>
@@ -4790,7 +4831,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
+    <row r="74" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
       <c r="A74" s="16" t="s">
         <v>19</v>
       </c>
@@ -4801,8 +4842,11 @@
         <v>199</v>
       </c>
       <c r="D74" s="9"/>
-    </row>
-    <row r="75" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
+      <c r="E74" s="3" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A75" s="14" t="s">
         <v>20</v>
       </c>
@@ -4813,7 +4857,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
+    <row r="76" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A76" s="14" t="s">
         <v>20</v>
       </c>
@@ -4824,7 +4868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
+    <row r="77" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A77" s="14" t="s">
         <v>20</v>
       </c>
@@ -4835,7 +4879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
+    <row r="78" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
       <c r="A78" s="16" t="s">
         <v>20</v>
       </c>
@@ -4847,7 +4891,7 @@
       </c>
       <c r="D78" s="9"/>
     </row>
-    <row r="79" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
+    <row r="79" spans="1:5" s="5" customFormat="1" ht="35" customHeight="1">
       <c r="A79" s="14" t="s">
         <v>984</v>
       </c>
@@ -4859,7 +4903,7 @@
       </c>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
+    <row r="80" spans="1:5" s="5" customFormat="1" ht="35" customHeight="1">
       <c r="A80" s="14" t="s">
         <v>984</v>
       </c>
@@ -6204,6 +6248,9 @@
       </c>
       <c r="C189" s="18" t="s">
         <v>318</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="190" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -12601,7 +12648,9 @@
       <c r="C440" s="15" t="s">
         <v>881</v>
       </c>
-      <c r="D440" s="9"/>
+      <c r="D440" s="9" t="s">
+        <v>1090</v>
+      </c>
     </row>
     <row r="441" spans="1:5" ht="35" customHeight="1">
       <c r="A441" s="14" t="s">

--- a/utils/excel_to_json/questions.xlsx
+++ b/utils/excel_to_json/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koncz/ivosjatek/utils/excel_to_json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FCDFB5-0EC5-3F4C-B7E8-0C0F18C20817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BABF9D-E6D6-C94A-9E53-C945EE1F162A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15920" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-5500" windowWidth="38400" windowHeight="19520" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="1150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="1165">
   <si>
     <t>outer_quality</t>
   </si>
@@ -2468,9 +2468,6 @@
     <t>Akinek volt mar azsiai szexpartnere, iszik.</t>
   </si>
   <si>
-    <t>%NAME%: Tartsd vissza a lelegzeted 15 masodpercre, vagy igyal kettot!</t>
-  </si>
-  <si>
     <t>%NAME%, mondd ki: 'Nem lehet a Marta mase, mert a Marta mar Tamase.', ha nem megy, iszol!</t>
   </si>
   <si>
@@ -2486,9 +2483,6 @@
     <t>%NAME%, mondd ki: 'Nappal a lapp pap a lapp paplak nappalijaban pipal.', ha nem megy, iszol!</t>
   </si>
   <si>
-    <t>%NAME%, mondd ki: 'Jol jarnak a molnarok mikor jo nyar jar rajok.', ha nem megy, iszol!</t>
-  </si>
-  <si>
     <t>%NAME%: Guggolj le 5-szor! Minden guggolas utan igyal egy kortyot. Ha nem akarsz mozogni, akkor igyal egy rovidet.</t>
   </si>
   <si>
@@ -2540,9 +2534,6 @@
     <t>%NAME%: Meseld el a legfurcsabb Kama Sutra pozt, amit kiprobaltal.</t>
   </si>
   <si>
-    <t>%NAME%: Mutass ra 2 jarekosra: akinek szerinted a leghosszabb es a legrovidebb. De nem mondd meg melyik melyik.</t>
-  </si>
-  <si>
     <t>%NAME%: A jatekosok eldonthetik melyik ruhadarabot vedd le.</t>
   </si>
   <si>
@@ -3062,9 +3053,6 @@
     <t>%NAME%: Kosd be szemed, amig te nem jossz ujra!</t>
   </si>
   <si>
-    <t>%NAME%: Posztolj egy csucsoritos kepet Instagramon vagy Facebookon, vagy igyal kettot!</t>
-  </si>
-  <si>
     <t>%NAME%: Hivd fel egy csaladtagod, es kivanj boldog szuletesnapot, vagy igyal kettot!</t>
   </si>
   <si>
@@ -3098,9 +3086,6 @@
     <t>Mindenki mond egy szinonimat a mellekre. %NAME% kezd, es addig mennek a korok, amig valaki mar nem tud mondani. O iszik.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mindenki mond egy szinonimat a herekre. %NAME% kezd, es addig mennek a korok, amig valaki mar nem tud mondani. O iszik. </t>
-  </si>
-  <si>
     <t>Mindenki mond egy szereplot a South Parkbol. A %NAME% kezd, es addig mennek a korok, amig valaki mar nem tud mondani. O iszik.</t>
   </si>
   <si>
@@ -3323,9 +3308,6 @@
     <t>wine2.png</t>
   </si>
   <si>
-    <t>star-wars.png</t>
-  </si>
-  <si>
     <t>Az iszik, aki reggelizett mar sört.</t>
   </si>
   <si>
@@ -3440,9 +3422,6 @@
     <t>green.png</t>
   </si>
   <si>
-    <t>oldschool.png</t>
-  </si>
-  <si>
     <t>castle.png</t>
   </si>
   <si>
@@ -3483,6 +3462,72 @@
   </si>
   <si>
     <t>icecream.png</t>
+  </si>
+  <si>
+    <t>smoke.png</t>
+  </si>
+  <si>
+    <t>stpatrik.png</t>
+  </si>
+  <si>
+    <t>hoe.png</t>
+  </si>
+  <si>
+    <t>watergun.png</t>
+  </si>
+  <si>
+    <t>tnt.png</t>
+  </si>
+  <si>
+    <t>cow.png</t>
+  </si>
+  <si>
+    <t>eggplant.png</t>
+  </si>
+  <si>
+    <t>donut.png</t>
+  </si>
+  <si>
+    <t>mushroom.png</t>
+  </si>
+  <si>
+    <t>spaceship.png</t>
+  </si>
+  <si>
+    <t>sushi.png</t>
+  </si>
+  <si>
+    <t>house.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mindenki mond egy szinonimat a herékre. %NAME% kezd, es addig mennek a korok, amig valaki mar nem tud mondani. O iszik. </t>
+  </si>
+  <si>
+    <t>hp.png</t>
+  </si>
+  <si>
+    <t>sword.png</t>
+  </si>
+  <si>
+    <t>unicorn.png</t>
+  </si>
+  <si>
+    <t>%NAME%: Tartsd vissza a lelegzeted 15 masodpercre vagy igyal kettot!</t>
+  </si>
+  <si>
+    <t>%NAME%, mondd ki: 'Jol jarnak a molnarok mikor, jo nyar jar rajok.', ha nem megy, iszol!</t>
+  </si>
+  <si>
+    <t>%NAME%: Posztolj egy csucsoritos kepet/tortenetet Instagramon vagy Facebookon, vagy igyal kettot!</t>
+  </si>
+  <si>
+    <t>cupcake.png</t>
+  </si>
+  <si>
+    <t>%NAME%: Mutass ra 2 jarekosra: akinek szerinted a leghosszabb es a legrovidebb. De nem mondd meg, hogy melyik melyik.</t>
+  </si>
+  <si>
+    <t>pizza.png</t>
   </si>
 </sst>
 </file>
@@ -4077,8 +4122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMI1216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D399" sqref="D399"/>
+    <sheetView tabSelected="1" topLeftCell="A508" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D530" sqref="D530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -4114,13 +4159,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>85</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4128,13 +4173,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>86</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4142,13 +4187,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>87</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4156,13 +4201,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>88</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4176,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4184,13 +4229,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4198,13 +4243,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4212,13 +4257,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>92</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4226,13 +4271,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4240,13 +4285,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4254,13 +4299,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>95</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4274,7 +4319,7 @@
         <v>294</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4288,7 +4333,7 @@
         <v>293</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4302,7 +4347,7 @@
         <v>96</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4316,7 +4361,7 @@
         <v>98</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4324,13 +4369,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>582</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4344,7 +4389,7 @@
         <v>100</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4352,13 +4397,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>101</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4366,13 +4411,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>102</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4386,7 +4431,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4400,7 +4445,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4414,7 +4459,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4428,7 +4473,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4442,7 +4487,7 @@
         <v>105</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4456,7 +4501,7 @@
         <v>107</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4470,7 +4515,7 @@
         <v>109</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4478,13 +4523,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="30" customFormat="1" ht="35" customHeight="1">
@@ -4492,13 +4537,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>297</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4512,7 +4557,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>583</v>
@@ -4529,7 +4574,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>583</v>
@@ -4540,13 +4585,13 @@
         <v>580</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>1105</v>
+      <c r="D32" s="30" t="s">
+        <v>1099</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>583</v>
@@ -4557,13 +4602,13 @@
         <v>9</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>114</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4571,13 +4616,13 @@
         <v>9</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>115</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4591,7 +4636,7 @@
         <v>117</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4605,7 +4650,7 @@
         <v>119</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4613,7 +4658,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>120</v>
@@ -4624,7 +4669,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>121</v>
@@ -4635,13 +4680,13 @@
         <v>9</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>208</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4655,7 +4700,7 @@
         <v>122</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4669,7 +4714,7 @@
         <v>124</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4683,7 +4728,7 @@
         <v>89</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4697,7 +4742,7 @@
         <v>90</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4711,7 +4756,7 @@
         <v>298</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4719,13 +4764,13 @@
         <v>9</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>125</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4733,13 +4778,13 @@
         <v>9</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>537</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4747,13 +4792,13 @@
         <v>9</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4761,13 +4806,13 @@
         <v>9</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4775,13 +4820,13 @@
         <v>9</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -4789,13 +4834,13 @@
         <v>9</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>1093</v>
+      <c r="D50" s="30" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4808,6 +4853,9 @@
       <c r="C51" s="15" t="s">
         <v>15</v>
       </c>
+      <c r="D51" s="9" t="s">
+        <v>1102</v>
+      </c>
     </row>
     <row r="52" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A52" s="14" t="s">
@@ -4819,6 +4867,9 @@
       <c r="C52" s="15" t="s">
         <v>299</v>
       </c>
+      <c r="D52" s="9" t="s">
+        <v>1079</v>
+      </c>
     </row>
     <row r="53" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A53" s="14" t="s">
@@ -4831,7 +4882,7 @@
         <v>127</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4845,7 +4896,7 @@
         <v>129</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>583</v>
@@ -4862,7 +4913,7 @@
         <v>131</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4876,7 +4927,7 @@
         <v>536</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4890,7 +4941,7 @@
         <v>132</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4904,7 +4955,7 @@
         <v>581</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -4912,13 +4963,13 @@
         <v>14</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="D59" s="9" t="s">
-        <v>1120</v>
+      <c r="D59" s="30" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4932,7 +4983,7 @@
         <v>135</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4946,7 +4997,7 @@
         <v>137</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4960,7 +5011,7 @@
         <v>139</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4974,7 +5025,7 @@
         <v>141</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4988,7 +5039,7 @@
         <v>142</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5002,7 +5053,7 @@
         <v>144</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5016,7 +5067,7 @@
         <v>146</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5030,7 +5081,7 @@
         <v>533</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5044,7 +5095,7 @@
         <v>534</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5058,7 +5109,7 @@
         <v>148</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5071,6 +5122,9 @@
       <c r="C70" s="15" t="s">
         <v>149</v>
       </c>
+      <c r="D70" s="9" t="s">
+        <v>1129</v>
+      </c>
     </row>
     <row r="71" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A71" s="14" t="s">
@@ -5083,7 +5137,7 @@
         <v>150</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5091,13 +5145,13 @@
         <v>16</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>151</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5111,7 +5165,7 @@
         <v>152</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -5125,7 +5179,7 @@
         <v>153</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>583</v>
@@ -5141,6 +5195,9 @@
       <c r="C75" s="15" t="s">
         <v>155</v>
       </c>
+      <c r="D75" s="9" t="s">
+        <v>1143</v>
+      </c>
     </row>
     <row r="76" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A76" s="14" t="s">
@@ -5153,7 +5210,7 @@
         <v>18</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5167,7 +5224,7 @@
         <v>19</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -5181,7 +5238,7 @@
         <v>156</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="5" customFormat="1" ht="35" customHeight="1">
@@ -5189,13 +5246,13 @@
         <v>538</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>542</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="5" customFormat="1" ht="35" customHeight="1">
@@ -5203,13 +5260,13 @@
         <v>538</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>543</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="81" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
@@ -5223,7 +5280,7 @@
         <v>544</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="82" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
@@ -5237,7 +5294,7 @@
         <v>545</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
@@ -5251,7 +5308,7 @@
         <v>546</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
@@ -5265,7 +5322,7 @@
         <v>547</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="85" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
@@ -5279,7 +5336,7 @@
         <v>157</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="86" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5293,7 +5350,7 @@
         <v>21</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="87" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5307,7 +5364,7 @@
         <v>158</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="88" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
@@ -5321,7 +5378,7 @@
         <v>159</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="89" spans="1:4" s="6" customFormat="1" ht="35" customHeight="1">
@@ -5335,7 +5392,7 @@
         <v>161</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5349,7 +5406,7 @@
         <v>162</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
@@ -5363,7 +5420,7 @@
         <v>163</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="92" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5377,7 +5434,7 @@
         <v>164</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="93" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5391,7 +5448,7 @@
         <v>165</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="94" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5405,7 +5462,7 @@
         <v>166</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="95" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5419,7 +5476,7 @@
         <v>26</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="96" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5433,7 +5490,7 @@
         <v>290</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="97" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5447,7 +5504,7 @@
         <v>167</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5461,7 +5518,7 @@
         <v>168</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5475,7 +5532,7 @@
         <v>170</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5489,7 +5546,7 @@
         <v>172</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="101" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5503,7 +5560,7 @@
         <v>176</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="102" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5517,7 +5574,7 @@
         <v>577</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="103" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5531,7 +5588,7 @@
         <v>27</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="104" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5545,7 +5602,7 @@
         <v>178</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -5553,13 +5610,13 @@
         <v>24</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C105" s="21" t="s">
         <v>179</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="106" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5567,13 +5624,13 @@
         <v>576</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C106" s="18" t="s">
         <v>173</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>583</v>
@@ -5584,13 +5641,13 @@
         <v>576</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C107" s="18" t="s">
         <v>300</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>583</v>
@@ -5607,7 +5664,7 @@
         <v>174</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>583</v>
@@ -5624,7 +5681,7 @@
         <v>175</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>583</v>
@@ -5641,7 +5698,7 @@
         <v>177</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>583</v>
@@ -5658,7 +5715,7 @@
         <v>25</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="E111" s="30" t="s">
         <v>583</v>
@@ -5675,7 +5732,7 @@
         <v>301</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="113" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5689,7 +5746,7 @@
         <v>302</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="114" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5703,7 +5760,7 @@
         <v>180</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="115" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5717,7 +5774,7 @@
         <v>181</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="116" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5731,7 +5788,7 @@
         <v>182</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="117" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5745,7 +5802,7 @@
         <v>183</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="118" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5759,7 +5816,7 @@
         <v>184</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="119" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5767,13 +5824,13 @@
         <v>28</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="C119" s="18" t="s">
         <v>185</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="120" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5786,6 +5843,9 @@
       <c r="C120" s="18" t="s">
         <v>186</v>
       </c>
+      <c r="D120" s="9" t="s">
+        <v>1143</v>
+      </c>
     </row>
     <row r="121" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A121" s="14" t="s">
@@ -5798,7 +5858,7 @@
         <v>303</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="122" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5806,13 +5866,13 @@
         <v>28</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C122" s="18" t="s">
         <v>596</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="123" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5820,10 +5880,13 @@
         <v>28</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C123" s="18" t="s">
         <v>187</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="124" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5836,6 +5899,9 @@
       <c r="C124" s="18" t="s">
         <v>188</v>
       </c>
+      <c r="D124" s="9" t="s">
+        <v>1112</v>
+      </c>
     </row>
     <row r="125" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A125" s="14" t="s">
@@ -5847,6 +5913,9 @@
       <c r="C125" s="18" t="s">
         <v>304</v>
       </c>
+      <c r="D125" s="9" t="s">
+        <v>1112</v>
+      </c>
       <c r="E125" s="9" t="s">
         <v>583</v>
       </c>
@@ -5862,7 +5931,7 @@
         <v>362</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>583</v>
@@ -5878,6 +5947,9 @@
       <c r="C127" s="18" t="s">
         <v>363</v>
       </c>
+      <c r="D127" s="9" t="s">
+        <v>1145</v>
+      </c>
       <c r="E127" s="9" t="s">
         <v>583</v>
       </c>
@@ -5892,6 +5964,9 @@
       <c r="C128" s="18" t="s">
         <v>305</v>
       </c>
+      <c r="D128" s="9" t="s">
+        <v>1145</v>
+      </c>
       <c r="E128" s="9" t="s">
         <v>583</v>
       </c>
@@ -5901,10 +5976,13 @@
         <v>28</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C129" s="18" t="s">
         <v>597</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>1130</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>583</v>
@@ -5915,13 +5993,13 @@
         <v>28</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C130" s="18" t="s">
         <v>189</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>583</v>
@@ -5937,6 +6015,9 @@
       <c r="C131" s="18" t="s">
         <v>361</v>
       </c>
+      <c r="D131" s="9" t="s">
+        <v>1113</v>
+      </c>
     </row>
     <row r="132" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A132" s="14" t="s">
@@ -5948,6 +6029,9 @@
       <c r="C132" s="18" t="s">
         <v>190</v>
       </c>
+      <c r="D132" s="9" t="s">
+        <v>1144</v>
+      </c>
     </row>
     <row r="133" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A133" s="14" t="s">
@@ -5959,6 +6043,9 @@
       <c r="C133" s="15" t="s">
         <v>29</v>
       </c>
+      <c r="D133" s="9" t="s">
+        <v>1144</v>
+      </c>
     </row>
     <row r="134" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A134" s="14" t="s">
@@ -5970,6 +6057,9 @@
       <c r="C134" s="15" t="s">
         <v>30</v>
       </c>
+      <c r="D134" s="9" t="s">
+        <v>1146</v>
+      </c>
     </row>
     <row r="135" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A135" s="14" t="s">
@@ -5982,7 +6072,7 @@
         <v>360</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="136" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5995,6 +6085,9 @@
       <c r="C136" s="15" t="s">
         <v>31</v>
       </c>
+      <c r="D136" s="9" t="s">
+        <v>1147</v>
+      </c>
     </row>
     <row r="137" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A137" s="14" t="s">
@@ -6006,18 +6099,23 @@
       <c r="C137" s="18" t="s">
         <v>191</v>
       </c>
+      <c r="D137" s="9" t="s">
+        <v>1139</v>
+      </c>
     </row>
     <row r="138" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
       <c r="A138" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B138" s="21" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="C138" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="D138" s="9"/>
+      <c r="D138" s="9" t="s">
+        <v>1116</v>
+      </c>
     </row>
     <row r="139" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A139" s="22" t="s">
@@ -6029,6 +6127,9 @@
       <c r="C139" s="18" t="s">
         <v>368</v>
       </c>
+      <c r="D139" s="9" t="s">
+        <v>1075</v>
+      </c>
     </row>
     <row r="140" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A140" s="14" t="s">
@@ -6040,16 +6141,22 @@
       <c r="C140" s="18" t="s">
         <v>369</v>
       </c>
+      <c r="D140" s="9" t="s">
+        <v>1113</v>
+      </c>
     </row>
     <row r="141" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A141" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C141" s="18" t="s">
         <v>370</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="142" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6062,6 +6169,9 @@
       <c r="C142" s="18" t="s">
         <v>565</v>
       </c>
+      <c r="D142" s="9" t="s">
+        <v>1075</v>
+      </c>
     </row>
     <row r="143" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A143" s="14" t="s">
@@ -6074,7 +6184,7 @@
         <v>373</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="144" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6087,16 +6197,22 @@
       <c r="C144" s="18" t="s">
         <v>383</v>
       </c>
+      <c r="D144" s="9" t="s">
+        <v>1148</v>
+      </c>
     </row>
     <row r="145" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A145" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B145" s="18" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C145" s="18" t="s">
         <v>589</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="146" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6109,6 +6225,9 @@
       <c r="C146" s="18" t="s">
         <v>374</v>
       </c>
+      <c r="D146" s="9" t="s">
+        <v>1108</v>
+      </c>
     </row>
     <row r="147" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A147" s="14" t="s">
@@ -6120,16 +6239,22 @@
       <c r="C147" s="18" t="s">
         <v>590</v>
       </c>
+      <c r="D147" s="9" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="148" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A148" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B148" s="27" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C148" s="18" t="s">
         <v>376</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="149" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6137,10 +6262,13 @@
         <v>32</v>
       </c>
       <c r="B149" s="27" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C149" s="18" t="s">
         <v>377</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="150" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6153,6 +6281,9 @@
       <c r="C150" s="18" t="s">
         <v>379</v>
       </c>
+      <c r="D150" s="9" t="s">
+        <v>1113</v>
+      </c>
     </row>
     <row r="151" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A151" s="14" t="s">
@@ -6186,6 +6317,9 @@
       <c r="C153" s="18" t="s">
         <v>564</v>
       </c>
+      <c r="D153" s="9" t="s">
+        <v>1149</v>
+      </c>
       <c r="E153" s="9" t="s">
         <v>583</v>
       </c>
@@ -6200,6 +6334,9 @@
       <c r="C154" s="18" t="s">
         <v>382</v>
       </c>
+      <c r="D154" s="9" t="s">
+        <v>1106</v>
+      </c>
       <c r="E154" s="9" t="s">
         <v>583</v>
       </c>
@@ -6214,6 +6351,9 @@
       <c r="C155" s="18" t="s">
         <v>378</v>
       </c>
+      <c r="D155" s="9" t="s">
+        <v>1149</v>
+      </c>
       <c r="E155" s="9" t="s">
         <v>583</v>
       </c>
@@ -6223,10 +6363,13 @@
         <v>563</v>
       </c>
       <c r="B156" s="18" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C156" s="18" t="s">
         <v>373</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>1149</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>583</v>
@@ -6237,10 +6380,13 @@
         <v>563</v>
       </c>
       <c r="B157" s="18" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C157" s="18" t="s">
         <v>375</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>1084</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>583</v>
@@ -6257,7 +6403,7 @@
         <v>561</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>583</v>
@@ -6268,10 +6414,13 @@
         <v>563</v>
       </c>
       <c r="B159" s="18" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C159" s="18" t="s">
         <v>552</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>1142</v>
       </c>
       <c r="E159" s="9" t="s">
         <v>583</v>
@@ -6282,10 +6431,13 @@
         <v>563</v>
       </c>
       <c r="B160" s="18" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C160" s="18" t="s">
         <v>373</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>1150</v>
       </c>
       <c r="E160" s="9" t="s">
         <v>583</v>
@@ -6301,6 +6453,9 @@
       <c r="C161" s="18" t="s">
         <v>371</v>
       </c>
+      <c r="D161" s="9" t="s">
+        <v>1149</v>
+      </c>
       <c r="E161" s="9" t="s">
         <v>583</v>
       </c>
@@ -6310,10 +6465,13 @@
         <v>563</v>
       </c>
       <c r="B162" s="18" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="C162" s="18" t="s">
         <v>372</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>1149</v>
       </c>
       <c r="E162" s="9" t="s">
         <v>583</v>
@@ -6324,12 +6482,14 @@
         <v>563</v>
       </c>
       <c r="B163" s="21" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C163" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="D163" s="9"/>
+      <c r="D163" s="9" t="s">
+        <v>1150</v>
+      </c>
       <c r="E163" s="3" t="s">
         <v>583</v>
       </c>
@@ -6344,6 +6504,9 @@
       <c r="C164" s="18" t="s">
         <v>192</v>
       </c>
+      <c r="D164" s="9" t="s">
+        <v>1146</v>
+      </c>
     </row>
     <row r="165" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A165" s="14" t="s">
@@ -6355,16 +6518,22 @@
       <c r="C165" s="18" t="s">
         <v>193</v>
       </c>
+      <c r="D165" s="9" t="s">
+        <v>1143</v>
+      </c>
     </row>
     <row r="166" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A166" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B166" s="18" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C166" s="18" t="s">
         <v>194</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="167" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6377,6 +6546,9 @@
       <c r="C167" s="18" t="s">
         <v>554</v>
       </c>
+      <c r="D167" s="9" t="s">
+        <v>1151</v>
+      </c>
     </row>
     <row r="168" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A168" s="14" t="s">
@@ -6388,6 +6560,9 @@
       <c r="C168" s="18" t="s">
         <v>553</v>
       </c>
+      <c r="D168" s="9" t="s">
+        <v>1151</v>
+      </c>
     </row>
     <row r="169" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A169" s="14" t="s">
@@ -6399,6 +6574,9 @@
       <c r="C169" s="18" t="s">
         <v>195</v>
       </c>
+      <c r="D169" s="9" t="s">
+        <v>1139</v>
+      </c>
     </row>
     <row r="170" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A170" s="14" t="s">
@@ -6410,19 +6588,22 @@
       <c r="C170" s="18" t="s">
         <v>196</v>
       </c>
+      <c r="D170" s="9" t="s">
+        <v>1103</v>
+      </c>
     </row>
     <row r="171" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A171" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B171" s="18" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C171" s="18" t="s">
         <v>197</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>1109</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="172" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6435,6 +6616,9 @@
       <c r="C172" s="15" t="s">
         <v>34</v>
       </c>
+      <c r="D172" s="9" t="s">
+        <v>1119</v>
+      </c>
     </row>
     <row r="173" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A173" s="14" t="s">
@@ -6446,6 +6630,9 @@
       <c r="C173" s="18" t="s">
         <v>198</v>
       </c>
+      <c r="D173" s="9" t="s">
+        <v>1144</v>
+      </c>
     </row>
     <row r="174" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A174" s="14" t="s">
@@ -6458,7 +6645,7 @@
         <v>199</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>1096</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="175" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6471,16 +6658,22 @@
       <c r="C175" s="18" t="s">
         <v>200</v>
       </c>
+      <c r="D175" s="9" t="s">
+        <v>1141</v>
+      </c>
     </row>
     <row r="176" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A176" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="C176" s="18" t="s">
         <v>201</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="177" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6488,13 +6681,13 @@
         <v>33</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C177" s="18" t="s">
         <v>202</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="178" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6508,7 +6701,7 @@
         <v>203</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="179" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6521,6 +6714,9 @@
       <c r="C179" s="18" t="s">
         <v>204</v>
       </c>
+      <c r="D179" s="9" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="180" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A180" s="14" t="s">
@@ -6533,7 +6729,7 @@
         <v>205</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="181" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6547,7 +6743,7 @@
         <v>306</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="182" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6560,19 +6756,22 @@
       <c r="C182" s="18" t="s">
         <v>206</v>
       </c>
+      <c r="D182" s="9" t="s">
+        <v>1143</v>
+      </c>
     </row>
     <row r="183" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A183" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B183" s="18" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C183" s="18" t="s">
         <v>207</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="184" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6580,13 +6779,13 @@
         <v>33</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C184" s="18" t="s">
         <v>209</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="185" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6594,13 +6793,13 @@
         <v>33</v>
       </c>
       <c r="B185" s="18" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C185" s="18" t="s">
         <v>210</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="186" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6608,13 +6807,13 @@
         <v>33</v>
       </c>
       <c r="B186" s="18" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C186" s="18" t="s">
         <v>41</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="187" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6622,13 +6821,13 @@
         <v>33</v>
       </c>
       <c r="B187" s="18" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C187" s="15" t="s">
         <v>35</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="188" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6636,13 +6835,13 @@
         <v>33</v>
       </c>
       <c r="B188" s="18" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C188" s="18" t="s">
         <v>211</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="189" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6650,13 +6849,13 @@
         <v>33</v>
       </c>
       <c r="B189" s="18" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="C189" s="18" t="s">
         <v>212</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="190" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6670,7 +6869,7 @@
         <v>36</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="191" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6684,7 +6883,7 @@
         <v>37</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="192" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6698,7 +6897,7 @@
         <v>213</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="193" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6712,7 +6911,7 @@
         <v>555</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="194" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6726,7 +6925,7 @@
         <v>214</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="195" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6734,13 +6933,13 @@
         <v>33</v>
       </c>
       <c r="B195" s="18" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C195" s="18" t="s">
         <v>215</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="196" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6754,7 +6953,7 @@
         <v>586</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="197" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6762,13 +6961,13 @@
         <v>33</v>
       </c>
       <c r="B197" s="18" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="C197" s="15" t="s">
         <v>585</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="198" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6776,13 +6975,13 @@
         <v>33</v>
       </c>
       <c r="B198" s="18" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C198" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="199" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6790,13 +6989,13 @@
         <v>33</v>
       </c>
       <c r="B199" s="18" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C199" s="18" t="s">
         <v>216</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="200" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6810,7 +7009,7 @@
         <v>217</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="201" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6835,7 +7034,7 @@
         <v>219</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="203" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6849,7 +7048,7 @@
         <v>220</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="204" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6863,7 +7062,7 @@
         <v>222</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="205" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6882,7 +7081,7 @@
         <v>33</v>
       </c>
       <c r="B206" s="18" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C206" s="18" t="s">
         <v>225</v>
@@ -6899,7 +7098,7 @@
         <v>227</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="208" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6913,7 +7112,7 @@
         <v>39</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="209" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6927,7 +7126,7 @@
         <v>228</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="210" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6941,7 +7140,7 @@
         <v>229</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="211" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6949,13 +7148,13 @@
         <v>33</v>
       </c>
       <c r="B211" s="18" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C211" s="18" t="s">
         <v>288</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="212" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6969,7 +7168,7 @@
         <v>230</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="213" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6983,7 +7182,7 @@
         <v>231</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="214" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7002,13 +7201,13 @@
         <v>33</v>
       </c>
       <c r="B215" s="18" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C215" s="15" t="s">
         <v>308</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="216" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7022,7 +7221,7 @@
         <v>307</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="217" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7036,7 +7235,7 @@
         <v>291</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="218" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7050,7 +7249,7 @@
         <v>309</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="219" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7064,7 +7263,7 @@
         <v>310</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="220" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7078,7 +7277,7 @@
         <v>311</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="221" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7086,13 +7285,13 @@
         <v>33</v>
       </c>
       <c r="B221" s="18" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C221" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="222" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -7100,13 +7299,13 @@
         <v>33</v>
       </c>
       <c r="B222" s="21" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C222" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="223" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7114,13 +7313,13 @@
         <v>42</v>
       </c>
       <c r="B223" s="18" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="C223" s="18" t="s">
         <v>232</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E223" s="9" t="s">
         <v>583</v>
@@ -7131,13 +7330,13 @@
         <v>42</v>
       </c>
       <c r="B224" s="18" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C224" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="E224" s="9" t="s">
         <v>583</v>
@@ -7154,7 +7353,7 @@
         <v>233</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E225" s="9" t="s">
         <v>583</v>
@@ -7171,7 +7370,7 @@
         <v>548</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="E226" s="9" t="s">
         <v>583</v>
@@ -7188,7 +7387,7 @@
         <v>234</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E227" s="9" t="s">
         <v>583</v>
@@ -7202,10 +7401,10 @@
         <v>723</v>
       </c>
       <c r="C228" s="18" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="E228" s="9" t="s">
         <v>583</v>
@@ -7222,7 +7421,7 @@
         <v>235</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="E229" s="9" t="s">
         <v>583</v>
@@ -7239,7 +7438,7 @@
         <v>236</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="E230" s="9" t="s">
         <v>583</v>
@@ -7256,7 +7455,7 @@
         <v>237</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="E231" s="9" t="s">
         <v>583</v>
@@ -7273,7 +7472,7 @@
         <v>238</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="E232" s="9" t="s">
         <v>583</v>
@@ -7284,13 +7483,13 @@
         <v>42</v>
       </c>
       <c r="B233" s="18" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C233" s="18" t="s">
         <v>239</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="E233" s="9" t="s">
         <v>583</v>
@@ -7301,13 +7500,13 @@
         <v>42</v>
       </c>
       <c r="B234" s="18" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C234" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="E234" s="9" t="s">
         <v>583</v>
@@ -7324,7 +7523,7 @@
         <v>240</v>
       </c>
       <c r="D235" s="9" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="E235" s="9" t="s">
         <v>583</v>
@@ -7341,7 +7540,7 @@
         <v>556</v>
       </c>
       <c r="D236" s="9" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="E236" s="9" t="s">
         <v>583</v>
@@ -7352,13 +7551,13 @@
         <v>42</v>
       </c>
       <c r="B237" s="18" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C237" s="18" t="s">
         <v>241</v>
       </c>
       <c r="D237" s="9" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="E237" s="9" t="s">
         <v>583</v>
@@ -7375,7 +7574,7 @@
         <v>237</v>
       </c>
       <c r="D238" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E238" s="9" t="s">
         <v>583</v>
@@ -7392,7 +7591,7 @@
         <v>45</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="E239" s="9" t="s">
         <v>583</v>
@@ -7409,7 +7608,7 @@
         <v>242</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E240" s="9" t="s">
         <v>583</v>
@@ -7426,7 +7625,7 @@
         <v>243</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E241" s="9" t="s">
         <v>583</v>
@@ -7443,7 +7642,7 @@
         <v>244</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E242" s="9" t="s">
         <v>583</v>
@@ -7454,13 +7653,13 @@
         <v>42</v>
       </c>
       <c r="B243" s="18" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="C243" s="18" t="s">
         <v>245</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="E243" s="9" t="s">
         <v>583</v>
@@ -7477,7 +7676,7 @@
         <v>246</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="E244" s="9" t="s">
         <v>583</v>
@@ -7494,7 +7693,7 @@
         <v>46</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="E245" s="9" t="s">
         <v>583</v>
@@ -7519,13 +7718,13 @@
         <v>42</v>
       </c>
       <c r="B247" s="18" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C247" s="18" t="s">
         <v>248</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E247" s="9" t="s">
         <v>583</v>
@@ -7556,7 +7755,7 @@
         <v>48</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="E249" s="9" t="s">
         <v>583</v>
@@ -7567,13 +7766,13 @@
         <v>42</v>
       </c>
       <c r="B250" s="18" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C250" s="18" t="s">
         <v>312</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="E250" s="9" t="s">
         <v>583</v>
@@ -7584,7 +7783,7 @@
         <v>42</v>
       </c>
       <c r="B251" s="18" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C251" s="18" t="s">
         <v>313</v>
@@ -7598,7 +7797,7 @@
         <v>42</v>
       </c>
       <c r="B252" s="18" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C252" s="18" t="s">
         <v>314</v>
@@ -7612,13 +7811,13 @@
         <v>42</v>
       </c>
       <c r="B253" s="18" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C253" s="18" t="s">
         <v>315</v>
       </c>
       <c r="D253" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E253" s="9" t="s">
         <v>583</v>
@@ -7657,13 +7856,13 @@
         <v>42</v>
       </c>
       <c r="B256" s="18" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C256" s="18" t="s">
         <v>320</v>
       </c>
       <c r="D256" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E256" s="9" t="s">
         <v>583</v>
@@ -7674,13 +7873,13 @@
         <v>42</v>
       </c>
       <c r="B257" s="18" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C257" s="18" t="s">
         <v>321</v>
       </c>
       <c r="D257" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="E257" s="9" t="s">
         <v>583</v>
@@ -7691,7 +7890,7 @@
         <v>42</v>
       </c>
       <c r="B258" s="18" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="C258" s="31" t="s">
         <v>324</v>
@@ -7711,7 +7910,7 @@
         <v>325</v>
       </c>
       <c r="D259" s="9" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="E259" s="9" t="s">
         <v>583</v>
@@ -7728,7 +7927,7 @@
         <v>326</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="E260" s="9" t="s">
         <v>583</v>
@@ -7745,7 +7944,7 @@
         <v>327</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="E261" s="9" t="s">
         <v>583</v>
@@ -7762,7 +7961,7 @@
         <v>329</v>
       </c>
       <c r="D262" s="9" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="E262" s="9" t="s">
         <v>583</v>
@@ -7779,7 +7978,7 @@
         <v>330</v>
       </c>
       <c r="D263" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="E263" s="9" t="s">
         <v>583</v>
@@ -7790,13 +7989,13 @@
         <v>42</v>
       </c>
       <c r="B264" s="18" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C264" s="18" t="s">
         <v>331</v>
       </c>
       <c r="D264" s="9" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="E264" s="9" t="s">
         <v>583</v>
@@ -7807,10 +8006,13 @@
         <v>42</v>
       </c>
       <c r="B265" s="18" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C265" s="18" t="s">
         <v>332</v>
+      </c>
+      <c r="D265" s="9" t="s">
+        <v>1130</v>
       </c>
       <c r="E265" s="9" t="s">
         <v>583</v>
@@ -7826,6 +8028,9 @@
       <c r="C266" s="18" t="s">
         <v>557</v>
       </c>
+      <c r="D266" s="9" t="s">
+        <v>1144</v>
+      </c>
       <c r="E266" s="9" t="s">
         <v>583</v>
       </c>
@@ -7835,10 +8040,13 @@
         <v>42</v>
       </c>
       <c r="B267" s="18" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C267" s="18" t="s">
         <v>333</v>
+      </c>
+      <c r="D267" s="9" t="s">
+        <v>1114</v>
       </c>
       <c r="E267" s="9" t="s">
         <v>583</v>
@@ -7854,6 +8062,9 @@
       <c r="C268" s="18" t="s">
         <v>334</v>
       </c>
+      <c r="D268" s="9" t="s">
+        <v>1081</v>
+      </c>
       <c r="E268" s="9" t="s">
         <v>583</v>
       </c>
@@ -7869,7 +8080,7 @@
         <v>335</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E269" s="9" t="s">
         <v>583</v>
@@ -7886,7 +8097,7 @@
         <v>336</v>
       </c>
       <c r="D270" s="9" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="E270" s="9" t="s">
         <v>583</v>
@@ -7903,7 +8114,7 @@
         <v>337</v>
       </c>
       <c r="D271" s="9" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="E271" s="9" t="s">
         <v>583</v>
@@ -7920,7 +8131,7 @@
         <v>338</v>
       </c>
       <c r="D272" s="9" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="E272" s="9" t="s">
         <v>583</v>
@@ -7931,13 +8142,13 @@
         <v>42</v>
       </c>
       <c r="B273" s="18" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C273" s="31" t="s">
         <v>339</v>
       </c>
       <c r="D273" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E273" s="9" t="s">
         <v>583</v>
@@ -7954,7 +8165,7 @@
         <v>559</v>
       </c>
       <c r="D274" s="9" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="E274" s="9" t="s">
         <v>583</v>
@@ -7971,7 +8182,7 @@
         <v>558</v>
       </c>
       <c r="D275" s="9" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="E275" s="9" t="s">
         <v>583</v>
@@ -7988,7 +8199,7 @@
         <v>340</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="E276" s="9" t="s">
         <v>583</v>
@@ -8005,7 +8216,7 @@
         <v>341</v>
       </c>
       <c r="D277" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E277" s="9" t="s">
         <v>583</v>
@@ -8022,7 +8233,7 @@
         <v>342</v>
       </c>
       <c r="D278" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E278" s="9" t="s">
         <v>583</v>
@@ -8039,7 +8250,7 @@
         <v>343</v>
       </c>
       <c r="D279" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E279" s="9" t="s">
         <v>583</v>
@@ -8056,7 +8267,7 @@
         <v>344</v>
       </c>
       <c r="D280" s="9" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="E280" s="9" t="s">
         <v>583</v>
@@ -8067,13 +8278,13 @@
         <v>42</v>
       </c>
       <c r="B281" s="18" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C281" s="31" t="s">
         <v>345</v>
       </c>
       <c r="D281" s="9" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="E281" s="9" t="s">
         <v>583</v>
@@ -8084,13 +8295,13 @@
         <v>42</v>
       </c>
       <c r="B282" s="18" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C282" s="31" t="s">
         <v>346</v>
       </c>
       <c r="D282" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E282" s="9" t="s">
         <v>583</v>
@@ -8107,7 +8318,7 @@
         <v>531</v>
       </c>
       <c r="D283" s="9" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="E283" s="9" t="s">
         <v>583</v>
@@ -8124,7 +8335,7 @@
         <v>347</v>
       </c>
       <c r="D284" s="9" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="E284" s="9" t="s">
         <v>583</v>
@@ -8141,7 +8352,7 @@
         <v>249</v>
       </c>
       <c r="D285" s="9" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="E285" s="9" t="s">
         <v>583</v>
@@ -8158,7 +8369,7 @@
         <v>250</v>
       </c>
       <c r="D286" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E286" s="9" t="s">
         <v>583</v>
@@ -8175,7 +8386,7 @@
         <v>49</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E287" s="9" t="s">
         <v>583</v>
@@ -8186,13 +8397,13 @@
         <v>42</v>
       </c>
       <c r="B288" s="18" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C288" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D288" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E288" s="9" t="s">
         <v>583</v>
@@ -8203,13 +8414,13 @@
         <v>42</v>
       </c>
       <c r="B289" s="18" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C289" s="18" t="s">
         <v>251</v>
       </c>
       <c r="D289" s="9" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="E289" s="9" t="s">
         <v>583</v>
@@ -8226,7 +8437,7 @@
         <v>252</v>
       </c>
       <c r="D290" s="9" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="E290" s="9" t="s">
         <v>583</v>
@@ -8243,7 +8454,7 @@
         <v>253</v>
       </c>
       <c r="D291" s="9" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="E291" s="9" t="s">
         <v>583</v>
@@ -8260,7 +8471,7 @@
         <v>574</v>
       </c>
       <c r="D292" s="9" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="E292" s="9" t="s">
         <v>583</v>
@@ -8271,13 +8482,13 @@
         <v>51</v>
       </c>
       <c r="B293" s="18" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C293" s="18" t="s">
         <v>254</v>
       </c>
       <c r="D293" s="9" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="E293" s="9" t="s">
         <v>583</v>
@@ -8294,7 +8505,7 @@
         <v>255</v>
       </c>
       <c r="D294" s="9" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="E294" s="9" t="s">
         <v>583</v>
@@ -8311,7 +8522,7 @@
         <v>256</v>
       </c>
       <c r="D295" s="9" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="E295" s="9" t="s">
         <v>583</v>
@@ -8322,13 +8533,13 @@
         <v>51</v>
       </c>
       <c r="B296" s="18" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C296" s="18" t="s">
         <v>257</v>
       </c>
       <c r="D296" s="9" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="E296" s="9" t="s">
         <v>583</v>
@@ -8339,13 +8550,13 @@
         <v>51</v>
       </c>
       <c r="B297" s="18" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C297" s="18" t="s">
         <v>258</v>
       </c>
       <c r="D297" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E297" s="9" t="s">
         <v>583</v>
@@ -8356,13 +8567,13 @@
         <v>51</v>
       </c>
       <c r="B298" s="21" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C298" s="18" t="s">
         <v>259</v>
       </c>
       <c r="D298" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E298" s="9" t="s">
         <v>583</v>
@@ -8373,13 +8584,13 @@
         <v>52</v>
       </c>
       <c r="B299" s="18" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C299" s="18" t="s">
         <v>260</v>
       </c>
       <c r="D299" s="10" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="E299" s="9" t="s">
         <v>583</v>
@@ -8396,7 +8607,7 @@
         <v>261</v>
       </c>
       <c r="D300" s="10" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="E300" s="9" t="s">
         <v>583</v>
@@ -8413,7 +8624,7 @@
         <v>53</v>
       </c>
       <c r="D301" s="10" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="E301" s="9" t="s">
         <v>583</v>
@@ -8430,7 +8641,7 @@
         <v>54</v>
       </c>
       <c r="D302" s="10" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="E302" s="9" t="s">
         <v>583</v>
@@ -8441,13 +8652,13 @@
         <v>52</v>
       </c>
       <c r="B303" s="21" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C303" s="18" t="s">
         <v>262</v>
       </c>
       <c r="D303" s="10" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="E303" s="9" t="s">
         <v>583</v>
@@ -8617,7 +8828,9 @@
       <c r="C315" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="D315" s="9"/>
+      <c r="D315" s="9" t="s">
+        <v>1111</v>
+      </c>
       <c r="E315" s="9" t="s">
         <v>583</v>
       </c>
@@ -8627,12 +8840,14 @@
         <v>59</v>
       </c>
       <c r="B316" s="18" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C316" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D316" s="9"/>
+      <c r="D316" s="9" t="s">
+        <v>1111</v>
+      </c>
       <c r="E316" s="9" t="s">
         <v>583</v>
       </c>
@@ -8647,7 +8862,9 @@
       <c r="C317" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D317" s="9"/>
+      <c r="D317" s="9" t="s">
+        <v>1085</v>
+      </c>
       <c r="E317" s="9" t="s">
         <v>583</v>
       </c>
@@ -8662,7 +8879,9 @@
       <c r="C318" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D318" s="9"/>
+      <c r="D318" s="9" t="s">
+        <v>1103</v>
+      </c>
       <c r="E318" s="9" t="s">
         <v>583</v>
       </c>
@@ -8677,7 +8896,9 @@
       <c r="C319" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="D319" s="9"/>
+      <c r="D319" s="9" t="s">
+        <v>1153</v>
+      </c>
       <c r="E319" s="9" t="s">
         <v>583</v>
       </c>
@@ -8692,7 +8913,9 @@
       <c r="C320" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="D320" s="9"/>
+      <c r="D320" s="9" t="s">
+        <v>1149</v>
+      </c>
       <c r="E320" s="9" t="s">
         <v>583</v>
       </c>
@@ -8702,12 +8925,14 @@
         <v>59</v>
       </c>
       <c r="B321" s="15" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C321" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="D321" s="9"/>
+      <c r="D321" s="9" t="s">
+        <v>1103</v>
+      </c>
       <c r="E321" s="9" t="s">
         <v>583</v>
       </c>
@@ -8722,7 +8947,9 @@
       <c r="C322" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="D322" s="9"/>
+      <c r="D322" s="9" t="s">
+        <v>1149</v>
+      </c>
       <c r="E322" s="9" t="s">
         <v>583</v>
       </c>
@@ -8737,7 +8964,9 @@
       <c r="C323" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="D323" s="9"/>
+      <c r="D323" s="9" t="s">
+        <v>1103</v>
+      </c>
       <c r="E323" s="9" t="s">
         <v>583</v>
       </c>
@@ -8752,7 +8981,9 @@
       <c r="C324" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D324" s="9"/>
+      <c r="D324" s="9" t="s">
+        <v>1103</v>
+      </c>
       <c r="E324" s="9" t="s">
         <v>583</v>
       </c>
@@ -8767,7 +8998,9 @@
       <c r="C325" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="D325" s="9"/>
+      <c r="D325" s="9" t="s">
+        <v>1158</v>
+      </c>
       <c r="E325" s="9" t="s">
         <v>583</v>
       </c>
@@ -8782,6 +9015,9 @@
       <c r="C326" s="18" t="s">
         <v>272</v>
       </c>
+      <c r="D326" s="9" t="s">
+        <v>1085</v>
+      </c>
       <c r="E326" s="9" t="s">
         <v>583</v>
       </c>
@@ -8796,7 +9032,9 @@
       <c r="C327" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="D327" s="9"/>
+      <c r="D327" s="9" t="s">
+        <v>1085</v>
+      </c>
       <c r="E327" s="9" t="s">
         <v>583</v>
       </c>
@@ -8812,7 +9050,7 @@
         <v>274</v>
       </c>
       <c r="D328" s="9" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="E328" s="9" t="s">
         <v>583</v>
@@ -8829,7 +9067,7 @@
         <v>275</v>
       </c>
       <c r="D329" s="9" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="E329" s="9" t="s">
         <v>583</v>
@@ -8845,6 +9083,9 @@
       <c r="C330" s="18" t="s">
         <v>352</v>
       </c>
+      <c r="D330" s="9" t="s">
+        <v>1154</v>
+      </c>
       <c r="E330" s="9" t="s">
         <v>583</v>
       </c>
@@ -8859,6 +9100,9 @@
       <c r="C331" s="18" t="s">
         <v>353</v>
       </c>
+      <c r="D331" s="9" t="s">
+        <v>1154</v>
+      </c>
       <c r="E331" s="9" t="s">
         <v>583</v>
       </c>
@@ -8874,7 +9118,7 @@
         <v>274</v>
       </c>
       <c r="D332" s="9" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="E332" s="9" t="s">
         <v>583</v>
@@ -8885,10 +9129,13 @@
         <v>63</v>
       </c>
       <c r="B333" s="18" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C333" s="18" t="s">
         <v>328</v>
+      </c>
+      <c r="D333" s="9" t="s">
+        <v>1098</v>
       </c>
       <c r="E333" s="9" t="s">
         <v>583</v>
@@ -8904,6 +9151,9 @@
       <c r="C334" s="18" t="s">
         <v>276</v>
       </c>
+      <c r="D334" s="9" t="s">
+        <v>1154</v>
+      </c>
       <c r="E334" s="9" t="s">
         <v>583</v>
       </c>
@@ -8918,6 +9168,9 @@
       <c r="C335" s="18" t="s">
         <v>277</v>
       </c>
+      <c r="D335" s="9" t="s">
+        <v>1154</v>
+      </c>
       <c r="E335" s="9" t="s">
         <v>583</v>
       </c>
@@ -8932,6 +9185,9 @@
       <c r="C336" s="18" t="s">
         <v>278</v>
       </c>
+      <c r="D336" s="9" t="s">
+        <v>1154</v>
+      </c>
       <c r="E336" s="9" t="s">
         <v>583</v>
       </c>
@@ -8941,10 +9197,13 @@
         <v>63</v>
       </c>
       <c r="B337" s="18" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="C337" s="18" t="s">
         <v>575</v>
+      </c>
+      <c r="D337" s="9" t="s">
+        <v>1154</v>
       </c>
       <c r="E337" s="9" t="s">
         <v>583</v>
@@ -8960,6 +9219,9 @@
       <c r="C338" s="18" t="s">
         <v>64</v>
       </c>
+      <c r="D338" s="9" t="s">
+        <v>1077</v>
+      </c>
       <c r="E338" s="9" t="s">
         <v>583</v>
       </c>
@@ -8975,7 +9237,7 @@
         <v>279</v>
       </c>
       <c r="D339" s="9" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="E339" s="9" t="s">
         <v>583</v>
@@ -8992,7 +9254,7 @@
         <v>280</v>
       </c>
       <c r="D340" s="9" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="E340" s="9" t="s">
         <v>583</v>
@@ -9009,7 +9271,7 @@
         <v>281</v>
       </c>
       <c r="D341" s="9" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="E341" s="9" t="s">
         <v>583</v>
@@ -9026,7 +9288,7 @@
         <v>282</v>
       </c>
       <c r="D342" s="9" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="E342" s="9" t="s">
         <v>583</v>
@@ -9037,10 +9299,13 @@
         <v>65</v>
       </c>
       <c r="B343" s="18" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C343" s="18" t="s">
         <v>356</v>
+      </c>
+      <c r="D343" s="9" t="s">
+        <v>1105</v>
       </c>
       <c r="E343" s="9" t="s">
         <v>583</v>
@@ -9057,7 +9322,7 @@
         <v>283</v>
       </c>
       <c r="D344" s="9" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="E344" s="9" t="s">
         <v>583</v>
@@ -9068,10 +9333,13 @@
         <v>65</v>
       </c>
       <c r="B345" s="18" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C345" s="18" t="s">
         <v>317</v>
+      </c>
+      <c r="D345" s="9" t="s">
+        <v>1087</v>
       </c>
       <c r="E345" s="9" t="s">
         <v>583</v>
@@ -9082,13 +9350,13 @@
         <v>65</v>
       </c>
       <c r="B346" s="18" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C346" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D346" s="9" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="E346" s="9" t="s">
         <v>583</v>
@@ -9099,13 +9367,13 @@
         <v>65</v>
       </c>
       <c r="B347" s="18" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C347" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D347" s="9" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="E347" s="9" t="s">
         <v>583</v>
@@ -9116,13 +9384,13 @@
         <v>65</v>
       </c>
       <c r="B348" s="18" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C348" s="18" t="s">
         <v>550</v>
       </c>
       <c r="D348" s="9" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="E348" s="9" t="s">
         <v>583</v>
@@ -9133,13 +9401,13 @@
         <v>65</v>
       </c>
       <c r="B349" s="18" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C349" s="18" t="s">
         <v>566</v>
       </c>
       <c r="D349" s="9" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="E349" s="9" t="s">
         <v>583</v>
@@ -9150,13 +9418,13 @@
         <v>65</v>
       </c>
       <c r="B350" s="18" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C350" s="18" t="s">
         <v>549</v>
       </c>
       <c r="D350" s="9" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="E350" s="9" t="s">
         <v>583</v>
@@ -9173,7 +9441,7 @@
         <v>292</v>
       </c>
       <c r="D351" s="9" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="E351" s="9" t="s">
         <v>583</v>
@@ -9190,7 +9458,7 @@
         <v>355</v>
       </c>
       <c r="D352" s="9" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
       <c r="E352" s="9" t="s">
         <v>583</v>
@@ -9207,7 +9475,7 @@
         <v>284</v>
       </c>
       <c r="D353" s="9" t="s">
-        <v>1135</v>
+        <v>1142</v>
       </c>
       <c r="E353" s="9" t="s">
         <v>583</v>
@@ -9224,7 +9492,7 @@
         <v>284</v>
       </c>
       <c r="D354" s="9" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
       <c r="E354" s="9" t="s">
         <v>583</v>
@@ -9241,7 +9509,7 @@
         <v>322</v>
       </c>
       <c r="D355" s="9" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="E355" s="9" t="s">
         <v>583</v>
@@ -9258,7 +9526,7 @@
         <v>323</v>
       </c>
       <c r="D356" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E356" s="9" t="s">
         <v>583</v>
@@ -9275,7 +9543,7 @@
         <v>354</v>
       </c>
       <c r="D357" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E357" s="9" t="s">
         <v>583</v>
@@ -9292,7 +9560,7 @@
         <v>285</v>
       </c>
       <c r="D358" s="9" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="E358" s="9" t="s">
         <v>583</v>
@@ -9303,13 +9571,13 @@
         <v>65</v>
       </c>
       <c r="B359" s="18" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="C359" s="18" t="s">
         <v>67</v>
       </c>
       <c r="D359" s="9" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="E359" s="9" t="s">
         <v>583</v>
@@ -9326,7 +9594,7 @@
         <v>286</v>
       </c>
       <c r="D360" s="9" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="E360" s="9" t="s">
         <v>583</v>
@@ -9343,7 +9611,7 @@
         <v>287</v>
       </c>
       <c r="D361" s="9" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="E361" s="9" t="s">
         <v>583</v>
@@ -9354,13 +9622,13 @@
         <v>65</v>
       </c>
       <c r="B362" s="21" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C362" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D362" s="9" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="E362" s="9" t="s">
         <v>583</v>
@@ -9371,13 +9639,13 @@
         <v>69</v>
       </c>
       <c r="B363" s="15" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C363" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D363" s="9" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="364" spans="1:1023" ht="35" customHeight="1">
@@ -9385,13 +9653,13 @@
         <v>69</v>
       </c>
       <c r="B364" s="15" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C364" s="15" t="s">
         <v>71</v>
       </c>
       <c r="D364" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="365" spans="1:1023" ht="35" customHeight="1">
@@ -9399,13 +9667,13 @@
         <v>69</v>
       </c>
       <c r="B365" s="15" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C365" s="15" t="s">
         <v>385</v>
       </c>
       <c r="D365" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="366" spans="1:1023" ht="35" customHeight="1">
@@ -9413,13 +9681,13 @@
         <v>69</v>
       </c>
       <c r="B366" s="15" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C366" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D366" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="367" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
@@ -9427,13 +9695,13 @@
         <v>69</v>
       </c>
       <c r="B367" s="17" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C367" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D367" s="9" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="E367" s="3"/>
       <c r="F367" s="3"/>
@@ -10460,13 +10728,13 @@
         <v>74</v>
       </c>
       <c r="B368" s="15" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="C368" s="15" t="s">
         <v>386</v>
       </c>
       <c r="D368" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>583</v>
@@ -10477,7 +10745,7 @@
         <v>74</v>
       </c>
       <c r="B369" s="15" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="C369" s="15" t="s">
         <v>387</v>
@@ -10492,7 +10760,7 @@
         <v>74</v>
       </c>
       <c r="B370" s="15" t="s">
-        <v>1021</v>
+        <v>1155</v>
       </c>
       <c r="C370" s="15" t="s">
         <v>388</v>
@@ -10507,13 +10775,13 @@
         <v>74</v>
       </c>
       <c r="B371" s="15" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="C371" s="15" t="s">
         <v>389</v>
       </c>
       <c r="D371" s="9" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="372" spans="1:5" ht="35" customHeight="1">
@@ -10521,61 +10789,69 @@
         <v>74</v>
       </c>
       <c r="B372" s="15" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="C372" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="D372" s="9"/>
+      <c r="D372" s="9" t="s">
+        <v>1103</v>
+      </c>
     </row>
     <row r="373" spans="1:5" ht="35" customHeight="1">
       <c r="A373" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B373" s="15" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="C373" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="D373" s="9"/>
+      <c r="D373" s="9" t="s">
+        <v>1103</v>
+      </c>
     </row>
     <row r="374" spans="1:5" ht="35" customHeight="1">
       <c r="A374" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B374" s="15" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="C374" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="D374" s="9"/>
+      <c r="D374" s="9" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="375" spans="1:5" ht="35" customHeight="1">
       <c r="A375" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B375" s="15" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="C375" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="D375" s="9"/>
+      <c r="D375" s="9" t="s">
+        <v>1157</v>
+      </c>
     </row>
     <row r="376" spans="1:5" ht="35" customHeight="1">
       <c r="A376" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B376" s="15" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="C376" s="15" t="s">
         <v>394</v>
       </c>
       <c r="D376" s="9" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="35" customHeight="1">
@@ -10583,25 +10859,27 @@
         <v>74</v>
       </c>
       <c r="B377" s="15" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="C377" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="D377" s="9"/>
+      <c r="D377" s="9" t="s">
+        <v>1103</v>
+      </c>
     </row>
     <row r="378" spans="1:5" ht="35" customHeight="1">
       <c r="A378" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B378" s="15" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="C378" s="15" t="s">
         <v>396</v>
       </c>
       <c r="D378" s="9" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="35" customHeight="1">
@@ -10609,13 +10887,13 @@
         <v>74</v>
       </c>
       <c r="B379" s="15" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="C379" s="15" t="s">
         <v>397</v>
       </c>
       <c r="D379" s="9" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="380" spans="1:5" ht="35" customHeight="1">
@@ -10623,13 +10901,13 @@
         <v>74</v>
       </c>
       <c r="B380" s="15" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="C380" s="15" t="s">
         <v>398</v>
       </c>
       <c r="D380" s="9" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>583</v>
@@ -10640,25 +10918,27 @@
         <v>74</v>
       </c>
       <c r="B381" s="15" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="C381" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="D381" s="9"/>
+      <c r="D381" s="9" t="s">
+        <v>1132</v>
+      </c>
     </row>
     <row r="382" spans="1:5" ht="35" customHeight="1">
       <c r="A382" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B382" s="15" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="C382" s="15" t="s">
         <v>400</v>
       </c>
       <c r="D382" s="9" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="35" customHeight="1">
@@ -10666,13 +10946,13 @@
         <v>74</v>
       </c>
       <c r="B383" s="15" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="C383" s="15" t="s">
         <v>401</v>
       </c>
       <c r="D383" s="9" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>583</v>
@@ -10683,13 +10963,13 @@
         <v>74</v>
       </c>
       <c r="B384" s="15" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="C384" s="15" t="s">
         <v>402</v>
       </c>
       <c r="D384" s="9" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>583</v>
@@ -10700,13 +10980,13 @@
         <v>74</v>
       </c>
       <c r="B385" s="15" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="C385" s="15" t="s">
         <v>403</v>
       </c>
       <c r="D385" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E385" s="1" t="s">
         <v>583</v>
@@ -10717,13 +10997,13 @@
         <v>74</v>
       </c>
       <c r="B386" s="15" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="C386" s="15" t="s">
         <v>404</v>
       </c>
       <c r="D386" s="9" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>583</v>
@@ -10734,13 +11014,13 @@
         <v>74</v>
       </c>
       <c r="B387" s="15" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="C387" s="15" t="s">
         <v>579</v>
       </c>
       <c r="D387" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="388" spans="1:5" ht="35" customHeight="1">
@@ -10748,13 +11028,13 @@
         <v>74</v>
       </c>
       <c r="B388" s="15" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="C388" s="15" t="s">
         <v>405</v>
       </c>
       <c r="D388" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="389" spans="1:5" ht="35" customHeight="1">
@@ -10762,13 +11042,13 @@
         <v>74</v>
       </c>
       <c r="B389" s="15" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="C389" s="15" t="s">
         <v>406</v>
       </c>
       <c r="D389" s="9" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="390" spans="1:5" ht="35" customHeight="1">
@@ -10776,13 +11056,13 @@
         <v>74</v>
       </c>
       <c r="B390" s="15" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="C390" s="15" t="s">
         <v>407</v>
       </c>
       <c r="D390" s="9" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="391" spans="1:5" ht="35" customHeight="1">
@@ -10790,13 +11070,13 @@
         <v>74</v>
       </c>
       <c r="B391" s="15" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="C391" s="15" t="s">
         <v>408</v>
       </c>
       <c r="D391" s="9" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="392" spans="1:5" ht="35" customHeight="1">
@@ -10804,13 +11084,13 @@
         <v>74</v>
       </c>
       <c r="B392" s="15" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="C392" s="15" t="s">
         <v>409</v>
       </c>
       <c r="D392" s="9" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="393" spans="1:5" ht="35" customHeight="1">
@@ -10818,13 +11098,13 @@
         <v>74</v>
       </c>
       <c r="B393" s="15" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="C393" s="15" t="s">
         <v>410</v>
       </c>
       <c r="D393" s="9" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="394" spans="1:5" ht="35" customHeight="1">
@@ -10832,13 +11112,13 @@
         <v>74</v>
       </c>
       <c r="B394" s="15" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="C394" s="15" t="s">
         <v>411</v>
       </c>
       <c r="D394" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="395" spans="1:5" ht="35" customHeight="1">
@@ -10846,13 +11126,13 @@
         <v>74</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="C395" s="15" t="s">
         <v>412</v>
       </c>
       <c r="D395" s="9" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>583</v>
@@ -10863,13 +11143,13 @@
         <v>74</v>
       </c>
       <c r="B396" s="15" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="C396" s="15" t="s">
         <v>413</v>
       </c>
       <c r="D396" s="9" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="397" spans="1:5" ht="35" customHeight="1">
@@ -10877,13 +11157,13 @@
         <v>74</v>
       </c>
       <c r="B397" s="15" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="C397" s="15" t="s">
         <v>414</v>
       </c>
       <c r="D397" s="9" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="398" spans="1:5" ht="35" customHeight="1">
@@ -10891,13 +11171,13 @@
         <v>74</v>
       </c>
       <c r="B398" s="15" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="C398" s="15" t="s">
         <v>415</v>
       </c>
       <c r="D398" s="9" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="399" spans="1:5" ht="35" customHeight="1">
@@ -10905,61 +11185,69 @@
         <v>74</v>
       </c>
       <c r="B399" s="15" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="C399" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="D399" s="9"/>
+      <c r="D399" s="9" t="s">
+        <v>1103</v>
+      </c>
     </row>
     <row r="400" spans="1:5" ht="35" customHeight="1">
       <c r="A400" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B400" s="15" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="C400" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="D400" s="9"/>
+      <c r="D400" s="9" t="s">
+        <v>1115</v>
+      </c>
     </row>
     <row r="401" spans="1:1023" ht="35" customHeight="1">
       <c r="A401" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B401" s="15" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="C401" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="D401" s="9"/>
+      <c r="D401" s="9" t="s">
+        <v>1103</v>
+      </c>
     </row>
     <row r="402" spans="1:1023" ht="35" customHeight="1">
       <c r="A402" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B402" s="15" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="C402" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="D402" s="9"/>
+      <c r="D402" s="9" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="403" spans="1:1023" ht="35" customHeight="1">
       <c r="A403" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B403" s="15" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="C403" s="15" t="s">
         <v>419</v>
       </c>
       <c r="D403" s="9" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="404" spans="1:1023" ht="35" customHeight="1">
@@ -10967,13 +11255,13 @@
         <v>74</v>
       </c>
       <c r="B404" s="15" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="C404" s="15" t="s">
         <v>420</v>
       </c>
       <c r="D404" s="9" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="405" spans="1:1023" ht="35" customHeight="1">
@@ -10981,36 +11269,42 @@
         <v>74</v>
       </c>
       <c r="B405" s="15" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="C405" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="D405" s="9"/>
+      <c r="D405" s="9" t="s">
+        <v>1106</v>
+      </c>
     </row>
     <row r="406" spans="1:1023" ht="35" customHeight="1">
       <c r="A406" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B406" s="15" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="C406" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="D406" s="9"/>
+      <c r="D406" s="9" t="s">
+        <v>1085</v>
+      </c>
     </row>
     <row r="407" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
       <c r="A407" s="16" t="s">
         <v>74</v>
       </c>
       <c r="B407" s="17" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="C407" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="D407" s="30"/>
+      <c r="D407" s="30" t="s">
+        <v>1103</v>
+      </c>
       <c r="E407" s="3"/>
       <c r="F407" s="3"/>
       <c r="G407" s="3"/>
@@ -12036,84 +12330,98 @@
         <v>75</v>
       </c>
       <c r="B408" s="15" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C408" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="D408" s="9"/>
+      <c r="D408" s="9" t="s">
+        <v>1100</v>
+      </c>
     </row>
     <row r="409" spans="1:1023" ht="35" customHeight="1">
       <c r="A409" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B409" s="15" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="C409" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="D409" s="9"/>
+      <c r="D409" s="9" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="410" spans="1:1023" ht="35" customHeight="1">
       <c r="A410" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B410" s="15" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C410" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="D410" s="9"/>
+      <c r="D410" s="9" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="411" spans="1:1023" ht="35" customHeight="1">
       <c r="A411" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B411" s="15" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C411" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="D411" s="9"/>
+      <c r="D411" s="9" t="s">
+        <v>1149</v>
+      </c>
     </row>
     <row r="412" spans="1:1023" ht="35" customHeight="1">
       <c r="A412" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B412" s="15" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="C412" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="D412" s="9"/>
+      <c r="D412" s="9" t="s">
+        <v>1130</v>
+      </c>
     </row>
     <row r="413" spans="1:1023" ht="35" customHeight="1">
       <c r="A413" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B413" s="15" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C413" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="D413" s="9"/>
+      <c r="D413" s="9" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="414" spans="1:1023" ht="35" customHeight="1">
       <c r="A414" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B414" s="15" t="s">
-        <v>811</v>
+        <v>1159</v>
       </c>
       <c r="C414" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="D414" s="9"/>
+      <c r="D414" s="9" t="s">
+        <v>1082</v>
+      </c>
     </row>
     <row r="415" spans="1:1023" ht="35" customHeight="1">
       <c r="A415" s="14" t="s">
@@ -12125,92 +12433,106 @@
       <c r="C415" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="D415" s="9"/>
+      <c r="D415" s="9" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="416" spans="1:1023" ht="35" customHeight="1">
       <c r="A416" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B416" s="15" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C416" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="D416" s="9"/>
+      <c r="D416" s="9" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="417" spans="1:1023" ht="35" customHeight="1">
       <c r="A417" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B417" s="15" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="C417" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="D417" s="9"/>
+      <c r="D417" s="9" t="s">
+        <v>1093</v>
+      </c>
     </row>
     <row r="418" spans="1:1023" ht="35" customHeight="1">
       <c r="A418" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B418" s="15" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C418" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="D418" s="9"/>
+      <c r="D418" s="9" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="419" spans="1:1023" ht="35" customHeight="1">
       <c r="A419" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B419" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C419" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="D419" s="9"/>
+      <c r="D419" s="9" t="s">
+        <v>1129</v>
+      </c>
     </row>
     <row r="420" spans="1:1023" ht="35" customHeight="1">
       <c r="A420" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B420" s="15" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C420" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="D420" s="9"/>
+      <c r="D420" s="9" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="421" spans="1:1023" ht="35" customHeight="1">
       <c r="A421" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B421" s="15" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C421" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="D421" s="9"/>
+      <c r="D421" s="9" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="422" spans="1:1023" ht="35" customHeight="1">
       <c r="A422" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B422" s="15" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C422" s="15" t="s">
         <v>439</v>
       </c>
       <c r="D422" s="9" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="423" spans="1:1023" ht="35" customHeight="1">
@@ -12218,12 +12540,14 @@
         <v>75</v>
       </c>
       <c r="B423" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C423" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="D423" s="9"/>
+      <c r="D423" s="10" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="424" spans="1:1023" ht="35" customHeight="1">
       <c r="A424" s="14" t="s">
@@ -12235,55 +12559,65 @@
       <c r="C424" s="15" t="s">
         <v>441</v>
       </c>
-      <c r="D424" s="9"/>
+      <c r="D424" s="10" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="425" spans="1:1023" ht="35" customHeight="1">
       <c r="A425" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B425" s="15" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C425" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="D425" s="9"/>
+      <c r="D425" s="10" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="426" spans="1:1023" ht="35" customHeight="1">
       <c r="A426" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B426" s="15" t="s">
-        <v>817</v>
+        <v>1160</v>
       </c>
       <c r="C426" s="15" t="s">
         <v>443</v>
       </c>
-      <c r="D426" s="9"/>
+      <c r="D426" s="10" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="427" spans="1:1023" ht="35" customHeight="1">
       <c r="A427" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B427" s="15" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C427" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="D427" s="9"/>
+      <c r="D427" s="10" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="428" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
       <c r="A428" s="16" t="s">
         <v>75</v>
       </c>
       <c r="B428" s="17" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C428" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D428" s="9"/>
+      <c r="D428" s="9" t="s">
+        <v>1108</v>
+      </c>
       <c r="E428" s="3"/>
       <c r="F428" s="3"/>
       <c r="G428" s="3"/>
@@ -13309,13 +13643,13 @@
         <v>77</v>
       </c>
       <c r="B429" s="15" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="C429" s="15" t="s">
         <v>446</v>
       </c>
       <c r="D429" s="9" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="430" spans="1:1023" ht="35" customHeight="1">
@@ -13323,13 +13657,13 @@
         <v>77</v>
       </c>
       <c r="B430" s="15" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="C430" s="15" t="s">
         <v>447</v>
       </c>
       <c r="D430" s="9" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="431" spans="1:1023" ht="35" customHeight="1">
@@ -13337,13 +13671,13 @@
         <v>77</v>
       </c>
       <c r="B431" s="15" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C431" s="15" t="s">
         <v>448</v>
       </c>
       <c r="D431" s="9" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="432" spans="1:1023" ht="35" customHeight="1">
@@ -13351,36 +13685,42 @@
         <v>77</v>
       </c>
       <c r="B432" s="15" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C432" s="15" t="s">
         <v>567</v>
       </c>
-      <c r="D432" s="9"/>
+      <c r="D432" s="9" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="433" spans="1:5" ht="35" customHeight="1">
       <c r="A433" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B433" s="15" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="C433" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="D433" s="9"/>
+      <c r="D433" s="9" t="s">
+        <v>1094</v>
+      </c>
     </row>
     <row r="434" spans="1:5" ht="35" customHeight="1">
       <c r="A434" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B434" s="15" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C434" s="15" t="s">
         <v>591</v>
       </c>
-      <c r="D434" s="9"/>
+      <c r="D434" s="9" t="s">
+        <v>1117</v>
+      </c>
       <c r="E434" s="1" t="s">
         <v>583</v>
       </c>
@@ -13390,13 +13730,13 @@
         <v>77</v>
       </c>
       <c r="B435" s="15" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="C435" s="15" t="s">
         <v>450</v>
       </c>
       <c r="D435" s="9" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="436" spans="1:5" ht="35" customHeight="1">
@@ -13404,13 +13744,13 @@
         <v>77</v>
       </c>
       <c r="B436" s="15" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="C436" s="15" t="s">
         <v>451</v>
       </c>
       <c r="D436" s="9" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="437" spans="1:5" ht="35" customHeight="1">
@@ -13418,13 +13758,13 @@
         <v>77</v>
       </c>
       <c r="B437" s="15" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="C437" s="15" t="s">
         <v>452</v>
       </c>
       <c r="D437" s="9" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="438" spans="1:5" ht="35" customHeight="1">
@@ -13432,25 +13772,27 @@
         <v>77</v>
       </c>
       <c r="B438" s="15" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C438" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="D438" s="9"/>
+      <c r="D438" s="10" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="439" spans="1:5" ht="35" customHeight="1">
       <c r="A439" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B439" s="15" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C439" s="15" t="s">
         <v>454</v>
       </c>
       <c r="D439" s="9" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="440" spans="1:5" ht="35" customHeight="1">
@@ -13458,168 +13800,196 @@
         <v>77</v>
       </c>
       <c r="B440" s="15" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C440" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="D440" s="9"/>
+      <c r="D440" s="9" t="s">
+        <v>1070</v>
+      </c>
     </row>
     <row r="441" spans="1:5" ht="35" customHeight="1">
       <c r="A441" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B441" s="15" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C441" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="D441" s="9"/>
+      <c r="D441" s="9" t="s">
+        <v>1100</v>
+      </c>
     </row>
     <row r="442" spans="1:5" ht="35" customHeight="1">
       <c r="A442" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B442" s="15" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="C442" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="D442" s="9"/>
+      <c r="D442" s="9" t="s">
+        <v>1112</v>
+      </c>
     </row>
     <row r="443" spans="1:5" ht="35" customHeight="1">
       <c r="A443" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B443" s="15" t="s">
-        <v>1009</v>
+        <v>1161</v>
       </c>
       <c r="C443" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="D443" s="9"/>
+      <c r="D443" s="9" t="s">
+        <v>1085</v>
+      </c>
     </row>
     <row r="444" spans="1:5" ht="35" customHeight="1">
       <c r="A444" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B444" s="15" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C444" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="D444" s="9"/>
+      <c r="D444" s="9" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="445" spans="1:5" ht="35" customHeight="1">
       <c r="A445" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B445" s="15" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C445" s="15" t="s">
         <v>570</v>
       </c>
-      <c r="D445" s="9"/>
+      <c r="D445" s="9" t="s">
+        <v>1089</v>
+      </c>
     </row>
     <row r="446" spans="1:5" ht="35" customHeight="1">
       <c r="A446" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B446" s="15" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="C446" s="15" t="s">
         <v>460</v>
       </c>
-      <c r="D446" s="9"/>
+      <c r="D446" s="9" t="s">
+        <v>1162</v>
+      </c>
     </row>
     <row r="447" spans="1:5" ht="35" customHeight="1">
       <c r="A447" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B447" s="15" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C447" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="D447" s="9"/>
+      <c r="D447" s="9" t="s">
+        <v>1162</v>
+      </c>
     </row>
     <row r="448" spans="1:5" ht="35" customHeight="1">
       <c r="A448" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B448" s="18" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C448" s="15" t="s">
         <v>463</v>
       </c>
-      <c r="D448" s="9"/>
+      <c r="D448" s="9" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="449" spans="1:1023" ht="35" customHeight="1">
       <c r="A449" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B449" s="18" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C449" s="18" t="s">
         <v>573</v>
       </c>
-      <c r="D449" s="9"/>
+      <c r="D449" s="9" t="s">
+        <v>1137</v>
+      </c>
     </row>
     <row r="450" spans="1:1023" ht="35" customHeight="1">
       <c r="A450" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B450" s="18" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C450" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="D450" s="9"/>
+      <c r="D450" s="9" t="s">
+        <v>1124</v>
+      </c>
     </row>
     <row r="451" spans="1:1023" ht="35" customHeight="1">
       <c r="A451" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B451" s="18" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C451" s="15" t="s">
         <v>464</v>
       </c>
-      <c r="D451" s="9"/>
+      <c r="D451" s="9" t="s">
+        <v>1103</v>
+      </c>
     </row>
     <row r="452" spans="1:1023" ht="35" customHeight="1">
       <c r="A452" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B452" s="15" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C452" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="D452" s="9"/>
+      <c r="D452" s="9" t="s">
+        <v>1136</v>
+      </c>
     </row>
     <row r="453" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
       <c r="A453" s="16" t="s">
         <v>77</v>
       </c>
       <c r="B453" s="17" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C453" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="D453" s="9"/>
+      <c r="D453" s="9" t="s">
+        <v>1103</v>
+      </c>
       <c r="E453" s="3"/>
       <c r="F453" s="3"/>
       <c r="G453" s="3"/>
@@ -14645,12 +15015,14 @@
         <v>78</v>
       </c>
       <c r="B454" s="18" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C454" s="18" t="s">
         <v>467</v>
       </c>
-      <c r="D454" s="9"/>
+      <c r="D454" s="9" t="s">
+        <v>1140</v>
+      </c>
       <c r="E454" s="1" t="s">
         <v>583</v>
       </c>
@@ -14660,12 +15032,14 @@
         <v>78</v>
       </c>
       <c r="B455" s="15" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="C455" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="D455" s="9"/>
+      <c r="D455" s="9" t="s">
+        <v>1135</v>
+      </c>
       <c r="E455" s="1" t="s">
         <v>583</v>
       </c>
@@ -14675,12 +15049,14 @@
         <v>78</v>
       </c>
       <c r="B456" s="18" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C456" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="D456" s="9"/>
+      <c r="D456" s="9" t="s">
+        <v>1149</v>
+      </c>
       <c r="E456" s="1" t="s">
         <v>583</v>
       </c>
@@ -14690,12 +15066,14 @@
         <v>78</v>
       </c>
       <c r="B457" s="18" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C457" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="D457" s="9"/>
+      <c r="D457" s="9" t="s">
+        <v>1089</v>
+      </c>
       <c r="E457" s="1" t="s">
         <v>583</v>
       </c>
@@ -14705,12 +15083,14 @@
         <v>78</v>
       </c>
       <c r="B458" s="18" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C458" s="18" t="s">
         <v>469</v>
       </c>
-      <c r="D458" s="9"/>
+      <c r="D458" s="9" t="s">
+        <v>1149</v>
+      </c>
       <c r="E458" s="1" t="s">
         <v>583</v>
       </c>
@@ -14720,12 +15100,14 @@
         <v>78</v>
       </c>
       <c r="B459" s="18" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C459" s="18" t="s">
         <v>470</v>
       </c>
-      <c r="D459" s="9"/>
+      <c r="D459" s="9" t="s">
+        <v>1149</v>
+      </c>
       <c r="E459" s="1" t="s">
         <v>583</v>
       </c>
@@ -14735,12 +15117,14 @@
         <v>78</v>
       </c>
       <c r="B460" s="18" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C460" s="15" t="s">
         <v>572</v>
       </c>
-      <c r="D460" s="9"/>
+      <c r="D460" s="9" t="s">
+        <v>1149</v>
+      </c>
       <c r="E460" s="1" t="s">
         <v>583</v>
       </c>
@@ -14750,12 +15134,14 @@
         <v>78</v>
       </c>
       <c r="B461" s="18" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C461" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="D461" s="9"/>
+      <c r="D461" s="9" t="s">
+        <v>1149</v>
+      </c>
       <c r="E461" s="1" t="s">
         <v>583</v>
       </c>
@@ -14765,12 +15151,14 @@
         <v>78</v>
       </c>
       <c r="B462" s="18" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C462" s="18" t="s">
         <v>472</v>
       </c>
-      <c r="D462" s="9"/>
+      <c r="D462" s="9" t="s">
+        <v>1089</v>
+      </c>
       <c r="E462" s="1" t="s">
         <v>583</v>
       </c>
@@ -14780,12 +15168,14 @@
         <v>78</v>
       </c>
       <c r="B463" s="18" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C463" s="18" t="s">
         <v>472</v>
       </c>
-      <c r="D463" s="9"/>
+      <c r="D463" s="9" t="s">
+        <v>1089</v>
+      </c>
       <c r="E463" s="1" t="s">
         <v>583</v>
       </c>
@@ -14795,12 +15185,14 @@
         <v>78</v>
       </c>
       <c r="B464" s="18" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C464" s="18" t="s">
         <v>592</v>
       </c>
-      <c r="D464" s="9"/>
+      <c r="D464" s="9" t="s">
+        <v>1089</v>
+      </c>
       <c r="E464" s="1" t="s">
         <v>583</v>
       </c>
@@ -14810,12 +15202,14 @@
         <v>78</v>
       </c>
       <c r="B465" s="18" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C465" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="D465" s="9"/>
+      <c r="D465" s="9" t="s">
+        <v>1149</v>
+      </c>
       <c r="E465" s="1" t="s">
         <v>583</v>
       </c>
@@ -14830,7 +15224,9 @@
       <c r="C466" s="18" t="s">
         <v>474</v>
       </c>
-      <c r="D466" s="9"/>
+      <c r="D466" s="9" t="s">
+        <v>1135</v>
+      </c>
       <c r="E466" s="1" t="s">
         <v>583</v>
       </c>
@@ -14840,12 +15236,14 @@
         <v>78</v>
       </c>
       <c r="B467" s="18" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C467" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="D467" s="9"/>
+      <c r="D467" s="9" t="s">
+        <v>1135</v>
+      </c>
       <c r="E467" s="1" t="s">
         <v>583</v>
       </c>
@@ -14855,12 +15253,14 @@
         <v>78</v>
       </c>
       <c r="B468" s="18" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C468" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="D468" s="9"/>
+      <c r="D468" s="9" t="s">
+        <v>1098</v>
+      </c>
       <c r="E468" s="1" t="s">
         <v>583</v>
       </c>
@@ -14870,12 +15270,14 @@
         <v>78</v>
       </c>
       <c r="B469" s="18" t="s">
-        <v>835</v>
+        <v>1163</v>
       </c>
       <c r="C469" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="D469" s="9"/>
+      <c r="D469" s="9" t="s">
+        <v>1149</v>
+      </c>
       <c r="E469" s="1" t="s">
         <v>583</v>
       </c>
@@ -14885,13 +15287,13 @@
         <v>78</v>
       </c>
       <c r="B470" s="18" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C470" s="18" t="s">
         <v>569</v>
       </c>
       <c r="D470" s="9" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="E470" s="1" t="s">
         <v>583</v>
@@ -14902,12 +15304,14 @@
         <v>78</v>
       </c>
       <c r="B471" s="18" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C471" s="18" t="s">
         <v>568</v>
       </c>
-      <c r="D471" s="9"/>
+      <c r="D471" s="9" t="s">
+        <v>1149</v>
+      </c>
       <c r="E471" s="1" t="s">
         <v>583</v>
       </c>
@@ -14917,12 +15321,14 @@
         <v>78</v>
       </c>
       <c r="B472" s="18" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="C472" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="D472" s="9"/>
+      <c r="D472" s="9" t="s">
+        <v>1111</v>
+      </c>
       <c r="E472" s="1" t="s">
         <v>583</v>
       </c>
@@ -14932,12 +15338,14 @@
         <v>78</v>
       </c>
       <c r="B473" s="18" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C473" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="D473" s="9"/>
+      <c r="D473" s="9" t="s">
+        <v>1117</v>
+      </c>
       <c r="E473" s="1" t="s">
         <v>583</v>
       </c>
@@ -14947,12 +15355,14 @@
         <v>78</v>
       </c>
       <c r="B474" s="18" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C474" s="18" t="s">
         <v>594</v>
       </c>
-      <c r="D474" s="9"/>
+      <c r="D474" s="9" t="s">
+        <v>1117</v>
+      </c>
       <c r="E474" s="1" t="s">
         <v>583</v>
       </c>
@@ -14962,12 +15372,14 @@
         <v>78</v>
       </c>
       <c r="B475" s="18" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C475" s="15" t="s">
         <v>479</v>
       </c>
-      <c r="D475" s="9"/>
+      <c r="D475" s="9" t="s">
+        <v>1142</v>
+      </c>
       <c r="E475" s="1" t="s">
         <v>583</v>
       </c>
@@ -14977,12 +15389,14 @@
         <v>78</v>
       </c>
       <c r="B476" s="21" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C476" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="D476" s="9"/>
+      <c r="D476" s="9" t="s">
+        <v>1105</v>
+      </c>
       <c r="E476" s="3" t="s">
         <v>583</v>
       </c>
@@ -16010,84 +16424,98 @@
         <v>79</v>
       </c>
       <c r="B477" s="18" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C477" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="D477" s="9"/>
+      <c r="D477" s="9" t="s">
+        <v>1116</v>
+      </c>
     </row>
     <row r="478" spans="1:1023" ht="35" customHeight="1">
       <c r="A478" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B478" s="18" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C478" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="D478" s="9"/>
+      <c r="D478" s="9" t="s">
+        <v>1116</v>
+      </c>
     </row>
     <row r="479" spans="1:1023" ht="35" customHeight="1">
       <c r="A479" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B479" s="18" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C479" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="D479" s="9"/>
+      <c r="D479" s="9" t="s">
+        <v>1116</v>
+      </c>
     </row>
     <row r="480" spans="1:1023" ht="35" customHeight="1">
       <c r="A480" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B480" s="18" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C480" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="D480" s="9"/>
+      <c r="D480" s="9" t="s">
+        <v>1116</v>
+      </c>
     </row>
     <row r="481" spans="1:1023" ht="35" customHeight="1">
       <c r="A481" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B481" s="18" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C481" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="D481" s="9"/>
+      <c r="D481" s="9" t="s">
+        <v>1116</v>
+      </c>
     </row>
     <row r="482" spans="1:1023" ht="35" customHeight="1">
       <c r="A482" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B482" s="18" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C482" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="D482" s="9"/>
+      <c r="D482" s="9" t="s">
+        <v>1116</v>
+      </c>
     </row>
     <row r="483" spans="1:1023" ht="35" customHeight="1">
       <c r="A483" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B483" s="18" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C483" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="D483" s="9"/>
+      <c r="D483" s="9" t="s">
+        <v>1116</v>
+      </c>
     </row>
     <row r="484" spans="1:1023" ht="35" customHeight="1">
       <c r="A484" s="14" t="s">
@@ -16099,19 +16527,23 @@
       <c r="C484" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="D484" s="9"/>
+      <c r="D484" s="9" t="s">
+        <v>1116</v>
+      </c>
     </row>
     <row r="485" spans="1:1023" ht="35" customHeight="1">
       <c r="A485" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B485" s="18" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C485" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="D485" s="9"/>
+      <c r="D485" s="9" t="s">
+        <v>1081</v>
+      </c>
     </row>
     <row r="486" spans="1:1023" ht="35" customHeight="1">
       <c r="A486" s="14" t="s">
@@ -16123,19 +16555,23 @@
       <c r="C486" s="15" t="s">
         <v>490</v>
       </c>
-      <c r="D486" s="9"/>
+      <c r="D486" s="10" t="s">
+        <v>1116</v>
+      </c>
     </row>
     <row r="487" spans="1:1023" ht="35" customHeight="1">
       <c r="A487" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B487" s="18" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="C487" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="D487" s="9"/>
+      <c r="D487" s="10" t="s">
+        <v>1116</v>
+      </c>
     </row>
     <row r="488" spans="1:1023" ht="35" customHeight="1">
       <c r="A488" s="14" t="s">
@@ -16147,43 +16583,51 @@
       <c r="C488" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="D488" s="9"/>
+      <c r="D488" s="10" t="s">
+        <v>1116</v>
+      </c>
     </row>
     <row r="489" spans="1:1023" ht="35" customHeight="1">
       <c r="A489" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B489" s="18" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C489" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="D489" s="9"/>
+      <c r="D489" s="9" t="s">
+        <v>1139</v>
+      </c>
     </row>
     <row r="490" spans="1:1023" ht="35" customHeight="1">
       <c r="A490" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B490" s="18" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C490" s="18" t="s">
         <v>494</v>
       </c>
-      <c r="D490" s="9"/>
+      <c r="D490" s="9" t="s">
+        <v>1133</v>
+      </c>
     </row>
     <row r="491" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
       <c r="A491" s="16" t="s">
         <v>79</v>
       </c>
       <c r="B491" s="21" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C491" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="D491" s="9"/>
+      <c r="D491" s="9" t="s">
+        <v>1147</v>
+      </c>
       <c r="E491" s="3"/>
       <c r="F491" s="3"/>
       <c r="G491" s="3"/>
@@ -17209,109 +17653,125 @@
         <v>80</v>
       </c>
       <c r="B492" s="18" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C492" s="18" t="s">
         <v>496</v>
       </c>
-      <c r="D492" s="9"/>
+      <c r="D492" s="9" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="493" spans="1:1023" ht="35" customHeight="1">
       <c r="A493" s="14" t="s">
         <v>80</v>
       </c>
       <c r="B493" s="18" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C493" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="D493" s="9"/>
+      <c r="D493" s="9" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="494" spans="1:1023" ht="35" customHeight="1">
       <c r="A494" s="14" t="s">
         <v>80</v>
       </c>
       <c r="B494" s="18" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C494" s="18" t="s">
         <v>498</v>
       </c>
-      <c r="D494" s="9"/>
+      <c r="D494" s="9" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="495" spans="1:1023" ht="35" customHeight="1">
       <c r="A495" s="14" t="s">
         <v>80</v>
       </c>
       <c r="B495" s="18" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C495" s="18" t="s">
         <v>499</v>
       </c>
-      <c r="D495" s="9"/>
+      <c r="D495" s="9" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="496" spans="1:1023" ht="35" customHeight="1">
       <c r="A496" s="14" t="s">
         <v>80</v>
       </c>
       <c r="B496" s="18" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="C496" s="18" t="s">
         <v>500</v>
       </c>
-      <c r="D496" s="9"/>
+      <c r="D496" s="9" t="s">
+        <v>1090</v>
+      </c>
     </row>
     <row r="497" spans="1:1023" ht="35" customHeight="1">
       <c r="A497" s="14" t="s">
         <v>80</v>
       </c>
       <c r="B497" s="18" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C497" s="18" t="s">
         <v>501</v>
       </c>
-      <c r="D497" s="9"/>
+      <c r="D497" s="9" t="s">
+        <v>1090</v>
+      </c>
     </row>
     <row r="498" spans="1:1023" ht="35" customHeight="1">
       <c r="A498" s="14" t="s">
         <v>80</v>
       </c>
       <c r="B498" s="18" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="C498" s="18" t="s">
         <v>502</v>
       </c>
-      <c r="D498" s="9"/>
+      <c r="D498" s="9" t="s">
+        <v>1088</v>
+      </c>
     </row>
     <row r="499" spans="1:1023" ht="35" customHeight="1">
       <c r="A499" s="14" t="s">
         <v>80</v>
       </c>
       <c r="B499" s="18" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C499" s="18" t="s">
         <v>503</v>
       </c>
-      <c r="D499" s="9"/>
+      <c r="D499" s="9" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="500" spans="1:1023" ht="35" customHeight="1">
       <c r="A500" s="14" t="s">
         <v>80</v>
       </c>
       <c r="B500" s="18" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="C500" s="18" t="s">
         <v>587</v>
       </c>
       <c r="D500" s="9" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="501" spans="1:1023" ht="35" customHeight="1">
@@ -17319,13 +17779,13 @@
         <v>80</v>
       </c>
       <c r="B501" s="18" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="C501" s="18" t="s">
         <v>578</v>
       </c>
       <c r="D501" s="9" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="502" spans="1:1023" ht="35" customHeight="1">
@@ -17333,24 +17793,28 @@
         <v>80</v>
       </c>
       <c r="B502" s="18" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="C502" s="18" t="s">
         <v>504</v>
       </c>
-      <c r="D502" s="9"/>
+      <c r="D502" s="10" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="503" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
       <c r="A503" s="16" t="s">
         <v>80</v>
       </c>
       <c r="B503" s="21" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="C503" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="D503" s="9"/>
+      <c r="D503" s="10" t="s">
+        <v>1135</v>
+      </c>
       <c r="E503" s="3"/>
       <c r="F503" s="3"/>
       <c r="G503" s="3"/>
@@ -18376,12 +18840,14 @@
         <v>81</v>
       </c>
       <c r="B504" s="27" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C504" s="15" t="s">
         <v>506</v>
       </c>
-      <c r="D504" s="9"/>
+      <c r="D504" s="9" t="s">
+        <v>1117</v>
+      </c>
       <c r="E504" s="5" t="s">
         <v>583</v>
       </c>
@@ -19409,12 +19875,14 @@
         <v>81</v>
       </c>
       <c r="B505" s="27" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C505" s="29" t="s">
         <v>507</v>
       </c>
-      <c r="D505" s="9"/>
+      <c r="D505" s="9" t="s">
+        <v>1103</v>
+      </c>
       <c r="E505" s="5" t="s">
         <v>583</v>
       </c>
@@ -20442,24 +20910,28 @@
         <v>81</v>
       </c>
       <c r="B506" s="24" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C506" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="D506" s="9"/>
+      <c r="D506" s="9" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="507" spans="1:1023" ht="35" customHeight="1">
       <c r="A507" s="23" t="s">
         <v>81</v>
       </c>
       <c r="B507" s="24" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C507" s="15" t="s">
         <v>508</v>
       </c>
-      <c r="D507" s="9"/>
+      <c r="D507" s="9" t="s">
+        <v>1103</v>
+      </c>
       <c r="E507" s="1" t="s">
         <v>583</v>
       </c>
@@ -20469,12 +20941,14 @@
         <v>81</v>
       </c>
       <c r="B508" s="24" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C508" s="15" t="s">
         <v>509</v>
       </c>
-      <c r="D508" s="9"/>
+      <c r="D508" s="9" t="s">
+        <v>1103</v>
+      </c>
       <c r="E508" s="1" t="s">
         <v>583</v>
       </c>
@@ -20484,12 +20958,14 @@
         <v>81</v>
       </c>
       <c r="B509" s="24" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C509" s="15" t="s">
         <v>510</v>
       </c>
-      <c r="D509" s="9"/>
+      <c r="D509" s="9" t="s">
+        <v>1103</v>
+      </c>
       <c r="E509" s="1" t="s">
         <v>583</v>
       </c>
@@ -20499,12 +20975,14 @@
         <v>81</v>
       </c>
       <c r="B510" s="24" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C510" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="D510" s="9"/>
+      <c r="D510" s="9" t="s">
+        <v>1103</v>
+      </c>
       <c r="E510" s="1" t="s">
         <v>583</v>
       </c>
@@ -20514,12 +20992,14 @@
         <v>81</v>
       </c>
       <c r="B511" s="24" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C511" s="15" t="s">
         <v>512</v>
       </c>
-      <c r="D511" s="9"/>
+      <c r="D511" s="9" t="s">
+        <v>1103</v>
+      </c>
       <c r="E511" s="1" t="s">
         <v>583</v>
       </c>
@@ -20529,12 +21009,14 @@
         <v>81</v>
       </c>
       <c r="B512" s="24" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C512" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="D512" s="9"/>
+      <c r="D512" s="9" t="s">
+        <v>1103</v>
+      </c>
       <c r="E512" s="1" t="s">
         <v>583</v>
       </c>
@@ -20544,12 +21026,14 @@
         <v>81</v>
       </c>
       <c r="B513" s="24" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C513" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="D513" s="9"/>
+      <c r="D513" s="9" t="s">
+        <v>1103</v>
+      </c>
       <c r="E513" s="1" t="s">
         <v>583</v>
       </c>
@@ -20559,12 +21043,14 @@
         <v>81</v>
       </c>
       <c r="B514" s="24" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C514" s="15" t="s">
         <v>514</v>
       </c>
-      <c r="D514" s="9"/>
+      <c r="D514" s="9" t="s">
+        <v>1103</v>
+      </c>
       <c r="E514" s="1" t="s">
         <v>583</v>
       </c>
@@ -20574,12 +21060,14 @@
         <v>81</v>
       </c>
       <c r="B515" s="24" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C515" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="D515" s="9"/>
+      <c r="D515" s="9" t="s">
+        <v>1106</v>
+      </c>
       <c r="E515" s="1" t="s">
         <v>583</v>
       </c>
@@ -20589,12 +21077,14 @@
         <v>81</v>
       </c>
       <c r="B516" s="24" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="C516" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="D516" s="9"/>
+      <c r="D516" s="9" t="s">
+        <v>1148</v>
+      </c>
       <c r="E516" s="1" t="s">
         <v>583</v>
       </c>
@@ -20604,12 +21094,14 @@
         <v>81</v>
       </c>
       <c r="B517" s="24" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C517" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="D517" s="9"/>
+      <c r="D517" s="9" t="s">
+        <v>1087</v>
+      </c>
       <c r="E517" s="1" t="s">
         <v>583</v>
       </c>
@@ -20619,12 +21111,14 @@
         <v>81</v>
       </c>
       <c r="B518" s="26" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="C518" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="D518" s="9"/>
+      <c r="D518" s="9" t="s">
+        <v>1106</v>
+      </c>
       <c r="E518" s="3" t="s">
         <v>583</v>
       </c>
@@ -21652,12 +22146,14 @@
         <v>82</v>
       </c>
       <c r="B519" s="27" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C519" s="15" t="s">
         <v>519</v>
       </c>
-      <c r="D519" s="9"/>
+      <c r="D519" s="9" t="s">
+        <v>1106</v>
+      </c>
       <c r="E519" s="5"/>
       <c r="F519" s="5"/>
       <c r="G519" s="5"/>
@@ -22683,13 +23179,13 @@
         <v>82</v>
       </c>
       <c r="B520" s="27" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C520" s="15" t="s">
         <v>588</v>
       </c>
       <c r="D520" s="9" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="E520" s="5"/>
       <c r="F520" s="5"/>
@@ -23721,7 +24217,9 @@
       <c r="C521" s="15" t="s">
         <v>520</v>
       </c>
-      <c r="D521" s="9"/>
+      <c r="D521" s="9" t="s">
+        <v>1111</v>
+      </c>
       <c r="E521" s="5"/>
       <c r="F521" s="5"/>
       <c r="G521" s="5"/>
@@ -24747,12 +25245,14 @@
         <v>82</v>
       </c>
       <c r="B522" s="27" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C522" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="D522" s="9"/>
+      <c r="D522" s="9" t="s">
+        <v>1106</v>
+      </c>
       <c r="E522" s="5"/>
       <c r="F522" s="5"/>
       <c r="G522" s="5"/>
@@ -25778,12 +26278,14 @@
         <v>82</v>
       </c>
       <c r="B523" s="27" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C523" s="15" t="s">
         <v>522</v>
       </c>
-      <c r="D523" s="9"/>
+      <c r="D523" s="9" t="s">
+        <v>1106</v>
+      </c>
       <c r="E523" s="5"/>
       <c r="F523" s="5"/>
       <c r="G523" s="5"/>
@@ -26809,84 +27311,98 @@
         <v>82</v>
       </c>
       <c r="B524" s="23" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C524" s="15" t="s">
         <v>523</v>
       </c>
-      <c r="D524" s="9"/>
+      <c r="D524" s="9" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="525" spans="1:1023" ht="52" customHeight="1">
       <c r="A525" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B525" s="23" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C525" s="15" t="s">
         <v>524</v>
       </c>
-      <c r="D525" s="9"/>
+      <c r="D525" s="9" t="s">
+        <v>1154</v>
+      </c>
     </row>
     <row r="526" spans="1:1023" ht="35" customHeight="1">
       <c r="A526" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B526" s="23" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C526" s="15" t="s">
         <v>525</v>
       </c>
-      <c r="D526" s="9"/>
+      <c r="D526" s="9" t="s">
+        <v>1162</v>
+      </c>
     </row>
     <row r="527" spans="1:1023" ht="35" customHeight="1">
       <c r="A527" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B527" s="23" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C527" s="15" t="s">
         <v>526</v>
       </c>
-      <c r="D527" s="9"/>
+      <c r="D527" s="10" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="528" spans="1:1023" ht="35" customHeight="1">
       <c r="A528" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B528" s="23" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C528" s="15" t="s">
         <v>527</v>
       </c>
-      <c r="D528" s="9"/>
+      <c r="D528" s="9" t="s">
+        <v>1164</v>
+      </c>
     </row>
     <row r="529" spans="1:1023" ht="35" customHeight="1">
       <c r="A529" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B529" s="23" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="C529" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="D529" s="9"/>
+      <c r="D529" s="9" t="s">
+        <v>1164</v>
+      </c>
     </row>
     <row r="530" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
       <c r="A530" s="16" t="s">
         <v>82</v>
       </c>
       <c r="B530" s="25" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C530" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="D530" s="9"/>
+      <c r="D530" s="10" t="s">
+        <v>1135</v>
+      </c>
       <c r="E530" s="3"/>
       <c r="F530" s="3"/>
       <c r="G530" s="3"/>

--- a/utils/excel_to_json/questions.xlsx
+++ b/utils/excel_to_json/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koncz/ivosjatek/utils/excel_to_json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BABF9D-E6D6-C94A-9E53-C945EE1F162A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912B1352-0CDB-F749-977B-EC19729EC702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-5500" windowWidth="38400" windowHeight="19520" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28780" yWindow="-5500" windowWidth="38400" windowHeight="19520" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="1165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="1168">
   <si>
     <t>outer_quality</t>
   </si>
@@ -3528,6 +3528,15 @@
   </si>
   <si>
     <t>pizza.png</t>
+  </si>
+  <si>
+    <t>boobs.png</t>
+  </si>
+  <si>
+    <t>cloud.png</t>
+  </si>
+  <si>
+    <t>skull.png</t>
   </si>
 </sst>
 </file>
@@ -4122,8 +4131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMI1216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A508" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D530" sqref="D530"/>
+    <sheetView tabSelected="1" topLeftCell="A524" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D259" sqref="D259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -5680,8 +5689,8 @@
       <c r="C109" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="D109" s="9" t="s">
-        <v>1117</v>
+      <c r="D109" s="10" t="s">
+        <v>1165</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>583</v>
@@ -6295,6 +6304,9 @@
       <c r="C151" s="18" t="s">
         <v>380</v>
       </c>
+      <c r="D151" s="9" t="s">
+        <v>1120</v>
+      </c>
     </row>
     <row r="152" spans="1:5" s="30" customFormat="1" ht="35" customHeight="1">
       <c r="A152" s="16" t="s">
@@ -6306,6 +6318,9 @@
       <c r="C152" s="21" t="s">
         <v>381</v>
       </c>
+      <c r="D152" s="30" t="s">
+        <v>1165</v>
+      </c>
     </row>
     <row r="153" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A153" s="14" t="s">
@@ -7022,6 +7037,9 @@
       <c r="C201" s="18" t="s">
         <v>218</v>
       </c>
+      <c r="D201" s="9" t="s">
+        <v>1157</v>
+      </c>
     </row>
     <row r="202" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A202" s="14" t="s">
@@ -7075,6 +7093,9 @@
       <c r="C205" s="18" t="s">
         <v>224</v>
       </c>
+      <c r="D205" s="9" t="s">
+        <v>1088</v>
+      </c>
     </row>
     <row r="206" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A206" s="14" t="s">
@@ -7086,6 +7107,9 @@
       <c r="C206" s="18" t="s">
         <v>225</v>
       </c>
+      <c r="D206" s="9" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="207" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A207" s="14" t="s">
@@ -7195,6 +7219,9 @@
       <c r="C214" s="15" t="s">
         <v>296</v>
       </c>
+      <c r="D214" s="9" t="s">
+        <v>1123</v>
+      </c>
     </row>
     <row r="215" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A215" s="14" t="s">
@@ -7709,6 +7736,9 @@
       <c r="C246" s="18" t="s">
         <v>247</v>
       </c>
+      <c r="D246" s="9" t="s">
+        <v>1137</v>
+      </c>
       <c r="E246" s="9" t="s">
         <v>583</v>
       </c>
@@ -7740,6 +7770,9 @@
       <c r="C248" s="18" t="s">
         <v>47</v>
       </c>
+      <c r="D248" s="9" t="s">
+        <v>1106</v>
+      </c>
       <c r="E248" s="9" t="s">
         <v>583</v>
       </c>
@@ -7788,6 +7821,9 @@
       <c r="C251" s="18" t="s">
         <v>313</v>
       </c>
+      <c r="D251" s="9" t="s">
+        <v>1106</v>
+      </c>
       <c r="E251" s="9" t="s">
         <v>583</v>
       </c>
@@ -7802,6 +7838,9 @@
       <c r="C252" s="18" t="s">
         <v>314</v>
       </c>
+      <c r="D252" s="9" t="s">
+        <v>1166</v>
+      </c>
       <c r="E252" s="9" t="s">
         <v>583</v>
       </c>
@@ -7833,6 +7872,9 @@
       <c r="C254" s="18" t="s">
         <v>318</v>
       </c>
+      <c r="D254" s="9" t="s">
+        <v>1167</v>
+      </c>
       <c r="E254" s="9" t="s">
         <v>583</v>
       </c>
@@ -7847,6 +7889,9 @@
       <c r="C255" s="18" t="s">
         <v>319</v>
       </c>
+      <c r="D255" s="9" t="s">
+        <v>1167</v>
+      </c>
       <c r="E255" s="9" t="s">
         <v>583</v>
       </c>
@@ -7895,6 +7940,9 @@
       <c r="C258" s="31" t="s">
         <v>324</v>
       </c>
+      <c r="D258" s="9" t="s">
+        <v>1149</v>
+      </c>
       <c r="E258" s="9" t="s">
         <v>583</v>
       </c>
@@ -8674,6 +8722,9 @@
       <c r="C304" s="18" t="s">
         <v>263</v>
       </c>
+      <c r="D304" s="9" t="s">
+        <v>1165</v>
+      </c>
       <c r="E304" s="9" t="s">
         <v>583</v>
       </c>
@@ -8688,6 +8739,9 @@
       <c r="C305" s="18" t="s">
         <v>264</v>
       </c>
+      <c r="D305" s="9" t="s">
+        <v>1165</v>
+      </c>
       <c r="E305" s="9" t="s">
         <v>583</v>
       </c>
@@ -8702,6 +8756,9 @@
       <c r="C306" s="18" t="s">
         <v>265</v>
       </c>
+      <c r="D306" s="9" t="s">
+        <v>1165</v>
+      </c>
       <c r="E306" s="9" t="s">
         <v>583</v>
       </c>
@@ -8716,6 +8773,9 @@
       <c r="C307" s="18" t="s">
         <v>316</v>
       </c>
+      <c r="D307" s="9" t="s">
+        <v>1165</v>
+      </c>
       <c r="E307" s="9" t="s">
         <v>583</v>
       </c>
@@ -8730,6 +8790,9 @@
       <c r="C308" s="18" t="s">
         <v>266</v>
       </c>
+      <c r="D308" s="9" t="s">
+        <v>1165</v>
+      </c>
       <c r="E308" s="9" t="s">
         <v>583</v>
       </c>
@@ -8744,6 +8807,9 @@
       <c r="C309" s="18" t="s">
         <v>267</v>
       </c>
+      <c r="D309" s="9" t="s">
+        <v>1165</v>
+      </c>
       <c r="E309" s="9" t="s">
         <v>583</v>
       </c>
@@ -8758,6 +8824,9 @@
       <c r="C310" s="18" t="s">
         <v>268</v>
       </c>
+      <c r="D310" s="9" t="s">
+        <v>1165</v>
+      </c>
       <c r="E310" s="9" t="s">
         <v>583</v>
       </c>
@@ -8772,6 +8841,9 @@
       <c r="C311" s="15" t="s">
         <v>56</v>
       </c>
+      <c r="D311" s="9" t="s">
+        <v>1165</v>
+      </c>
       <c r="E311" s="9" t="s">
         <v>583</v>
       </c>
@@ -8786,6 +8858,9 @@
       <c r="C312" s="15" t="s">
         <v>57</v>
       </c>
+      <c r="D312" s="9" t="s">
+        <v>1165</v>
+      </c>
       <c r="E312" s="9" t="s">
         <v>583</v>
       </c>
@@ -8800,6 +8875,9 @@
       <c r="C313" s="15" t="s">
         <v>58</v>
       </c>
+      <c r="D313" s="9" t="s">
+        <v>1165</v>
+      </c>
       <c r="E313" s="9" t="s">
         <v>583</v>
       </c>
@@ -8814,6 +8892,9 @@
       <c r="C314" s="15" t="s">
         <v>270</v>
       </c>
+      <c r="D314" s="9" t="s">
+        <v>1165</v>
+      </c>
       <c r="E314" s="9" t="s">
         <v>583</v>
       </c>
@@ -8829,7 +8910,7 @@
         <v>271</v>
       </c>
       <c r="D315" s="9" t="s">
-        <v>1111</v>
+        <v>1165</v>
       </c>
       <c r="E315" s="9" t="s">
         <v>583</v>
@@ -10750,7 +10831,9 @@
       <c r="C369" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="D369" s="9"/>
+      <c r="D369" s="9" t="s">
+        <v>1165</v>
+      </c>
       <c r="E369" s="1" t="s">
         <v>583</v>
       </c>
@@ -10765,7 +10848,9 @@
       <c r="C370" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="D370" s="9"/>
+      <c r="D370" s="9" t="s">
+        <v>1149</v>
+      </c>
       <c r="E370" s="1" t="s">
         <v>583</v>
       </c>
@@ -15105,8 +15190,8 @@
       <c r="C459" s="18" t="s">
         <v>470</v>
       </c>
-      <c r="D459" s="9" t="s">
-        <v>1149</v>
+      <c r="D459" s="10" t="s">
+        <v>1165</v>
       </c>
       <c r="E459" s="1" t="s">
         <v>583</v>
@@ -15156,8 +15241,8 @@
       <c r="C462" s="18" t="s">
         <v>472</v>
       </c>
-      <c r="D462" s="9" t="s">
-        <v>1089</v>
+      <c r="D462" s="10" t="s">
+        <v>1165</v>
       </c>
       <c r="E462" s="1" t="s">
         <v>583</v>
@@ -15173,8 +15258,8 @@
       <c r="C463" s="18" t="s">
         <v>472</v>
       </c>
-      <c r="D463" s="9" t="s">
-        <v>1089</v>
+      <c r="D463" s="10" t="s">
+        <v>1165</v>
       </c>
       <c r="E463" s="1" t="s">
         <v>583</v>

--- a/utils/excel_to_json/questions.xlsx
+++ b/utils/excel_to_json/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koncz/ivosjatek/utils/excel_to_json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912B1352-0CDB-F749-977B-EC19729EC702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4177EE8-0113-8347-BC81-D137ECA1992C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28780" yWindow="-5500" windowWidth="38400" windowHeight="19520" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-5500" windowWidth="38400" windowHeight="19520" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -3257,9 +3257,6 @@
     <t>anime_girl.png</t>
   </si>
   <si>
-    <t>Az iszik, aki őszül.</t>
-  </si>
-  <si>
     <t>dead.png</t>
   </si>
   <si>
@@ -3537,6 +3534,9 @@
   </si>
   <si>
     <t>skull.png</t>
+  </si>
+  <si>
+    <t>Az iszik, aki o''szül.</t>
   </si>
 </sst>
 </file>
@@ -4131,8 +4131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMI1216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A524" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D259" sqref="D259"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -4216,7 +4216,7 @@
         <v>88</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4258,7 +4258,7 @@
         <v>91</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4314,7 +4314,7 @@
         <v>95</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4342,7 +4342,7 @@
         <v>293</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4356,7 +4356,7 @@
         <v>96</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4378,13 +4378,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>1074</v>
+        <v>1167</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>582</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4398,7 +4398,7 @@
         <v>100</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4412,7 +4412,7 @@
         <v>101</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4426,7 +4426,7 @@
         <v>102</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4440,7 +4440,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4468,7 +4468,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4482,7 +4482,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4496,7 +4496,7 @@
         <v>105</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4510,7 +4510,7 @@
         <v>107</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4524,7 +4524,7 @@
         <v>109</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4566,7 +4566,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>583</v>
@@ -4583,7 +4583,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>583</v>
@@ -4600,7 +4600,7 @@
         <v>113</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>583</v>
@@ -4617,7 +4617,7 @@
         <v>114</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4645,7 +4645,7 @@
         <v>117</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4659,7 +4659,7 @@
         <v>119</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4695,7 +4695,7 @@
         <v>208</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4709,7 +4709,7 @@
         <v>122</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4723,7 +4723,7 @@
         <v>124</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4737,7 +4737,7 @@
         <v>89</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4765,7 +4765,7 @@
         <v>298</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4779,7 +4779,7 @@
         <v>125</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4793,7 +4793,7 @@
         <v>537</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4807,7 +4807,7 @@
         <v>10</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4821,7 +4821,7 @@
         <v>11</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4835,7 +4835,7 @@
         <v>12</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -4849,7 +4849,7 @@
         <v>13</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4863,7 +4863,7 @@
         <v>15</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4877,7 +4877,7 @@
         <v>299</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4891,7 +4891,7 @@
         <v>127</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4905,7 +4905,7 @@
         <v>129</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>583</v>
@@ -4922,7 +4922,7 @@
         <v>131</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4936,7 +4936,7 @@
         <v>536</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4950,7 +4950,7 @@
         <v>132</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4978,7 +4978,7 @@
         <v>133</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4992,7 +4992,7 @@
         <v>135</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5006,7 +5006,7 @@
         <v>137</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5020,7 +5020,7 @@
         <v>139</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5034,7 +5034,7 @@
         <v>141</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5048,7 +5048,7 @@
         <v>142</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5062,7 +5062,7 @@
         <v>144</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5076,7 +5076,7 @@
         <v>146</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5090,7 +5090,7 @@
         <v>533</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5104,7 +5104,7 @@
         <v>534</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5118,7 +5118,7 @@
         <v>148</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5132,7 +5132,7 @@
         <v>149</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5146,7 +5146,7 @@
         <v>150</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5160,7 +5160,7 @@
         <v>151</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5188,7 +5188,7 @@
         <v>153</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>583</v>
@@ -5205,7 +5205,7 @@
         <v>155</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5219,7 +5219,7 @@
         <v>18</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5233,7 +5233,7 @@
         <v>19</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -5247,7 +5247,7 @@
         <v>156</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="5" customFormat="1" ht="35" customHeight="1">
@@ -5261,7 +5261,7 @@
         <v>542</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="5" customFormat="1" ht="35" customHeight="1">
@@ -5275,7 +5275,7 @@
         <v>543</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="81" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
@@ -5289,7 +5289,7 @@
         <v>544</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="82" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
@@ -5303,7 +5303,7 @@
         <v>545</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
@@ -5317,7 +5317,7 @@
         <v>546</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
@@ -5331,7 +5331,7 @@
         <v>547</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="85" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
@@ -5345,7 +5345,7 @@
         <v>157</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="86" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5359,7 +5359,7 @@
         <v>21</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="87" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5373,7 +5373,7 @@
         <v>158</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="88" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
@@ -5387,7 +5387,7 @@
         <v>159</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="89" spans="1:4" s="6" customFormat="1" ht="35" customHeight="1">
@@ -5401,7 +5401,7 @@
         <v>161</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5415,7 +5415,7 @@
         <v>162</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
@@ -5429,7 +5429,7 @@
         <v>163</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="92" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5443,7 +5443,7 @@
         <v>164</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="93" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5457,7 +5457,7 @@
         <v>165</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="94" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5471,7 +5471,7 @@
         <v>166</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="95" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5485,7 +5485,7 @@
         <v>26</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="96" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5513,7 +5513,7 @@
         <v>167</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5527,7 +5527,7 @@
         <v>168</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5541,7 +5541,7 @@
         <v>170</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5555,7 +5555,7 @@
         <v>172</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="101" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5569,7 +5569,7 @@
         <v>176</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="102" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5583,7 +5583,7 @@
         <v>577</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="103" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5597,7 +5597,7 @@
         <v>27</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="104" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5611,7 +5611,7 @@
         <v>178</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -5625,7 +5625,7 @@
         <v>179</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="106" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5639,7 +5639,7 @@
         <v>173</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>583</v>
@@ -5656,7 +5656,7 @@
         <v>300</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>583</v>
@@ -5673,7 +5673,7 @@
         <v>174</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>583</v>
@@ -5690,7 +5690,7 @@
         <v>175</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>583</v>
@@ -5707,7 +5707,7 @@
         <v>177</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>583</v>
@@ -5724,7 +5724,7 @@
         <v>25</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E111" s="30" t="s">
         <v>583</v>
@@ -5741,7 +5741,7 @@
         <v>301</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="113" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5755,7 +5755,7 @@
         <v>302</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="114" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5769,7 +5769,7 @@
         <v>180</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="115" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5783,7 +5783,7 @@
         <v>181</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="116" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5797,7 +5797,7 @@
         <v>182</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="117" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5811,7 +5811,7 @@
         <v>183</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="118" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5825,7 +5825,7 @@
         <v>184</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="119" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5833,13 +5833,13 @@
         <v>28</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C119" s="18" t="s">
         <v>185</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="120" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5853,7 +5853,7 @@
         <v>186</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="121" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5867,7 +5867,7 @@
         <v>303</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="122" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5895,7 +5895,7 @@
         <v>187</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="124" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5909,7 +5909,7 @@
         <v>188</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="125" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5923,7 +5923,7 @@
         <v>304</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>583</v>
@@ -5940,7 +5940,7 @@
         <v>362</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>583</v>
@@ -5957,7 +5957,7 @@
         <v>363</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>583</v>
@@ -5974,7 +5974,7 @@
         <v>305</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E128" s="9" t="s">
         <v>583</v>
@@ -5991,7 +5991,7 @@
         <v>597</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>583</v>
@@ -6008,7 +6008,7 @@
         <v>189</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>583</v>
@@ -6025,7 +6025,7 @@
         <v>361</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="132" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6039,7 +6039,7 @@
         <v>190</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="133" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6053,7 +6053,7 @@
         <v>29</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="134" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6067,7 +6067,7 @@
         <v>30</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="135" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6081,7 +6081,7 @@
         <v>360</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="136" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6095,7 +6095,7 @@
         <v>31</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="137" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6109,7 +6109,7 @@
         <v>191</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="138" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -6123,7 +6123,7 @@
         <v>289</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="139" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6137,7 +6137,7 @@
         <v>368</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="140" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6151,7 +6151,7 @@
         <v>369</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="141" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6165,7 +6165,7 @@
         <v>370</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="142" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6179,7 +6179,7 @@
         <v>565</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="143" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6193,7 +6193,7 @@
         <v>373</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="144" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6207,7 +6207,7 @@
         <v>383</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="145" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6235,7 +6235,7 @@
         <v>374</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="147" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6263,7 +6263,7 @@
         <v>376</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="149" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6277,7 +6277,7 @@
         <v>377</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="150" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6291,7 +6291,7 @@
         <v>379</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="151" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6305,7 +6305,7 @@
         <v>380</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="152" spans="1:5" s="30" customFormat="1" ht="35" customHeight="1">
@@ -6319,7 +6319,7 @@
         <v>381</v>
       </c>
       <c r="D152" s="30" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="153" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6333,7 +6333,7 @@
         <v>564</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E153" s="9" t="s">
         <v>583</v>
@@ -6350,7 +6350,7 @@
         <v>382</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E154" s="9" t="s">
         <v>583</v>
@@ -6367,7 +6367,7 @@
         <v>378</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>583</v>
@@ -6384,7 +6384,7 @@
         <v>373</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>583</v>
@@ -6401,7 +6401,7 @@
         <v>375</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>583</v>
@@ -6418,7 +6418,7 @@
         <v>561</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>583</v>
@@ -6435,7 +6435,7 @@
         <v>552</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E159" s="9" t="s">
         <v>583</v>
@@ -6452,7 +6452,7 @@
         <v>373</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E160" s="9" t="s">
         <v>583</v>
@@ -6469,7 +6469,7 @@
         <v>371</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E161" s="9" t="s">
         <v>583</v>
@@ -6486,7 +6486,7 @@
         <v>372</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E162" s="9" t="s">
         <v>583</v>
@@ -6503,7 +6503,7 @@
         <v>384</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>583</v>
@@ -6520,7 +6520,7 @@
         <v>192</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="165" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6534,7 +6534,7 @@
         <v>193</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="166" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6548,7 +6548,7 @@
         <v>194</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="167" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6562,7 +6562,7 @@
         <v>554</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="168" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6576,7 +6576,7 @@
         <v>553</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="169" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6590,7 +6590,7 @@
         <v>195</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="170" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6604,7 +6604,7 @@
         <v>196</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="171" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6618,7 +6618,7 @@
         <v>197</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="172" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6632,7 +6632,7 @@
         <v>34</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="173" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6646,7 +6646,7 @@
         <v>198</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="174" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6660,7 +6660,7 @@
         <v>199</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="175" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6674,7 +6674,7 @@
         <v>200</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="176" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6682,13 +6682,13 @@
         <v>33</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C176" s="18" t="s">
         <v>201</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="177" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6702,7 +6702,7 @@
         <v>202</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="178" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6730,7 +6730,7 @@
         <v>204</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="180" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6744,7 +6744,7 @@
         <v>205</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="181" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6772,7 +6772,7 @@
         <v>206</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="183" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6786,7 +6786,7 @@
         <v>207</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="184" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6800,7 +6800,7 @@
         <v>209</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="185" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6814,7 +6814,7 @@
         <v>210</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="186" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6828,7 +6828,7 @@
         <v>41</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="187" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6842,7 +6842,7 @@
         <v>35</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="188" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6856,7 +6856,7 @@
         <v>211</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="189" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6870,7 +6870,7 @@
         <v>212</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="190" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6884,7 +6884,7 @@
         <v>36</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="191" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6898,7 +6898,7 @@
         <v>37</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="192" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6912,7 +6912,7 @@
         <v>213</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="193" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6926,7 +6926,7 @@
         <v>555</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="194" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6940,7 +6940,7 @@
         <v>214</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="195" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6954,7 +6954,7 @@
         <v>215</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="196" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6968,7 +6968,7 @@
         <v>586</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="197" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6982,7 +6982,7 @@
         <v>585</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="198" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6996,7 +6996,7 @@
         <v>38</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="199" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7010,7 +7010,7 @@
         <v>216</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="200" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7024,7 +7024,7 @@
         <v>217</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="201" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7038,7 +7038,7 @@
         <v>218</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="202" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7052,7 +7052,7 @@
         <v>219</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="203" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7066,7 +7066,7 @@
         <v>220</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="204" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7080,7 +7080,7 @@
         <v>222</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="205" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7094,7 +7094,7 @@
         <v>224</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="206" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7108,7 +7108,7 @@
         <v>225</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="207" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7122,7 +7122,7 @@
         <v>227</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="208" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7136,7 +7136,7 @@
         <v>39</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="209" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7150,7 +7150,7 @@
         <v>228</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="210" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7164,7 +7164,7 @@
         <v>229</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="211" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7178,7 +7178,7 @@
         <v>288</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="212" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7192,7 +7192,7 @@
         <v>230</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="213" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7206,7 +7206,7 @@
         <v>231</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="214" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7220,7 +7220,7 @@
         <v>296</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="215" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7234,7 +7234,7 @@
         <v>308</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="216" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7248,7 +7248,7 @@
         <v>307</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="217" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7262,7 +7262,7 @@
         <v>291</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="218" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7276,7 +7276,7 @@
         <v>309</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="219" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7290,7 +7290,7 @@
         <v>310</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="220" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7304,7 +7304,7 @@
         <v>311</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="221" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7318,7 +7318,7 @@
         <v>40</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="222" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -7332,7 +7332,7 @@
         <v>41</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="223" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7346,7 +7346,7 @@
         <v>232</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E223" s="9" t="s">
         <v>583</v>
@@ -7380,7 +7380,7 @@
         <v>233</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E225" s="9" t="s">
         <v>583</v>
@@ -7397,7 +7397,7 @@
         <v>548</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E226" s="9" t="s">
         <v>583</v>
@@ -7414,7 +7414,7 @@
         <v>234</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E227" s="9" t="s">
         <v>583</v>
@@ -7428,10 +7428,10 @@
         <v>723</v>
       </c>
       <c r="C228" s="18" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E228" s="9" t="s">
         <v>583</v>
@@ -7448,7 +7448,7 @@
         <v>235</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E229" s="9" t="s">
         <v>583</v>
@@ -7465,7 +7465,7 @@
         <v>236</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E230" s="9" t="s">
         <v>583</v>
@@ -7482,7 +7482,7 @@
         <v>237</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E231" s="9" t="s">
         <v>583</v>
@@ -7499,7 +7499,7 @@
         <v>238</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E232" s="9" t="s">
         <v>583</v>
@@ -7516,7 +7516,7 @@
         <v>239</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E233" s="9" t="s">
         <v>583</v>
@@ -7533,7 +7533,7 @@
         <v>44</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E234" s="9" t="s">
         <v>583</v>
@@ -7550,7 +7550,7 @@
         <v>240</v>
       </c>
       <c r="D235" s="9" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E235" s="9" t="s">
         <v>583</v>
@@ -7567,7 +7567,7 @@
         <v>556</v>
       </c>
       <c r="D236" s="9" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E236" s="9" t="s">
         <v>583</v>
@@ -7584,7 +7584,7 @@
         <v>241</v>
       </c>
       <c r="D237" s="9" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E237" s="9" t="s">
         <v>583</v>
@@ -7601,7 +7601,7 @@
         <v>237</v>
       </c>
       <c r="D238" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E238" s="9" t="s">
         <v>583</v>
@@ -7618,7 +7618,7 @@
         <v>45</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E239" s="9" t="s">
         <v>583</v>
@@ -7635,7 +7635,7 @@
         <v>242</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E240" s="9" t="s">
         <v>583</v>
@@ -7652,7 +7652,7 @@
         <v>243</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E241" s="9" t="s">
         <v>583</v>
@@ -7669,7 +7669,7 @@
         <v>244</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E242" s="9" t="s">
         <v>583</v>
@@ -7686,7 +7686,7 @@
         <v>245</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E243" s="9" t="s">
         <v>583</v>
@@ -7703,7 +7703,7 @@
         <v>246</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E244" s="9" t="s">
         <v>583</v>
@@ -7720,7 +7720,7 @@
         <v>46</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E245" s="9" t="s">
         <v>583</v>
@@ -7737,7 +7737,7 @@
         <v>247</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E246" s="9" t="s">
         <v>583</v>
@@ -7754,7 +7754,7 @@
         <v>248</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E247" s="9" t="s">
         <v>583</v>
@@ -7771,7 +7771,7 @@
         <v>47</v>
       </c>
       <c r="D248" s="9" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E248" s="9" t="s">
         <v>583</v>
@@ -7788,7 +7788,7 @@
         <v>48</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E249" s="9" t="s">
         <v>583</v>
@@ -7805,7 +7805,7 @@
         <v>312</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E250" s="9" t="s">
         <v>583</v>
@@ -7822,7 +7822,7 @@
         <v>313</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E251" s="9" t="s">
         <v>583</v>
@@ -7839,7 +7839,7 @@
         <v>314</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E252" s="9" t="s">
         <v>583</v>
@@ -7856,7 +7856,7 @@
         <v>315</v>
       </c>
       <c r="D253" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E253" s="9" t="s">
         <v>583</v>
@@ -7873,7 +7873,7 @@
         <v>318</v>
       </c>
       <c r="D254" s="9" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E254" s="9" t="s">
         <v>583</v>
@@ -7890,7 +7890,7 @@
         <v>319</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E255" s="9" t="s">
         <v>583</v>
@@ -7907,7 +7907,7 @@
         <v>320</v>
       </c>
       <c r="D256" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E256" s="9" t="s">
         <v>583</v>
@@ -7924,7 +7924,7 @@
         <v>321</v>
       </c>
       <c r="D257" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E257" s="9" t="s">
         <v>583</v>
@@ -7935,13 +7935,13 @@
         <v>42</v>
       </c>
       <c r="B258" s="18" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C258" s="31" t="s">
         <v>324</v>
       </c>
       <c r="D258" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E258" s="9" t="s">
         <v>583</v>
@@ -7958,7 +7958,7 @@
         <v>325</v>
       </c>
       <c r="D259" s="9" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E259" s="9" t="s">
         <v>583</v>
@@ -7975,7 +7975,7 @@
         <v>326</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E260" s="9" t="s">
         <v>583</v>
@@ -7992,7 +7992,7 @@
         <v>327</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E261" s="9" t="s">
         <v>583</v>
@@ -8009,7 +8009,7 @@
         <v>329</v>
       </c>
       <c r="D262" s="9" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E262" s="9" t="s">
         <v>583</v>
@@ -8026,7 +8026,7 @@
         <v>330</v>
       </c>
       <c r="D263" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E263" s="9" t="s">
         <v>583</v>
@@ -8043,7 +8043,7 @@
         <v>331</v>
       </c>
       <c r="D264" s="9" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E264" s="9" t="s">
         <v>583</v>
@@ -8060,7 +8060,7 @@
         <v>332</v>
       </c>
       <c r="D265" s="9" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E265" s="9" t="s">
         <v>583</v>
@@ -8077,7 +8077,7 @@
         <v>557</v>
       </c>
       <c r="D266" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E266" s="9" t="s">
         <v>583</v>
@@ -8094,7 +8094,7 @@
         <v>333</v>
       </c>
       <c r="D267" s="9" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E267" s="9" t="s">
         <v>583</v>
@@ -8111,7 +8111,7 @@
         <v>334</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E268" s="9" t="s">
         <v>583</v>
@@ -8128,7 +8128,7 @@
         <v>335</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E269" s="9" t="s">
         <v>583</v>
@@ -8162,7 +8162,7 @@
         <v>337</v>
       </c>
       <c r="D271" s="9" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E271" s="9" t="s">
         <v>583</v>
@@ -8179,7 +8179,7 @@
         <v>338</v>
       </c>
       <c r="D272" s="9" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E272" s="9" t="s">
         <v>583</v>
@@ -8196,7 +8196,7 @@
         <v>339</v>
       </c>
       <c r="D273" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E273" s="9" t="s">
         <v>583</v>
@@ -8230,7 +8230,7 @@
         <v>558</v>
       </c>
       <c r="D275" s="9" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E275" s="9" t="s">
         <v>583</v>
@@ -8264,7 +8264,7 @@
         <v>341</v>
       </c>
       <c r="D277" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E277" s="9" t="s">
         <v>583</v>
@@ -8281,7 +8281,7 @@
         <v>342</v>
       </c>
       <c r="D278" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E278" s="9" t="s">
         <v>583</v>
@@ -8298,7 +8298,7 @@
         <v>343</v>
       </c>
       <c r="D279" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E279" s="9" t="s">
         <v>583</v>
@@ -8315,7 +8315,7 @@
         <v>344</v>
       </c>
       <c r="D280" s="9" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E280" s="9" t="s">
         <v>583</v>
@@ -8332,7 +8332,7 @@
         <v>345</v>
       </c>
       <c r="D281" s="9" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E281" s="9" t="s">
         <v>583</v>
@@ -8349,7 +8349,7 @@
         <v>346</v>
       </c>
       <c r="D282" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E282" s="9" t="s">
         <v>583</v>
@@ -8366,7 +8366,7 @@
         <v>531</v>
       </c>
       <c r="D283" s="9" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E283" s="9" t="s">
         <v>583</v>
@@ -8383,7 +8383,7 @@
         <v>347</v>
       </c>
       <c r="D284" s="9" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E284" s="9" t="s">
         <v>583</v>
@@ -8400,7 +8400,7 @@
         <v>249</v>
       </c>
       <c r="D285" s="9" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E285" s="9" t="s">
         <v>583</v>
@@ -8417,7 +8417,7 @@
         <v>250</v>
       </c>
       <c r="D286" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E286" s="9" t="s">
         <v>583</v>
@@ -8434,7 +8434,7 @@
         <v>49</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E287" s="9" t="s">
         <v>583</v>
@@ -8451,7 +8451,7 @@
         <v>50</v>
       </c>
       <c r="D288" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E288" s="9" t="s">
         <v>583</v>
@@ -8468,7 +8468,7 @@
         <v>251</v>
       </c>
       <c r="D289" s="9" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E289" s="9" t="s">
         <v>583</v>
@@ -8485,7 +8485,7 @@
         <v>252</v>
       </c>
       <c r="D290" s="9" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E290" s="9" t="s">
         <v>583</v>
@@ -8502,7 +8502,7 @@
         <v>253</v>
       </c>
       <c r="D291" s="9" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E291" s="9" t="s">
         <v>583</v>
@@ -8519,7 +8519,7 @@
         <v>574</v>
       </c>
       <c r="D292" s="9" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E292" s="9" t="s">
         <v>583</v>
@@ -8536,7 +8536,7 @@
         <v>254</v>
       </c>
       <c r="D293" s="9" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E293" s="9" t="s">
         <v>583</v>
@@ -8553,7 +8553,7 @@
         <v>255</v>
       </c>
       <c r="D294" s="9" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E294" s="9" t="s">
         <v>583</v>
@@ -8570,7 +8570,7 @@
         <v>256</v>
       </c>
       <c r="D295" s="9" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E295" s="9" t="s">
         <v>583</v>
@@ -8587,7 +8587,7 @@
         <v>257</v>
       </c>
       <c r="D296" s="9" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E296" s="9" t="s">
         <v>583</v>
@@ -8604,7 +8604,7 @@
         <v>258</v>
       </c>
       <c r="D297" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E297" s="9" t="s">
         <v>583</v>
@@ -8621,7 +8621,7 @@
         <v>259</v>
       </c>
       <c r="D298" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E298" s="9" t="s">
         <v>583</v>
@@ -8638,7 +8638,7 @@
         <v>260</v>
       </c>
       <c r="D299" s="10" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E299" s="9" t="s">
         <v>583</v>
@@ -8655,7 +8655,7 @@
         <v>261</v>
       </c>
       <c r="D300" s="10" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E300" s="9" t="s">
         <v>583</v>
@@ -8672,7 +8672,7 @@
         <v>53</v>
       </c>
       <c r="D301" s="10" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E301" s="9" t="s">
         <v>583</v>
@@ -8689,7 +8689,7 @@
         <v>54</v>
       </c>
       <c r="D302" s="10" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E302" s="9" t="s">
         <v>583</v>
@@ -8706,7 +8706,7 @@
         <v>262</v>
       </c>
       <c r="D303" s="10" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E303" s="9" t="s">
         <v>583</v>
@@ -8723,7 +8723,7 @@
         <v>263</v>
       </c>
       <c r="D304" s="9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E304" s="9" t="s">
         <v>583</v>
@@ -8740,7 +8740,7 @@
         <v>264</v>
       </c>
       <c r="D305" s="9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E305" s="9" t="s">
         <v>583</v>
@@ -8757,7 +8757,7 @@
         <v>265</v>
       </c>
       <c r="D306" s="9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E306" s="9" t="s">
         <v>583</v>
@@ -8774,7 +8774,7 @@
         <v>316</v>
       </c>
       <c r="D307" s="9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E307" s="9" t="s">
         <v>583</v>
@@ -8791,7 +8791,7 @@
         <v>266</v>
       </c>
       <c r="D308" s="9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E308" s="9" t="s">
         <v>583</v>
@@ -8808,7 +8808,7 @@
         <v>267</v>
       </c>
       <c r="D309" s="9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E309" s="9" t="s">
         <v>583</v>
@@ -8825,7 +8825,7 @@
         <v>268</v>
       </c>
       <c r="D310" s="9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E310" s="9" t="s">
         <v>583</v>
@@ -8842,7 +8842,7 @@
         <v>56</v>
       </c>
       <c r="D311" s="9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E311" s="9" t="s">
         <v>583</v>
@@ -8859,7 +8859,7 @@
         <v>57</v>
       </c>
       <c r="D312" s="9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E312" s="9" t="s">
         <v>583</v>
@@ -8876,7 +8876,7 @@
         <v>58</v>
       </c>
       <c r="D313" s="9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E313" s="9" t="s">
         <v>583</v>
@@ -8893,7 +8893,7 @@
         <v>270</v>
       </c>
       <c r="D314" s="9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E314" s="9" t="s">
         <v>583</v>
@@ -8910,7 +8910,7 @@
         <v>271</v>
       </c>
       <c r="D315" s="9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E315" s="9" t="s">
         <v>583</v>
@@ -8927,7 +8927,7 @@
         <v>60</v>
       </c>
       <c r="D316" s="9" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E316" s="9" t="s">
         <v>583</v>
@@ -8944,7 +8944,7 @@
         <v>61</v>
       </c>
       <c r="D317" s="9" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E317" s="9" t="s">
         <v>583</v>
@@ -8961,7 +8961,7 @@
         <v>62</v>
       </c>
       <c r="D318" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E318" s="9" t="s">
         <v>583</v>
@@ -8978,7 +8978,7 @@
         <v>348</v>
       </c>
       <c r="D319" s="9" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E319" s="9" t="s">
         <v>583</v>
@@ -8995,7 +8995,7 @@
         <v>358</v>
       </c>
       <c r="D320" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E320" s="9" t="s">
         <v>583</v>
@@ -9012,7 +9012,7 @@
         <v>359</v>
       </c>
       <c r="D321" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E321" s="9" t="s">
         <v>583</v>
@@ -9029,7 +9029,7 @@
         <v>357</v>
       </c>
       <c r="D322" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E322" s="9" t="s">
         <v>583</v>
@@ -9046,7 +9046,7 @@
         <v>349</v>
       </c>
       <c r="D323" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E323" s="9" t="s">
         <v>583</v>
@@ -9063,7 +9063,7 @@
         <v>350</v>
       </c>
       <c r="D324" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E324" s="9" t="s">
         <v>583</v>
@@ -9080,7 +9080,7 @@
         <v>351</v>
       </c>
       <c r="D325" s="9" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E325" s="9" t="s">
         <v>583</v>
@@ -9097,7 +9097,7 @@
         <v>272</v>
       </c>
       <c r="D326" s="9" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E326" s="9" t="s">
         <v>583</v>
@@ -9114,7 +9114,7 @@
         <v>273</v>
       </c>
       <c r="D327" s="9" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E327" s="9" t="s">
         <v>583</v>
@@ -9131,7 +9131,7 @@
         <v>274</v>
       </c>
       <c r="D328" s="9" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E328" s="9" t="s">
         <v>583</v>
@@ -9148,7 +9148,7 @@
         <v>275</v>
       </c>
       <c r="D329" s="9" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E329" s="9" t="s">
         <v>583</v>
@@ -9165,7 +9165,7 @@
         <v>352</v>
       </c>
       <c r="D330" s="9" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E330" s="9" t="s">
         <v>583</v>
@@ -9182,7 +9182,7 @@
         <v>353</v>
       </c>
       <c r="D331" s="9" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E331" s="9" t="s">
         <v>583</v>
@@ -9199,7 +9199,7 @@
         <v>274</v>
       </c>
       <c r="D332" s="9" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E332" s="9" t="s">
         <v>583</v>
@@ -9216,7 +9216,7 @@
         <v>328</v>
       </c>
       <c r="D333" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E333" s="9" t="s">
         <v>583</v>
@@ -9233,7 +9233,7 @@
         <v>276</v>
       </c>
       <c r="D334" s="9" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E334" s="9" t="s">
         <v>583</v>
@@ -9250,7 +9250,7 @@
         <v>277</v>
       </c>
       <c r="D335" s="9" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E335" s="9" t="s">
         <v>583</v>
@@ -9267,7 +9267,7 @@
         <v>278</v>
       </c>
       <c r="D336" s="9" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E336" s="9" t="s">
         <v>583</v>
@@ -9284,7 +9284,7 @@
         <v>575</v>
       </c>
       <c r="D337" s="9" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E337" s="9" t="s">
         <v>583</v>
@@ -9301,7 +9301,7 @@
         <v>64</v>
       </c>
       <c r="D338" s="9" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E338" s="9" t="s">
         <v>583</v>
@@ -9318,7 +9318,7 @@
         <v>279</v>
       </c>
       <c r="D339" s="9" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E339" s="9" t="s">
         <v>583</v>
@@ -9335,7 +9335,7 @@
         <v>280</v>
       </c>
       <c r="D340" s="9" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E340" s="9" t="s">
         <v>583</v>
@@ -9352,7 +9352,7 @@
         <v>281</v>
       </c>
       <c r="D341" s="9" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E341" s="9" t="s">
         <v>583</v>
@@ -9369,7 +9369,7 @@
         <v>282</v>
       </c>
       <c r="D342" s="9" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E342" s="9" t="s">
         <v>583</v>
@@ -9386,7 +9386,7 @@
         <v>356</v>
       </c>
       <c r="D343" s="9" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E343" s="9" t="s">
         <v>583</v>
@@ -9403,7 +9403,7 @@
         <v>283</v>
       </c>
       <c r="D344" s="9" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E344" s="9" t="s">
         <v>583</v>
@@ -9420,7 +9420,7 @@
         <v>317</v>
       </c>
       <c r="D345" s="9" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E345" s="9" t="s">
         <v>583</v>
@@ -9437,7 +9437,7 @@
         <v>66</v>
       </c>
       <c r="D346" s="9" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E346" s="9" t="s">
         <v>583</v>
@@ -9454,7 +9454,7 @@
         <v>551</v>
       </c>
       <c r="D347" s="9" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E347" s="9" t="s">
         <v>583</v>
@@ -9471,7 +9471,7 @@
         <v>550</v>
       </c>
       <c r="D348" s="9" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E348" s="9" t="s">
         <v>583</v>
@@ -9488,7 +9488,7 @@
         <v>566</v>
       </c>
       <c r="D349" s="9" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E349" s="9" t="s">
         <v>583</v>
@@ -9505,7 +9505,7 @@
         <v>549</v>
       </c>
       <c r="D350" s="9" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E350" s="9" t="s">
         <v>583</v>
@@ -9522,7 +9522,7 @@
         <v>292</v>
       </c>
       <c r="D351" s="9" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E351" s="9" t="s">
         <v>583</v>
@@ -9539,7 +9539,7 @@
         <v>355</v>
       </c>
       <c r="D352" s="9" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E352" s="9" t="s">
         <v>583</v>
@@ -9556,7 +9556,7 @@
         <v>284</v>
       </c>
       <c r="D353" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E353" s="9" t="s">
         <v>583</v>
@@ -9573,7 +9573,7 @@
         <v>284</v>
       </c>
       <c r="D354" s="9" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E354" s="9" t="s">
         <v>583</v>
@@ -9590,7 +9590,7 @@
         <v>322</v>
       </c>
       <c r="D355" s="9" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E355" s="9" t="s">
         <v>583</v>
@@ -9607,7 +9607,7 @@
         <v>323</v>
       </c>
       <c r="D356" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E356" s="9" t="s">
         <v>583</v>
@@ -9624,7 +9624,7 @@
         <v>354</v>
       </c>
       <c r="D357" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E357" s="9" t="s">
         <v>583</v>
@@ -9641,7 +9641,7 @@
         <v>285</v>
       </c>
       <c r="D358" s="9" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E358" s="9" t="s">
         <v>583</v>
@@ -9658,7 +9658,7 @@
         <v>67</v>
       </c>
       <c r="D359" s="9" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E359" s="9" t="s">
         <v>583</v>
@@ -9675,7 +9675,7 @@
         <v>286</v>
       </c>
       <c r="D360" s="9" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E360" s="9" t="s">
         <v>583</v>
@@ -9692,7 +9692,7 @@
         <v>287</v>
       </c>
       <c r="D361" s="9" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E361" s="9" t="s">
         <v>583</v>
@@ -9709,7 +9709,7 @@
         <v>68</v>
       </c>
       <c r="D362" s="9" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E362" s="9" t="s">
         <v>583</v>
@@ -9726,7 +9726,7 @@
         <v>70</v>
       </c>
       <c r="D363" s="9" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="364" spans="1:1023" ht="35" customHeight="1">
@@ -9740,7 +9740,7 @@
         <v>71</v>
       </c>
       <c r="D364" s="9" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="365" spans="1:1023" ht="35" customHeight="1">
@@ -9754,7 +9754,7 @@
         <v>385</v>
       </c>
       <c r="D365" s="9" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="366" spans="1:1023" ht="35" customHeight="1">
@@ -9768,7 +9768,7 @@
         <v>72</v>
       </c>
       <c r="D366" s="9" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="367" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
@@ -9782,7 +9782,7 @@
         <v>73</v>
       </c>
       <c r="D367" s="9" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E367" s="3"/>
       <c r="F367" s="3"/>
@@ -10815,7 +10815,7 @@
         <v>386</v>
       </c>
       <c r="D368" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>583</v>
@@ -10832,7 +10832,7 @@
         <v>387</v>
       </c>
       <c r="D369" s="9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>583</v>
@@ -10843,13 +10843,13 @@
         <v>74</v>
       </c>
       <c r="B370" s="15" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C370" s="15" t="s">
         <v>388</v>
       </c>
       <c r="D370" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>583</v>
@@ -10866,7 +10866,7 @@
         <v>389</v>
       </c>
       <c r="D371" s="9" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="372" spans="1:5" ht="35" customHeight="1">
@@ -10880,7 +10880,7 @@
         <v>390</v>
       </c>
       <c r="D372" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="35" customHeight="1">
@@ -10894,7 +10894,7 @@
         <v>391</v>
       </c>
       <c r="D373" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="374" spans="1:5" ht="35" customHeight="1">
@@ -10908,7 +10908,7 @@
         <v>392</v>
       </c>
       <c r="D374" s="9" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="375" spans="1:5" ht="35" customHeight="1">
@@ -10922,7 +10922,7 @@
         <v>393</v>
       </c>
       <c r="D375" s="9" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="376" spans="1:5" ht="35" customHeight="1">
@@ -10936,7 +10936,7 @@
         <v>394</v>
       </c>
       <c r="D376" s="9" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="35" customHeight="1">
@@ -10950,7 +10950,7 @@
         <v>395</v>
       </c>
       <c r="D377" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="378" spans="1:5" ht="35" customHeight="1">
@@ -10964,7 +10964,7 @@
         <v>396</v>
       </c>
       <c r="D378" s="9" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="35" customHeight="1">
@@ -10978,7 +10978,7 @@
         <v>397</v>
       </c>
       <c r="D379" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="380" spans="1:5" ht="35" customHeight="1">
@@ -10992,7 +10992,7 @@
         <v>398</v>
       </c>
       <c r="D380" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>583</v>
@@ -11009,7 +11009,7 @@
         <v>399</v>
       </c>
       <c r="D381" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="35" customHeight="1">
@@ -11023,7 +11023,7 @@
         <v>400</v>
       </c>
       <c r="D382" s="9" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="35" customHeight="1">
@@ -11037,7 +11037,7 @@
         <v>401</v>
       </c>
       <c r="D383" s="9" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>583</v>
@@ -11054,7 +11054,7 @@
         <v>402</v>
       </c>
       <c r="D384" s="9" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>583</v>
@@ -11071,7 +11071,7 @@
         <v>403</v>
       </c>
       <c r="D385" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E385" s="1" t="s">
         <v>583</v>
@@ -11088,7 +11088,7 @@
         <v>404</v>
       </c>
       <c r="D386" s="9" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>583</v>
@@ -11105,7 +11105,7 @@
         <v>579</v>
       </c>
       <c r="D387" s="9" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="388" spans="1:5" ht="35" customHeight="1">
@@ -11119,7 +11119,7 @@
         <v>405</v>
       </c>
       <c r="D388" s="9" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="389" spans="1:5" ht="35" customHeight="1">
@@ -11133,7 +11133,7 @@
         <v>406</v>
       </c>
       <c r="D389" s="9" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="390" spans="1:5" ht="35" customHeight="1">
@@ -11141,13 +11141,13 @@
         <v>74</v>
       </c>
       <c r="B390" s="15" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C390" s="15" t="s">
         <v>407</v>
       </c>
       <c r="D390" s="9" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="391" spans="1:5" ht="35" customHeight="1">
@@ -11161,7 +11161,7 @@
         <v>408</v>
       </c>
       <c r="D391" s="9" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="392" spans="1:5" ht="35" customHeight="1">
@@ -11175,7 +11175,7 @@
         <v>409</v>
       </c>
       <c r="D392" s="9" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="393" spans="1:5" ht="35" customHeight="1">
@@ -11189,7 +11189,7 @@
         <v>410</v>
       </c>
       <c r="D393" s="9" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="394" spans="1:5" ht="35" customHeight="1">
@@ -11203,7 +11203,7 @@
         <v>411</v>
       </c>
       <c r="D394" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="395" spans="1:5" ht="35" customHeight="1">
@@ -11217,7 +11217,7 @@
         <v>412</v>
       </c>
       <c r="D395" s="9" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>583</v>
@@ -11234,7 +11234,7 @@
         <v>413</v>
       </c>
       <c r="D396" s="9" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="397" spans="1:5" ht="35" customHeight="1">
@@ -11248,7 +11248,7 @@
         <v>414</v>
       </c>
       <c r="D397" s="9" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="398" spans="1:5" ht="35" customHeight="1">
@@ -11262,7 +11262,7 @@
         <v>415</v>
       </c>
       <c r="D398" s="9" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="399" spans="1:5" ht="35" customHeight="1">
@@ -11276,7 +11276,7 @@
         <v>415</v>
       </c>
       <c r="D399" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="400" spans="1:5" ht="35" customHeight="1">
@@ -11290,7 +11290,7 @@
         <v>416</v>
       </c>
       <c r="D400" s="9" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="401" spans="1:1023" ht="35" customHeight="1">
@@ -11304,7 +11304,7 @@
         <v>417</v>
       </c>
       <c r="D401" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="402" spans="1:1023" ht="35" customHeight="1">
@@ -11318,7 +11318,7 @@
         <v>418</v>
       </c>
       <c r="D402" s="9" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="403" spans="1:1023" ht="35" customHeight="1">
@@ -11332,7 +11332,7 @@
         <v>419</v>
       </c>
       <c r="D403" s="9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="404" spans="1:1023" ht="35" customHeight="1">
@@ -11346,7 +11346,7 @@
         <v>420</v>
       </c>
       <c r="D404" s="9" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="405" spans="1:1023" ht="35" customHeight="1">
@@ -11360,7 +11360,7 @@
         <v>421</v>
       </c>
       <c r="D405" s="9" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="406" spans="1:1023" ht="35" customHeight="1">
@@ -11374,7 +11374,7 @@
         <v>421</v>
       </c>
       <c r="D406" s="9" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="407" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
@@ -11388,7 +11388,7 @@
         <v>422</v>
       </c>
       <c r="D407" s="30" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E407" s="3"/>
       <c r="F407" s="3"/>
@@ -12421,7 +12421,7 @@
         <v>425</v>
       </c>
       <c r="D408" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="409" spans="1:1023" ht="35" customHeight="1">
@@ -12435,7 +12435,7 @@
         <v>426</v>
       </c>
       <c r="D409" s="9" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="410" spans="1:1023" ht="35" customHeight="1">
@@ -12449,7 +12449,7 @@
         <v>427</v>
       </c>
       <c r="D410" s="9" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="411" spans="1:1023" ht="35" customHeight="1">
@@ -12463,7 +12463,7 @@
         <v>428</v>
       </c>
       <c r="D411" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="412" spans="1:1023" ht="35" customHeight="1">
@@ -12477,7 +12477,7 @@
         <v>429</v>
       </c>
       <c r="D412" s="9" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="413" spans="1:1023" ht="35" customHeight="1">
@@ -12491,7 +12491,7 @@
         <v>430</v>
       </c>
       <c r="D413" s="9" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="414" spans="1:1023" ht="35" customHeight="1">
@@ -12499,13 +12499,13 @@
         <v>75</v>
       </c>
       <c r="B414" s="15" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C414" s="15" t="s">
         <v>431</v>
       </c>
       <c r="D414" s="9" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="415" spans="1:1023" ht="35" customHeight="1">
@@ -12519,7 +12519,7 @@
         <v>432</v>
       </c>
       <c r="D415" s="9" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="416" spans="1:1023" ht="35" customHeight="1">
@@ -12533,7 +12533,7 @@
         <v>433</v>
       </c>
       <c r="D416" s="9" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="417" spans="1:1023" ht="35" customHeight="1">
@@ -12541,13 +12541,13 @@
         <v>75</v>
       </c>
       <c r="B417" s="15" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C417" s="15" t="s">
         <v>434</v>
       </c>
       <c r="D417" s="9" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="418" spans="1:1023" ht="35" customHeight="1">
@@ -12561,7 +12561,7 @@
         <v>435</v>
       </c>
       <c r="D418" s="9" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="419" spans="1:1023" ht="35" customHeight="1">
@@ -12575,7 +12575,7 @@
         <v>436</v>
       </c>
       <c r="D419" s="9" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="420" spans="1:1023" ht="35" customHeight="1">
@@ -12589,7 +12589,7 @@
         <v>437</v>
       </c>
       <c r="D420" s="9" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="421" spans="1:1023" ht="35" customHeight="1">
@@ -12603,7 +12603,7 @@
         <v>438</v>
       </c>
       <c r="D421" s="9" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="422" spans="1:1023" ht="35" customHeight="1">
@@ -12631,7 +12631,7 @@
         <v>440</v>
       </c>
       <c r="D423" s="10" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="424" spans="1:1023" ht="35" customHeight="1">
@@ -12645,7 +12645,7 @@
         <v>441</v>
       </c>
       <c r="D424" s="10" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="425" spans="1:1023" ht="35" customHeight="1">
@@ -12659,7 +12659,7 @@
         <v>442</v>
       </c>
       <c r="D425" s="10" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="426" spans="1:1023" ht="35" customHeight="1">
@@ -12667,13 +12667,13 @@
         <v>75</v>
       </c>
       <c r="B426" s="15" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C426" s="15" t="s">
         <v>443</v>
       </c>
       <c r="D426" s="10" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="427" spans="1:1023" ht="35" customHeight="1">
@@ -12687,7 +12687,7 @@
         <v>444</v>
       </c>
       <c r="D427" s="10" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="428" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
@@ -12701,7 +12701,7 @@
         <v>76</v>
       </c>
       <c r="D428" s="9" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E428" s="3"/>
       <c r="F428" s="3"/>
@@ -13734,7 +13734,7 @@
         <v>446</v>
       </c>
       <c r="D429" s="9" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="430" spans="1:1023" ht="35" customHeight="1">
@@ -13748,7 +13748,7 @@
         <v>447</v>
       </c>
       <c r="D430" s="9" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="431" spans="1:1023" ht="35" customHeight="1">
@@ -13762,7 +13762,7 @@
         <v>448</v>
       </c>
       <c r="D431" s="9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="432" spans="1:1023" ht="35" customHeight="1">
@@ -13776,7 +13776,7 @@
         <v>567</v>
       </c>
       <c r="D432" s="9" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="433" spans="1:5" ht="35" customHeight="1">
@@ -13790,7 +13790,7 @@
         <v>449</v>
       </c>
       <c r="D433" s="9" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="434" spans="1:5" ht="35" customHeight="1">
@@ -13804,7 +13804,7 @@
         <v>591</v>
       </c>
       <c r="D434" s="9" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E434" s="1" t="s">
         <v>583</v>
@@ -13821,7 +13821,7 @@
         <v>450</v>
       </c>
       <c r="D435" s="9" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="436" spans="1:5" ht="35" customHeight="1">
@@ -13835,7 +13835,7 @@
         <v>451</v>
       </c>
       <c r="D436" s="9" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="437" spans="1:5" ht="35" customHeight="1">
@@ -13849,7 +13849,7 @@
         <v>452</v>
       </c>
       <c r="D437" s="9" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="438" spans="1:5" ht="35" customHeight="1">
@@ -13863,7 +13863,7 @@
         <v>453</v>
       </c>
       <c r="D438" s="10" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="439" spans="1:5" ht="35" customHeight="1">
@@ -13905,7 +13905,7 @@
         <v>456</v>
       </c>
       <c r="D441" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="442" spans="1:5" ht="35" customHeight="1">
@@ -13913,13 +13913,13 @@
         <v>77</v>
       </c>
       <c r="B442" s="15" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C442" s="15" t="s">
         <v>457</v>
       </c>
       <c r="D442" s="9" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="443" spans="1:5" ht="35" customHeight="1">
@@ -13927,13 +13927,13 @@
         <v>77</v>
       </c>
       <c r="B443" s="15" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C443" s="15" t="s">
         <v>458</v>
       </c>
       <c r="D443" s="9" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="444" spans="1:5" ht="35" customHeight="1">
@@ -13947,7 +13947,7 @@
         <v>459</v>
       </c>
       <c r="D444" s="9" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="445" spans="1:5" ht="35" customHeight="1">
@@ -13961,7 +13961,7 @@
         <v>570</v>
       </c>
       <c r="D445" s="9" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="446" spans="1:5" ht="35" customHeight="1">
@@ -13975,7 +13975,7 @@
         <v>460</v>
       </c>
       <c r="D446" s="9" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="447" spans="1:5" ht="35" customHeight="1">
@@ -13989,7 +13989,7 @@
         <v>462</v>
       </c>
       <c r="D447" s="9" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="448" spans="1:5" ht="35" customHeight="1">
@@ -14003,7 +14003,7 @@
         <v>463</v>
       </c>
       <c r="D448" s="9" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="449" spans="1:1023" ht="35" customHeight="1">
@@ -14017,7 +14017,7 @@
         <v>573</v>
       </c>
       <c r="D449" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="450" spans="1:1023" ht="35" customHeight="1">
@@ -14031,7 +14031,7 @@
         <v>593</v>
       </c>
       <c r="D450" s="9" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="451" spans="1:1023" ht="35" customHeight="1">
@@ -14045,7 +14045,7 @@
         <v>464</v>
       </c>
       <c r="D451" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="452" spans="1:1023" ht="35" customHeight="1">
@@ -14059,7 +14059,7 @@
         <v>465</v>
       </c>
       <c r="D452" s="9" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="453" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
@@ -14073,7 +14073,7 @@
         <v>466</v>
       </c>
       <c r="D453" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E453" s="3"/>
       <c r="F453" s="3"/>
@@ -15106,7 +15106,7 @@
         <v>467</v>
       </c>
       <c r="D454" s="9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E454" s="1" t="s">
         <v>583</v>
@@ -15123,7 +15123,7 @@
         <v>461</v>
       </c>
       <c r="D455" s="9" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E455" s="1" t="s">
         <v>583</v>
@@ -15140,7 +15140,7 @@
         <v>468</v>
       </c>
       <c r="D456" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E456" s="1" t="s">
         <v>583</v>
@@ -15157,7 +15157,7 @@
         <v>571</v>
       </c>
       <c r="D457" s="9" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E457" s="1" t="s">
         <v>583</v>
@@ -15174,7 +15174,7 @@
         <v>469</v>
       </c>
       <c r="D458" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E458" s="1" t="s">
         <v>583</v>
@@ -15191,7 +15191,7 @@
         <v>470</v>
       </c>
       <c r="D459" s="10" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E459" s="1" t="s">
         <v>583</v>
@@ -15208,7 +15208,7 @@
         <v>572</v>
       </c>
       <c r="D460" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E460" s="1" t="s">
         <v>583</v>
@@ -15225,7 +15225,7 @@
         <v>471</v>
       </c>
       <c r="D461" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E461" s="1" t="s">
         <v>583</v>
@@ -15242,7 +15242,7 @@
         <v>472</v>
       </c>
       <c r="D462" s="10" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E462" s="1" t="s">
         <v>583</v>
@@ -15259,7 +15259,7 @@
         <v>472</v>
       </c>
       <c r="D463" s="10" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E463" s="1" t="s">
         <v>583</v>
@@ -15276,7 +15276,7 @@
         <v>592</v>
       </c>
       <c r="D464" s="9" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E464" s="1" t="s">
         <v>583</v>
@@ -15293,7 +15293,7 @@
         <v>473</v>
       </c>
       <c r="D465" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E465" s="1" t="s">
         <v>583</v>
@@ -15310,7 +15310,7 @@
         <v>474</v>
       </c>
       <c r="D466" s="9" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E466" s="1" t="s">
         <v>583</v>
@@ -15327,7 +15327,7 @@
         <v>475</v>
       </c>
       <c r="D467" s="9" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E467" s="1" t="s">
         <v>583</v>
@@ -15344,7 +15344,7 @@
         <v>476</v>
       </c>
       <c r="D468" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E468" s="1" t="s">
         <v>583</v>
@@ -15355,13 +15355,13 @@
         <v>78</v>
       </c>
       <c r="B469" s="18" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C469" s="18" t="s">
         <v>476</v>
       </c>
       <c r="D469" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E469" s="1" t="s">
         <v>583</v>
@@ -15395,7 +15395,7 @@
         <v>568</v>
       </c>
       <c r="D471" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E471" s="1" t="s">
         <v>583</v>
@@ -15412,7 +15412,7 @@
         <v>477</v>
       </c>
       <c r="D472" s="9" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E472" s="1" t="s">
         <v>583</v>
@@ -15429,7 +15429,7 @@
         <v>478</v>
       </c>
       <c r="D473" s="9" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E473" s="1" t="s">
         <v>583</v>
@@ -15446,7 +15446,7 @@
         <v>594</v>
       </c>
       <c r="D474" s="9" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E474" s="1" t="s">
         <v>583</v>
@@ -15463,7 +15463,7 @@
         <v>479</v>
       </c>
       <c r="D475" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E475" s="1" t="s">
         <v>583</v>
@@ -15480,7 +15480,7 @@
         <v>480</v>
       </c>
       <c r="D476" s="9" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E476" s="3" t="s">
         <v>583</v>
@@ -16515,7 +16515,7 @@
         <v>481</v>
       </c>
       <c r="D477" s="9" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="478" spans="1:1023" ht="35" customHeight="1">
@@ -16529,7 +16529,7 @@
         <v>482</v>
       </c>
       <c r="D478" s="9" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="479" spans="1:1023" ht="35" customHeight="1">
@@ -16543,7 +16543,7 @@
         <v>483</v>
       </c>
       <c r="D479" s="9" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="480" spans="1:1023" ht="35" customHeight="1">
@@ -16557,7 +16557,7 @@
         <v>484</v>
       </c>
       <c r="D480" s="9" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="481" spans="1:1023" ht="35" customHeight="1">
@@ -16571,7 +16571,7 @@
         <v>485</v>
       </c>
       <c r="D481" s="9" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="482" spans="1:1023" ht="35" customHeight="1">
@@ -16585,7 +16585,7 @@
         <v>486</v>
       </c>
       <c r="D482" s="9" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="483" spans="1:1023" ht="35" customHeight="1">
@@ -16599,7 +16599,7 @@
         <v>487</v>
       </c>
       <c r="D483" s="9" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="484" spans="1:1023" ht="35" customHeight="1">
@@ -16613,7 +16613,7 @@
         <v>488</v>
       </c>
       <c r="D484" s="9" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="485" spans="1:1023" ht="35" customHeight="1">
@@ -16627,7 +16627,7 @@
         <v>489</v>
       </c>
       <c r="D485" s="9" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="486" spans="1:1023" ht="35" customHeight="1">
@@ -16641,7 +16641,7 @@
         <v>490</v>
       </c>
       <c r="D486" s="10" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="487" spans="1:1023" ht="35" customHeight="1">
@@ -16655,7 +16655,7 @@
         <v>491</v>
       </c>
       <c r="D487" s="10" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="488" spans="1:1023" ht="35" customHeight="1">
@@ -16669,7 +16669,7 @@
         <v>492</v>
       </c>
       <c r="D488" s="10" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="489" spans="1:1023" ht="35" customHeight="1">
@@ -16683,7 +16683,7 @@
         <v>493</v>
       </c>
       <c r="D489" s="9" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="490" spans="1:1023" ht="35" customHeight="1">
@@ -16697,7 +16697,7 @@
         <v>494</v>
       </c>
       <c r="D490" s="9" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="491" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
@@ -16711,7 +16711,7 @@
         <v>495</v>
       </c>
       <c r="D491" s="9" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E491" s="3"/>
       <c r="F491" s="3"/>
@@ -17744,7 +17744,7 @@
         <v>496</v>
       </c>
       <c r="D492" s="9" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="493" spans="1:1023" ht="35" customHeight="1">
@@ -17758,7 +17758,7 @@
         <v>497</v>
       </c>
       <c r="D493" s="9" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="494" spans="1:1023" ht="35" customHeight="1">
@@ -17772,7 +17772,7 @@
         <v>498</v>
       </c>
       <c r="D494" s="9" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="495" spans="1:1023" ht="35" customHeight="1">
@@ -17786,7 +17786,7 @@
         <v>499</v>
       </c>
       <c r="D495" s="9" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="496" spans="1:1023" ht="35" customHeight="1">
@@ -17800,7 +17800,7 @@
         <v>500</v>
       </c>
       <c r="D496" s="9" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="497" spans="1:1023" ht="35" customHeight="1">
@@ -17814,7 +17814,7 @@
         <v>501</v>
       </c>
       <c r="D497" s="9" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="498" spans="1:1023" ht="35" customHeight="1">
@@ -17828,7 +17828,7 @@
         <v>502</v>
       </c>
       <c r="D498" s="9" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="499" spans="1:1023" ht="35" customHeight="1">
@@ -17842,7 +17842,7 @@
         <v>503</v>
       </c>
       <c r="D499" s="9" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="500" spans="1:1023" ht="35" customHeight="1">
@@ -17856,7 +17856,7 @@
         <v>587</v>
       </c>
       <c r="D500" s="9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="501" spans="1:1023" ht="35" customHeight="1">
@@ -17884,7 +17884,7 @@
         <v>504</v>
       </c>
       <c r="D502" s="10" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="503" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
@@ -17898,7 +17898,7 @@
         <v>505</v>
       </c>
       <c r="D503" s="10" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E503" s="3"/>
       <c r="F503" s="3"/>
@@ -18931,7 +18931,7 @@
         <v>506</v>
       </c>
       <c r="D504" s="9" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E504" s="5" t="s">
         <v>583</v>
@@ -19966,7 +19966,7 @@
         <v>507</v>
       </c>
       <c r="D505" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E505" s="5" t="s">
         <v>583</v>
@@ -21001,7 +21001,7 @@
         <v>530</v>
       </c>
       <c r="D506" s="9" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="507" spans="1:1023" ht="35" customHeight="1">
@@ -21015,7 +21015,7 @@
         <v>508</v>
       </c>
       <c r="D507" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E507" s="1" t="s">
         <v>583</v>
@@ -21032,7 +21032,7 @@
         <v>509</v>
       </c>
       <c r="D508" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E508" s="1" t="s">
         <v>583</v>
@@ -21049,7 +21049,7 @@
         <v>510</v>
       </c>
       <c r="D509" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E509" s="1" t="s">
         <v>583</v>
@@ -21066,7 +21066,7 @@
         <v>511</v>
       </c>
       <c r="D510" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E510" s="1" t="s">
         <v>583</v>
@@ -21083,7 +21083,7 @@
         <v>512</v>
       </c>
       <c r="D511" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E511" s="1" t="s">
         <v>583</v>
@@ -21100,7 +21100,7 @@
         <v>511</v>
       </c>
       <c r="D512" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E512" s="1" t="s">
         <v>583</v>
@@ -21117,7 +21117,7 @@
         <v>513</v>
       </c>
       <c r="D513" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E513" s="1" t="s">
         <v>583</v>
@@ -21134,7 +21134,7 @@
         <v>514</v>
       </c>
       <c r="D514" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E514" s="1" t="s">
         <v>583</v>
@@ -21151,7 +21151,7 @@
         <v>515</v>
       </c>
       <c r="D515" s="9" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E515" s="1" t="s">
         <v>583</v>
@@ -21168,7 +21168,7 @@
         <v>516</v>
       </c>
       <c r="D516" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E516" s="1" t="s">
         <v>583</v>
@@ -21185,7 +21185,7 @@
         <v>517</v>
       </c>
       <c r="D517" s="9" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E517" s="1" t="s">
         <v>583</v>
@@ -21202,7 +21202,7 @@
         <v>518</v>
       </c>
       <c r="D518" s="9" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E518" s="3" t="s">
         <v>583</v>
@@ -22237,7 +22237,7 @@
         <v>519</v>
       </c>
       <c r="D519" s="9" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E519" s="5"/>
       <c r="F519" s="5"/>
@@ -23270,7 +23270,7 @@
         <v>588</v>
       </c>
       <c r="D520" s="9" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E520" s="5"/>
       <c r="F520" s="5"/>
@@ -24303,7 +24303,7 @@
         <v>520</v>
       </c>
       <c r="D521" s="9" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E521" s="5"/>
       <c r="F521" s="5"/>
@@ -25336,7 +25336,7 @@
         <v>521</v>
       </c>
       <c r="D522" s="9" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E522" s="5"/>
       <c r="F522" s="5"/>
@@ -26369,7 +26369,7 @@
         <v>522</v>
       </c>
       <c r="D523" s="9" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E523" s="5"/>
       <c r="F523" s="5"/>
@@ -27402,7 +27402,7 @@
         <v>523</v>
       </c>
       <c r="D524" s="9" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="525" spans="1:1023" ht="52" customHeight="1">
@@ -27416,7 +27416,7 @@
         <v>524</v>
       </c>
       <c r="D525" s="9" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="526" spans="1:1023" ht="35" customHeight="1">
@@ -27430,7 +27430,7 @@
         <v>525</v>
       </c>
       <c r="D526" s="9" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="527" spans="1:1023" ht="35" customHeight="1">
@@ -27444,7 +27444,7 @@
         <v>526</v>
       </c>
       <c r="D527" s="10" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="528" spans="1:1023" ht="35" customHeight="1">
@@ -27458,7 +27458,7 @@
         <v>527</v>
       </c>
       <c r="D528" s="9" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="529" spans="1:1023" ht="35" customHeight="1">
@@ -27472,7 +27472,7 @@
         <v>528</v>
       </c>
       <c r="D529" s="9" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="530" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
@@ -27486,7 +27486,7 @@
         <v>529</v>
       </c>
       <c r="D530" s="10" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E530" s="3"/>
       <c r="F530" s="3"/>

--- a/utils/excel_to_json/questions.xlsx
+++ b/utils/excel_to_json/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koncz/ivosjatek/utils/excel_to_json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6F3F1F-82C3-2A44-8B6C-01B945E71B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535EC34C-0754-1643-9F27-B04238707CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13840" yWindow="460" windowWidth="28800" windowHeight="15920" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19520" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="1168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="1167">
   <si>
     <t>outer_quality</t>
   </si>
@@ -1848,9 +1848,6 @@
   </si>
   <si>
     <t>pepe.png</t>
-  </si>
-  <si>
-    <t>blue_girls.png</t>
   </si>
   <si>
     <t>cowboy.png</t>
@@ -4129,7 +4126,7 @@
   <dimension ref="A1:AMI1216"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -4165,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>85</v>
@@ -4179,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>86</v>
@@ -4193,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>87</v>
@@ -4207,13 +4204,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>88</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4221,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>1</v>
@@ -4235,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>2</v>
@@ -4249,13 +4246,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4263,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>92</v>
@@ -4277,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>93</v>
@@ -4291,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>94</v>
@@ -4305,13 +4302,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>95</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4319,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>294</v>
@@ -4333,13 +4330,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>293</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4347,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>96</v>
@@ -4375,13 +4372,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>582</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4395,7 +4392,7 @@
         <v>100</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4403,13 +4400,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>101</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4417,13 +4414,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>102</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4437,7 +4434,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4445,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>4</v>
@@ -4459,13 +4456,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4473,13 +4470,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4493,7 +4490,7 @@
         <v>105</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4521,7 +4518,7 @@
         <v>109</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4529,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>110</v>
@@ -4543,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>297</v>
@@ -4563,7 +4560,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>583</v>
@@ -4580,7 +4577,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>583</v>
@@ -4591,13 +4588,13 @@
         <v>580</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>113</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>583</v>
@@ -4608,13 +4605,13 @@
         <v>9</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>114</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4622,7 +4619,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>115</v>
@@ -4642,7 +4639,7 @@
         <v>117</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4656,7 +4653,7 @@
         <v>119</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4664,7 +4661,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>120</v>
@@ -4675,7 +4672,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>121</v>
@@ -4686,13 +4683,13 @@
         <v>9</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>208</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4700,13 +4697,13 @@
         <v>9</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>122</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4720,7 +4717,7 @@
         <v>124</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4728,13 +4725,13 @@
         <v>9</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>89</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4742,7 +4739,7 @@
         <v>9</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>90</v>
@@ -4762,7 +4759,7 @@
         <v>298</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4770,13 +4767,13 @@
         <v>9</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>125</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4784,13 +4781,13 @@
         <v>9</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>537</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4798,13 +4795,13 @@
         <v>9</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4812,13 +4809,13 @@
         <v>9</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4826,13 +4823,13 @@
         <v>9</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -4840,13 +4837,13 @@
         <v>9</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4860,7 +4857,7 @@
         <v>15</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4874,7 +4871,7 @@
         <v>299</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4882,13 +4879,13 @@
         <v>14</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>127</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4902,7 +4899,7 @@
         <v>129</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>583</v>
@@ -4919,7 +4916,7 @@
         <v>131</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4927,13 +4924,13 @@
         <v>14</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>536</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4941,13 +4938,13 @@
         <v>14</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>132</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4955,7 +4952,7 @@
         <v>14</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>581</v>
@@ -4969,13 +4966,13 @@
         <v>14</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>133</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4989,7 +4986,7 @@
         <v>135</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5003,7 +5000,7 @@
         <v>137</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5017,7 +5014,7 @@
         <v>139</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5031,7 +5028,7 @@
         <v>141</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5039,13 +5036,13 @@
         <v>16</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>142</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5059,7 +5056,7 @@
         <v>144</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5073,7 +5070,7 @@
         <v>146</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5087,7 +5084,7 @@
         <v>533</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5095,13 +5092,13 @@
         <v>16</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>534</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5115,7 +5112,7 @@
         <v>148</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5123,13 +5120,13 @@
         <v>16</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>149</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5137,13 +5134,13 @@
         <v>16</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>150</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5151,13 +5148,13 @@
         <v>16</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>151</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5165,7 +5162,7 @@
         <v>16</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>152</v>
@@ -5179,13 +5176,13 @@
         <v>16</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>153</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>583</v>
@@ -5202,7 +5199,7 @@
         <v>155</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5210,13 +5207,13 @@
         <v>17</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5224,13 +5221,13 @@
         <v>17</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -5238,13 +5235,13 @@
         <v>17</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C78" s="17" t="s">
         <v>156</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="5" customFormat="1" ht="35" customHeight="1">
@@ -5252,13 +5249,13 @@
         <v>538</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>542</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="5" customFormat="1" ht="35" customHeight="1">
@@ -5266,13 +5263,13 @@
         <v>538</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>543</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="81" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
@@ -5286,7 +5283,7 @@
         <v>544</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="82" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
@@ -5300,7 +5297,7 @@
         <v>545</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
@@ -5314,7 +5311,7 @@
         <v>546</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
@@ -5322,13 +5319,13 @@
         <v>538</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C84" s="17" t="s">
         <v>547</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="85" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
@@ -5336,13 +5333,13 @@
         <v>20</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>157</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="86" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5350,13 +5347,13 @@
         <v>20</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="87" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5364,13 +5361,13 @@
         <v>20</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>158</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="88" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
@@ -5378,13 +5375,13 @@
         <v>20</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C88" s="17" t="s">
         <v>159</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="89" spans="1:4" s="6" customFormat="1" ht="35" customHeight="1">
@@ -5398,7 +5395,7 @@
         <v>161</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5406,13 +5403,13 @@
         <v>23</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C90" s="15" t="s">
         <v>162</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
@@ -5420,13 +5417,13 @@
         <v>23</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C91" s="17" t="s">
         <v>163</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="92" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5434,13 +5431,13 @@
         <v>24</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C92" s="18" t="s">
         <v>164</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="93" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5448,13 +5445,13 @@
         <v>24</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C93" s="18" t="s">
         <v>165</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="94" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5462,13 +5459,13 @@
         <v>24</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C94" s="18" t="s">
         <v>166</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="95" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5476,13 +5473,13 @@
         <v>24</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="96" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5490,7 +5487,7 @@
         <v>24</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>290</v>
@@ -5504,13 +5501,13 @@
         <v>24</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C97" s="18" t="s">
         <v>167</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5518,13 +5515,13 @@
         <v>24</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C98" s="18" t="s">
         <v>168</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5538,7 +5535,7 @@
         <v>170</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5552,7 +5549,7 @@
         <v>172</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="101" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5560,13 +5557,13 @@
         <v>24</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C101" s="18" t="s">
         <v>176</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="102" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5574,13 +5571,13 @@
         <v>24</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C102" s="18" t="s">
         <v>577</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="103" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5588,13 +5585,13 @@
         <v>24</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C103" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="104" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5602,13 +5599,13 @@
         <v>24</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C104" s="18" t="s">
         <v>178</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -5616,13 +5613,13 @@
         <v>24</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C105" s="21" t="s">
         <v>179</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="106" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5630,13 +5627,13 @@
         <v>576</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C106" s="18" t="s">
         <v>173</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>583</v>
@@ -5647,13 +5644,13 @@
         <v>576</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C107" s="18" t="s">
         <v>300</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>583</v>
@@ -5664,13 +5661,13 @@
         <v>576</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C108" s="18" t="s">
         <v>174</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>583</v>
@@ -5681,13 +5678,13 @@
         <v>576</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C109" s="18" t="s">
         <v>175</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>583</v>
@@ -5698,13 +5695,13 @@
         <v>576</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C110" s="18" t="s">
         <v>177</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>583</v>
@@ -5715,13 +5712,13 @@
         <v>576</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C111" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="29" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E111" s="29" t="s">
         <v>583</v>
@@ -5732,7 +5729,7 @@
         <v>28</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C112" s="18" t="s">
         <v>301</v>
@@ -5746,13 +5743,13 @@
         <v>28</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C113" s="18" t="s">
         <v>302</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="114" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5760,13 +5757,13 @@
         <v>28</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C114" s="18" t="s">
         <v>180</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="115" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5774,13 +5771,13 @@
         <v>28</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C115" s="18" t="s">
         <v>181</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="116" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5788,13 +5785,13 @@
         <v>28</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C116" s="18" t="s">
         <v>182</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="117" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5802,13 +5799,13 @@
         <v>28</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C117" s="18" t="s">
         <v>183</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="118" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5816,13 +5813,13 @@
         <v>28</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C118" s="18" t="s">
         <v>184</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="119" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5830,13 +5827,13 @@
         <v>28</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C119" s="18" t="s">
         <v>185</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="120" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5844,13 +5841,13 @@
         <v>28</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C120" s="18" t="s">
         <v>186</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="121" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5858,13 +5855,13 @@
         <v>28</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C121" s="18" t="s">
         <v>303</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="122" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5872,7 +5869,7 @@
         <v>28</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C122" s="18" t="s">
         <v>596</v>
@@ -5886,13 +5883,13 @@
         <v>28</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C123" s="18" t="s">
         <v>187</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="124" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5900,13 +5897,13 @@
         <v>28</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C124" s="18" t="s">
         <v>188</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="125" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5914,13 +5911,13 @@
         <v>28</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C125" s="18" t="s">
         <v>304</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>583</v>
@@ -5931,13 +5928,13 @@
         <v>28</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C126" s="18" t="s">
         <v>362</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>583</v>
@@ -5948,13 +5945,13 @@
         <v>28</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C127" s="18" t="s">
         <v>363</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>583</v>
@@ -5965,13 +5962,13 @@
         <v>28</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C128" s="18" t="s">
         <v>305</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E128" s="9" t="s">
         <v>583</v>
@@ -5982,13 +5979,13 @@
         <v>28</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C129" s="18" t="s">
         <v>597</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>583</v>
@@ -5999,13 +5996,13 @@
         <v>28</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C130" s="18" t="s">
         <v>189</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>583</v>
@@ -6016,13 +6013,13 @@
         <v>28</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C131" s="18" t="s">
         <v>361</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="132" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6030,13 +6027,13 @@
         <v>28</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C132" s="18" t="s">
         <v>190</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="133" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6044,13 +6041,13 @@
         <v>28</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C133" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="134" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6058,13 +6055,13 @@
         <v>28</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C134" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="135" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6072,13 +6069,13 @@
         <v>28</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C135" s="15" t="s">
         <v>360</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="136" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6086,13 +6083,13 @@
         <v>28</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C136" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="137" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6100,13 +6097,13 @@
         <v>28</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C137" s="18" t="s">
         <v>191</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="138" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -6114,13 +6111,13 @@
         <v>28</v>
       </c>
       <c r="B138" s="21" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C138" s="21" t="s">
         <v>289</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="139" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6128,7 +6125,7 @@
         <v>32</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C139" s="18" t="s">
         <v>368</v>
@@ -6142,13 +6139,13 @@
         <v>32</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C140" s="18" t="s">
         <v>369</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="141" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6156,13 +6153,13 @@
         <v>32</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C141" s="18" t="s">
         <v>370</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="142" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6170,7 +6167,7 @@
         <v>32</v>
       </c>
       <c r="B142" s="18" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C142" s="18" t="s">
         <v>565</v>
@@ -6184,13 +6181,13 @@
         <v>32</v>
       </c>
       <c r="B143" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C143" s="18" t="s">
         <v>373</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="144" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6198,13 +6195,13 @@
         <v>32</v>
       </c>
       <c r="B144" s="18" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C144" s="18" t="s">
         <v>383</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="145" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6212,7 +6209,7 @@
         <v>32</v>
       </c>
       <c r="B145" s="18" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C145" s="18" t="s">
         <v>589</v>
@@ -6226,13 +6223,13 @@
         <v>32</v>
       </c>
       <c r="B146" s="18" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C146" s="18" t="s">
         <v>374</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="147" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6240,7 +6237,7 @@
         <v>32</v>
       </c>
       <c r="B147" s="24" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C147" s="18" t="s">
         <v>590</v>
@@ -6254,13 +6251,13 @@
         <v>32</v>
       </c>
       <c r="B148" s="24" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C148" s="18" t="s">
         <v>376</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="149" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6268,13 +6265,13 @@
         <v>32</v>
       </c>
       <c r="B149" s="24" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C149" s="18" t="s">
         <v>377</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="150" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6282,13 +6279,13 @@
         <v>32</v>
       </c>
       <c r="B150" s="24" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C150" s="18" t="s">
         <v>379</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="151" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6296,13 +6293,13 @@
         <v>32</v>
       </c>
       <c r="B151" s="24" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C151" s="18" t="s">
         <v>380</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="152" spans="1:5" s="29" customFormat="1" ht="35" customHeight="1">
@@ -6316,7 +6313,7 @@
         <v>381</v>
       </c>
       <c r="D152" s="29" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="153" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6330,7 +6327,7 @@
         <v>564</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E153" s="9" t="s">
         <v>583</v>
@@ -6347,7 +6344,7 @@
         <v>382</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E154" s="9" t="s">
         <v>583</v>
@@ -6358,13 +6355,13 @@
         <v>563</v>
       </c>
       <c r="B155" s="24" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C155" s="18" t="s">
         <v>378</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>583</v>
@@ -6375,13 +6372,13 @@
         <v>563</v>
       </c>
       <c r="B156" s="18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C156" s="18" t="s">
         <v>373</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>583</v>
@@ -6392,13 +6389,13 @@
         <v>563</v>
       </c>
       <c r="B157" s="18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C157" s="18" t="s">
         <v>375</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>583</v>
@@ -6415,7 +6412,7 @@
         <v>561</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>583</v>
@@ -6426,13 +6423,13 @@
         <v>563</v>
       </c>
       <c r="B159" s="18" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C159" s="18" t="s">
         <v>552</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E159" s="9" t="s">
         <v>583</v>
@@ -6443,13 +6440,13 @@
         <v>563</v>
       </c>
       <c r="B160" s="18" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C160" s="18" t="s">
         <v>373</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E160" s="9" t="s">
         <v>583</v>
@@ -6466,7 +6463,7 @@
         <v>371</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E161" s="9" t="s">
         <v>583</v>
@@ -6477,13 +6474,13 @@
         <v>563</v>
       </c>
       <c r="B162" s="18" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C162" s="18" t="s">
         <v>372</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E162" s="9" t="s">
         <v>583</v>
@@ -6494,13 +6491,13 @@
         <v>563</v>
       </c>
       <c r="B163" s="21" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C163" s="17" t="s">
         <v>384</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>583</v>
@@ -6511,13 +6508,13 @@
         <v>33</v>
       </c>
       <c r="B164" s="18" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C164" s="18" t="s">
         <v>192</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="165" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6525,13 +6522,13 @@
         <v>33</v>
       </c>
       <c r="B165" s="18" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C165" s="18" t="s">
         <v>193</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="166" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6539,13 +6536,13 @@
         <v>33</v>
       </c>
       <c r="B166" s="18" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C166" s="18" t="s">
         <v>194</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="167" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6553,13 +6550,13 @@
         <v>33</v>
       </c>
       <c r="B167" s="18" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C167" s="18" t="s">
         <v>554</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="168" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6567,13 +6564,13 @@
         <v>33</v>
       </c>
       <c r="B168" s="18" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C168" s="18" t="s">
         <v>553</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="169" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6581,13 +6578,13 @@
         <v>33</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C169" s="18" t="s">
         <v>195</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="170" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6595,13 +6592,13 @@
         <v>33</v>
       </c>
       <c r="B170" s="18" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C170" s="18" t="s">
         <v>196</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="171" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6609,13 +6606,13 @@
         <v>33</v>
       </c>
       <c r="B171" s="18" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C171" s="18" t="s">
         <v>197</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="172" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6623,13 +6620,13 @@
         <v>33</v>
       </c>
       <c r="B172" s="18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C172" s="15" t="s">
         <v>34</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="173" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6637,13 +6634,13 @@
         <v>33</v>
       </c>
       <c r="B173" s="18" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C173" s="18" t="s">
         <v>198</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="174" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6651,13 +6648,13 @@
         <v>33</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C174" s="18" t="s">
         <v>199</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="175" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6665,13 +6662,13 @@
         <v>33</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C175" s="18" t="s">
         <v>200</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="176" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6679,13 +6676,13 @@
         <v>33</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C176" s="18" t="s">
         <v>201</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="177" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6693,13 +6690,13 @@
         <v>33</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C177" s="18" t="s">
         <v>202</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="178" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6707,7 +6704,7 @@
         <v>33</v>
       </c>
       <c r="B178" s="18" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C178" s="18" t="s">
         <v>203</v>
@@ -6721,7 +6718,7 @@
         <v>33</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C179" s="18" t="s">
         <v>204</v>
@@ -6735,13 +6732,13 @@
         <v>33</v>
       </c>
       <c r="B180" s="18" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C180" s="18" t="s">
         <v>205</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="181" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6749,7 +6746,7 @@
         <v>33</v>
       </c>
       <c r="B181" s="18" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C181" s="18" t="s">
         <v>306</v>
@@ -6763,13 +6760,13 @@
         <v>33</v>
       </c>
       <c r="B182" s="18" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C182" s="18" t="s">
         <v>206</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="183" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6777,13 +6774,13 @@
         <v>33</v>
       </c>
       <c r="B183" s="18" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C183" s="18" t="s">
         <v>207</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="184" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6791,13 +6788,13 @@
         <v>33</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C184" s="18" t="s">
         <v>209</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="185" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6805,13 +6802,13 @@
         <v>33</v>
       </c>
       <c r="B185" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C185" s="18" t="s">
         <v>210</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="186" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6819,13 +6816,13 @@
         <v>33</v>
       </c>
       <c r="B186" s="18" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C186" s="18" t="s">
         <v>41</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="187" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6833,13 +6830,13 @@
         <v>33</v>
       </c>
       <c r="B187" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C187" s="15" t="s">
         <v>35</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="188" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6847,13 +6844,13 @@
         <v>33</v>
       </c>
       <c r="B188" s="18" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C188" s="18" t="s">
         <v>211</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="189" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6861,7 +6858,7 @@
         <v>33</v>
       </c>
       <c r="B189" s="18" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C189" s="18" t="s">
         <v>212</v>
@@ -6875,7 +6872,7 @@
         <v>33</v>
       </c>
       <c r="B190" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C190" s="18" t="s">
         <v>36</v>
@@ -6889,13 +6886,13 @@
         <v>33</v>
       </c>
       <c r="B191" s="18" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C191" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="192" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6903,13 +6900,13 @@
         <v>33</v>
       </c>
       <c r="B192" s="18" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C192" s="18" t="s">
         <v>213</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="193" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6917,13 +6914,13 @@
         <v>33</v>
       </c>
       <c r="B193" s="18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C193" s="18" t="s">
         <v>555</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="194" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6931,13 +6928,13 @@
         <v>33</v>
       </c>
       <c r="B194" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C194" s="18" t="s">
         <v>214</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="195" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6945,13 +6942,13 @@
         <v>33</v>
       </c>
       <c r="B195" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C195" s="18" t="s">
         <v>215</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="196" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6959,7 +6956,7 @@
         <v>33</v>
       </c>
       <c r="B196" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C196" s="15" t="s">
         <v>586</v>
@@ -6973,7 +6970,7 @@
         <v>33</v>
       </c>
       <c r="B197" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C197" s="15" t="s">
         <v>585</v>
@@ -6987,7 +6984,7 @@
         <v>33</v>
       </c>
       <c r="B198" s="18" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C198" s="15" t="s">
         <v>38</v>
@@ -7001,13 +6998,13 @@
         <v>33</v>
       </c>
       <c r="B199" s="18" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C199" s="18" t="s">
         <v>216</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="200" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7015,7 +7012,7 @@
         <v>33</v>
       </c>
       <c r="B200" s="18" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C200" s="18" t="s">
         <v>217</v>
@@ -7029,13 +7026,13 @@
         <v>33</v>
       </c>
       <c r="B201" s="18" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C201" s="18" t="s">
         <v>218</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="202" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7043,13 +7040,13 @@
         <v>33</v>
       </c>
       <c r="B202" s="18" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C202" s="18" t="s">
         <v>219</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="203" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7057,13 +7054,13 @@
         <v>33</v>
       </c>
       <c r="B203" s="18" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C203" s="18" t="s">
         <v>220</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="204" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7077,7 +7074,7 @@
         <v>222</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="205" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7091,7 +7088,7 @@
         <v>224</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="206" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7099,13 +7096,13 @@
         <v>33</v>
       </c>
       <c r="B206" s="18" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C206" s="18" t="s">
         <v>225</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="207" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7119,7 +7116,7 @@
         <v>227</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="208" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7127,13 +7124,13 @@
         <v>33</v>
       </c>
       <c r="B208" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C208" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="209" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7141,13 +7138,13 @@
         <v>33</v>
       </c>
       <c r="B209" s="18" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C209" s="18" t="s">
         <v>228</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="210" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7155,13 +7152,13 @@
         <v>33</v>
       </c>
       <c r="B210" s="18" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C210" s="18" t="s">
         <v>229</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="211" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7169,13 +7166,13 @@
         <v>33</v>
       </c>
       <c r="B211" s="18" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C211" s="18" t="s">
         <v>288</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="212" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7183,13 +7180,13 @@
         <v>33</v>
       </c>
       <c r="B212" s="18" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C212" s="18" t="s">
         <v>230</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="213" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7197,13 +7194,13 @@
         <v>33</v>
       </c>
       <c r="B213" s="18" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C213" s="18" t="s">
         <v>231</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="214" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7211,13 +7208,13 @@
         <v>33</v>
       </c>
       <c r="B214" s="18" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C214" s="15" t="s">
         <v>296</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="215" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7225,13 +7222,13 @@
         <v>33</v>
       </c>
       <c r="B215" s="18" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C215" s="15" t="s">
         <v>308</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="216" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7239,13 +7236,13 @@
         <v>33</v>
       </c>
       <c r="B216" s="18" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C216" s="15" t="s">
         <v>307</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="217" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7253,13 +7250,13 @@
         <v>33</v>
       </c>
       <c r="B217" s="18" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C217" s="15" t="s">
         <v>291</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="218" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7267,7 +7264,7 @@
         <v>33</v>
       </c>
       <c r="B218" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C218" s="15" t="s">
         <v>309</v>
@@ -7281,13 +7278,13 @@
         <v>33</v>
       </c>
       <c r="B219" s="18" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C219" s="15" t="s">
         <v>310</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="220" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7295,13 +7292,13 @@
         <v>33</v>
       </c>
       <c r="B220" s="18" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C220" s="15" t="s">
         <v>311</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="221" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7309,13 +7306,13 @@
         <v>33</v>
       </c>
       <c r="B221" s="18" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C221" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="222" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -7323,13 +7320,13 @@
         <v>33</v>
       </c>
       <c r="B222" s="21" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C222" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="223" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7337,13 +7334,13 @@
         <v>42</v>
       </c>
       <c r="B223" s="18" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C223" s="18" t="s">
         <v>232</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E223" s="9" t="s">
         <v>583</v>
@@ -7354,7 +7351,7 @@
         <v>42</v>
       </c>
       <c r="B224" s="18" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C224" s="18" t="s">
         <v>43</v>
@@ -7371,13 +7368,13 @@
         <v>42</v>
       </c>
       <c r="B225" s="18" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C225" s="18" t="s">
         <v>233</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E225" s="9" t="s">
         <v>583</v>
@@ -7388,13 +7385,13 @@
         <v>42</v>
       </c>
       <c r="B226" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C226" s="18" t="s">
         <v>548</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E226" s="9" t="s">
         <v>583</v>
@@ -7405,13 +7402,13 @@
         <v>42</v>
       </c>
       <c r="B227" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C227" s="18" t="s">
         <v>234</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E227" s="9" t="s">
         <v>583</v>
@@ -7422,13 +7419,13 @@
         <v>42</v>
       </c>
       <c r="B228" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C228" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E228" s="9" t="s">
         <v>583</v>
@@ -7439,13 +7436,13 @@
         <v>42</v>
       </c>
       <c r="B229" s="18" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C229" s="18" t="s">
         <v>235</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E229" s="9" t="s">
         <v>583</v>
@@ -7456,13 +7453,13 @@
         <v>42</v>
       </c>
       <c r="B230" s="18" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C230" s="18" t="s">
         <v>236</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E230" s="9" t="s">
         <v>583</v>
@@ -7473,13 +7470,13 @@
         <v>42</v>
       </c>
       <c r="B231" s="18" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C231" s="18" t="s">
         <v>237</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E231" s="9" t="s">
         <v>583</v>
@@ -7490,13 +7487,13 @@
         <v>42</v>
       </c>
       <c r="B232" s="18" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C232" s="18" t="s">
         <v>238</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E232" s="9" t="s">
         <v>583</v>
@@ -7507,13 +7504,13 @@
         <v>42</v>
       </c>
       <c r="B233" s="18" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C233" s="18" t="s">
         <v>239</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E233" s="9" t="s">
         <v>583</v>
@@ -7524,13 +7521,13 @@
         <v>42</v>
       </c>
       <c r="B234" s="18" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C234" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E234" s="9" t="s">
         <v>583</v>
@@ -7541,13 +7538,13 @@
         <v>42</v>
       </c>
       <c r="B235" s="18" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C235" s="18" t="s">
         <v>240</v>
       </c>
       <c r="D235" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E235" s="9" t="s">
         <v>583</v>
@@ -7558,13 +7555,13 @@
         <v>42</v>
       </c>
       <c r="B236" s="18" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C236" s="18" t="s">
         <v>556</v>
       </c>
       <c r="D236" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E236" s="9" t="s">
         <v>583</v>
@@ -7575,13 +7572,13 @@
         <v>42</v>
       </c>
       <c r="B237" s="18" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C237" s="18" t="s">
         <v>241</v>
       </c>
       <c r="D237" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E237" s="9" t="s">
         <v>583</v>
@@ -7592,13 +7589,13 @@
         <v>42</v>
       </c>
       <c r="B238" s="18" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C238" s="18" t="s">
         <v>237</v>
       </c>
       <c r="D238" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E238" s="9" t="s">
         <v>583</v>
@@ -7609,13 +7606,13 @@
         <v>42</v>
       </c>
       <c r="B239" s="18" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C239" s="18" t="s">
         <v>45</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E239" s="9" t="s">
         <v>583</v>
@@ -7626,13 +7623,13 @@
         <v>42</v>
       </c>
       <c r="B240" s="18" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C240" s="18" t="s">
         <v>242</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E240" s="9" t="s">
         <v>583</v>
@@ -7643,13 +7640,13 @@
         <v>42</v>
       </c>
       <c r="B241" s="18" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C241" s="18" t="s">
         <v>243</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E241" s="9" t="s">
         <v>583</v>
@@ -7660,13 +7657,13 @@
         <v>42</v>
       </c>
       <c r="B242" s="18" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C242" s="18" t="s">
         <v>244</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E242" s="9" t="s">
         <v>583</v>
@@ -7677,13 +7674,13 @@
         <v>42</v>
       </c>
       <c r="B243" s="18" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C243" s="18" t="s">
         <v>245</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E243" s="9" t="s">
         <v>583</v>
@@ -7694,13 +7691,13 @@
         <v>42</v>
       </c>
       <c r="B244" s="18" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C244" s="18" t="s">
         <v>246</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E244" s="9" t="s">
         <v>583</v>
@@ -7711,13 +7708,13 @@
         <v>42</v>
       </c>
       <c r="B245" s="18" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C245" s="18" t="s">
         <v>46</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E245" s="9" t="s">
         <v>583</v>
@@ -7728,13 +7725,13 @@
         <v>42</v>
       </c>
       <c r="B246" s="18" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C246" s="18" t="s">
         <v>247</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E246" s="9" t="s">
         <v>583</v>
@@ -7745,13 +7742,13 @@
         <v>42</v>
       </c>
       <c r="B247" s="18" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C247" s="18" t="s">
         <v>248</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E247" s="9" t="s">
         <v>583</v>
@@ -7762,13 +7759,13 @@
         <v>42</v>
       </c>
       <c r="B248" s="18" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C248" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D248" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E248" s="9" t="s">
         <v>583</v>
@@ -7779,7 +7776,7 @@
         <v>42</v>
       </c>
       <c r="B249" s="18" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C249" s="18" t="s">
         <v>48</v>
@@ -7796,13 +7793,13 @@
         <v>42</v>
       </c>
       <c r="B250" s="18" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C250" s="18" t="s">
         <v>312</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E250" s="9" t="s">
         <v>583</v>
@@ -7813,13 +7810,13 @@
         <v>42</v>
       </c>
       <c r="B251" s="18" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C251" s="18" t="s">
         <v>313</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E251" s="9" t="s">
         <v>583</v>
@@ -7830,13 +7827,13 @@
         <v>42</v>
       </c>
       <c r="B252" s="18" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C252" s="18" t="s">
         <v>314</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E252" s="9" t="s">
         <v>583</v>
@@ -7847,13 +7844,13 @@
         <v>42</v>
       </c>
       <c r="B253" s="18" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C253" s="18" t="s">
         <v>315</v>
       </c>
       <c r="D253" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E253" s="9" t="s">
         <v>583</v>
@@ -7864,13 +7861,13 @@
         <v>42</v>
       </c>
       <c r="B254" s="18" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C254" s="18" t="s">
         <v>318</v>
       </c>
       <c r="D254" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E254" s="9" t="s">
         <v>583</v>
@@ -7881,13 +7878,13 @@
         <v>42</v>
       </c>
       <c r="B255" s="18" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C255" s="18" t="s">
         <v>319</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E255" s="9" t="s">
         <v>583</v>
@@ -7898,13 +7895,13 @@
         <v>42</v>
       </c>
       <c r="B256" s="18" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C256" s="18" t="s">
         <v>320</v>
       </c>
       <c r="D256" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E256" s="9" t="s">
         <v>583</v>
@@ -7915,13 +7912,13 @@
         <v>42</v>
       </c>
       <c r="B257" s="18" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C257" s="18" t="s">
         <v>321</v>
       </c>
       <c r="D257" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E257" s="9" t="s">
         <v>583</v>
@@ -7932,13 +7929,13 @@
         <v>42</v>
       </c>
       <c r="B258" s="18" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C258" s="30" t="s">
         <v>324</v>
       </c>
       <c r="D258" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E258" s="9" t="s">
         <v>583</v>
@@ -7949,13 +7946,13 @@
         <v>42</v>
       </c>
       <c r="B259" s="18" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C259" s="30" t="s">
         <v>325</v>
       </c>
       <c r="D259" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E259" s="9" t="s">
         <v>583</v>
@@ -7966,13 +7963,13 @@
         <v>42</v>
       </c>
       <c r="B260" s="18" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C260" s="18" t="s">
         <v>326</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E260" s="9" t="s">
         <v>583</v>
@@ -7983,13 +7980,13 @@
         <v>42</v>
       </c>
       <c r="B261" s="18" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C261" s="18" t="s">
         <v>327</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E261" s="9" t="s">
         <v>583</v>
@@ -8000,13 +7997,13 @@
         <v>42</v>
       </c>
       <c r="B262" s="18" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C262" s="18" t="s">
         <v>329</v>
       </c>
       <c r="D262" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E262" s="9" t="s">
         <v>583</v>
@@ -8017,13 +8014,13 @@
         <v>42</v>
       </c>
       <c r="B263" s="18" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C263" s="18" t="s">
         <v>330</v>
       </c>
       <c r="D263" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E263" s="9" t="s">
         <v>583</v>
@@ -8034,13 +8031,13 @@
         <v>42</v>
       </c>
       <c r="B264" s="18" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C264" s="18" t="s">
         <v>331</v>
       </c>
       <c r="D264" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E264" s="9" t="s">
         <v>583</v>
@@ -8051,13 +8048,13 @@
         <v>42</v>
       </c>
       <c r="B265" s="18" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C265" s="18" t="s">
         <v>332</v>
       </c>
       <c r="D265" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E265" s="9" t="s">
         <v>583</v>
@@ -8068,13 +8065,13 @@
         <v>42</v>
       </c>
       <c r="B266" s="18" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C266" s="18" t="s">
         <v>557</v>
       </c>
       <c r="D266" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E266" s="9" t="s">
         <v>583</v>
@@ -8085,13 +8082,13 @@
         <v>42</v>
       </c>
       <c r="B267" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C267" s="18" t="s">
         <v>333</v>
       </c>
       <c r="D267" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E267" s="9" t="s">
         <v>583</v>
@@ -8102,13 +8099,13 @@
         <v>42</v>
       </c>
       <c r="B268" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C268" s="18" t="s">
         <v>334</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E268" s="9" t="s">
         <v>583</v>
@@ -8119,13 +8116,13 @@
         <v>42</v>
       </c>
       <c r="B269" s="18" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C269" s="18" t="s">
         <v>335</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E269" s="9" t="s">
         <v>583</v>
@@ -8136,7 +8133,7 @@
         <v>42</v>
       </c>
       <c r="B270" s="18" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C270" s="30" t="s">
         <v>336</v>
@@ -8153,13 +8150,13 @@
         <v>42</v>
       </c>
       <c r="B271" s="18" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C271" s="30" t="s">
         <v>337</v>
       </c>
       <c r="D271" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E271" s="9" t="s">
         <v>583</v>
@@ -8170,7 +8167,7 @@
         <v>42</v>
       </c>
       <c r="B272" s="18" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C272" s="30" t="s">
         <v>338</v>
@@ -8187,13 +8184,13 @@
         <v>42</v>
       </c>
       <c r="B273" s="18" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C273" s="30" t="s">
         <v>339</v>
       </c>
       <c r="D273" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E273" s="9" t="s">
         <v>583</v>
@@ -8204,7 +8201,7 @@
         <v>42</v>
       </c>
       <c r="B274" s="18" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C274" s="30" t="s">
         <v>559</v>
@@ -8221,13 +8218,13 @@
         <v>42</v>
       </c>
       <c r="B275" s="18" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C275" s="30" t="s">
         <v>558</v>
       </c>
       <c r="D275" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E275" s="9" t="s">
         <v>583</v>
@@ -8238,7 +8235,7 @@
         <v>42</v>
       </c>
       <c r="B276" s="18" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C276" s="30" t="s">
         <v>340</v>
@@ -8255,13 +8252,13 @@
         <v>42</v>
       </c>
       <c r="B277" s="18" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C277" s="30" t="s">
         <v>341</v>
       </c>
       <c r="D277" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E277" s="9" t="s">
         <v>583</v>
@@ -8272,13 +8269,13 @@
         <v>42</v>
       </c>
       <c r="B278" s="18" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C278" s="30" t="s">
         <v>342</v>
       </c>
       <c r="D278" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E278" s="9" t="s">
         <v>583</v>
@@ -8289,13 +8286,13 @@
         <v>42</v>
       </c>
       <c r="B279" s="18" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C279" s="30" t="s">
         <v>343</v>
       </c>
       <c r="D279" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E279" s="9" t="s">
         <v>583</v>
@@ -8306,13 +8303,13 @@
         <v>42</v>
       </c>
       <c r="B280" s="18" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C280" s="30" t="s">
         <v>344</v>
       </c>
       <c r="D280" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E280" s="9" t="s">
         <v>583</v>
@@ -8323,13 +8320,13 @@
         <v>42</v>
       </c>
       <c r="B281" s="18" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C281" s="30" t="s">
         <v>345</v>
       </c>
       <c r="D281" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E281" s="9" t="s">
         <v>583</v>
@@ -8340,13 +8337,13 @@
         <v>42</v>
       </c>
       <c r="B282" s="18" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C282" s="30" t="s">
         <v>346</v>
       </c>
       <c r="D282" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E282" s="9" t="s">
         <v>583</v>
@@ -8357,13 +8354,13 @@
         <v>42</v>
       </c>
       <c r="B283" s="18" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C283" s="30" t="s">
         <v>531</v>
       </c>
       <c r="D283" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E283" s="9" t="s">
         <v>583</v>
@@ -8374,13 +8371,13 @@
         <v>42</v>
       </c>
       <c r="B284" s="18" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C284" s="30" t="s">
         <v>347</v>
       </c>
       <c r="D284" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E284" s="9" t="s">
         <v>583</v>
@@ -8391,13 +8388,13 @@
         <v>42</v>
       </c>
       <c r="B285" s="18" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C285" s="18" t="s">
         <v>249</v>
       </c>
       <c r="D285" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E285" s="9" t="s">
         <v>583</v>
@@ -8408,13 +8405,13 @@
         <v>42</v>
       </c>
       <c r="B286" s="18" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C286" s="18" t="s">
         <v>250</v>
       </c>
       <c r="D286" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E286" s="9" t="s">
         <v>583</v>
@@ -8425,13 +8422,13 @@
         <v>42</v>
       </c>
       <c r="B287" s="18" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C287" s="18" t="s">
         <v>49</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E287" s="9" t="s">
         <v>583</v>
@@ -8442,13 +8439,13 @@
         <v>42</v>
       </c>
       <c r="B288" s="18" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C288" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D288" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E288" s="9" t="s">
         <v>583</v>
@@ -8459,13 +8456,13 @@
         <v>42</v>
       </c>
       <c r="B289" s="18" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C289" s="18" t="s">
         <v>251</v>
       </c>
       <c r="D289" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E289" s="9" t="s">
         <v>583</v>
@@ -8476,13 +8473,13 @@
         <v>42</v>
       </c>
       <c r="B290" s="21" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C290" s="18" t="s">
         <v>252</v>
       </c>
       <c r="D290" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E290" s="9" t="s">
         <v>583</v>
@@ -8493,13 +8490,13 @@
         <v>51</v>
       </c>
       <c r="B291" s="18" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C291" s="18" t="s">
         <v>253</v>
       </c>
       <c r="D291" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E291" s="9" t="s">
         <v>583</v>
@@ -8510,13 +8507,13 @@
         <v>51</v>
       </c>
       <c r="B292" s="18" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C292" s="18" t="s">
         <v>574</v>
       </c>
       <c r="D292" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E292" s="9" t="s">
         <v>583</v>
@@ -8527,13 +8524,13 @@
         <v>51</v>
       </c>
       <c r="B293" s="18" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C293" s="18" t="s">
         <v>254</v>
       </c>
       <c r="D293" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E293" s="9" t="s">
         <v>583</v>
@@ -8544,13 +8541,13 @@
         <v>51</v>
       </c>
       <c r="B294" s="18" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C294" s="18" t="s">
         <v>255</v>
       </c>
       <c r="D294" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E294" s="9" t="s">
         <v>583</v>
@@ -8561,13 +8558,13 @@
         <v>51</v>
       </c>
       <c r="B295" s="18" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C295" s="18" t="s">
         <v>256</v>
       </c>
       <c r="D295" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E295" s="9" t="s">
         <v>583</v>
@@ -8578,13 +8575,13 @@
         <v>51</v>
       </c>
       <c r="B296" s="18" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C296" s="18" t="s">
         <v>257</v>
       </c>
       <c r="D296" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E296" s="9" t="s">
         <v>583</v>
@@ -8595,13 +8592,13 @@
         <v>51</v>
       </c>
       <c r="B297" s="18" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C297" s="18" t="s">
         <v>258</v>
       </c>
       <c r="D297" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E297" s="9" t="s">
         <v>583</v>
@@ -8612,13 +8609,13 @@
         <v>51</v>
       </c>
       <c r="B298" s="21" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C298" s="18" t="s">
         <v>259</v>
       </c>
       <c r="D298" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E298" s="9" t="s">
         <v>583</v>
@@ -8629,13 +8626,13 @@
         <v>52</v>
       </c>
       <c r="B299" s="18" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C299" s="18" t="s">
         <v>260</v>
       </c>
       <c r="D299" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E299" s="9" t="s">
         <v>583</v>
@@ -8646,13 +8643,13 @@
         <v>52</v>
       </c>
       <c r="B300" s="18" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C300" s="18" t="s">
         <v>261</v>
       </c>
       <c r="D300" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E300" s="9" t="s">
         <v>583</v>
@@ -8663,13 +8660,13 @@
         <v>52</v>
       </c>
       <c r="B301" s="18" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C301" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D301" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E301" s="9" t="s">
         <v>583</v>
@@ -8680,13 +8677,13 @@
         <v>52</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C302" s="18" t="s">
         <v>54</v>
       </c>
       <c r="D302" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E302" s="9" t="s">
         <v>583</v>
@@ -8697,13 +8694,13 @@
         <v>52</v>
       </c>
       <c r="B303" s="21" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C303" s="18" t="s">
         <v>262</v>
       </c>
       <c r="D303" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E303" s="9" t="s">
         <v>583</v>
@@ -8714,13 +8711,13 @@
         <v>55</v>
       </c>
       <c r="B304" s="18" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C304" s="18" t="s">
         <v>263</v>
       </c>
       <c r="D304" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E304" s="9" t="s">
         <v>583</v>
@@ -8731,13 +8728,13 @@
         <v>55</v>
       </c>
       <c r="B305" s="18" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C305" s="18" t="s">
         <v>264</v>
       </c>
       <c r="D305" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E305" s="9" t="s">
         <v>583</v>
@@ -8748,13 +8745,13 @@
         <v>55</v>
       </c>
       <c r="B306" s="18" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C306" s="18" t="s">
         <v>265</v>
       </c>
       <c r="D306" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E306" s="9" t="s">
         <v>583</v>
@@ -8765,13 +8762,13 @@
         <v>55</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C307" s="18" t="s">
         <v>316</v>
       </c>
       <c r="D307" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E307" s="9" t="s">
         <v>583</v>
@@ -8782,13 +8779,13 @@
         <v>55</v>
       </c>
       <c r="B308" s="18" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C308" s="18" t="s">
         <v>266</v>
       </c>
       <c r="D308" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E308" s="9" t="s">
         <v>583</v>
@@ -8799,13 +8796,13 @@
         <v>55</v>
       </c>
       <c r="B309" s="18" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C309" s="18" t="s">
         <v>267</v>
       </c>
       <c r="D309" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E309" s="9" t="s">
         <v>583</v>
@@ -8816,13 +8813,13 @@
         <v>55</v>
       </c>
       <c r="B310" s="18" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C310" s="18" t="s">
         <v>268</v>
       </c>
       <c r="D310" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E310" s="9" t="s">
         <v>583</v>
@@ -8833,13 +8830,13 @@
         <v>55</v>
       </c>
       <c r="B311" s="15" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C311" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D311" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E311" s="9" t="s">
         <v>583</v>
@@ -8850,13 +8847,13 @@
         <v>55</v>
       </c>
       <c r="B312" s="15" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C312" s="15" t="s">
         <v>57</v>
       </c>
       <c r="D312" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E312" s="9" t="s">
         <v>583</v>
@@ -8867,13 +8864,13 @@
         <v>55</v>
       </c>
       <c r="B313" s="15" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C313" s="15" t="s">
         <v>58</v>
       </c>
       <c r="D313" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E313" s="9" t="s">
         <v>583</v>
@@ -8890,7 +8887,7 @@
         <v>270</v>
       </c>
       <c r="D314" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E314" s="9" t="s">
         <v>583</v>
@@ -8901,13 +8898,13 @@
         <v>55</v>
       </c>
       <c r="B315" s="21" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C315" s="18" t="s">
         <v>271</v>
       </c>
       <c r="D315" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E315" s="9" t="s">
         <v>583</v>
@@ -8918,13 +8915,13 @@
         <v>59</v>
       </c>
       <c r="B316" s="18" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C316" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D316" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E316" s="9" t="s">
         <v>583</v>
@@ -8935,13 +8932,13 @@
         <v>59</v>
       </c>
       <c r="B317" s="18" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C317" s="15" t="s">
         <v>61</v>
       </c>
       <c r="D317" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E317" s="9" t="s">
         <v>583</v>
@@ -8952,13 +8949,13 @@
         <v>59</v>
       </c>
       <c r="B318" s="18" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C318" s="15" t="s">
         <v>62</v>
       </c>
       <c r="D318" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E318" s="9" t="s">
         <v>583</v>
@@ -8969,13 +8966,13 @@
         <v>59</v>
       </c>
       <c r="B319" s="18" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C319" s="15" t="s">
         <v>348</v>
       </c>
       <c r="D319" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E319" s="9" t="s">
         <v>583</v>
@@ -8986,13 +8983,13 @@
         <v>59</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C320" s="15" t="s">
         <v>358</v>
       </c>
       <c r="D320" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E320" s="9" t="s">
         <v>583</v>
@@ -9003,13 +9000,13 @@
         <v>59</v>
       </c>
       <c r="B321" s="15" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C321" s="15" t="s">
         <v>359</v>
       </c>
       <c r="D321" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E321" s="9" t="s">
         <v>583</v>
@@ -9020,13 +9017,13 @@
         <v>59</v>
       </c>
       <c r="B322" s="15" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C322" s="15" t="s">
         <v>357</v>
       </c>
       <c r="D322" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E322" s="9" t="s">
         <v>583</v>
@@ -9037,13 +9034,13 @@
         <v>59</v>
       </c>
       <c r="B323" s="18" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C323" s="15" t="s">
         <v>349</v>
       </c>
       <c r="D323" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E323" s="9" t="s">
         <v>583</v>
@@ -9054,13 +9051,13 @@
         <v>59</v>
       </c>
       <c r="B324" s="18" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C324" s="15" t="s">
         <v>350</v>
       </c>
       <c r="D324" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E324" s="9" t="s">
         <v>583</v>
@@ -9071,13 +9068,13 @@
         <v>59</v>
       </c>
       <c r="B325" s="18" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C325" s="15" t="s">
         <v>351</v>
       </c>
       <c r="D325" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E325" s="9" t="s">
         <v>583</v>
@@ -9088,13 +9085,13 @@
         <v>59</v>
       </c>
       <c r="B326" s="18" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C326" s="18" t="s">
         <v>272</v>
       </c>
       <c r="D326" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E326" s="9" t="s">
         <v>583</v>
@@ -9105,13 +9102,13 @@
         <v>59</v>
       </c>
       <c r="B327" s="21" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C327" s="18" t="s">
         <v>273</v>
       </c>
       <c r="D327" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E327" s="9" t="s">
         <v>583</v>
@@ -9122,13 +9119,13 @@
         <v>63</v>
       </c>
       <c r="B328" s="18" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C328" s="18" t="s">
         <v>274</v>
       </c>
       <c r="D328" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E328" s="9" t="s">
         <v>583</v>
@@ -9139,13 +9136,13 @@
         <v>63</v>
       </c>
       <c r="B329" s="18" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C329" s="18" t="s">
         <v>275</v>
       </c>
       <c r="D329" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E329" s="9" t="s">
         <v>583</v>
@@ -9156,13 +9153,13 @@
         <v>63</v>
       </c>
       <c r="B330" s="18" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C330" s="18" t="s">
         <v>352</v>
       </c>
       <c r="D330" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E330" s="9" t="s">
         <v>583</v>
@@ -9173,13 +9170,13 @@
         <v>63</v>
       </c>
       <c r="B331" s="18" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C331" s="18" t="s">
         <v>353</v>
       </c>
       <c r="D331" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E331" s="9" t="s">
         <v>583</v>
@@ -9190,13 +9187,13 @@
         <v>63</v>
       </c>
       <c r="B332" s="18" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C332" s="18" t="s">
         <v>274</v>
       </c>
       <c r="D332" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E332" s="9" t="s">
         <v>583</v>
@@ -9207,13 +9204,13 @@
         <v>63</v>
       </c>
       <c r="B333" s="18" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C333" s="18" t="s">
         <v>328</v>
       </c>
       <c r="D333" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E333" s="9" t="s">
         <v>583</v>
@@ -9224,13 +9221,13 @@
         <v>63</v>
       </c>
       <c r="B334" s="18" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C334" s="18" t="s">
         <v>276</v>
       </c>
       <c r="D334" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E334" s="9" t="s">
         <v>583</v>
@@ -9241,13 +9238,13 @@
         <v>63</v>
       </c>
       <c r="B335" s="18" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C335" s="18" t="s">
         <v>277</v>
       </c>
       <c r="D335" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E335" s="9" t="s">
         <v>583</v>
@@ -9258,13 +9255,13 @@
         <v>63</v>
       </c>
       <c r="B336" s="18" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C336" s="18" t="s">
         <v>278</v>
       </c>
       <c r="D336" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E336" s="9" t="s">
         <v>583</v>
@@ -9275,13 +9272,13 @@
         <v>63</v>
       </c>
       <c r="B337" s="18" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C337" s="18" t="s">
         <v>575</v>
       </c>
       <c r="D337" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E337" s="9" t="s">
         <v>583</v>
@@ -9292,7 +9289,7 @@
         <v>63</v>
       </c>
       <c r="B338" s="18" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C338" s="18" t="s">
         <v>64</v>
@@ -9309,13 +9306,13 @@
         <v>63</v>
       </c>
       <c r="B339" s="18" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C339" s="18" t="s">
         <v>279</v>
       </c>
       <c r="D339" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E339" s="9" t="s">
         <v>583</v>
@@ -9326,13 +9323,13 @@
         <v>63</v>
       </c>
       <c r="B340" s="21" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C340" s="18" t="s">
         <v>280</v>
       </c>
       <c r="D340" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E340" s="9" t="s">
         <v>583</v>
@@ -9343,13 +9340,13 @@
         <v>65</v>
       </c>
       <c r="B341" s="18" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C341" s="18" t="s">
         <v>281</v>
       </c>
       <c r="D341" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E341" s="9" t="s">
         <v>583</v>
@@ -9360,13 +9357,13 @@
         <v>65</v>
       </c>
       <c r="B342" s="18" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C342" s="18" t="s">
         <v>282</v>
       </c>
       <c r="D342" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E342" s="9" t="s">
         <v>583</v>
@@ -9377,13 +9374,13 @@
         <v>65</v>
       </c>
       <c r="B343" s="18" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C343" s="18" t="s">
         <v>356</v>
       </c>
       <c r="D343" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E343" s="9" t="s">
         <v>583</v>
@@ -9394,13 +9391,13 @@
         <v>65</v>
       </c>
       <c r="B344" s="18" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C344" s="18" t="s">
         <v>283</v>
       </c>
       <c r="D344" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E344" s="9" t="s">
         <v>583</v>
@@ -9411,13 +9408,13 @@
         <v>65</v>
       </c>
       <c r="B345" s="18" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C345" s="18" t="s">
         <v>317</v>
       </c>
       <c r="D345" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E345" s="9" t="s">
         <v>583</v>
@@ -9428,7 +9425,7 @@
         <v>65</v>
       </c>
       <c r="B346" s="18" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C346" s="18" t="s">
         <v>66</v>
@@ -9445,13 +9442,13 @@
         <v>65</v>
       </c>
       <c r="B347" s="18" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C347" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D347" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E347" s="9" t="s">
         <v>583</v>
@@ -9462,13 +9459,13 @@
         <v>65</v>
       </c>
       <c r="B348" s="18" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C348" s="18" t="s">
         <v>550</v>
       </c>
       <c r="D348" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E348" s="9" t="s">
         <v>583</v>
@@ -9479,13 +9476,13 @@
         <v>65</v>
       </c>
       <c r="B349" s="18" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C349" s="18" t="s">
         <v>566</v>
       </c>
       <c r="D349" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E349" s="9" t="s">
         <v>583</v>
@@ -9496,13 +9493,13 @@
         <v>65</v>
       </c>
       <c r="B350" s="18" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C350" s="18" t="s">
         <v>549</v>
       </c>
       <c r="D350" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E350" s="9" t="s">
         <v>583</v>
@@ -9513,13 +9510,13 @@
         <v>65</v>
       </c>
       <c r="B351" s="18" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C351" s="18" t="s">
         <v>292</v>
       </c>
       <c r="D351" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E351" s="9" t="s">
         <v>583</v>
@@ -9530,13 +9527,13 @@
         <v>65</v>
       </c>
       <c r="B352" s="18" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C352" s="18" t="s">
         <v>355</v>
       </c>
       <c r="D352" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E352" s="9" t="s">
         <v>583</v>
@@ -9547,13 +9544,13 @@
         <v>65</v>
       </c>
       <c r="B353" s="18" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C353" s="18" t="s">
         <v>284</v>
       </c>
       <c r="D353" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E353" s="9" t="s">
         <v>583</v>
@@ -9564,13 +9561,13 @@
         <v>65</v>
       </c>
       <c r="B354" s="18" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C354" s="18" t="s">
         <v>284</v>
       </c>
       <c r="D354" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E354" s="9" t="s">
         <v>583</v>
@@ -9581,13 +9578,13 @@
         <v>65</v>
       </c>
       <c r="B355" s="18" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C355" s="18" t="s">
         <v>322</v>
       </c>
       <c r="D355" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E355" s="9" t="s">
         <v>583</v>
@@ -9598,13 +9595,13 @@
         <v>65</v>
       </c>
       <c r="B356" s="18" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C356" s="18" t="s">
         <v>323</v>
       </c>
       <c r="D356" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E356" s="9" t="s">
         <v>583</v>
@@ -9615,13 +9612,13 @@
         <v>65</v>
       </c>
       <c r="B357" s="18" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C357" s="18" t="s">
         <v>354</v>
       </c>
       <c r="D357" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E357" s="9" t="s">
         <v>583</v>
@@ -9632,13 +9629,13 @@
         <v>65</v>
       </c>
       <c r="B358" s="18" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C358" s="18" t="s">
         <v>285</v>
       </c>
       <c r="D358" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E358" s="9" t="s">
         <v>583</v>
@@ -9649,13 +9646,13 @@
         <v>65</v>
       </c>
       <c r="B359" s="18" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C359" s="18" t="s">
         <v>67</v>
       </c>
       <c r="D359" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E359" s="9" t="s">
         <v>583</v>
@@ -9666,13 +9663,13 @@
         <v>65</v>
       </c>
       <c r="B360" s="18" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C360" s="18" t="s">
         <v>286</v>
       </c>
       <c r="D360" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E360" s="9" t="s">
         <v>583</v>
@@ -9683,13 +9680,13 @@
         <v>65</v>
       </c>
       <c r="B361" s="18" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C361" s="18" t="s">
         <v>287</v>
       </c>
       <c r="D361" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E361" s="9" t="s">
         <v>583</v>
@@ -9700,13 +9697,13 @@
         <v>65</v>
       </c>
       <c r="B362" s="21" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C362" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D362" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E362" s="9" t="s">
         <v>583</v>
@@ -9717,13 +9714,13 @@
         <v>69</v>
       </c>
       <c r="B363" s="15" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C363" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D363" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="364" spans="1:1023" ht="35" customHeight="1">
@@ -9731,13 +9728,13 @@
         <v>69</v>
       </c>
       <c r="B364" s="15" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C364" s="15" t="s">
         <v>71</v>
       </c>
       <c r="D364" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="365" spans="1:1023" ht="35" customHeight="1">
@@ -9745,13 +9742,13 @@
         <v>69</v>
       </c>
       <c r="B365" s="15" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C365" s="15" t="s">
         <v>385</v>
       </c>
       <c r="D365" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="366" spans="1:1023" ht="35" customHeight="1">
@@ -9759,13 +9756,13 @@
         <v>69</v>
       </c>
       <c r="B366" s="15" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C366" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D366" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="367" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
@@ -9773,13 +9770,13 @@
         <v>69</v>
       </c>
       <c r="B367" s="17" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C367" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D367" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E367" s="3"/>
       <c r="F367" s="3"/>
@@ -10806,13 +10803,13 @@
         <v>74</v>
       </c>
       <c r="B368" s="15" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C368" s="15" t="s">
         <v>386</v>
       </c>
       <c r="D368" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>583</v>
@@ -10823,13 +10820,13 @@
         <v>74</v>
       </c>
       <c r="B369" s="15" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C369" s="15" t="s">
         <v>387</v>
       </c>
       <c r="D369" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>583</v>
@@ -10840,13 +10837,13 @@
         <v>74</v>
       </c>
       <c r="B370" s="15" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C370" s="15" t="s">
         <v>388</v>
       </c>
       <c r="D370" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>583</v>
@@ -10857,13 +10854,13 @@
         <v>74</v>
       </c>
       <c r="B371" s="15" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C371" s="15" t="s">
         <v>389</v>
       </c>
       <c r="D371" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="372" spans="1:5" ht="35" customHeight="1">
@@ -10871,13 +10868,13 @@
         <v>74</v>
       </c>
       <c r="B372" s="15" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C372" s="15" t="s">
         <v>390</v>
       </c>
       <c r="D372" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="35" customHeight="1">
@@ -10885,13 +10882,13 @@
         <v>74</v>
       </c>
       <c r="B373" s="15" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C373" s="15" t="s">
         <v>391</v>
       </c>
       <c r="D373" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="374" spans="1:5" ht="35" customHeight="1">
@@ -10899,13 +10896,13 @@
         <v>74</v>
       </c>
       <c r="B374" s="15" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C374" s="15" t="s">
         <v>392</v>
       </c>
       <c r="D374" s="9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="375" spans="1:5" ht="35" customHeight="1">
@@ -10913,13 +10910,13 @@
         <v>74</v>
       </c>
       <c r="B375" s="15" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C375" s="15" t="s">
         <v>393</v>
       </c>
       <c r="D375" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="376" spans="1:5" ht="35" customHeight="1">
@@ -10927,13 +10924,13 @@
         <v>74</v>
       </c>
       <c r="B376" s="15" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C376" s="15" t="s">
         <v>394</v>
       </c>
       <c r="D376" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="35" customHeight="1">
@@ -10941,13 +10938,13 @@
         <v>74</v>
       </c>
       <c r="B377" s="15" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C377" s="15" t="s">
         <v>395</v>
       </c>
       <c r="D377" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="378" spans="1:5" ht="35" customHeight="1">
@@ -10955,13 +10952,13 @@
         <v>74</v>
       </c>
       <c r="B378" s="15" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C378" s="15" t="s">
         <v>396</v>
       </c>
       <c r="D378" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="35" customHeight="1">
@@ -10969,13 +10966,13 @@
         <v>74</v>
       </c>
       <c r="B379" s="15" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C379" s="15" t="s">
         <v>397</v>
       </c>
       <c r="D379" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="380" spans="1:5" ht="35" customHeight="1">
@@ -10983,13 +10980,13 @@
         <v>74</v>
       </c>
       <c r="B380" s="15" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C380" s="15" t="s">
         <v>398</v>
       </c>
       <c r="D380" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>583</v>
@@ -11000,13 +10997,13 @@
         <v>74</v>
       </c>
       <c r="B381" s="15" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C381" s="15" t="s">
         <v>399</v>
       </c>
       <c r="D381" s="9" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="35" customHeight="1">
@@ -11014,13 +11011,13 @@
         <v>74</v>
       </c>
       <c r="B382" s="15" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C382" s="15" t="s">
         <v>400</v>
       </c>
       <c r="D382" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="35" customHeight="1">
@@ -11028,13 +11025,13 @@
         <v>74</v>
       </c>
       <c r="B383" s="15" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C383" s="15" t="s">
         <v>401</v>
       </c>
       <c r="D383" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>583</v>
@@ -11045,13 +11042,13 @@
         <v>74</v>
       </c>
       <c r="B384" s="15" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C384" s="15" t="s">
         <v>402</v>
       </c>
       <c r="D384" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>583</v>
@@ -11062,13 +11059,13 @@
         <v>74</v>
       </c>
       <c r="B385" s="15" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C385" s="15" t="s">
         <v>403</v>
       </c>
       <c r="D385" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E385" s="1" t="s">
         <v>583</v>
@@ -11079,13 +11076,13 @@
         <v>74</v>
       </c>
       <c r="B386" s="15" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C386" s="15" t="s">
         <v>404</v>
       </c>
       <c r="D386" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>583</v>
@@ -11096,13 +11093,13 @@
         <v>74</v>
       </c>
       <c r="B387" s="15" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C387" s="15" t="s">
         <v>579</v>
       </c>
       <c r="D387" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="388" spans="1:5" ht="35" customHeight="1">
@@ -11110,13 +11107,13 @@
         <v>74</v>
       </c>
       <c r="B388" s="15" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C388" s="15" t="s">
         <v>405</v>
       </c>
       <c r="D388" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="389" spans="1:5" ht="35" customHeight="1">
@@ -11124,13 +11121,13 @@
         <v>74</v>
       </c>
       <c r="B389" s="15" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C389" s="15" t="s">
         <v>406</v>
       </c>
       <c r="D389" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="390" spans="1:5" ht="35" customHeight="1">
@@ -11138,13 +11135,13 @@
         <v>74</v>
       </c>
       <c r="B390" s="15" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C390" s="15" t="s">
         <v>407</v>
       </c>
       <c r="D390" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="391" spans="1:5" ht="35" customHeight="1">
@@ -11152,13 +11149,13 @@
         <v>74</v>
       </c>
       <c r="B391" s="15" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C391" s="15" t="s">
         <v>408</v>
       </c>
       <c r="D391" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="392" spans="1:5" ht="35" customHeight="1">
@@ -11166,13 +11163,13 @@
         <v>74</v>
       </c>
       <c r="B392" s="15" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C392" s="15" t="s">
         <v>409</v>
       </c>
       <c r="D392" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="393" spans="1:5" ht="35" customHeight="1">
@@ -11180,13 +11177,13 @@
         <v>74</v>
       </c>
       <c r="B393" s="15" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C393" s="15" t="s">
         <v>410</v>
       </c>
       <c r="D393" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="394" spans="1:5" ht="35" customHeight="1">
@@ -11194,13 +11191,13 @@
         <v>74</v>
       </c>
       <c r="B394" s="15" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C394" s="15" t="s">
         <v>411</v>
       </c>
       <c r="D394" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="395" spans="1:5" ht="35" customHeight="1">
@@ -11208,13 +11205,13 @@
         <v>74</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C395" s="15" t="s">
         <v>412</v>
       </c>
       <c r="D395" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>583</v>
@@ -11225,13 +11222,13 @@
         <v>74</v>
       </c>
       <c r="B396" s="15" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C396" s="15" t="s">
         <v>413</v>
       </c>
       <c r="D396" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="397" spans="1:5" ht="35" customHeight="1">
@@ -11239,13 +11236,13 @@
         <v>74</v>
       </c>
       <c r="B397" s="15" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C397" s="15" t="s">
         <v>414</v>
       </c>
       <c r="D397" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="398" spans="1:5" ht="35" customHeight="1">
@@ -11253,13 +11250,13 @@
         <v>74</v>
       </c>
       <c r="B398" s="15" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C398" s="15" t="s">
         <v>415</v>
       </c>
       <c r="D398" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="399" spans="1:5" ht="35" customHeight="1">
@@ -11267,13 +11264,13 @@
         <v>74</v>
       </c>
       <c r="B399" s="15" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C399" s="15" t="s">
         <v>415</v>
       </c>
       <c r="D399" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="400" spans="1:5" ht="35" customHeight="1">
@@ -11281,13 +11278,13 @@
         <v>74</v>
       </c>
       <c r="B400" s="15" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C400" s="15" t="s">
         <v>416</v>
       </c>
       <c r="D400" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="401" spans="1:1023" ht="35" customHeight="1">
@@ -11295,13 +11292,13 @@
         <v>74</v>
       </c>
       <c r="B401" s="15" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C401" s="15" t="s">
         <v>417</v>
       </c>
       <c r="D401" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="402" spans="1:1023" ht="35" customHeight="1">
@@ -11309,13 +11306,13 @@
         <v>74</v>
       </c>
       <c r="B402" s="15" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C402" s="15" t="s">
         <v>418</v>
       </c>
       <c r="D402" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="403" spans="1:1023" ht="35" customHeight="1">
@@ -11323,13 +11320,13 @@
         <v>74</v>
       </c>
       <c r="B403" s="15" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C403" s="15" t="s">
         <v>419</v>
       </c>
       <c r="D403" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="404" spans="1:1023" ht="35" customHeight="1">
@@ -11337,13 +11334,13 @@
         <v>74</v>
       </c>
       <c r="B404" s="15" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C404" s="15" t="s">
         <v>420</v>
       </c>
       <c r="D404" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="405" spans="1:1023" ht="35" customHeight="1">
@@ -11351,13 +11348,13 @@
         <v>74</v>
       </c>
       <c r="B405" s="15" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C405" s="15" t="s">
         <v>421</v>
       </c>
       <c r="D405" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="406" spans="1:1023" ht="35" customHeight="1">
@@ -11365,13 +11362,13 @@
         <v>74</v>
       </c>
       <c r="B406" s="15" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C406" s="15" t="s">
         <v>421</v>
       </c>
       <c r="D406" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="407" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
@@ -11379,13 +11376,13 @@
         <v>74</v>
       </c>
       <c r="B407" s="17" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C407" s="17" t="s">
         <v>422</v>
       </c>
       <c r="D407" s="29" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E407" s="3"/>
       <c r="F407" s="3"/>
@@ -12412,13 +12409,13 @@
         <v>75</v>
       </c>
       <c r="B408" s="15" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C408" s="15" t="s">
         <v>425</v>
       </c>
       <c r="D408" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="409" spans="1:1023" ht="35" customHeight="1">
@@ -12426,13 +12423,13 @@
         <v>75</v>
       </c>
       <c r="B409" s="15" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C409" s="15" t="s">
         <v>426</v>
       </c>
       <c r="D409" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="410" spans="1:1023" ht="35" customHeight="1">
@@ -12440,13 +12437,13 @@
         <v>75</v>
       </c>
       <c r="B410" s="15" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C410" s="15" t="s">
         <v>427</v>
       </c>
       <c r="D410" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="411" spans="1:1023" ht="35" customHeight="1">
@@ -12454,13 +12451,13 @@
         <v>75</v>
       </c>
       <c r="B411" s="15" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C411" s="15" t="s">
         <v>428</v>
       </c>
       <c r="D411" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="412" spans="1:1023" ht="35" customHeight="1">
@@ -12468,13 +12465,13 @@
         <v>75</v>
       </c>
       <c r="B412" s="15" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C412" s="15" t="s">
         <v>429</v>
       </c>
       <c r="D412" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="413" spans="1:1023" ht="35" customHeight="1">
@@ -12482,13 +12479,13 @@
         <v>75</v>
       </c>
       <c r="B413" s="15" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C413" s="15" t="s">
         <v>430</v>
       </c>
       <c r="D413" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="414" spans="1:1023" ht="35" customHeight="1">
@@ -12496,13 +12493,13 @@
         <v>75</v>
       </c>
       <c r="B414" s="15" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C414" s="15" t="s">
         <v>431</v>
       </c>
       <c r="D414" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="415" spans="1:1023" ht="35" customHeight="1">
@@ -12516,7 +12513,7 @@
         <v>432</v>
       </c>
       <c r="D415" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="416" spans="1:1023" ht="35" customHeight="1">
@@ -12524,13 +12521,13 @@
         <v>75</v>
       </c>
       <c r="B416" s="15" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C416" s="15" t="s">
         <v>433</v>
       </c>
       <c r="D416" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="417" spans="1:1023" ht="35" customHeight="1">
@@ -12538,13 +12535,13 @@
         <v>75</v>
       </c>
       <c r="B417" s="15" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C417" s="15" t="s">
         <v>434</v>
       </c>
       <c r="D417" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="418" spans="1:1023" ht="35" customHeight="1">
@@ -12552,13 +12549,13 @@
         <v>75</v>
       </c>
       <c r="B418" s="15" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C418" s="15" t="s">
         <v>435</v>
       </c>
       <c r="D418" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="419" spans="1:1023" ht="35" customHeight="1">
@@ -12566,13 +12563,13 @@
         <v>75</v>
       </c>
       <c r="B419" s="15" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C419" s="15" t="s">
         <v>436</v>
       </c>
       <c r="D419" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="420" spans="1:1023" ht="35" customHeight="1">
@@ -12580,13 +12577,13 @@
         <v>75</v>
       </c>
       <c r="B420" s="15" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C420" s="15" t="s">
         <v>437</v>
       </c>
       <c r="D420" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="421" spans="1:1023" ht="35" customHeight="1">
@@ -12594,13 +12591,13 @@
         <v>75</v>
       </c>
       <c r="B421" s="15" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C421" s="15" t="s">
         <v>438</v>
       </c>
       <c r="D421" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="422" spans="1:1023" ht="35" customHeight="1">
@@ -12608,7 +12605,7 @@
         <v>75</v>
       </c>
       <c r="B422" s="15" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C422" s="15" t="s">
         <v>439</v>
@@ -12622,13 +12619,13 @@
         <v>75</v>
       </c>
       <c r="B423" s="15" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C423" s="15" t="s">
         <v>440</v>
       </c>
       <c r="D423" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="424" spans="1:1023" ht="35" customHeight="1">
@@ -12642,7 +12639,7 @@
         <v>441</v>
       </c>
       <c r="D424" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="425" spans="1:1023" ht="35" customHeight="1">
@@ -12650,13 +12647,13 @@
         <v>75</v>
       </c>
       <c r="B425" s="15" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C425" s="15" t="s">
         <v>442</v>
       </c>
       <c r="D425" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="426" spans="1:1023" ht="35" customHeight="1">
@@ -12664,13 +12661,13 @@
         <v>75</v>
       </c>
       <c r="B426" s="15" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C426" s="15" t="s">
         <v>443</v>
       </c>
       <c r="D426" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="427" spans="1:1023" ht="35" customHeight="1">
@@ -12678,13 +12675,13 @@
         <v>75</v>
       </c>
       <c r="B427" s="15" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C427" s="15" t="s">
         <v>444</v>
       </c>
       <c r="D427" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="428" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
@@ -12692,13 +12689,13 @@
         <v>75</v>
       </c>
       <c r="B428" s="17" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C428" s="17" t="s">
         <v>76</v>
       </c>
       <c r="D428" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E428" s="3"/>
       <c r="F428" s="3"/>
@@ -13725,13 +13722,13 @@
         <v>77</v>
       </c>
       <c r="B429" s="15" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C429" s="15" t="s">
         <v>446</v>
       </c>
       <c r="D429" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="430" spans="1:1023" ht="35" customHeight="1">
@@ -13739,13 +13736,13 @@
         <v>77</v>
       </c>
       <c r="B430" s="15" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C430" s="15" t="s">
         <v>447</v>
       </c>
       <c r="D430" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="431" spans="1:1023" ht="35" customHeight="1">
@@ -13753,13 +13750,13 @@
         <v>77</v>
       </c>
       <c r="B431" s="15" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C431" s="15" t="s">
         <v>448</v>
       </c>
       <c r="D431" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="432" spans="1:1023" ht="35" customHeight="1">
@@ -13767,13 +13764,13 @@
         <v>77</v>
       </c>
       <c r="B432" s="15" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C432" s="15" t="s">
         <v>567</v>
       </c>
       <c r="D432" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="433" spans="1:5" ht="35" customHeight="1">
@@ -13781,13 +13778,13 @@
         <v>77</v>
       </c>
       <c r="B433" s="15" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C433" s="15" t="s">
         <v>449</v>
       </c>
       <c r="D433" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="434" spans="1:5" ht="35" customHeight="1">
@@ -13795,13 +13792,13 @@
         <v>77</v>
       </c>
       <c r="B434" s="15" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C434" s="15" t="s">
         <v>591</v>
       </c>
       <c r="D434" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E434" s="1" t="s">
         <v>583</v>
@@ -13812,13 +13809,13 @@
         <v>77</v>
       </c>
       <c r="B435" s="15" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C435" s="15" t="s">
         <v>450</v>
       </c>
       <c r="D435" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="436" spans="1:5" ht="35" customHeight="1">
@@ -13826,13 +13823,13 @@
         <v>77</v>
       </c>
       <c r="B436" s="15" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C436" s="15" t="s">
         <v>451</v>
       </c>
       <c r="D436" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="437" spans="1:5" ht="35" customHeight="1">
@@ -13840,13 +13837,13 @@
         <v>77</v>
       </c>
       <c r="B437" s="15" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C437" s="15" t="s">
         <v>452</v>
       </c>
       <c r="D437" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="438" spans="1:5" ht="35" customHeight="1">
@@ -13854,13 +13851,13 @@
         <v>77</v>
       </c>
       <c r="B438" s="15" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C438" s="15" t="s">
         <v>453</v>
       </c>
       <c r="D438" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="439" spans="1:5" ht="35" customHeight="1">
@@ -13868,7 +13865,7 @@
         <v>77</v>
       </c>
       <c r="B439" s="15" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C439" s="15" t="s">
         <v>454</v>
@@ -13882,7 +13879,7 @@
         <v>77</v>
       </c>
       <c r="B440" s="15" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C440" s="15" t="s">
         <v>455</v>
@@ -13896,13 +13893,13 @@
         <v>77</v>
       </c>
       <c r="B441" s="15" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C441" s="15" t="s">
         <v>456</v>
       </c>
       <c r="D441" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="442" spans="1:5" ht="35" customHeight="1">
@@ -13910,13 +13907,13 @@
         <v>77</v>
       </c>
       <c r="B442" s="15" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C442" s="15" t="s">
         <v>457</v>
       </c>
       <c r="D442" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="443" spans="1:5" ht="35" customHeight="1">
@@ -13924,13 +13921,13 @@
         <v>77</v>
       </c>
       <c r="B443" s="15" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C443" s="15" t="s">
         <v>458</v>
       </c>
       <c r="D443" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="444" spans="1:5" ht="35" customHeight="1">
@@ -13938,7 +13935,7 @@
         <v>77</v>
       </c>
       <c r="B444" s="15" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C444" s="15" t="s">
         <v>459</v>
@@ -13952,13 +13949,13 @@
         <v>77</v>
       </c>
       <c r="B445" s="15" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C445" s="15" t="s">
         <v>570</v>
       </c>
       <c r="D445" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="446" spans="1:5" ht="35" customHeight="1">
@@ -13966,13 +13963,13 @@
         <v>77</v>
       </c>
       <c r="B446" s="15" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C446" s="15" t="s">
         <v>460</v>
       </c>
       <c r="D446" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="447" spans="1:5" ht="35" customHeight="1">
@@ -13980,13 +13977,13 @@
         <v>77</v>
       </c>
       <c r="B447" s="15" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C447" s="15" t="s">
         <v>462</v>
       </c>
       <c r="D447" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="448" spans="1:5" ht="35" customHeight="1">
@@ -13994,13 +13991,13 @@
         <v>77</v>
       </c>
       <c r="B448" s="18" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C448" s="15" t="s">
         <v>463</v>
       </c>
       <c r="D448" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="449" spans="1:1023" ht="35" customHeight="1">
@@ -14008,13 +14005,13 @@
         <v>77</v>
       </c>
       <c r="B449" s="18" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C449" s="18" t="s">
         <v>573</v>
       </c>
       <c r="D449" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="450" spans="1:1023" ht="35" customHeight="1">
@@ -14022,13 +14019,13 @@
         <v>77</v>
       </c>
       <c r="B450" s="18" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C450" s="15" t="s">
         <v>593</v>
       </c>
       <c r="D450" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="451" spans="1:1023" ht="35" customHeight="1">
@@ -14036,13 +14033,13 @@
         <v>77</v>
       </c>
       <c r="B451" s="18" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C451" s="15" t="s">
         <v>464</v>
       </c>
       <c r="D451" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="452" spans="1:1023" ht="35" customHeight="1">
@@ -14050,13 +14047,13 @@
         <v>77</v>
       </c>
       <c r="B452" s="15" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C452" s="15" t="s">
         <v>465</v>
       </c>
       <c r="D452" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="453" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
@@ -14064,13 +14061,13 @@
         <v>77</v>
       </c>
       <c r="B453" s="17" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C453" s="17" t="s">
         <v>466</v>
       </c>
       <c r="D453" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E453" s="3"/>
       <c r="F453" s="3"/>
@@ -15097,13 +15094,13 @@
         <v>78</v>
       </c>
       <c r="B454" s="18" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C454" s="18" t="s">
         <v>467</v>
       </c>
       <c r="D454" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E454" s="1" t="s">
         <v>583</v>
@@ -15114,13 +15111,13 @@
         <v>78</v>
       </c>
       <c r="B455" s="15" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C455" s="15" t="s">
         <v>461</v>
       </c>
       <c r="D455" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E455" s="1" t="s">
         <v>583</v>
@@ -15131,13 +15128,13 @@
         <v>78</v>
       </c>
       <c r="B456" s="18" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C456" s="18" t="s">
         <v>468</v>
       </c>
       <c r="D456" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E456" s="1" t="s">
         <v>583</v>
@@ -15148,13 +15145,13 @@
         <v>78</v>
       </c>
       <c r="B457" s="18" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C457" s="18" t="s">
         <v>571</v>
       </c>
       <c r="D457" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E457" s="1" t="s">
         <v>583</v>
@@ -15165,13 +15162,13 @@
         <v>78</v>
       </c>
       <c r="B458" s="18" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C458" s="18" t="s">
         <v>469</v>
       </c>
       <c r="D458" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E458" s="1" t="s">
         <v>583</v>
@@ -15182,13 +15179,13 @@
         <v>78</v>
       </c>
       <c r="B459" s="18" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C459" s="18" t="s">
         <v>470</v>
       </c>
       <c r="D459" s="10" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E459" s="1" t="s">
         <v>583</v>
@@ -15199,13 +15196,13 @@
         <v>78</v>
       </c>
       <c r="B460" s="18" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C460" s="15" t="s">
         <v>572</v>
       </c>
       <c r="D460" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E460" s="1" t="s">
         <v>583</v>
@@ -15216,13 +15213,13 @@
         <v>78</v>
       </c>
       <c r="B461" s="18" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C461" s="15" t="s">
         <v>471</v>
       </c>
       <c r="D461" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E461" s="1" t="s">
         <v>583</v>
@@ -15233,13 +15230,13 @@
         <v>78</v>
       </c>
       <c r="B462" s="18" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C462" s="18" t="s">
         <v>472</v>
       </c>
       <c r="D462" s="10" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E462" s="1" t="s">
         <v>583</v>
@@ -15250,13 +15247,13 @@
         <v>78</v>
       </c>
       <c r="B463" s="18" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C463" s="18" t="s">
         <v>472</v>
       </c>
       <c r="D463" s="10" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E463" s="1" t="s">
         <v>583</v>
@@ -15267,13 +15264,13 @@
         <v>78</v>
       </c>
       <c r="B464" s="18" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C464" s="18" t="s">
         <v>592</v>
       </c>
       <c r="D464" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E464" s="1" t="s">
         <v>583</v>
@@ -15284,13 +15281,13 @@
         <v>78</v>
       </c>
       <c r="B465" s="18" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C465" s="15" t="s">
         <v>473</v>
       </c>
       <c r="D465" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E465" s="1" t="s">
         <v>583</v>
@@ -15301,13 +15298,13 @@
         <v>78</v>
       </c>
       <c r="B466" s="18" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C466" s="18" t="s">
         <v>474</v>
       </c>
       <c r="D466" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E466" s="1" t="s">
         <v>583</v>
@@ -15318,13 +15315,13 @@
         <v>78</v>
       </c>
       <c r="B467" s="18" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C467" s="18" t="s">
         <v>475</v>
       </c>
       <c r="D467" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E467" s="1" t="s">
         <v>583</v>
@@ -15335,13 +15332,13 @@
         <v>78</v>
       </c>
       <c r="B468" s="18" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C468" s="18" t="s">
         <v>476</v>
       </c>
       <c r="D468" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E468" s="1" t="s">
         <v>583</v>
@@ -15352,13 +15349,13 @@
         <v>78</v>
       </c>
       <c r="B469" s="18" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C469" s="18" t="s">
         <v>476</v>
       </c>
       <c r="D469" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E469" s="1" t="s">
         <v>583</v>
@@ -15369,7 +15366,7 @@
         <v>78</v>
       </c>
       <c r="B470" s="18" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C470" s="18" t="s">
         <v>569</v>
@@ -15386,13 +15383,13 @@
         <v>78</v>
       </c>
       <c r="B471" s="18" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C471" s="18" t="s">
         <v>568</v>
       </c>
       <c r="D471" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E471" s="1" t="s">
         <v>583</v>
@@ -15403,13 +15400,13 @@
         <v>78</v>
       </c>
       <c r="B472" s="18" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C472" s="18" t="s">
         <v>477</v>
       </c>
       <c r="D472" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E472" s="1" t="s">
         <v>583</v>
@@ -15420,13 +15417,13 @@
         <v>78</v>
       </c>
       <c r="B473" s="18" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C473" s="18" t="s">
         <v>478</v>
       </c>
       <c r="D473" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E473" s="1" t="s">
         <v>583</v>
@@ -15437,13 +15434,13 @@
         <v>78</v>
       </c>
       <c r="B474" s="18" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C474" s="18" t="s">
         <v>594</v>
       </c>
       <c r="D474" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E474" s="1" t="s">
         <v>583</v>
@@ -15454,13 +15451,13 @@
         <v>78</v>
       </c>
       <c r="B475" s="18" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C475" s="15" t="s">
         <v>479</v>
       </c>
       <c r="D475" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E475" s="1" t="s">
         <v>583</v>
@@ -15471,13 +15468,13 @@
         <v>78</v>
       </c>
       <c r="B476" s="21" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C476" s="17" t="s">
         <v>480</v>
       </c>
       <c r="D476" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E476" s="3" t="s">
         <v>583</v>
@@ -16506,13 +16503,13 @@
         <v>79</v>
       </c>
       <c r="B477" s="18" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C477" s="18" t="s">
         <v>481</v>
       </c>
       <c r="D477" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="478" spans="1:1023" ht="35" customHeight="1">
@@ -16520,13 +16517,13 @@
         <v>79</v>
       </c>
       <c r="B478" s="18" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C478" s="18" t="s">
         <v>482</v>
       </c>
       <c r="D478" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="479" spans="1:1023" ht="35" customHeight="1">
@@ -16534,13 +16531,13 @@
         <v>79</v>
       </c>
       <c r="B479" s="18" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C479" s="18" t="s">
         <v>483</v>
       </c>
       <c r="D479" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="480" spans="1:1023" ht="35" customHeight="1">
@@ -16548,13 +16545,13 @@
         <v>79</v>
       </c>
       <c r="B480" s="18" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C480" s="18" t="s">
         <v>484</v>
       </c>
       <c r="D480" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="481" spans="1:1023" ht="35" customHeight="1">
@@ -16562,13 +16559,13 @@
         <v>79</v>
       </c>
       <c r="B481" s="18" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C481" s="15" t="s">
         <v>485</v>
       </c>
       <c r="D481" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="482" spans="1:1023" ht="35" customHeight="1">
@@ -16576,13 +16573,13 @@
         <v>79</v>
       </c>
       <c r="B482" s="18" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C482" s="15" t="s">
         <v>486</v>
       </c>
       <c r="D482" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="483" spans="1:1023" ht="35" customHeight="1">
@@ -16590,13 +16587,13 @@
         <v>79</v>
       </c>
       <c r="B483" s="18" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C483" s="18" t="s">
         <v>487</v>
       </c>
       <c r="D483" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="484" spans="1:1023" ht="35" customHeight="1">
@@ -16604,13 +16601,13 @@
         <v>79</v>
       </c>
       <c r="B484" s="18" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C484" s="15" t="s">
         <v>488</v>
       </c>
       <c r="D484" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="485" spans="1:1023" ht="35" customHeight="1">
@@ -16618,13 +16615,13 @@
         <v>79</v>
       </c>
       <c r="B485" s="18" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C485" s="15" t="s">
         <v>489</v>
       </c>
       <c r="D485" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="486" spans="1:1023" ht="35" customHeight="1">
@@ -16632,13 +16629,13 @@
         <v>79</v>
       </c>
       <c r="B486" s="18" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C486" s="15" t="s">
         <v>490</v>
       </c>
       <c r="D486" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="487" spans="1:1023" ht="35" customHeight="1">
@@ -16646,13 +16643,13 @@
         <v>79</v>
       </c>
       <c r="B487" s="18" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C487" s="15" t="s">
         <v>491</v>
       </c>
       <c r="D487" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="488" spans="1:1023" ht="35" customHeight="1">
@@ -16666,7 +16663,7 @@
         <v>492</v>
       </c>
       <c r="D488" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="489" spans="1:1023" ht="35" customHeight="1">
@@ -16674,13 +16671,13 @@
         <v>79</v>
       </c>
       <c r="B489" s="18" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C489" s="15" t="s">
         <v>493</v>
       </c>
       <c r="D489" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="490" spans="1:1023" ht="35" customHeight="1">
@@ -16688,13 +16685,13 @@
         <v>79</v>
       </c>
       <c r="B490" s="18" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C490" s="18" t="s">
         <v>494</v>
       </c>
       <c r="D490" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="491" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
@@ -16702,13 +16699,13 @@
         <v>79</v>
       </c>
       <c r="B491" s="21" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C491" s="21" t="s">
         <v>495</v>
       </c>
       <c r="D491" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E491" s="3"/>
       <c r="F491" s="3"/>
@@ -17735,13 +17732,13 @@
         <v>80</v>
       </c>
       <c r="B492" s="18" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C492" s="18" t="s">
         <v>496</v>
       </c>
       <c r="D492" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="493" spans="1:1023" ht="35" customHeight="1">
@@ -17749,13 +17746,13 @@
         <v>80</v>
       </c>
       <c r="B493" s="18" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C493" s="18" t="s">
         <v>497</v>
       </c>
       <c r="D493" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="494" spans="1:1023" ht="35" customHeight="1">
@@ -17763,13 +17760,13 @@
         <v>80</v>
       </c>
       <c r="B494" s="18" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C494" s="18" t="s">
         <v>498</v>
       </c>
       <c r="D494" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="495" spans="1:1023" ht="35" customHeight="1">
@@ -17777,13 +17774,13 @@
         <v>80</v>
       </c>
       <c r="B495" s="18" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C495" s="18" t="s">
         <v>499</v>
       </c>
       <c r="D495" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="496" spans="1:1023" ht="35" customHeight="1">
@@ -17791,13 +17788,13 @@
         <v>80</v>
       </c>
       <c r="B496" s="18" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C496" s="18" t="s">
         <v>500</v>
       </c>
       <c r="D496" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="497" spans="1:1023" ht="35" customHeight="1">
@@ -17805,13 +17802,13 @@
         <v>80</v>
       </c>
       <c r="B497" s="18" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C497" s="18" t="s">
         <v>501</v>
       </c>
       <c r="D497" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="498" spans="1:1023" ht="35" customHeight="1">
@@ -17819,13 +17816,13 @@
         <v>80</v>
       </c>
       <c r="B498" s="18" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C498" s="18" t="s">
         <v>502</v>
       </c>
       <c r="D498" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="499" spans="1:1023" ht="35" customHeight="1">
@@ -17833,13 +17830,13 @@
         <v>80</v>
       </c>
       <c r="B499" s="18" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C499" s="18" t="s">
         <v>503</v>
       </c>
       <c r="D499" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="500" spans="1:1023" ht="35" customHeight="1">
@@ -17847,13 +17844,13 @@
         <v>80</v>
       </c>
       <c r="B500" s="18" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C500" s="18" t="s">
         <v>587</v>
       </c>
       <c r="D500" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="501" spans="1:1023" ht="35" customHeight="1">
@@ -17861,7 +17858,7 @@
         <v>80</v>
       </c>
       <c r="B501" s="18" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C501" s="18" t="s">
         <v>578</v>
@@ -17875,13 +17872,13 @@
         <v>80</v>
       </c>
       <c r="B502" s="18" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C502" s="18" t="s">
         <v>504</v>
       </c>
       <c r="D502" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="503" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
@@ -17889,13 +17886,13 @@
         <v>80</v>
       </c>
       <c r="B503" s="21" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C503" s="21" t="s">
         <v>505</v>
       </c>
       <c r="D503" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E503" s="3"/>
       <c r="F503" s="3"/>
@@ -18922,13 +18919,13 @@
         <v>81</v>
       </c>
       <c r="B504" s="24" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C504" s="15" t="s">
         <v>506</v>
       </c>
       <c r="D504" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E504" s="5" t="s">
         <v>583</v>
@@ -19957,13 +19954,13 @@
         <v>81</v>
       </c>
       <c r="B505" s="24" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C505" s="28" t="s">
         <v>507</v>
       </c>
       <c r="D505" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E505" s="5" t="s">
         <v>583</v>
@@ -20992,13 +20989,13 @@
         <v>81</v>
       </c>
       <c r="B506" s="24" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C506" s="15" t="s">
         <v>530</v>
       </c>
       <c r="D506" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="507" spans="1:1023" ht="35" customHeight="1">
@@ -21006,13 +21003,13 @@
         <v>81</v>
       </c>
       <c r="B507" s="24" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C507" s="15" t="s">
         <v>508</v>
       </c>
       <c r="D507" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E507" s="1" t="s">
         <v>583</v>
@@ -21023,13 +21020,13 @@
         <v>81</v>
       </c>
       <c r="B508" s="24" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C508" s="15" t="s">
         <v>509</v>
       </c>
       <c r="D508" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E508" s="1" t="s">
         <v>583</v>
@@ -21040,13 +21037,13 @@
         <v>81</v>
       </c>
       <c r="B509" s="24" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C509" s="15" t="s">
         <v>510</v>
       </c>
       <c r="D509" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E509" s="1" t="s">
         <v>583</v>
@@ -21057,13 +21054,13 @@
         <v>81</v>
       </c>
       <c r="B510" s="24" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C510" s="15" t="s">
         <v>511</v>
       </c>
       <c r="D510" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E510" s="1" t="s">
         <v>583</v>
@@ -21074,13 +21071,13 @@
         <v>81</v>
       </c>
       <c r="B511" s="24" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C511" s="15" t="s">
         <v>512</v>
       </c>
       <c r="D511" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E511" s="1" t="s">
         <v>583</v>
@@ -21091,13 +21088,13 @@
         <v>81</v>
       </c>
       <c r="B512" s="24" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C512" s="15" t="s">
         <v>511</v>
       </c>
       <c r="D512" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E512" s="1" t="s">
         <v>583</v>
@@ -21108,13 +21105,13 @@
         <v>81</v>
       </c>
       <c r="B513" s="24" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C513" s="15" t="s">
         <v>513</v>
       </c>
       <c r="D513" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E513" s="1" t="s">
         <v>583</v>
@@ -21125,13 +21122,13 @@
         <v>81</v>
       </c>
       <c r="B514" s="24" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C514" s="15" t="s">
         <v>514</v>
       </c>
       <c r="D514" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E514" s="1" t="s">
         <v>583</v>
@@ -21142,13 +21139,13 @@
         <v>81</v>
       </c>
       <c r="B515" s="24" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C515" s="15" t="s">
         <v>515</v>
       </c>
       <c r="D515" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E515" s="1" t="s">
         <v>583</v>
@@ -21159,13 +21156,13 @@
         <v>81</v>
       </c>
       <c r="B516" s="24" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C516" s="15" t="s">
         <v>516</v>
       </c>
       <c r="D516" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E516" s="1" t="s">
         <v>583</v>
@@ -21176,13 +21173,13 @@
         <v>81</v>
       </c>
       <c r="B517" s="24" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C517" s="15" t="s">
         <v>517</v>
       </c>
       <c r="D517" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E517" s="1" t="s">
         <v>583</v>
@@ -21193,13 +21190,13 @@
         <v>81</v>
       </c>
       <c r="B518" s="26" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C518" s="17" t="s">
         <v>518</v>
       </c>
       <c r="D518" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E518" s="3" t="s">
         <v>583</v>
@@ -22228,13 +22225,13 @@
         <v>82</v>
       </c>
       <c r="B519" s="24" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C519" s="15" t="s">
         <v>519</v>
       </c>
       <c r="D519" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E519" s="5"/>
       <c r="F519" s="5"/>
@@ -23261,13 +23258,13 @@
         <v>82</v>
       </c>
       <c r="B520" s="24" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C520" s="15" t="s">
         <v>588</v>
       </c>
       <c r="D520" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E520" s="5"/>
       <c r="F520" s="5"/>
@@ -24294,13 +24291,13 @@
         <v>82</v>
       </c>
       <c r="B521" s="24" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C521" s="15" t="s">
         <v>520</v>
       </c>
       <c r="D521" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E521" s="5"/>
       <c r="F521" s="5"/>
@@ -25327,13 +25324,13 @@
         <v>82</v>
       </c>
       <c r="B522" s="24" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C522" s="15" t="s">
         <v>521</v>
       </c>
       <c r="D522" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E522" s="5"/>
       <c r="F522" s="5"/>
@@ -26360,13 +26357,13 @@
         <v>82</v>
       </c>
       <c r="B523" s="24" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C523" s="15" t="s">
         <v>522</v>
       </c>
       <c r="D523" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E523" s="5"/>
       <c r="F523" s="5"/>
@@ -27393,13 +27390,13 @@
         <v>82</v>
       </c>
       <c r="B524" s="23" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C524" s="15" t="s">
         <v>523</v>
       </c>
       <c r="D524" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="525" spans="1:1023" ht="52" customHeight="1">
@@ -27407,13 +27404,13 @@
         <v>82</v>
       </c>
       <c r="B525" s="23" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C525" s="15" t="s">
         <v>524</v>
       </c>
       <c r="D525" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="526" spans="1:1023" ht="35" customHeight="1">
@@ -27421,13 +27418,13 @@
         <v>82</v>
       </c>
       <c r="B526" s="23" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C526" s="15" t="s">
         <v>525</v>
       </c>
       <c r="D526" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="527" spans="1:1023" ht="35" customHeight="1">
@@ -27435,13 +27432,13 @@
         <v>82</v>
       </c>
       <c r="B527" s="23" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C527" s="15" t="s">
         <v>526</v>
       </c>
       <c r="D527" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="528" spans="1:1023" ht="35" customHeight="1">
@@ -27449,13 +27446,13 @@
         <v>82</v>
       </c>
       <c r="B528" s="23" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C528" s="15" t="s">
         <v>527</v>
       </c>
       <c r="D528" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="529" spans="1:1023" ht="35" customHeight="1">
@@ -27463,13 +27460,13 @@
         <v>82</v>
       </c>
       <c r="B529" s="23" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C529" s="15" t="s">
         <v>528</v>
       </c>
       <c r="D529" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="530" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
@@ -27477,13 +27474,13 @@
         <v>82</v>
       </c>
       <c r="B530" s="25" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C530" s="17" t="s">
         <v>529</v>
       </c>
       <c r="D530" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E530" s="3"/>
       <c r="F530" s="3"/>

--- a/utils/excel_to_json/questions.xlsx
+++ b/utils/excel_to_json/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koncz/ivosjatek/utils/excel_to_json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535EC34C-0754-1643-9F27-B04238707CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E1D086-74F4-E942-B802-61CFD8B8425E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19520" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="1166">
   <si>
     <t>outer_quality</t>
   </si>
@@ -1926,9 +1926,6 @@
   </si>
   <si>
     <t>nude.jpg</t>
-  </si>
-  <si>
-    <t>star_wars.png</t>
   </si>
   <si>
     <t>monkey.png</t>
@@ -4125,8 +4122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMI1216"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A505" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C518" sqref="C518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -4162,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>85</v>
@@ -4176,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>86</v>
@@ -4190,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>87</v>
@@ -4204,13 +4201,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>88</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4218,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>1</v>
@@ -4232,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>2</v>
@@ -4246,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>91</v>
@@ -4260,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>92</v>
@@ -4274,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>93</v>
@@ -4288,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>94</v>
@@ -4302,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>95</v>
@@ -4316,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>294</v>
@@ -4330,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>293</v>
@@ -4344,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>96</v>
@@ -4372,13 +4369,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>582</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4392,7 +4389,7 @@
         <v>100</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4400,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>101</v>
@@ -4414,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>102</v>
@@ -4442,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>4</v>
@@ -4456,13 +4453,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4470,13 +4467,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4526,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>110</v>
@@ -4540,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>297</v>
@@ -4588,7 +4585,7 @@
         <v>580</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>113</v>
@@ -4605,13 +4602,13 @@
         <v>9</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>114</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4619,7 +4616,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>115</v>
@@ -4661,7 +4658,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>120</v>
@@ -4672,7 +4669,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>121</v>
@@ -4683,13 +4680,13 @@
         <v>9</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>208</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4697,13 +4694,13 @@
         <v>9</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>122</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4717,7 +4714,7 @@
         <v>124</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4725,7 +4722,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>89</v>
@@ -4739,7 +4736,7 @@
         <v>9</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>90</v>
@@ -4767,13 +4764,13 @@
         <v>9</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>125</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4781,7 +4778,7 @@
         <v>9</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>537</v>
@@ -4795,7 +4792,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>10</v>
@@ -4809,7 +4806,7 @@
         <v>9</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>11</v>
@@ -4823,7 +4820,7 @@
         <v>9</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>12</v>
@@ -4837,7 +4834,7 @@
         <v>9</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>13</v>
@@ -4879,13 +4876,13 @@
         <v>14</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>127</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4899,7 +4896,7 @@
         <v>129</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>583</v>
@@ -4916,7 +4913,7 @@
         <v>131</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4924,13 +4921,13 @@
         <v>14</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>536</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4938,13 +4935,13 @@
         <v>14</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>132</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4952,7 +4949,7 @@
         <v>14</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>581</v>
@@ -4966,13 +4963,13 @@
         <v>14</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>133</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4986,7 +4983,7 @@
         <v>135</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5000,7 +4997,7 @@
         <v>137</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5014,7 +5011,7 @@
         <v>139</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5028,7 +5025,7 @@
         <v>141</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5036,13 +5033,13 @@
         <v>16</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>142</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5056,7 +5053,7 @@
         <v>144</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5070,7 +5067,7 @@
         <v>146</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5084,7 +5081,7 @@
         <v>533</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5092,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>534</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5112,7 +5109,7 @@
         <v>148</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5120,13 +5117,13 @@
         <v>16</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>149</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5134,13 +5131,13 @@
         <v>16</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>150</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5148,13 +5145,13 @@
         <v>16</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>151</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5162,7 +5159,7 @@
         <v>16</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>152</v>
@@ -5176,7 +5173,7 @@
         <v>16</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>153</v>
@@ -5199,7 +5196,7 @@
         <v>155</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5207,7 +5204,7 @@
         <v>17</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>18</v>
@@ -5221,13 +5218,13 @@
         <v>17</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -5235,7 +5232,7 @@
         <v>17</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C78" s="17" t="s">
         <v>156</v>
@@ -5249,7 +5246,7 @@
         <v>538</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>542</v>
@@ -5263,7 +5260,7 @@
         <v>538</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>543</v>
@@ -5297,7 +5294,7 @@
         <v>545</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
@@ -5311,7 +5308,7 @@
         <v>546</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
@@ -5319,13 +5316,13 @@
         <v>538</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C84" s="17" t="s">
         <v>547</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="85" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
@@ -5333,13 +5330,13 @@
         <v>20</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>157</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="86" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5347,13 +5344,13 @@
         <v>20</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="87" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5361,7 +5358,7 @@
         <v>20</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>158</v>
@@ -5375,7 +5372,7 @@
         <v>20</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C88" s="17" t="s">
         <v>159</v>
@@ -5395,7 +5392,7 @@
         <v>161</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5403,7 +5400,7 @@
         <v>23</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C90" s="15" t="s">
         <v>162</v>
@@ -5417,7 +5414,7 @@
         <v>23</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C91" s="17" t="s">
         <v>163</v>
@@ -5431,13 +5428,13 @@
         <v>24</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C92" s="18" t="s">
         <v>164</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="93" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5445,13 +5442,13 @@
         <v>24</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C93" s="18" t="s">
         <v>165</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="94" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5459,13 +5456,13 @@
         <v>24</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C94" s="18" t="s">
         <v>166</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="95" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5473,13 +5470,13 @@
         <v>24</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="96" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5487,7 +5484,7 @@
         <v>24</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>290</v>
@@ -5501,7 +5498,7 @@
         <v>24</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C97" s="18" t="s">
         <v>167</v>
@@ -5515,13 +5512,13 @@
         <v>24</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C98" s="18" t="s">
         <v>168</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5557,7 +5554,7 @@
         <v>24</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C101" s="18" t="s">
         <v>176</v>
@@ -5571,13 +5568,13 @@
         <v>24</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C102" s="18" t="s">
         <v>577</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="103" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5585,7 +5582,7 @@
         <v>24</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C103" s="18" t="s">
         <v>27</v>
@@ -5599,13 +5596,13 @@
         <v>24</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C104" s="18" t="s">
         <v>178</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -5613,13 +5610,13 @@
         <v>24</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C105" s="21" t="s">
         <v>179</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="106" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5627,7 +5624,7 @@
         <v>576</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C106" s="18" t="s">
         <v>173</v>
@@ -5644,7 +5641,7 @@
         <v>576</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C107" s="18" t="s">
         <v>300</v>
@@ -5661,7 +5658,7 @@
         <v>576</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C108" s="18" t="s">
         <v>174</v>
@@ -5678,13 +5675,13 @@
         <v>576</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C109" s="18" t="s">
         <v>175</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>583</v>
@@ -5695,7 +5692,7 @@
         <v>576</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C110" s="18" t="s">
         <v>177</v>
@@ -5712,7 +5709,7 @@
         <v>576</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C111" s="21" t="s">
         <v>25</v>
@@ -5729,7 +5726,7 @@
         <v>28</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C112" s="18" t="s">
         <v>301</v>
@@ -5743,13 +5740,13 @@
         <v>28</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C113" s="18" t="s">
         <v>302</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="114" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5757,13 +5754,13 @@
         <v>28</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C114" s="18" t="s">
         <v>180</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="115" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5771,13 +5768,13 @@
         <v>28</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C115" s="18" t="s">
         <v>181</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="116" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5785,13 +5782,13 @@
         <v>28</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C116" s="18" t="s">
         <v>182</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="117" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5799,7 +5796,7 @@
         <v>28</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C117" s="18" t="s">
         <v>183</v>
@@ -5813,7 +5810,7 @@
         <v>28</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C118" s="18" t="s">
         <v>184</v>
@@ -5827,13 +5824,13 @@
         <v>28</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C119" s="18" t="s">
         <v>185</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="120" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5841,13 +5838,13 @@
         <v>28</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C120" s="18" t="s">
         <v>186</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="121" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5855,13 +5852,13 @@
         <v>28</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C121" s="18" t="s">
         <v>303</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="122" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5869,7 +5866,7 @@
         <v>28</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C122" s="18" t="s">
         <v>596</v>
@@ -5883,13 +5880,13 @@
         <v>28</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C123" s="18" t="s">
         <v>187</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="124" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5897,13 +5894,13 @@
         <v>28</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C124" s="18" t="s">
         <v>188</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="125" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5911,13 +5908,13 @@
         <v>28</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C125" s="18" t="s">
         <v>304</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>583</v>
@@ -5928,7 +5925,7 @@
         <v>28</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C126" s="18" t="s">
         <v>362</v>
@@ -5945,13 +5942,13 @@
         <v>28</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C127" s="18" t="s">
         <v>363</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>583</v>
@@ -5962,13 +5959,13 @@
         <v>28</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C128" s="18" t="s">
         <v>305</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E128" s="9" t="s">
         <v>583</v>
@@ -5979,13 +5976,13 @@
         <v>28</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C129" s="18" t="s">
         <v>597</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>583</v>
@@ -5996,7 +5993,7 @@
         <v>28</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C130" s="18" t="s">
         <v>189</v>
@@ -6013,13 +6010,13 @@
         <v>28</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C131" s="18" t="s">
         <v>361</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="132" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6027,13 +6024,13 @@
         <v>28</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C132" s="18" t="s">
         <v>190</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="133" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6041,13 +6038,13 @@
         <v>28</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C133" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="134" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6055,13 +6052,13 @@
         <v>28</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C134" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="135" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6069,7 +6066,7 @@
         <v>28</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C135" s="15" t="s">
         <v>360</v>
@@ -6083,13 +6080,13 @@
         <v>28</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C136" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="137" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6097,13 +6094,13 @@
         <v>28</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C137" s="18" t="s">
         <v>191</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="138" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -6111,13 +6108,13 @@
         <v>28</v>
       </c>
       <c r="B138" s="21" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C138" s="21" t="s">
         <v>289</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="139" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6125,7 +6122,7 @@
         <v>32</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C139" s="18" t="s">
         <v>368</v>
@@ -6139,13 +6136,13 @@
         <v>32</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C140" s="18" t="s">
         <v>369</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="141" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6153,13 +6150,13 @@
         <v>32</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C141" s="18" t="s">
         <v>370</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="142" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6167,7 +6164,7 @@
         <v>32</v>
       </c>
       <c r="B142" s="18" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C142" s="18" t="s">
         <v>565</v>
@@ -6181,7 +6178,7 @@
         <v>32</v>
       </c>
       <c r="B143" s="18" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C143" s="18" t="s">
         <v>373</v>
@@ -6195,13 +6192,13 @@
         <v>32</v>
       </c>
       <c r="B144" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C144" s="18" t="s">
         <v>383</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="145" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6209,7 +6206,7 @@
         <v>32</v>
       </c>
       <c r="B145" s="18" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C145" s="18" t="s">
         <v>589</v>
@@ -6223,13 +6220,13 @@
         <v>32</v>
       </c>
       <c r="B146" s="18" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C146" s="18" t="s">
         <v>374</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="147" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6237,7 +6234,7 @@
         <v>32</v>
       </c>
       <c r="B147" s="24" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C147" s="18" t="s">
         <v>590</v>
@@ -6251,7 +6248,7 @@
         <v>32</v>
       </c>
       <c r="B148" s="24" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C148" s="18" t="s">
         <v>376</v>
@@ -6265,7 +6262,7 @@
         <v>32</v>
       </c>
       <c r="B149" s="24" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C149" s="18" t="s">
         <v>377</v>
@@ -6279,13 +6276,13 @@
         <v>32</v>
       </c>
       <c r="B150" s="24" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C150" s="18" t="s">
         <v>379</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="151" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6293,13 +6290,13 @@
         <v>32</v>
       </c>
       <c r="B151" s="24" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C151" s="18" t="s">
         <v>380</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="152" spans="1:5" s="29" customFormat="1" ht="35" customHeight="1">
@@ -6313,7 +6310,7 @@
         <v>381</v>
       </c>
       <c r="D152" s="29" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="153" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6327,7 +6324,7 @@
         <v>564</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E153" s="9" t="s">
         <v>583</v>
@@ -6355,13 +6352,13 @@
         <v>563</v>
       </c>
       <c r="B155" s="24" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C155" s="18" t="s">
         <v>378</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>583</v>
@@ -6372,13 +6369,13 @@
         <v>563</v>
       </c>
       <c r="B156" s="18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C156" s="18" t="s">
         <v>373</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>583</v>
@@ -6389,7 +6386,7 @@
         <v>563</v>
       </c>
       <c r="B157" s="18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C157" s="18" t="s">
         <v>375</v>
@@ -6423,13 +6420,13 @@
         <v>563</v>
       </c>
       <c r="B159" s="18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C159" s="18" t="s">
         <v>552</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E159" s="9" t="s">
         <v>583</v>
@@ -6440,13 +6437,13 @@
         <v>563</v>
       </c>
       <c r="B160" s="18" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C160" s="18" t="s">
         <v>373</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E160" s="9" t="s">
         <v>583</v>
@@ -6463,7 +6460,7 @@
         <v>371</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E161" s="9" t="s">
         <v>583</v>
@@ -6474,13 +6471,13 @@
         <v>563</v>
       </c>
       <c r="B162" s="18" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C162" s="18" t="s">
         <v>372</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E162" s="9" t="s">
         <v>583</v>
@@ -6491,13 +6488,13 @@
         <v>563</v>
       </c>
       <c r="B163" s="21" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C163" s="17" t="s">
         <v>384</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>583</v>
@@ -6508,13 +6505,13 @@
         <v>33</v>
       </c>
       <c r="B164" s="18" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C164" s="18" t="s">
         <v>192</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="165" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6522,13 +6519,13 @@
         <v>33</v>
       </c>
       <c r="B165" s="18" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C165" s="18" t="s">
         <v>193</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="166" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6536,13 +6533,13 @@
         <v>33</v>
       </c>
       <c r="B166" s="18" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C166" s="18" t="s">
         <v>194</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="167" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6550,13 +6547,13 @@
         <v>33</v>
       </c>
       <c r="B167" s="18" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C167" s="18" t="s">
         <v>554</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="168" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6564,13 +6561,13 @@
         <v>33</v>
       </c>
       <c r="B168" s="18" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C168" s="18" t="s">
         <v>553</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="169" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6578,13 +6575,13 @@
         <v>33</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C169" s="18" t="s">
         <v>195</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="170" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6592,7 +6589,7 @@
         <v>33</v>
       </c>
       <c r="B170" s="18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C170" s="18" t="s">
         <v>196</v>
@@ -6606,7 +6603,7 @@
         <v>33</v>
       </c>
       <c r="B171" s="18" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C171" s="18" t="s">
         <v>197</v>
@@ -6620,13 +6617,13 @@
         <v>33</v>
       </c>
       <c r="B172" s="18" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C172" s="15" t="s">
         <v>34</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="173" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6634,13 +6631,13 @@
         <v>33</v>
       </c>
       <c r="B173" s="18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C173" s="18" t="s">
         <v>198</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="174" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6648,13 +6645,13 @@
         <v>33</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C174" s="18" t="s">
         <v>199</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="175" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6662,13 +6659,13 @@
         <v>33</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C175" s="18" t="s">
         <v>200</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="176" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6676,13 +6673,13 @@
         <v>33</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C176" s="18" t="s">
         <v>201</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="177" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6690,13 +6687,13 @@
         <v>33</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C177" s="18" t="s">
         <v>202</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="178" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6704,7 +6701,7 @@
         <v>33</v>
       </c>
       <c r="B178" s="18" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C178" s="18" t="s">
         <v>203</v>
@@ -6718,7 +6715,7 @@
         <v>33</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C179" s="18" t="s">
         <v>204</v>
@@ -6732,13 +6729,13 @@
         <v>33</v>
       </c>
       <c r="B180" s="18" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C180" s="18" t="s">
         <v>205</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="181" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6746,7 +6743,7 @@
         <v>33</v>
       </c>
       <c r="B181" s="18" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C181" s="18" t="s">
         <v>306</v>
@@ -6760,13 +6757,13 @@
         <v>33</v>
       </c>
       <c r="B182" s="18" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C182" s="18" t="s">
         <v>206</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="183" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6774,13 +6771,13 @@
         <v>33</v>
       </c>
       <c r="B183" s="18" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C183" s="18" t="s">
         <v>207</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="184" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6788,13 +6785,13 @@
         <v>33</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C184" s="18" t="s">
         <v>209</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="185" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6802,13 +6799,13 @@
         <v>33</v>
       </c>
       <c r="B185" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C185" s="18" t="s">
         <v>210</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="186" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6816,7 +6813,7 @@
         <v>33</v>
       </c>
       <c r="B186" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C186" s="18" t="s">
         <v>41</v>
@@ -6830,7 +6827,7 @@
         <v>33</v>
       </c>
       <c r="B187" s="18" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C187" s="15" t="s">
         <v>35</v>
@@ -6844,13 +6841,13 @@
         <v>33</v>
       </c>
       <c r="B188" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C188" s="18" t="s">
         <v>211</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="189" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6858,7 +6855,7 @@
         <v>33</v>
       </c>
       <c r="B189" s="18" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C189" s="18" t="s">
         <v>212</v>
@@ -6872,7 +6869,7 @@
         <v>33</v>
       </c>
       <c r="B190" s="18" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C190" s="18" t="s">
         <v>36</v>
@@ -6886,13 +6883,13 @@
         <v>33</v>
       </c>
       <c r="B191" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C191" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="192" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6900,13 +6897,13 @@
         <v>33</v>
       </c>
       <c r="B192" s="18" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C192" s="18" t="s">
         <v>213</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="193" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6914,13 +6911,13 @@
         <v>33</v>
       </c>
       <c r="B193" s="18" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C193" s="18" t="s">
         <v>555</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="194" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6928,13 +6925,13 @@
         <v>33</v>
       </c>
       <c r="B194" s="18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C194" s="18" t="s">
         <v>214</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="195" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6942,13 +6939,13 @@
         <v>33</v>
       </c>
       <c r="B195" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C195" s="18" t="s">
         <v>215</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="196" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6956,7 +6953,7 @@
         <v>33</v>
       </c>
       <c r="B196" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C196" s="15" t="s">
         <v>586</v>
@@ -6970,7 +6967,7 @@
         <v>33</v>
       </c>
       <c r="B197" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C197" s="15" t="s">
         <v>585</v>
@@ -6984,7 +6981,7 @@
         <v>33</v>
       </c>
       <c r="B198" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C198" s="15" t="s">
         <v>38</v>
@@ -6998,13 +6995,13 @@
         <v>33</v>
       </c>
       <c r="B199" s="18" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C199" s="18" t="s">
         <v>216</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="200" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7012,7 +7009,7 @@
         <v>33</v>
       </c>
       <c r="B200" s="18" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C200" s="18" t="s">
         <v>217</v>
@@ -7026,13 +7023,13 @@
         <v>33</v>
       </c>
       <c r="B201" s="18" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C201" s="18" t="s">
         <v>218</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="202" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7040,13 +7037,13 @@
         <v>33</v>
       </c>
       <c r="B202" s="18" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C202" s="18" t="s">
         <v>219</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="203" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7054,7 +7051,7 @@
         <v>33</v>
       </c>
       <c r="B203" s="18" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C203" s="18" t="s">
         <v>220</v>
@@ -7074,7 +7071,7 @@
         <v>222</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="205" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7096,7 +7093,7 @@
         <v>33</v>
       </c>
       <c r="B206" s="18" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C206" s="18" t="s">
         <v>225</v>
@@ -7124,7 +7121,7 @@
         <v>33</v>
       </c>
       <c r="B208" s="18" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C208" s="15" t="s">
         <v>39</v>
@@ -7138,7 +7135,7 @@
         <v>33</v>
       </c>
       <c r="B209" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C209" s="18" t="s">
         <v>228</v>
@@ -7152,7 +7149,7 @@
         <v>33</v>
       </c>
       <c r="B210" s="18" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C210" s="18" t="s">
         <v>229</v>
@@ -7166,7 +7163,7 @@
         <v>33</v>
       </c>
       <c r="B211" s="18" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C211" s="18" t="s">
         <v>288</v>
@@ -7180,7 +7177,7 @@
         <v>33</v>
       </c>
       <c r="B212" s="18" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C212" s="18" t="s">
         <v>230</v>
@@ -7194,13 +7191,13 @@
         <v>33</v>
       </c>
       <c r="B213" s="18" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C213" s="18" t="s">
         <v>231</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="214" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7208,13 +7205,13 @@
         <v>33</v>
       </c>
       <c r="B214" s="18" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C214" s="15" t="s">
         <v>296</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="215" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7222,13 +7219,13 @@
         <v>33</v>
       </c>
       <c r="B215" s="18" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C215" s="15" t="s">
         <v>308</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="216" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7236,7 +7233,7 @@
         <v>33</v>
       </c>
       <c r="B216" s="18" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C216" s="15" t="s">
         <v>307</v>
@@ -7250,13 +7247,13 @@
         <v>33</v>
       </c>
       <c r="B217" s="18" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C217" s="15" t="s">
         <v>291</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="218" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7264,7 +7261,7 @@
         <v>33</v>
       </c>
       <c r="B218" s="18" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C218" s="15" t="s">
         <v>309</v>
@@ -7278,7 +7275,7 @@
         <v>33</v>
       </c>
       <c r="B219" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C219" s="15" t="s">
         <v>310</v>
@@ -7292,7 +7289,7 @@
         <v>33</v>
       </c>
       <c r="B220" s="18" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C220" s="15" t="s">
         <v>311</v>
@@ -7306,7 +7303,7 @@
         <v>33</v>
       </c>
       <c r="B221" s="18" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C221" s="15" t="s">
         <v>40</v>
@@ -7320,7 +7317,7 @@
         <v>33</v>
       </c>
       <c r="B222" s="21" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C222" s="17" t="s">
         <v>41</v>
@@ -7334,7 +7331,7 @@
         <v>42</v>
       </c>
       <c r="B223" s="18" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C223" s="18" t="s">
         <v>232</v>
@@ -7351,7 +7348,7 @@
         <v>42</v>
       </c>
       <c r="B224" s="18" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C224" s="18" t="s">
         <v>43</v>
@@ -7368,7 +7365,7 @@
         <v>42</v>
       </c>
       <c r="B225" s="18" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C225" s="18" t="s">
         <v>233</v>
@@ -7385,7 +7382,7 @@
         <v>42</v>
       </c>
       <c r="B226" s="18" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C226" s="18" t="s">
         <v>548</v>
@@ -7402,7 +7399,7 @@
         <v>42</v>
       </c>
       <c r="B227" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C227" s="18" t="s">
         <v>234</v>
@@ -7419,13 +7416,13 @@
         <v>42</v>
       </c>
       <c r="B228" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C228" s="18" t="s">
         <v>628</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E228" s="9" t="s">
         <v>583</v>
@@ -7436,7 +7433,7 @@
         <v>42</v>
       </c>
       <c r="B229" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C229" s="18" t="s">
         <v>235</v>
@@ -7453,7 +7450,7 @@
         <v>42</v>
       </c>
       <c r="B230" s="18" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C230" s="18" t="s">
         <v>236</v>
@@ -7470,7 +7467,7 @@
         <v>42</v>
       </c>
       <c r="B231" s="18" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C231" s="18" t="s">
         <v>237</v>
@@ -7487,7 +7484,7 @@
         <v>42</v>
       </c>
       <c r="B232" s="18" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C232" s="18" t="s">
         <v>238</v>
@@ -7504,7 +7501,7 @@
         <v>42</v>
       </c>
       <c r="B233" s="18" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C233" s="18" t="s">
         <v>239</v>
@@ -7521,7 +7518,7 @@
         <v>42</v>
       </c>
       <c r="B234" s="18" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C234" s="18" t="s">
         <v>44</v>
@@ -7538,7 +7535,7 @@
         <v>42</v>
       </c>
       <c r="B235" s="18" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C235" s="18" t="s">
         <v>240</v>
@@ -7555,7 +7552,7 @@
         <v>42</v>
       </c>
       <c r="B236" s="18" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C236" s="18" t="s">
         <v>556</v>
@@ -7572,13 +7569,13 @@
         <v>42</v>
       </c>
       <c r="B237" s="18" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C237" s="18" t="s">
         <v>241</v>
       </c>
       <c r="D237" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E237" s="9" t="s">
         <v>583</v>
@@ -7589,7 +7586,7 @@
         <v>42</v>
       </c>
       <c r="B238" s="18" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C238" s="18" t="s">
         <v>237</v>
@@ -7606,7 +7603,7 @@
         <v>42</v>
       </c>
       <c r="B239" s="18" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C239" s="18" t="s">
         <v>45</v>
@@ -7623,7 +7620,7 @@
         <v>42</v>
       </c>
       <c r="B240" s="18" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C240" s="18" t="s">
         <v>242</v>
@@ -7640,7 +7637,7 @@
         <v>42</v>
       </c>
       <c r="B241" s="18" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C241" s="18" t="s">
         <v>243</v>
@@ -7657,7 +7654,7 @@
         <v>42</v>
       </c>
       <c r="B242" s="18" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C242" s="18" t="s">
         <v>244</v>
@@ -7674,7 +7671,7 @@
         <v>42</v>
       </c>
       <c r="B243" s="18" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C243" s="18" t="s">
         <v>245</v>
@@ -7691,7 +7688,7 @@
         <v>42</v>
       </c>
       <c r="B244" s="18" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C244" s="18" t="s">
         <v>246</v>
@@ -7708,7 +7705,7 @@
         <v>42</v>
       </c>
       <c r="B245" s="18" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C245" s="18" t="s">
         <v>46</v>
@@ -7725,13 +7722,13 @@
         <v>42</v>
       </c>
       <c r="B246" s="18" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C246" s="18" t="s">
         <v>247</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E246" s="9" t="s">
         <v>583</v>
@@ -7742,7 +7739,7 @@
         <v>42</v>
       </c>
       <c r="B247" s="18" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C247" s="18" t="s">
         <v>248</v>
@@ -7759,7 +7756,7 @@
         <v>42</v>
       </c>
       <c r="B248" s="18" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C248" s="18" t="s">
         <v>47</v>
@@ -7776,7 +7773,7 @@
         <v>42</v>
       </c>
       <c r="B249" s="18" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C249" s="18" t="s">
         <v>48</v>
@@ -7793,13 +7790,13 @@
         <v>42</v>
       </c>
       <c r="B250" s="18" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C250" s="18" t="s">
         <v>312</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E250" s="9" t="s">
         <v>583</v>
@@ -7810,7 +7807,7 @@
         <v>42</v>
       </c>
       <c r="B251" s="18" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C251" s="18" t="s">
         <v>313</v>
@@ -7827,13 +7824,13 @@
         <v>42</v>
       </c>
       <c r="B252" s="18" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C252" s="18" t="s">
         <v>314</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E252" s="9" t="s">
         <v>583</v>
@@ -7844,7 +7841,7 @@
         <v>42</v>
       </c>
       <c r="B253" s="18" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C253" s="18" t="s">
         <v>315</v>
@@ -7861,13 +7858,13 @@
         <v>42</v>
       </c>
       <c r="B254" s="18" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C254" s="18" t="s">
         <v>318</v>
       </c>
       <c r="D254" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E254" s="9" t="s">
         <v>583</v>
@@ -7878,13 +7875,13 @@
         <v>42</v>
       </c>
       <c r="B255" s="18" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C255" s="18" t="s">
         <v>319</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E255" s="9" t="s">
         <v>583</v>
@@ -7895,7 +7892,7 @@
         <v>42</v>
       </c>
       <c r="B256" s="18" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C256" s="18" t="s">
         <v>320</v>
@@ -7912,7 +7909,7 @@
         <v>42</v>
       </c>
       <c r="B257" s="18" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C257" s="18" t="s">
         <v>321</v>
@@ -7929,13 +7926,13 @@
         <v>42</v>
       </c>
       <c r="B258" s="18" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C258" s="30" t="s">
         <v>324</v>
       </c>
       <c r="D258" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E258" s="9" t="s">
         <v>583</v>
@@ -7946,7 +7943,7 @@
         <v>42</v>
       </c>
       <c r="B259" s="18" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C259" s="30" t="s">
         <v>325</v>
@@ -7963,13 +7960,13 @@
         <v>42</v>
       </c>
       <c r="B260" s="18" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C260" s="18" t="s">
         <v>326</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E260" s="9" t="s">
         <v>583</v>
@@ -7980,13 +7977,13 @@
         <v>42</v>
       </c>
       <c r="B261" s="18" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C261" s="18" t="s">
         <v>327</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E261" s="9" t="s">
         <v>583</v>
@@ -7997,7 +7994,7 @@
         <v>42</v>
       </c>
       <c r="B262" s="18" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C262" s="18" t="s">
         <v>329</v>
@@ -8014,7 +8011,7 @@
         <v>42</v>
       </c>
       <c r="B263" s="18" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C263" s="18" t="s">
         <v>330</v>
@@ -8031,13 +8028,13 @@
         <v>42</v>
       </c>
       <c r="B264" s="18" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C264" s="18" t="s">
         <v>331</v>
       </c>
       <c r="D264" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E264" s="9" t="s">
         <v>583</v>
@@ -8048,13 +8045,13 @@
         <v>42</v>
       </c>
       <c r="B265" s="18" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C265" s="18" t="s">
         <v>332</v>
       </c>
       <c r="D265" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E265" s="9" t="s">
         <v>583</v>
@@ -8065,13 +8062,13 @@
         <v>42</v>
       </c>
       <c r="B266" s="18" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C266" s="18" t="s">
         <v>557</v>
       </c>
       <c r="D266" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E266" s="9" t="s">
         <v>583</v>
@@ -8082,13 +8079,13 @@
         <v>42</v>
       </c>
       <c r="B267" s="18" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C267" s="18" t="s">
         <v>333</v>
       </c>
       <c r="D267" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E267" s="9" t="s">
         <v>583</v>
@@ -8099,7 +8096,7 @@
         <v>42</v>
       </c>
       <c r="B268" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C268" s="18" t="s">
         <v>334</v>
@@ -8116,7 +8113,7 @@
         <v>42</v>
       </c>
       <c r="B269" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C269" s="18" t="s">
         <v>335</v>
@@ -8133,7 +8130,7 @@
         <v>42</v>
       </c>
       <c r="B270" s="18" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C270" s="30" t="s">
         <v>336</v>
@@ -8150,13 +8147,13 @@
         <v>42</v>
       </c>
       <c r="B271" s="18" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C271" s="30" t="s">
         <v>337</v>
       </c>
       <c r="D271" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E271" s="9" t="s">
         <v>583</v>
@@ -8167,7 +8164,7 @@
         <v>42</v>
       </c>
       <c r="B272" s="18" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C272" s="30" t="s">
         <v>338</v>
@@ -8184,7 +8181,7 @@
         <v>42</v>
       </c>
       <c r="B273" s="18" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C273" s="30" t="s">
         <v>339</v>
@@ -8201,7 +8198,7 @@
         <v>42</v>
       </c>
       <c r="B274" s="18" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C274" s="30" t="s">
         <v>559</v>
@@ -8218,13 +8215,13 @@
         <v>42</v>
       </c>
       <c r="B275" s="18" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C275" s="30" t="s">
         <v>558</v>
       </c>
       <c r="D275" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E275" s="9" t="s">
         <v>583</v>
@@ -8235,7 +8232,7 @@
         <v>42</v>
       </c>
       <c r="B276" s="18" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C276" s="30" t="s">
         <v>340</v>
@@ -8252,7 +8249,7 @@
         <v>42</v>
       </c>
       <c r="B277" s="18" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C277" s="30" t="s">
         <v>341</v>
@@ -8269,7 +8266,7 @@
         <v>42</v>
       </c>
       <c r="B278" s="18" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C278" s="30" t="s">
         <v>342</v>
@@ -8286,7 +8283,7 @@
         <v>42</v>
       </c>
       <c r="B279" s="18" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C279" s="30" t="s">
         <v>343</v>
@@ -8303,7 +8300,7 @@
         <v>42</v>
       </c>
       <c r="B280" s="18" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C280" s="30" t="s">
         <v>344</v>
@@ -8320,7 +8317,7 @@
         <v>42</v>
       </c>
       <c r="B281" s="18" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C281" s="30" t="s">
         <v>345</v>
@@ -8337,7 +8334,7 @@
         <v>42</v>
       </c>
       <c r="B282" s="18" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C282" s="30" t="s">
         <v>346</v>
@@ -8354,7 +8351,7 @@
         <v>42</v>
       </c>
       <c r="B283" s="18" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C283" s="30" t="s">
         <v>531</v>
@@ -8371,13 +8368,13 @@
         <v>42</v>
       </c>
       <c r="B284" s="18" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C284" s="30" t="s">
         <v>347</v>
       </c>
       <c r="D284" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E284" s="9" t="s">
         <v>583</v>
@@ -8388,13 +8385,13 @@
         <v>42</v>
       </c>
       <c r="B285" s="18" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C285" s="18" t="s">
         <v>249</v>
       </c>
       <c r="D285" s="9" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E285" s="9" t="s">
         <v>583</v>
@@ -8405,7 +8402,7 @@
         <v>42</v>
       </c>
       <c r="B286" s="18" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C286" s="18" t="s">
         <v>250</v>
@@ -8422,7 +8419,7 @@
         <v>42</v>
       </c>
       <c r="B287" s="18" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C287" s="18" t="s">
         <v>49</v>
@@ -8439,7 +8436,7 @@
         <v>42</v>
       </c>
       <c r="B288" s="18" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C288" s="18" t="s">
         <v>50</v>
@@ -8456,13 +8453,13 @@
         <v>42</v>
       </c>
       <c r="B289" s="18" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C289" s="18" t="s">
         <v>251</v>
       </c>
       <c r="D289" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E289" s="9" t="s">
         <v>583</v>
@@ -8473,13 +8470,13 @@
         <v>42</v>
       </c>
       <c r="B290" s="21" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C290" s="18" t="s">
         <v>252</v>
       </c>
       <c r="D290" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E290" s="9" t="s">
         <v>583</v>
@@ -8490,13 +8487,13 @@
         <v>51</v>
       </c>
       <c r="B291" s="18" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C291" s="18" t="s">
         <v>253</v>
       </c>
       <c r="D291" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E291" s="9" t="s">
         <v>583</v>
@@ -8507,13 +8504,13 @@
         <v>51</v>
       </c>
       <c r="B292" s="18" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C292" s="18" t="s">
         <v>574</v>
       </c>
       <c r="D292" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E292" s="9" t="s">
         <v>583</v>
@@ -8524,13 +8521,13 @@
         <v>51</v>
       </c>
       <c r="B293" s="18" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C293" s="18" t="s">
         <v>254</v>
       </c>
       <c r="D293" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E293" s="9" t="s">
         <v>583</v>
@@ -8541,13 +8538,13 @@
         <v>51</v>
       </c>
       <c r="B294" s="18" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C294" s="18" t="s">
         <v>255</v>
       </c>
       <c r="D294" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E294" s="9" t="s">
         <v>583</v>
@@ -8558,13 +8555,13 @@
         <v>51</v>
       </c>
       <c r="B295" s="18" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C295" s="18" t="s">
         <v>256</v>
       </c>
       <c r="D295" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E295" s="9" t="s">
         <v>583</v>
@@ -8575,13 +8572,13 @@
         <v>51</v>
       </c>
       <c r="B296" s="18" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C296" s="18" t="s">
         <v>257</v>
       </c>
       <c r="D296" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E296" s="9" t="s">
         <v>583</v>
@@ -8592,7 +8589,7 @@
         <v>51</v>
       </c>
       <c r="B297" s="18" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C297" s="18" t="s">
         <v>258</v>
@@ -8609,7 +8606,7 @@
         <v>51</v>
       </c>
       <c r="B298" s="21" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C298" s="18" t="s">
         <v>259</v>
@@ -8626,13 +8623,13 @@
         <v>52</v>
       </c>
       <c r="B299" s="18" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C299" s="18" t="s">
         <v>260</v>
       </c>
       <c r="D299" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E299" s="9" t="s">
         <v>583</v>
@@ -8643,13 +8640,13 @@
         <v>52</v>
       </c>
       <c r="B300" s="18" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C300" s="18" t="s">
         <v>261</v>
       </c>
       <c r="D300" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E300" s="9" t="s">
         <v>583</v>
@@ -8660,13 +8657,13 @@
         <v>52</v>
       </c>
       <c r="B301" s="18" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C301" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D301" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E301" s="9" t="s">
         <v>583</v>
@@ -8677,13 +8674,13 @@
         <v>52</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C302" s="18" t="s">
         <v>54</v>
       </c>
       <c r="D302" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E302" s="9" t="s">
         <v>583</v>
@@ -8694,13 +8691,13 @@
         <v>52</v>
       </c>
       <c r="B303" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C303" s="18" t="s">
         <v>262</v>
       </c>
       <c r="D303" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E303" s="9" t="s">
         <v>583</v>
@@ -8711,13 +8708,13 @@
         <v>55</v>
       </c>
       <c r="B304" s="18" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C304" s="18" t="s">
         <v>263</v>
       </c>
       <c r="D304" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E304" s="9" t="s">
         <v>583</v>
@@ -8728,13 +8725,13 @@
         <v>55</v>
       </c>
       <c r="B305" s="18" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C305" s="18" t="s">
         <v>264</v>
       </c>
       <c r="D305" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E305" s="9" t="s">
         <v>583</v>
@@ -8745,13 +8742,13 @@
         <v>55</v>
       </c>
       <c r="B306" s="18" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C306" s="18" t="s">
         <v>265</v>
       </c>
       <c r="D306" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E306" s="9" t="s">
         <v>583</v>
@@ -8762,13 +8759,13 @@
         <v>55</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C307" s="18" t="s">
         <v>316</v>
       </c>
       <c r="D307" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E307" s="9" t="s">
         <v>583</v>
@@ -8779,13 +8776,13 @@
         <v>55</v>
       </c>
       <c r="B308" s="18" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C308" s="18" t="s">
         <v>266</v>
       </c>
       <c r="D308" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E308" s="9" t="s">
         <v>583</v>
@@ -8796,13 +8793,13 @@
         <v>55</v>
       </c>
       <c r="B309" s="18" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C309" s="18" t="s">
         <v>267</v>
       </c>
       <c r="D309" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E309" s="9" t="s">
         <v>583</v>
@@ -8813,13 +8810,13 @@
         <v>55</v>
       </c>
       <c r="B310" s="18" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C310" s="18" t="s">
         <v>268</v>
       </c>
       <c r="D310" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E310" s="9" t="s">
         <v>583</v>
@@ -8830,13 +8827,13 @@
         <v>55</v>
       </c>
       <c r="B311" s="15" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C311" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D311" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E311" s="9" t="s">
         <v>583</v>
@@ -8847,13 +8844,13 @@
         <v>55</v>
       </c>
       <c r="B312" s="15" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C312" s="15" t="s">
         <v>57</v>
       </c>
       <c r="D312" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E312" s="9" t="s">
         <v>583</v>
@@ -8864,13 +8861,13 @@
         <v>55</v>
       </c>
       <c r="B313" s="15" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C313" s="15" t="s">
         <v>58</v>
       </c>
       <c r="D313" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E313" s="9" t="s">
         <v>583</v>
@@ -8887,7 +8884,7 @@
         <v>270</v>
       </c>
       <c r="D314" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E314" s="9" t="s">
         <v>583</v>
@@ -8898,13 +8895,13 @@
         <v>55</v>
       </c>
       <c r="B315" s="21" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C315" s="18" t="s">
         <v>271</v>
       </c>
       <c r="D315" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E315" s="9" t="s">
         <v>583</v>
@@ -8915,13 +8912,13 @@
         <v>59</v>
       </c>
       <c r="B316" s="18" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C316" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D316" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E316" s="9" t="s">
         <v>583</v>
@@ -8932,7 +8929,7 @@
         <v>59</v>
       </c>
       <c r="B317" s="18" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C317" s="15" t="s">
         <v>61</v>
@@ -8949,7 +8946,7 @@
         <v>59</v>
       </c>
       <c r="B318" s="18" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C318" s="15" t="s">
         <v>62</v>
@@ -8966,13 +8963,13 @@
         <v>59</v>
       </c>
       <c r="B319" s="18" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C319" s="15" t="s">
         <v>348</v>
       </c>
       <c r="D319" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E319" s="9" t="s">
         <v>583</v>
@@ -8983,13 +8980,13 @@
         <v>59</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C320" s="15" t="s">
         <v>358</v>
       </c>
       <c r="D320" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E320" s="9" t="s">
         <v>583</v>
@@ -9000,7 +8997,7 @@
         <v>59</v>
       </c>
       <c r="B321" s="15" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C321" s="15" t="s">
         <v>359</v>
@@ -9017,13 +9014,13 @@
         <v>59</v>
       </c>
       <c r="B322" s="15" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C322" s="15" t="s">
         <v>357</v>
       </c>
       <c r="D322" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E322" s="9" t="s">
         <v>583</v>
@@ -9034,7 +9031,7 @@
         <v>59</v>
       </c>
       <c r="B323" s="18" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C323" s="15" t="s">
         <v>349</v>
@@ -9051,7 +9048,7 @@
         <v>59</v>
       </c>
       <c r="B324" s="18" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C324" s="15" t="s">
         <v>350</v>
@@ -9068,13 +9065,13 @@
         <v>59</v>
       </c>
       <c r="B325" s="18" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C325" s="15" t="s">
         <v>351</v>
       </c>
       <c r="D325" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E325" s="9" t="s">
         <v>583</v>
@@ -9085,7 +9082,7 @@
         <v>59</v>
       </c>
       <c r="B326" s="18" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C326" s="18" t="s">
         <v>272</v>
@@ -9102,7 +9099,7 @@
         <v>59</v>
       </c>
       <c r="B327" s="21" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C327" s="18" t="s">
         <v>273</v>
@@ -9119,7 +9116,7 @@
         <v>63</v>
       </c>
       <c r="B328" s="18" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C328" s="18" t="s">
         <v>274</v>
@@ -9136,13 +9133,13 @@
         <v>63</v>
       </c>
       <c r="B329" s="18" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C329" s="18" t="s">
         <v>275</v>
       </c>
       <c r="D329" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E329" s="9" t="s">
         <v>583</v>
@@ -9153,13 +9150,13 @@
         <v>63</v>
       </c>
       <c r="B330" s="18" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C330" s="18" t="s">
         <v>352</v>
       </c>
       <c r="D330" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E330" s="9" t="s">
         <v>583</v>
@@ -9170,13 +9167,13 @@
         <v>63</v>
       </c>
       <c r="B331" s="18" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C331" s="18" t="s">
         <v>353</v>
       </c>
       <c r="D331" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E331" s="9" t="s">
         <v>583</v>
@@ -9187,13 +9184,13 @@
         <v>63</v>
       </c>
       <c r="B332" s="18" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C332" s="18" t="s">
         <v>274</v>
       </c>
       <c r="D332" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E332" s="9" t="s">
         <v>583</v>
@@ -9204,7 +9201,7 @@
         <v>63</v>
       </c>
       <c r="B333" s="18" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C333" s="18" t="s">
         <v>328</v>
@@ -9221,13 +9218,13 @@
         <v>63</v>
       </c>
       <c r="B334" s="18" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C334" s="18" t="s">
         <v>276</v>
       </c>
       <c r="D334" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E334" s="9" t="s">
         <v>583</v>
@@ -9238,13 +9235,13 @@
         <v>63</v>
       </c>
       <c r="B335" s="18" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C335" s="18" t="s">
         <v>277</v>
       </c>
       <c r="D335" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E335" s="9" t="s">
         <v>583</v>
@@ -9255,13 +9252,13 @@
         <v>63</v>
       </c>
       <c r="B336" s="18" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C336" s="18" t="s">
         <v>278</v>
       </c>
       <c r="D336" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E336" s="9" t="s">
         <v>583</v>
@@ -9272,13 +9269,13 @@
         <v>63</v>
       </c>
       <c r="B337" s="18" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C337" s="18" t="s">
         <v>575</v>
       </c>
       <c r="D337" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E337" s="9" t="s">
         <v>583</v>
@@ -9289,7 +9286,7 @@
         <v>63</v>
       </c>
       <c r="B338" s="18" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C338" s="18" t="s">
         <v>64</v>
@@ -9306,13 +9303,13 @@
         <v>63</v>
       </c>
       <c r="B339" s="18" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C339" s="18" t="s">
         <v>279</v>
       </c>
       <c r="D339" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E339" s="9" t="s">
         <v>583</v>
@@ -9323,13 +9320,13 @@
         <v>63</v>
       </c>
       <c r="B340" s="21" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C340" s="18" t="s">
         <v>280</v>
       </c>
       <c r="D340" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E340" s="9" t="s">
         <v>583</v>
@@ -9340,7 +9337,7 @@
         <v>65</v>
       </c>
       <c r="B341" s="18" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C341" s="18" t="s">
         <v>281</v>
@@ -9357,7 +9354,7 @@
         <v>65</v>
       </c>
       <c r="B342" s="18" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C342" s="18" t="s">
         <v>282</v>
@@ -9374,7 +9371,7 @@
         <v>65</v>
       </c>
       <c r="B343" s="18" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C343" s="18" t="s">
         <v>356</v>
@@ -9391,7 +9388,7 @@
         <v>65</v>
       </c>
       <c r="B344" s="18" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C344" s="18" t="s">
         <v>283</v>
@@ -9408,7 +9405,7 @@
         <v>65</v>
       </c>
       <c r="B345" s="18" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C345" s="18" t="s">
         <v>317</v>
@@ -9425,7 +9422,7 @@
         <v>65</v>
       </c>
       <c r="B346" s="18" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C346" s="18" t="s">
         <v>66</v>
@@ -9442,13 +9439,13 @@
         <v>65</v>
       </c>
       <c r="B347" s="18" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C347" s="18" t="s">
         <v>551</v>
       </c>
       <c r="D347" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E347" s="9" t="s">
         <v>583</v>
@@ -9459,13 +9456,13 @@
         <v>65</v>
       </c>
       <c r="B348" s="18" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C348" s="18" t="s">
         <v>550</v>
       </c>
       <c r="D348" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E348" s="9" t="s">
         <v>583</v>
@@ -9476,7 +9473,7 @@
         <v>65</v>
       </c>
       <c r="B349" s="18" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C349" s="18" t="s">
         <v>566</v>
@@ -9493,13 +9490,13 @@
         <v>65</v>
       </c>
       <c r="B350" s="18" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C350" s="18" t="s">
         <v>549</v>
       </c>
       <c r="D350" s="9" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E350" s="9" t="s">
         <v>583</v>
@@ -9510,7 +9507,7 @@
         <v>65</v>
       </c>
       <c r="B351" s="18" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C351" s="18" t="s">
         <v>292</v>
@@ -9527,13 +9524,13 @@
         <v>65</v>
       </c>
       <c r="B352" s="18" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C352" s="18" t="s">
         <v>355</v>
       </c>
       <c r="D352" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E352" s="9" t="s">
         <v>583</v>
@@ -9544,13 +9541,13 @@
         <v>65</v>
       </c>
       <c r="B353" s="18" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C353" s="18" t="s">
         <v>284</v>
       </c>
       <c r="D353" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E353" s="9" t="s">
         <v>583</v>
@@ -9561,13 +9558,13 @@
         <v>65</v>
       </c>
       <c r="B354" s="18" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C354" s="18" t="s">
         <v>284</v>
       </c>
       <c r="D354" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E354" s="9" t="s">
         <v>583</v>
@@ -9578,13 +9575,13 @@
         <v>65</v>
       </c>
       <c r="B355" s="18" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C355" s="18" t="s">
         <v>322</v>
       </c>
       <c r="D355" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E355" s="9" t="s">
         <v>583</v>
@@ -9595,7 +9592,7 @@
         <v>65</v>
       </c>
       <c r="B356" s="18" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C356" s="18" t="s">
         <v>323</v>
@@ -9612,7 +9609,7 @@
         <v>65</v>
       </c>
       <c r="B357" s="18" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C357" s="18" t="s">
         <v>354</v>
@@ -9629,7 +9626,7 @@
         <v>65</v>
       </c>
       <c r="B358" s="18" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C358" s="18" t="s">
         <v>285</v>
@@ -9646,13 +9643,13 @@
         <v>65</v>
       </c>
       <c r="B359" s="18" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C359" s="18" t="s">
         <v>67</v>
       </c>
       <c r="D359" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E359" s="9" t="s">
         <v>583</v>
@@ -9663,7 +9660,7 @@
         <v>65</v>
       </c>
       <c r="B360" s="18" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C360" s="18" t="s">
         <v>286</v>
@@ -9680,13 +9677,13 @@
         <v>65</v>
       </c>
       <c r="B361" s="18" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C361" s="18" t="s">
         <v>287</v>
       </c>
       <c r="D361" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E361" s="9" t="s">
         <v>583</v>
@@ -9697,7 +9694,7 @@
         <v>65</v>
       </c>
       <c r="B362" s="21" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C362" s="17" t="s">
         <v>68</v>
@@ -9714,13 +9711,13 @@
         <v>69</v>
       </c>
       <c r="B363" s="15" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C363" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D363" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="364" spans="1:1023" ht="35" customHeight="1">
@@ -9728,7 +9725,7 @@
         <v>69</v>
       </c>
       <c r="B364" s="15" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C364" s="15" t="s">
         <v>71</v>
@@ -9742,7 +9739,7 @@
         <v>69</v>
       </c>
       <c r="B365" s="15" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C365" s="15" t="s">
         <v>385</v>
@@ -9756,7 +9753,7 @@
         <v>69</v>
       </c>
       <c r="B366" s="15" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C366" s="15" t="s">
         <v>72</v>
@@ -9770,13 +9767,13 @@
         <v>69</v>
       </c>
       <c r="B367" s="17" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C367" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D367" s="9" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E367" s="3"/>
       <c r="F367" s="3"/>
@@ -10803,7 +10800,7 @@
         <v>74</v>
       </c>
       <c r="B368" s="15" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C368" s="15" t="s">
         <v>386</v>
@@ -10820,13 +10817,13 @@
         <v>74</v>
       </c>
       <c r="B369" s="15" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C369" s="15" t="s">
         <v>387</v>
       </c>
       <c r="D369" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>583</v>
@@ -10837,13 +10834,13 @@
         <v>74</v>
       </c>
       <c r="B370" s="15" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C370" s="15" t="s">
         <v>388</v>
       </c>
       <c r="D370" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>583</v>
@@ -10854,13 +10851,13 @@
         <v>74</v>
       </c>
       <c r="B371" s="15" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C371" s="15" t="s">
         <v>389</v>
       </c>
       <c r="D371" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="372" spans="1:5" ht="35" customHeight="1">
@@ -10868,7 +10865,7 @@
         <v>74</v>
       </c>
       <c r="B372" s="15" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C372" s="15" t="s">
         <v>390</v>
@@ -10882,7 +10879,7 @@
         <v>74</v>
       </c>
       <c r="B373" s="15" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C373" s="15" t="s">
         <v>391</v>
@@ -10896,13 +10893,13 @@
         <v>74</v>
       </c>
       <c r="B374" s="15" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C374" s="15" t="s">
         <v>392</v>
       </c>
       <c r="D374" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="375" spans="1:5" ht="35" customHeight="1">
@@ -10910,13 +10907,13 @@
         <v>74</v>
       </c>
       <c r="B375" s="15" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C375" s="15" t="s">
         <v>393</v>
       </c>
       <c r="D375" s="9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="376" spans="1:5" ht="35" customHeight="1">
@@ -10924,13 +10921,13 @@
         <v>74</v>
       </c>
       <c r="B376" s="15" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C376" s="15" t="s">
         <v>394</v>
       </c>
       <c r="D376" s="9" t="s">
-        <v>631</v>
+        <v>671</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="35" customHeight="1">
@@ -10938,7 +10935,7 @@
         <v>74</v>
       </c>
       <c r="B377" s="15" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C377" s="15" t="s">
         <v>395</v>
@@ -10952,13 +10949,13 @@
         <v>74</v>
       </c>
       <c r="B378" s="15" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C378" s="15" t="s">
         <v>396</v>
       </c>
       <c r="D378" s="9" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="35" customHeight="1">
@@ -10966,13 +10963,13 @@
         <v>74</v>
       </c>
       <c r="B379" s="15" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C379" s="15" t="s">
         <v>397</v>
       </c>
       <c r="D379" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="380" spans="1:5" ht="35" customHeight="1">
@@ -10980,13 +10977,13 @@
         <v>74</v>
       </c>
       <c r="B380" s="15" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C380" s="15" t="s">
         <v>398</v>
       </c>
       <c r="D380" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>583</v>
@@ -10997,13 +10994,13 @@
         <v>74</v>
       </c>
       <c r="B381" s="15" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C381" s="15" t="s">
         <v>399</v>
       </c>
       <c r="D381" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="35" customHeight="1">
@@ -11011,13 +11008,13 @@
         <v>74</v>
       </c>
       <c r="B382" s="15" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C382" s="15" t="s">
         <v>400</v>
       </c>
       <c r="D382" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="35" customHeight="1">
@@ -11025,7 +11022,7 @@
         <v>74</v>
       </c>
       <c r="B383" s="15" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C383" s="15" t="s">
         <v>401</v>
@@ -11042,13 +11039,13 @@
         <v>74</v>
       </c>
       <c r="B384" s="15" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C384" s="15" t="s">
         <v>402</v>
       </c>
       <c r="D384" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>583</v>
@@ -11059,7 +11056,7 @@
         <v>74</v>
       </c>
       <c r="B385" s="15" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C385" s="15" t="s">
         <v>403</v>
@@ -11076,13 +11073,13 @@
         <v>74</v>
       </c>
       <c r="B386" s="15" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C386" s="15" t="s">
         <v>404</v>
       </c>
       <c r="D386" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>583</v>
@@ -11093,7 +11090,7 @@
         <v>74</v>
       </c>
       <c r="B387" s="15" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C387" s="15" t="s">
         <v>579</v>
@@ -11107,7 +11104,7 @@
         <v>74</v>
       </c>
       <c r="B388" s="15" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C388" s="15" t="s">
         <v>405</v>
@@ -11121,13 +11118,13 @@
         <v>74</v>
       </c>
       <c r="B389" s="15" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C389" s="15" t="s">
         <v>406</v>
       </c>
       <c r="D389" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="390" spans="1:5" ht="35" customHeight="1">
@@ -11135,13 +11132,13 @@
         <v>74</v>
       </c>
       <c r="B390" s="15" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C390" s="15" t="s">
         <v>407</v>
       </c>
       <c r="D390" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="391" spans="1:5" ht="35" customHeight="1">
@@ -11149,13 +11146,13 @@
         <v>74</v>
       </c>
       <c r="B391" s="15" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C391" s="15" t="s">
         <v>408</v>
       </c>
       <c r="D391" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="392" spans="1:5" ht="35" customHeight="1">
@@ -11163,13 +11160,13 @@
         <v>74</v>
       </c>
       <c r="B392" s="15" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C392" s="15" t="s">
         <v>409</v>
       </c>
       <c r="D392" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="393" spans="1:5" ht="35" customHeight="1">
@@ -11177,7 +11174,7 @@
         <v>74</v>
       </c>
       <c r="B393" s="15" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C393" s="15" t="s">
         <v>410</v>
@@ -11191,7 +11188,7 @@
         <v>74</v>
       </c>
       <c r="B394" s="15" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C394" s="15" t="s">
         <v>411</v>
@@ -11205,13 +11202,13 @@
         <v>74</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C395" s="15" t="s">
         <v>412</v>
       </c>
       <c r="D395" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>583</v>
@@ -11222,13 +11219,13 @@
         <v>74</v>
       </c>
       <c r="B396" s="15" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C396" s="15" t="s">
         <v>413</v>
       </c>
       <c r="D396" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="397" spans="1:5" ht="35" customHeight="1">
@@ -11236,13 +11233,13 @@
         <v>74</v>
       </c>
       <c r="B397" s="15" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C397" s="15" t="s">
         <v>414</v>
       </c>
       <c r="D397" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="398" spans="1:5" ht="35" customHeight="1">
@@ -11250,13 +11247,13 @@
         <v>74</v>
       </c>
       <c r="B398" s="15" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C398" s="15" t="s">
         <v>415</v>
       </c>
       <c r="D398" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="399" spans="1:5" ht="35" customHeight="1">
@@ -11264,7 +11261,7 @@
         <v>74</v>
       </c>
       <c r="B399" s="15" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C399" s="15" t="s">
         <v>415</v>
@@ -11278,13 +11275,13 @@
         <v>74</v>
       </c>
       <c r="B400" s="15" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C400" s="15" t="s">
         <v>416</v>
       </c>
       <c r="D400" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="401" spans="1:1023" ht="35" customHeight="1">
@@ -11292,7 +11289,7 @@
         <v>74</v>
       </c>
       <c r="B401" s="15" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C401" s="15" t="s">
         <v>417</v>
@@ -11306,7 +11303,7 @@
         <v>74</v>
       </c>
       <c r="B402" s="15" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C402" s="15" t="s">
         <v>418</v>
@@ -11320,13 +11317,13 @@
         <v>74</v>
       </c>
       <c r="B403" s="15" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C403" s="15" t="s">
         <v>419</v>
       </c>
       <c r="D403" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="404" spans="1:1023" ht="35" customHeight="1">
@@ -11334,13 +11331,13 @@
         <v>74</v>
       </c>
       <c r="B404" s="15" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C404" s="15" t="s">
         <v>420</v>
       </c>
       <c r="D404" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="405" spans="1:1023" ht="35" customHeight="1">
@@ -11348,7 +11345,7 @@
         <v>74</v>
       </c>
       <c r="B405" s="15" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C405" s="15" t="s">
         <v>421</v>
@@ -11362,7 +11359,7 @@
         <v>74</v>
       </c>
       <c r="B406" s="15" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C406" s="15" t="s">
         <v>421</v>
@@ -11376,7 +11373,7 @@
         <v>74</v>
       </c>
       <c r="B407" s="17" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C407" s="17" t="s">
         <v>422</v>
@@ -12409,7 +12406,7 @@
         <v>75</v>
       </c>
       <c r="B408" s="15" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C408" s="15" t="s">
         <v>425</v>
@@ -12423,13 +12420,13 @@
         <v>75</v>
       </c>
       <c r="B409" s="15" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C409" s="15" t="s">
         <v>426</v>
       </c>
       <c r="D409" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="410" spans="1:1023" ht="35" customHeight="1">
@@ -12437,13 +12434,13 @@
         <v>75</v>
       </c>
       <c r="B410" s="15" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C410" s="15" t="s">
         <v>427</v>
       </c>
       <c r="D410" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="411" spans="1:1023" ht="35" customHeight="1">
@@ -12451,13 +12448,13 @@
         <v>75</v>
       </c>
       <c r="B411" s="15" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C411" s="15" t="s">
         <v>428</v>
       </c>
       <c r="D411" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="412" spans="1:1023" ht="35" customHeight="1">
@@ -12465,13 +12462,13 @@
         <v>75</v>
       </c>
       <c r="B412" s="15" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C412" s="15" t="s">
         <v>429</v>
       </c>
       <c r="D412" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="413" spans="1:1023" ht="35" customHeight="1">
@@ -12479,13 +12476,13 @@
         <v>75</v>
       </c>
       <c r="B413" s="15" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C413" s="15" t="s">
         <v>430</v>
       </c>
       <c r="D413" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="414" spans="1:1023" ht="35" customHeight="1">
@@ -12493,7 +12490,7 @@
         <v>75</v>
       </c>
       <c r="B414" s="15" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C414" s="15" t="s">
         <v>431</v>
@@ -12513,7 +12510,7 @@
         <v>432</v>
       </c>
       <c r="D415" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="416" spans="1:1023" ht="35" customHeight="1">
@@ -12521,13 +12518,13 @@
         <v>75</v>
       </c>
       <c r="B416" s="15" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C416" s="15" t="s">
         <v>433</v>
       </c>
       <c r="D416" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="417" spans="1:1023" ht="35" customHeight="1">
@@ -12535,7 +12532,7 @@
         <v>75</v>
       </c>
       <c r="B417" s="15" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C417" s="15" t="s">
         <v>434</v>
@@ -12549,13 +12546,13 @@
         <v>75</v>
       </c>
       <c r="B418" s="15" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C418" s="15" t="s">
         <v>435</v>
       </c>
       <c r="D418" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="419" spans="1:1023" ht="35" customHeight="1">
@@ -12563,13 +12560,13 @@
         <v>75</v>
       </c>
       <c r="B419" s="15" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C419" s="15" t="s">
         <v>436</v>
       </c>
       <c r="D419" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="420" spans="1:1023" ht="35" customHeight="1">
@@ -12577,13 +12574,13 @@
         <v>75</v>
       </c>
       <c r="B420" s="15" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C420" s="15" t="s">
         <v>437</v>
       </c>
       <c r="D420" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="421" spans="1:1023" ht="35" customHeight="1">
@@ -12591,13 +12588,13 @@
         <v>75</v>
       </c>
       <c r="B421" s="15" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C421" s="15" t="s">
         <v>438</v>
       </c>
       <c r="D421" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="422" spans="1:1023" ht="35" customHeight="1">
@@ -12605,7 +12602,7 @@
         <v>75</v>
       </c>
       <c r="B422" s="15" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C422" s="15" t="s">
         <v>439</v>
@@ -12619,13 +12616,13 @@
         <v>75</v>
       </c>
       <c r="B423" s="15" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C423" s="15" t="s">
         <v>440</v>
       </c>
       <c r="D423" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="424" spans="1:1023" ht="35" customHeight="1">
@@ -12639,7 +12636,7 @@
         <v>441</v>
       </c>
       <c r="D424" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="425" spans="1:1023" ht="35" customHeight="1">
@@ -12647,13 +12644,13 @@
         <v>75</v>
       </c>
       <c r="B425" s="15" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C425" s="15" t="s">
         <v>442</v>
       </c>
       <c r="D425" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="426" spans="1:1023" ht="35" customHeight="1">
@@ -12661,13 +12658,13 @@
         <v>75</v>
       </c>
       <c r="B426" s="15" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C426" s="15" t="s">
         <v>443</v>
       </c>
       <c r="D426" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="427" spans="1:1023" ht="35" customHeight="1">
@@ -12675,13 +12672,13 @@
         <v>75</v>
       </c>
       <c r="B427" s="15" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C427" s="15" t="s">
         <v>444</v>
       </c>
       <c r="D427" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="428" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
@@ -12689,13 +12686,13 @@
         <v>75</v>
       </c>
       <c r="B428" s="17" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C428" s="17" t="s">
         <v>76</v>
       </c>
       <c r="D428" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E428" s="3"/>
       <c r="F428" s="3"/>
@@ -13722,13 +13719,13 @@
         <v>77</v>
       </c>
       <c r="B429" s="15" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C429" s="15" t="s">
         <v>446</v>
       </c>
       <c r="D429" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="430" spans="1:1023" ht="35" customHeight="1">
@@ -13736,13 +13733,13 @@
         <v>77</v>
       </c>
       <c r="B430" s="15" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C430" s="15" t="s">
         <v>447</v>
       </c>
       <c r="D430" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="431" spans="1:1023" ht="35" customHeight="1">
@@ -13750,13 +13747,13 @@
         <v>77</v>
       </c>
       <c r="B431" s="15" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C431" s="15" t="s">
         <v>448</v>
       </c>
       <c r="D431" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="432" spans="1:1023" ht="35" customHeight="1">
@@ -13764,7 +13761,7 @@
         <v>77</v>
       </c>
       <c r="B432" s="15" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C432" s="15" t="s">
         <v>567</v>
@@ -13778,7 +13775,7 @@
         <v>77</v>
       </c>
       <c r="B433" s="15" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C433" s="15" t="s">
         <v>449</v>
@@ -13792,13 +13789,13 @@
         <v>77</v>
       </c>
       <c r="B434" s="15" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C434" s="15" t="s">
         <v>591</v>
       </c>
       <c r="D434" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E434" s="1" t="s">
         <v>583</v>
@@ -13809,13 +13806,13 @@
         <v>77</v>
       </c>
       <c r="B435" s="15" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C435" s="15" t="s">
         <v>450</v>
       </c>
       <c r="D435" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="436" spans="1:5" ht="35" customHeight="1">
@@ -13823,13 +13820,13 @@
         <v>77</v>
       </c>
       <c r="B436" s="15" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C436" s="15" t="s">
         <v>451</v>
       </c>
       <c r="D436" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="437" spans="1:5" ht="35" customHeight="1">
@@ -13837,13 +13834,13 @@
         <v>77</v>
       </c>
       <c r="B437" s="15" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C437" s="15" t="s">
         <v>452</v>
       </c>
       <c r="D437" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="438" spans="1:5" ht="35" customHeight="1">
@@ -13851,13 +13848,13 @@
         <v>77</v>
       </c>
       <c r="B438" s="15" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C438" s="15" t="s">
         <v>453</v>
       </c>
       <c r="D438" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="439" spans="1:5" ht="35" customHeight="1">
@@ -13865,7 +13862,7 @@
         <v>77</v>
       </c>
       <c r="B439" s="15" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C439" s="15" t="s">
         <v>454</v>
@@ -13879,7 +13876,7 @@
         <v>77</v>
       </c>
       <c r="B440" s="15" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C440" s="15" t="s">
         <v>455</v>
@@ -13893,7 +13890,7 @@
         <v>77</v>
       </c>
       <c r="B441" s="15" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C441" s="15" t="s">
         <v>456</v>
@@ -13907,13 +13904,13 @@
         <v>77</v>
       </c>
       <c r="B442" s="15" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C442" s="15" t="s">
         <v>457</v>
       </c>
       <c r="D442" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="443" spans="1:5" ht="35" customHeight="1">
@@ -13921,7 +13918,7 @@
         <v>77</v>
       </c>
       <c r="B443" s="15" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C443" s="15" t="s">
         <v>458</v>
@@ -13935,7 +13932,7 @@
         <v>77</v>
       </c>
       <c r="B444" s="15" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C444" s="15" t="s">
         <v>459</v>
@@ -13949,7 +13946,7 @@
         <v>77</v>
       </c>
       <c r="B445" s="15" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C445" s="15" t="s">
         <v>570</v>
@@ -13963,13 +13960,13 @@
         <v>77</v>
       </c>
       <c r="B446" s="15" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C446" s="15" t="s">
         <v>460</v>
       </c>
       <c r="D446" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="447" spans="1:5" ht="35" customHeight="1">
@@ -13977,13 +13974,13 @@
         <v>77</v>
       </c>
       <c r="B447" s="15" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C447" s="15" t="s">
         <v>462</v>
       </c>
       <c r="D447" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="448" spans="1:5" ht="35" customHeight="1">
@@ -13991,13 +13988,13 @@
         <v>77</v>
       </c>
       <c r="B448" s="18" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C448" s="15" t="s">
         <v>463</v>
       </c>
       <c r="D448" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="449" spans="1:1023" ht="35" customHeight="1">
@@ -14005,13 +14002,13 @@
         <v>77</v>
       </c>
       <c r="B449" s="18" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C449" s="18" t="s">
         <v>573</v>
       </c>
       <c r="D449" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="450" spans="1:1023" ht="35" customHeight="1">
@@ -14019,13 +14016,13 @@
         <v>77</v>
       </c>
       <c r="B450" s="18" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C450" s="15" t="s">
         <v>593</v>
       </c>
       <c r="D450" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="451" spans="1:1023" ht="35" customHeight="1">
@@ -14033,7 +14030,7 @@
         <v>77</v>
       </c>
       <c r="B451" s="18" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C451" s="15" t="s">
         <v>464</v>
@@ -14047,13 +14044,13 @@
         <v>77</v>
       </c>
       <c r="B452" s="15" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C452" s="15" t="s">
         <v>465</v>
       </c>
       <c r="D452" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="453" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
@@ -14061,7 +14058,7 @@
         <v>77</v>
       </c>
       <c r="B453" s="17" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C453" s="17" t="s">
         <v>466</v>
@@ -15094,13 +15091,13 @@
         <v>78</v>
       </c>
       <c r="B454" s="18" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C454" s="18" t="s">
         <v>467</v>
       </c>
       <c r="D454" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E454" s="1" t="s">
         <v>583</v>
@@ -15111,13 +15108,13 @@
         <v>78</v>
       </c>
       <c r="B455" s="15" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C455" s="15" t="s">
         <v>461</v>
       </c>
       <c r="D455" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E455" s="1" t="s">
         <v>583</v>
@@ -15128,13 +15125,13 @@
         <v>78</v>
       </c>
       <c r="B456" s="18" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C456" s="18" t="s">
         <v>468</v>
       </c>
       <c r="D456" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E456" s="1" t="s">
         <v>583</v>
@@ -15145,7 +15142,7 @@
         <v>78</v>
       </c>
       <c r="B457" s="18" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C457" s="18" t="s">
         <v>571</v>
@@ -15162,13 +15159,13 @@
         <v>78</v>
       </c>
       <c r="B458" s="18" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C458" s="18" t="s">
         <v>469</v>
       </c>
       <c r="D458" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E458" s="1" t="s">
         <v>583</v>
@@ -15179,13 +15176,13 @@
         <v>78</v>
       </c>
       <c r="B459" s="18" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C459" s="18" t="s">
         <v>470</v>
       </c>
       <c r="D459" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E459" s="1" t="s">
         <v>583</v>
@@ -15196,13 +15193,13 @@
         <v>78</v>
       </c>
       <c r="B460" s="18" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C460" s="15" t="s">
         <v>572</v>
       </c>
       <c r="D460" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E460" s="1" t="s">
         <v>583</v>
@@ -15213,13 +15210,13 @@
         <v>78</v>
       </c>
       <c r="B461" s="18" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C461" s="15" t="s">
         <v>471</v>
       </c>
       <c r="D461" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E461" s="1" t="s">
         <v>583</v>
@@ -15230,13 +15227,13 @@
         <v>78</v>
       </c>
       <c r="B462" s="18" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C462" s="18" t="s">
         <v>472</v>
       </c>
       <c r="D462" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E462" s="1" t="s">
         <v>583</v>
@@ -15247,13 +15244,13 @@
         <v>78</v>
       </c>
       <c r="B463" s="18" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C463" s="18" t="s">
         <v>472</v>
       </c>
       <c r="D463" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E463" s="1" t="s">
         <v>583</v>
@@ -15264,7 +15261,7 @@
         <v>78</v>
       </c>
       <c r="B464" s="18" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C464" s="18" t="s">
         <v>592</v>
@@ -15281,13 +15278,13 @@
         <v>78</v>
       </c>
       <c r="B465" s="18" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C465" s="15" t="s">
         <v>473</v>
       </c>
       <c r="D465" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E465" s="1" t="s">
         <v>583</v>
@@ -15298,13 +15295,13 @@
         <v>78</v>
       </c>
       <c r="B466" s="18" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C466" s="18" t="s">
         <v>474</v>
       </c>
       <c r="D466" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E466" s="1" t="s">
         <v>583</v>
@@ -15315,13 +15312,13 @@
         <v>78</v>
       </c>
       <c r="B467" s="18" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C467" s="18" t="s">
         <v>475</v>
       </c>
       <c r="D467" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E467" s="1" t="s">
         <v>583</v>
@@ -15332,7 +15329,7 @@
         <v>78</v>
       </c>
       <c r="B468" s="18" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C468" s="18" t="s">
         <v>476</v>
@@ -15349,13 +15346,13 @@
         <v>78</v>
       </c>
       <c r="B469" s="18" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C469" s="18" t="s">
         <v>476</v>
       </c>
       <c r="D469" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E469" s="1" t="s">
         <v>583</v>
@@ -15366,7 +15363,7 @@
         <v>78</v>
       </c>
       <c r="B470" s="18" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C470" s="18" t="s">
         <v>569</v>
@@ -15383,13 +15380,13 @@
         <v>78</v>
       </c>
       <c r="B471" s="18" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C471" s="18" t="s">
         <v>568</v>
       </c>
       <c r="D471" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E471" s="1" t="s">
         <v>583</v>
@@ -15400,13 +15397,13 @@
         <v>78</v>
       </c>
       <c r="B472" s="18" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C472" s="18" t="s">
         <v>477</v>
       </c>
       <c r="D472" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E472" s="1" t="s">
         <v>583</v>
@@ -15417,13 +15414,13 @@
         <v>78</v>
       </c>
       <c r="B473" s="18" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C473" s="18" t="s">
         <v>478</v>
       </c>
       <c r="D473" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E473" s="1" t="s">
         <v>583</v>
@@ -15434,13 +15431,13 @@
         <v>78</v>
       </c>
       <c r="B474" s="18" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C474" s="18" t="s">
         <v>594</v>
       </c>
       <c r="D474" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E474" s="1" t="s">
         <v>583</v>
@@ -15451,13 +15448,13 @@
         <v>78</v>
       </c>
       <c r="B475" s="18" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C475" s="15" t="s">
         <v>479</v>
       </c>
       <c r="D475" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E475" s="1" t="s">
         <v>583</v>
@@ -15468,7 +15465,7 @@
         <v>78</v>
       </c>
       <c r="B476" s="21" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C476" s="17" t="s">
         <v>480</v>
@@ -16503,13 +16500,13 @@
         <v>79</v>
       </c>
       <c r="B477" s="18" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C477" s="18" t="s">
         <v>481</v>
       </c>
       <c r="D477" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="478" spans="1:1023" ht="35" customHeight="1">
@@ -16517,13 +16514,13 @@
         <v>79</v>
       </c>
       <c r="B478" s="18" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C478" s="18" t="s">
         <v>482</v>
       </c>
       <c r="D478" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="479" spans="1:1023" ht="35" customHeight="1">
@@ -16531,13 +16528,13 @@
         <v>79</v>
       </c>
       <c r="B479" s="18" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C479" s="18" t="s">
         <v>483</v>
       </c>
       <c r="D479" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="480" spans="1:1023" ht="35" customHeight="1">
@@ -16545,13 +16542,13 @@
         <v>79</v>
       </c>
       <c r="B480" s="18" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C480" s="18" t="s">
         <v>484</v>
       </c>
       <c r="D480" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="481" spans="1:1023" ht="35" customHeight="1">
@@ -16559,13 +16556,13 @@
         <v>79</v>
       </c>
       <c r="B481" s="18" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C481" s="15" t="s">
         <v>485</v>
       </c>
       <c r="D481" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="482" spans="1:1023" ht="35" customHeight="1">
@@ -16573,13 +16570,13 @@
         <v>79</v>
       </c>
       <c r="B482" s="18" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C482" s="15" t="s">
         <v>486</v>
       </c>
       <c r="D482" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="483" spans="1:1023" ht="35" customHeight="1">
@@ -16587,13 +16584,13 @@
         <v>79</v>
       </c>
       <c r="B483" s="18" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C483" s="18" t="s">
         <v>487</v>
       </c>
       <c r="D483" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="484" spans="1:1023" ht="35" customHeight="1">
@@ -16601,13 +16598,13 @@
         <v>79</v>
       </c>
       <c r="B484" s="18" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C484" s="15" t="s">
         <v>488</v>
       </c>
       <c r="D484" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="485" spans="1:1023" ht="35" customHeight="1">
@@ -16615,7 +16612,7 @@
         <v>79</v>
       </c>
       <c r="B485" s="18" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C485" s="15" t="s">
         <v>489</v>
@@ -16629,13 +16626,13 @@
         <v>79</v>
       </c>
       <c r="B486" s="18" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C486" s="15" t="s">
         <v>490</v>
       </c>
       <c r="D486" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="487" spans="1:1023" ht="35" customHeight="1">
@@ -16643,13 +16640,13 @@
         <v>79</v>
       </c>
       <c r="B487" s="18" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C487" s="15" t="s">
         <v>491</v>
       </c>
       <c r="D487" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="488" spans="1:1023" ht="35" customHeight="1">
@@ -16663,7 +16660,7 @@
         <v>492</v>
       </c>
       <c r="D488" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="489" spans="1:1023" ht="35" customHeight="1">
@@ -16671,13 +16668,13 @@
         <v>79</v>
       </c>
       <c r="B489" s="18" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C489" s="15" t="s">
         <v>493</v>
       </c>
       <c r="D489" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="490" spans="1:1023" ht="35" customHeight="1">
@@ -16685,13 +16682,13 @@
         <v>79</v>
       </c>
       <c r="B490" s="18" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C490" s="18" t="s">
         <v>494</v>
       </c>
       <c r="D490" s="9" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="491" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
@@ -16699,13 +16696,13 @@
         <v>79</v>
       </c>
       <c r="B491" s="21" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C491" s="21" t="s">
         <v>495</v>
       </c>
       <c r="D491" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E491" s="3"/>
       <c r="F491" s="3"/>
@@ -17732,13 +17729,13 @@
         <v>80</v>
       </c>
       <c r="B492" s="18" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C492" s="18" t="s">
         <v>496</v>
       </c>
       <c r="D492" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="493" spans="1:1023" ht="35" customHeight="1">
@@ -17746,13 +17743,13 @@
         <v>80</v>
       </c>
       <c r="B493" s="18" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C493" s="18" t="s">
         <v>497</v>
       </c>
       <c r="D493" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="494" spans="1:1023" ht="35" customHeight="1">
@@ -17760,13 +17757,13 @@
         <v>80</v>
       </c>
       <c r="B494" s="18" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C494" s="18" t="s">
         <v>498</v>
       </c>
       <c r="D494" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="495" spans="1:1023" ht="35" customHeight="1">
@@ -17774,13 +17771,13 @@
         <v>80</v>
       </c>
       <c r="B495" s="18" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C495" s="18" t="s">
         <v>499</v>
       </c>
       <c r="D495" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="496" spans="1:1023" ht="35" customHeight="1">
@@ -17788,7 +17785,7 @@
         <v>80</v>
       </c>
       <c r="B496" s="18" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C496" s="18" t="s">
         <v>500</v>
@@ -17802,7 +17799,7 @@
         <v>80</v>
       </c>
       <c r="B497" s="18" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C497" s="18" t="s">
         <v>501</v>
@@ -17816,7 +17813,7 @@
         <v>80</v>
       </c>
       <c r="B498" s="18" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C498" s="18" t="s">
         <v>502</v>
@@ -17830,13 +17827,13 @@
         <v>80</v>
       </c>
       <c r="B499" s="18" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C499" s="18" t="s">
         <v>503</v>
       </c>
       <c r="D499" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="500" spans="1:1023" ht="35" customHeight="1">
@@ -17844,13 +17841,13 @@
         <v>80</v>
       </c>
       <c r="B500" s="18" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C500" s="18" t="s">
         <v>587</v>
       </c>
       <c r="D500" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="501" spans="1:1023" ht="35" customHeight="1">
@@ -17858,7 +17855,7 @@
         <v>80</v>
       </c>
       <c r="B501" s="18" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C501" s="18" t="s">
         <v>578</v>
@@ -17872,13 +17869,13 @@
         <v>80</v>
       </c>
       <c r="B502" s="18" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C502" s="18" t="s">
         <v>504</v>
       </c>
       <c r="D502" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="503" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
@@ -17886,13 +17883,13 @@
         <v>80</v>
       </c>
       <c r="B503" s="21" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C503" s="21" t="s">
         <v>505</v>
       </c>
       <c r="D503" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E503" s="3"/>
       <c r="F503" s="3"/>
@@ -18919,13 +18916,13 @@
         <v>81</v>
       </c>
       <c r="B504" s="24" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C504" s="15" t="s">
         <v>506</v>
       </c>
       <c r="D504" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E504" s="5" t="s">
         <v>583</v>
@@ -19954,7 +19951,7 @@
         <v>81</v>
       </c>
       <c r="B505" s="24" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C505" s="28" t="s">
         <v>507</v>
@@ -20989,7 +20986,7 @@
         <v>81</v>
       </c>
       <c r="B506" s="24" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C506" s="15" t="s">
         <v>530</v>
@@ -21003,7 +21000,7 @@
         <v>81</v>
       </c>
       <c r="B507" s="24" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C507" s="15" t="s">
         <v>508</v>
@@ -21020,7 +21017,7 @@
         <v>81</v>
       </c>
       <c r="B508" s="24" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C508" s="15" t="s">
         <v>509</v>
@@ -21037,7 +21034,7 @@
         <v>81</v>
       </c>
       <c r="B509" s="24" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C509" s="15" t="s">
         <v>510</v>
@@ -21054,7 +21051,7 @@
         <v>81</v>
       </c>
       <c r="B510" s="24" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C510" s="15" t="s">
         <v>511</v>
@@ -21071,7 +21068,7 @@
         <v>81</v>
       </c>
       <c r="B511" s="24" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C511" s="15" t="s">
         <v>512</v>
@@ -21088,7 +21085,7 @@
         <v>81</v>
       </c>
       <c r="B512" s="24" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C512" s="15" t="s">
         <v>511</v>
@@ -21105,7 +21102,7 @@
         <v>81</v>
       </c>
       <c r="B513" s="24" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C513" s="15" t="s">
         <v>513</v>
@@ -21122,7 +21119,7 @@
         <v>81</v>
       </c>
       <c r="B514" s="24" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C514" s="15" t="s">
         <v>514</v>
@@ -21139,7 +21136,7 @@
         <v>81</v>
       </c>
       <c r="B515" s="24" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C515" s="15" t="s">
         <v>515</v>
@@ -21156,13 +21153,13 @@
         <v>81</v>
       </c>
       <c r="B516" s="24" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C516" s="15" t="s">
         <v>516</v>
       </c>
       <c r="D516" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E516" s="1" t="s">
         <v>583</v>
@@ -21173,7 +21170,7 @@
         <v>81</v>
       </c>
       <c r="B517" s="24" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C517" s="15" t="s">
         <v>517</v>
@@ -21190,7 +21187,7 @@
         <v>81</v>
       </c>
       <c r="B518" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C518" s="17" t="s">
         <v>518</v>
@@ -22225,7 +22222,7 @@
         <v>82</v>
       </c>
       <c r="B519" s="24" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C519" s="15" t="s">
         <v>519</v>
@@ -23258,7 +23255,7 @@
         <v>82</v>
       </c>
       <c r="B520" s="24" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C520" s="15" t="s">
         <v>588</v>
@@ -24291,13 +24288,13 @@
         <v>82</v>
       </c>
       <c r="B521" s="24" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C521" s="15" t="s">
         <v>520</v>
       </c>
       <c r="D521" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E521" s="5"/>
       <c r="F521" s="5"/>
@@ -25324,7 +25321,7 @@
         <v>82</v>
       </c>
       <c r="B522" s="24" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C522" s="15" t="s">
         <v>521</v>
@@ -26357,7 +26354,7 @@
         <v>82</v>
       </c>
       <c r="B523" s="24" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C523" s="15" t="s">
         <v>522</v>
@@ -27390,13 +27387,13 @@
         <v>82</v>
       </c>
       <c r="B524" s="23" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C524" s="15" t="s">
         <v>523</v>
       </c>
       <c r="D524" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="525" spans="1:1023" ht="52" customHeight="1">
@@ -27404,13 +27401,13 @@
         <v>82</v>
       </c>
       <c r="B525" s="23" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C525" s="15" t="s">
         <v>524</v>
       </c>
       <c r="D525" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="526" spans="1:1023" ht="35" customHeight="1">
@@ -27418,13 +27415,13 @@
         <v>82</v>
       </c>
       <c r="B526" s="23" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C526" s="15" t="s">
         <v>525</v>
       </c>
       <c r="D526" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="527" spans="1:1023" ht="35" customHeight="1">
@@ -27432,13 +27429,13 @@
         <v>82</v>
       </c>
       <c r="B527" s="23" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C527" s="15" t="s">
         <v>526</v>
       </c>
       <c r="D527" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="528" spans="1:1023" ht="35" customHeight="1">
@@ -27446,13 +27443,13 @@
         <v>82</v>
       </c>
       <c r="B528" s="23" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C528" s="15" t="s">
         <v>527</v>
       </c>
       <c r="D528" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="529" spans="1:1023" ht="35" customHeight="1">
@@ -27460,13 +27457,13 @@
         <v>82</v>
       </c>
       <c r="B529" s="23" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C529" s="15" t="s">
         <v>528</v>
       </c>
       <c r="D529" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="530" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
@@ -27474,13 +27471,13 @@
         <v>82</v>
       </c>
       <c r="B530" s="25" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C530" s="17" t="s">
         <v>529</v>
       </c>
       <c r="D530" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E530" s="3"/>
       <c r="F530" s="3"/>

--- a/utils/excel_to_json/questions.xlsx
+++ b/utils/excel_to_json/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koncz/ivosjatek/utils/excel_to_json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E1D086-74F4-E942-B802-61CFD8B8425E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E626D7DF-ED49-7643-B2C2-674AB755FE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19520" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="1164">
   <si>
     <t>outer_quality</t>
   </si>
@@ -1589,9 +1589,6 @@
     <t>%NAME%: If you had to choose: would you be rather bald or eat a living bug? The other players guess. Who is wrong, has to drink.</t>
   </si>
   <si>
-    <t>%NAME%: Do you think that pornstars are actors or prostitutes? The other players guess. Who is wrong, has to drink.</t>
-  </si>
-  <si>
     <t>%NAME%: Read loud: the first player who takes off 3 pieces of cloth can choose who drinks a shot.</t>
   </si>
   <si>
@@ -2076,9 +2073,6 @@
   </si>
   <si>
     <t>cloud.png</t>
-  </si>
-  <si>
-    <t>skull.png</t>
   </si>
   <si>
     <t>Kék szeműek isznak.</t>
@@ -4122,8 +4116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMI1216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A505" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C518" sqref="C518"/>
+    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D255" sqref="D255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -4139,7 +4133,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="35" customHeight="1" thickBot="1">
       <c r="A1" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>83</v>
@@ -4148,10 +4142,10 @@
         <v>84</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4159,13 +4153,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>85</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4173,13 +4167,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>86</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4187,13 +4181,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>87</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4201,13 +4195,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>88</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4215,13 +4209,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4229,13 +4223,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4243,13 +4237,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4257,13 +4251,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>92</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4271,13 +4265,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4285,13 +4279,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4299,13 +4293,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>95</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4313,13 +4307,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>294</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4327,13 +4321,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>293</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4341,13 +4335,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>96</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4361,7 +4355,7 @@
         <v>98</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4369,13 +4363,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4389,7 +4383,7 @@
         <v>100</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4397,13 +4391,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>101</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4411,13 +4405,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>102</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4431,7 +4425,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4439,13 +4433,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4453,13 +4447,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4467,13 +4461,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4487,7 +4481,7 @@
         <v>105</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4501,7 +4495,7 @@
         <v>107</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4515,7 +4509,7 @@
         <v>109</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4523,13 +4517,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="29" customFormat="1" ht="35" customHeight="1">
@@ -4537,18 +4531,18 @@
         <v>0</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>297</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>111</v>
@@ -4557,15 +4551,15 @@
         <v>7</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>112</v>
@@ -4574,27 +4568,27 @@
         <v>8</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
       <c r="A32" s="16" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>113</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4602,13 +4596,13 @@
         <v>9</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>114</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4616,13 +4610,13 @@
         <v>9</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>115</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4636,7 +4630,7 @@
         <v>117</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4650,7 +4644,7 @@
         <v>119</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4658,7 +4652,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>120</v>
@@ -4669,7 +4663,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>121</v>
@@ -4680,13 +4674,13 @@
         <v>9</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>208</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4694,13 +4688,13 @@
         <v>9</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>122</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4714,7 +4708,7 @@
         <v>124</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4722,13 +4716,13 @@
         <v>9</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>89</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4736,13 +4730,13 @@
         <v>9</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>90</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4756,7 +4750,7 @@
         <v>298</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4764,13 +4758,13 @@
         <v>9</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>125</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4778,13 +4772,13 @@
         <v>9</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4792,13 +4786,13 @@
         <v>9</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4806,13 +4800,13 @@
         <v>9</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4820,13 +4814,13 @@
         <v>9</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -4834,13 +4828,13 @@
         <v>9</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4854,7 +4848,7 @@
         <v>15</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4862,13 +4856,13 @@
         <v>14</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>299</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4876,13 +4870,13 @@
         <v>14</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>127</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4896,10 +4890,10 @@
         <v>129</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4913,7 +4907,7 @@
         <v>131</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4921,13 +4915,13 @@
         <v>14</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4935,13 +4929,13 @@
         <v>14</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>132</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4949,13 +4943,13 @@
         <v>14</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -4963,13 +4957,13 @@
         <v>14</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>133</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4983,7 +4977,7 @@
         <v>135</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -4997,7 +4991,7 @@
         <v>137</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5011,7 +5005,7 @@
         <v>139</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5025,7 +5019,7 @@
         <v>141</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5033,13 +5027,13 @@
         <v>16</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>142</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5053,7 +5047,7 @@
         <v>144</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5067,7 +5061,7 @@
         <v>146</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5075,13 +5069,13 @@
         <v>16</v>
       </c>
       <c r="B67" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="C67" s="15" t="s">
         <v>532</v>
       </c>
-      <c r="C67" s="15" t="s">
-        <v>533</v>
-      </c>
       <c r="D67" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5089,13 +5083,13 @@
         <v>16</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5109,7 +5103,7 @@
         <v>148</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5117,13 +5111,13 @@
         <v>16</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>149</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5131,13 +5125,13 @@
         <v>16</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>150</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5145,13 +5139,13 @@
         <v>16</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>151</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5159,13 +5153,13 @@
         <v>16</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>152</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -5173,16 +5167,16 @@
         <v>16</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>153</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5196,7 +5190,7 @@
         <v>155</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5204,13 +5198,13 @@
         <v>17</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5218,13 +5212,13 @@
         <v>17</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -5232,97 +5226,97 @@
         <v>17</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C78" s="17" t="s">
         <v>156</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="5" customFormat="1" ht="35" customHeight="1">
       <c r="A79" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="5" customFormat="1" ht="35" customHeight="1">
       <c r="A80" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="81" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
       <c r="A81" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="B81" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="B81" s="15" t="s">
-        <v>539</v>
-      </c>
       <c r="C81" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="82" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
       <c r="A82" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
       <c r="A83" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
       <c r="A84" s="16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="85" spans="1:4" s="5" customFormat="1" ht="35" customHeight="1">
@@ -5330,13 +5324,13 @@
         <v>20</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>157</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="86" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5344,13 +5338,13 @@
         <v>20</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="87" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5358,13 +5352,13 @@
         <v>20</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>158</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="88" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
@@ -5372,13 +5366,13 @@
         <v>20</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C88" s="17" t="s">
         <v>159</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="89" spans="1:4" s="6" customFormat="1" ht="35" customHeight="1">
@@ -5392,7 +5386,7 @@
         <v>161</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5400,13 +5394,13 @@
         <v>23</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C90" s="15" t="s">
         <v>162</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1">
@@ -5414,13 +5408,13 @@
         <v>23</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C91" s="17" t="s">
         <v>163</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="92" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5428,13 +5422,13 @@
         <v>24</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C92" s="18" t="s">
         <v>164</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="93" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5442,13 +5436,13 @@
         <v>24</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C93" s="18" t="s">
         <v>165</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="94" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5456,13 +5450,13 @@
         <v>24</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C94" s="18" t="s">
         <v>166</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="95" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5470,13 +5464,13 @@
         <v>24</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="96" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5484,13 +5478,13 @@
         <v>24</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>290</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="97" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5498,13 +5492,13 @@
         <v>24</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C97" s="18" t="s">
         <v>167</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5512,13 +5506,13 @@
         <v>24</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C98" s="18" t="s">
         <v>168</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5532,7 +5526,7 @@
         <v>170</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5546,7 +5540,7 @@
         <v>172</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="101" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5554,13 +5548,13 @@
         <v>24</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C101" s="18" t="s">
         <v>176</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="102" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5568,13 +5562,13 @@
         <v>24</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="103" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5582,13 +5576,13 @@
         <v>24</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C103" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="104" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5596,13 +5590,13 @@
         <v>24</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C104" s="18" t="s">
         <v>178</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -5610,115 +5604,115 @@
         <v>24</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C105" s="21" t="s">
         <v>179</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="106" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A106" s="14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C106" s="18" t="s">
         <v>173</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="107" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A107" s="14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C107" s="18" t="s">
         <v>300</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="108" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A108" s="14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C108" s="18" t="s">
         <v>174</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="109" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A109" s="14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C109" s="18" t="s">
         <v>175</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="110" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A110" s="14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C110" s="18" t="s">
         <v>177</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="111" spans="1:5" s="29" customFormat="1" ht="35" customHeight="1">
       <c r="A111" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C111" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E111" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="112" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5726,13 +5720,13 @@
         <v>28</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C112" s="18" t="s">
         <v>301</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="113" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5740,13 +5734,13 @@
         <v>28</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C113" s="18" t="s">
         <v>302</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="114" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5754,13 +5748,13 @@
         <v>28</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C114" s="18" t="s">
         <v>180</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="115" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5768,13 +5762,13 @@
         <v>28</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C115" s="18" t="s">
         <v>181</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="116" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5782,13 +5776,13 @@
         <v>28</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C116" s="18" t="s">
         <v>182</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="117" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5796,13 +5790,13 @@
         <v>28</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C117" s="18" t="s">
         <v>183</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="118" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5810,13 +5804,13 @@
         <v>28</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C118" s="18" t="s">
         <v>184</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="119" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5824,13 +5818,13 @@
         <v>28</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C119" s="18" t="s">
         <v>185</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="120" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5838,13 +5832,13 @@
         <v>28</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C120" s="18" t="s">
         <v>186</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="121" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5852,13 +5846,13 @@
         <v>28</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C121" s="18" t="s">
         <v>303</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="122" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5866,13 +5860,13 @@
         <v>28</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="123" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5880,13 +5874,13 @@
         <v>28</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C123" s="18" t="s">
         <v>187</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="124" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5894,13 +5888,13 @@
         <v>28</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C124" s="18" t="s">
         <v>188</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="125" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5908,16 +5902,16 @@
         <v>28</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C125" s="18" t="s">
         <v>304</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="126" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5925,16 +5919,16 @@
         <v>28</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C126" s="18" t="s">
         <v>362</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="127" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5942,16 +5936,16 @@
         <v>28</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C127" s="18" t="s">
         <v>363</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="128" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5959,16 +5953,16 @@
         <v>28</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C128" s="18" t="s">
         <v>305</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="129" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5976,16 +5970,16 @@
         <v>28</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="130" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -5993,16 +5987,16 @@
         <v>28</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C130" s="18" t="s">
         <v>189</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="131" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6010,13 +6004,13 @@
         <v>28</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C131" s="18" t="s">
         <v>361</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="132" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6024,13 +6018,13 @@
         <v>28</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C132" s="18" t="s">
         <v>190</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="133" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6038,13 +6032,13 @@
         <v>28</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C133" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="134" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6052,13 +6046,13 @@
         <v>28</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C134" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="135" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6066,13 +6060,13 @@
         <v>28</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C135" s="15" t="s">
         <v>360</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="136" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6080,13 +6074,13 @@
         <v>28</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C136" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="137" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6094,13 +6088,13 @@
         <v>28</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C137" s="18" t="s">
         <v>191</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="138" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -6108,13 +6102,13 @@
         <v>28</v>
       </c>
       <c r="B138" s="21" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C138" s="21" t="s">
         <v>289</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="139" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6122,13 +6116,13 @@
         <v>32</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C139" s="18" t="s">
         <v>368</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="140" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6136,13 +6130,13 @@
         <v>32</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C140" s="18" t="s">
         <v>369</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="141" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6150,13 +6144,13 @@
         <v>32</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C141" s="18" t="s">
         <v>370</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="142" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6164,13 +6158,13 @@
         <v>32</v>
       </c>
       <c r="B142" s="18" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="143" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6178,13 +6172,13 @@
         <v>32</v>
       </c>
       <c r="B143" s="18" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C143" s="18" t="s">
         <v>373</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="144" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6192,13 +6186,13 @@
         <v>32</v>
       </c>
       <c r="B144" s="18" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C144" s="18" t="s">
         <v>383</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="145" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6206,13 +6200,13 @@
         <v>32</v>
       </c>
       <c r="B145" s="18" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="146" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6220,13 +6214,13 @@
         <v>32</v>
       </c>
       <c r="B146" s="18" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C146" s="18" t="s">
         <v>374</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="147" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6234,13 +6228,13 @@
         <v>32</v>
       </c>
       <c r="B147" s="24" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C147" s="18" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="148" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6248,13 +6242,13 @@
         <v>32</v>
       </c>
       <c r="B148" s="24" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C148" s="18" t="s">
         <v>376</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="149" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6262,13 +6256,13 @@
         <v>32</v>
       </c>
       <c r="B149" s="24" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C149" s="18" t="s">
         <v>377</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="150" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6276,13 +6270,13 @@
         <v>32</v>
       </c>
       <c r="B150" s="24" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C150" s="18" t="s">
         <v>379</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="151" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6290,13 +6284,13 @@
         <v>32</v>
       </c>
       <c r="B151" s="24" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C151" s="18" t="s">
         <v>380</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="152" spans="1:5" s="29" customFormat="1" ht="35" customHeight="1">
@@ -6310,29 +6304,29 @@
         <v>381</v>
       </c>
       <c r="D152" s="29" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="153" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A153" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="B153" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="C153" s="18" t="s">
         <v>563</v>
       </c>
-      <c r="B153" s="24" t="s">
-        <v>562</v>
-      </c>
-      <c r="C153" s="18" t="s">
-        <v>564</v>
-      </c>
       <c r="D153" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="154" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A154" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B154" s="10" t="s">
         <v>366</v>
@@ -6341,117 +6335,117 @@
         <v>382</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="155" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A155" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B155" s="24" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C155" s="18" t="s">
         <v>378</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="156" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A156" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B156" s="18" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C156" s="18" t="s">
         <v>373</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="157" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A157" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B157" s="18" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C157" s="18" t="s">
         <v>375</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="158" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A158" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B158" s="18" t="s">
         <v>367</v>
       </c>
       <c r="C158" s="15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="159" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A159" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B159" s="18" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C159" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="160" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A160" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B160" s="18" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C160" s="18" t="s">
         <v>373</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="161" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A161" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B161" s="18" t="s">
         <v>364</v>
@@ -6460,44 +6454,44 @@
         <v>371</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="162" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
       <c r="A162" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B162" s="18" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C162" s="18" t="s">
         <v>372</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="163" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
       <c r="A163" s="16" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B163" s="21" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C163" s="17" t="s">
         <v>384</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="164" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6505,13 +6499,13 @@
         <v>33</v>
       </c>
       <c r="B164" s="18" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C164" s="18" t="s">
         <v>192</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="165" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6519,13 +6513,13 @@
         <v>33</v>
       </c>
       <c r="B165" s="18" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C165" s="18" t="s">
         <v>193</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="166" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6533,13 +6527,13 @@
         <v>33</v>
       </c>
       <c r="B166" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C166" s="18" t="s">
         <v>194</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="167" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6547,13 +6541,13 @@
         <v>33</v>
       </c>
       <c r="B167" s="18" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C167" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="168" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6561,13 +6555,13 @@
         <v>33</v>
       </c>
       <c r="B168" s="18" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C168" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="169" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6575,13 +6569,13 @@
         <v>33</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C169" s="18" t="s">
         <v>195</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="170" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6589,13 +6583,13 @@
         <v>33</v>
       </c>
       <c r="B170" s="18" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C170" s="18" t="s">
         <v>196</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="171" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6603,13 +6597,13 @@
         <v>33</v>
       </c>
       <c r="B171" s="18" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C171" s="18" t="s">
         <v>197</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="172" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6617,13 +6611,13 @@
         <v>33</v>
       </c>
       <c r="B172" s="18" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C172" s="15" t="s">
         <v>34</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="173" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6631,13 +6625,13 @@
         <v>33</v>
       </c>
       <c r="B173" s="18" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C173" s="18" t="s">
         <v>198</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="174" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6645,13 +6639,13 @@
         <v>33</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C174" s="18" t="s">
         <v>199</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="175" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6659,13 +6653,13 @@
         <v>33</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C175" s="18" t="s">
         <v>200</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="176" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6673,13 +6667,13 @@
         <v>33</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C176" s="18" t="s">
         <v>201</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="177" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6687,13 +6681,13 @@
         <v>33</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C177" s="18" t="s">
         <v>202</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="178" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6701,13 +6695,13 @@
         <v>33</v>
       </c>
       <c r="B178" s="18" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C178" s="18" t="s">
         <v>203</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="179" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6715,13 +6709,13 @@
         <v>33</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C179" s="18" t="s">
         <v>204</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="180" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6729,13 +6723,13 @@
         <v>33</v>
       </c>
       <c r="B180" s="18" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C180" s="18" t="s">
         <v>205</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="181" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6743,13 +6737,13 @@
         <v>33</v>
       </c>
       <c r="B181" s="18" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C181" s="18" t="s">
         <v>306</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="182" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6757,13 +6751,13 @@
         <v>33</v>
       </c>
       <c r="B182" s="18" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C182" s="18" t="s">
         <v>206</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="183" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6771,13 +6765,13 @@
         <v>33</v>
       </c>
       <c r="B183" s="18" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C183" s="18" t="s">
         <v>207</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="184" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6785,13 +6779,13 @@
         <v>33</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C184" s="18" t="s">
         <v>209</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="185" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6799,13 +6793,13 @@
         <v>33</v>
       </c>
       <c r="B185" s="18" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C185" s="18" t="s">
         <v>210</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="186" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6813,13 +6807,13 @@
         <v>33</v>
       </c>
       <c r="B186" s="18" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C186" s="18" t="s">
         <v>41</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="187" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6827,13 +6821,13 @@
         <v>33</v>
       </c>
       <c r="B187" s="18" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C187" s="15" t="s">
         <v>35</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="188" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6841,13 +6835,13 @@
         <v>33</v>
       </c>
       <c r="B188" s="18" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C188" s="18" t="s">
         <v>211</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="189" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6855,13 +6849,13 @@
         <v>33</v>
       </c>
       <c r="B189" s="18" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C189" s="18" t="s">
         <v>212</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="190" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6869,13 +6863,13 @@
         <v>33</v>
       </c>
       <c r="B190" s="18" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C190" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="191" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6883,13 +6877,13 @@
         <v>33</v>
       </c>
       <c r="B191" s="18" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C191" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="192" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6897,13 +6891,13 @@
         <v>33</v>
       </c>
       <c r="B192" s="18" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C192" s="18" t="s">
         <v>213</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="193" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6911,13 +6905,13 @@
         <v>33</v>
       </c>
       <c r="B193" s="18" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C193" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="194" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6925,13 +6919,13 @@
         <v>33</v>
       </c>
       <c r="B194" s="18" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C194" s="18" t="s">
         <v>214</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="195" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6939,13 +6933,13 @@
         <v>33</v>
       </c>
       <c r="B195" s="18" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C195" s="18" t="s">
         <v>215</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="196" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6953,13 +6947,13 @@
         <v>33</v>
       </c>
       <c r="B196" s="18" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C196" s="15" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="197" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6967,13 +6961,13 @@
         <v>33</v>
       </c>
       <c r="B197" s="18" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="198" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6981,13 +6975,13 @@
         <v>33</v>
       </c>
       <c r="B198" s="18" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C198" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="199" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -6995,13 +6989,13 @@
         <v>33</v>
       </c>
       <c r="B199" s="18" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C199" s="18" t="s">
         <v>216</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="200" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7009,13 +7003,13 @@
         <v>33</v>
       </c>
       <c r="B200" s="18" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C200" s="18" t="s">
         <v>217</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="201" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7023,13 +7017,13 @@
         <v>33</v>
       </c>
       <c r="B201" s="18" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C201" s="18" t="s">
         <v>218</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="202" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7037,13 +7031,13 @@
         <v>33</v>
       </c>
       <c r="B202" s="18" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C202" s="18" t="s">
         <v>219</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="203" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7051,13 +7045,13 @@
         <v>33</v>
       </c>
       <c r="B203" s="18" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C203" s="18" t="s">
         <v>220</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="204" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7071,7 +7065,7 @@
         <v>222</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="205" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7085,7 +7079,7 @@
         <v>224</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="206" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7093,13 +7087,13 @@
         <v>33</v>
       </c>
       <c r="B206" s="18" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C206" s="18" t="s">
         <v>225</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="207" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7113,7 +7107,7 @@
         <v>227</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="208" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7121,13 +7115,13 @@
         <v>33</v>
       </c>
       <c r="B208" s="18" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C208" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="209" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7135,13 +7129,13 @@
         <v>33</v>
       </c>
       <c r="B209" s="18" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C209" s="18" t="s">
         <v>228</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="210" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7149,13 +7143,13 @@
         <v>33</v>
       </c>
       <c r="B210" s="18" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C210" s="18" t="s">
         <v>229</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="211" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7163,13 +7157,13 @@
         <v>33</v>
       </c>
       <c r="B211" s="18" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C211" s="18" t="s">
         <v>288</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="212" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7177,13 +7171,13 @@
         <v>33</v>
       </c>
       <c r="B212" s="18" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C212" s="18" t="s">
         <v>230</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="213" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7191,13 +7185,13 @@
         <v>33</v>
       </c>
       <c r="B213" s="18" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C213" s="18" t="s">
         <v>231</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="214" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7205,13 +7199,13 @@
         <v>33</v>
       </c>
       <c r="B214" s="18" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C214" s="15" t="s">
         <v>296</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="215" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7219,13 +7213,13 @@
         <v>33</v>
       </c>
       <c r="B215" s="18" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C215" s="15" t="s">
         <v>308</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="216" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7233,13 +7227,13 @@
         <v>33</v>
       </c>
       <c r="B216" s="18" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C216" s="15" t="s">
         <v>307</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="217" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7247,13 +7241,13 @@
         <v>33</v>
       </c>
       <c r="B217" s="18" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C217" s="15" t="s">
         <v>291</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="218" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7261,13 +7255,13 @@
         <v>33</v>
       </c>
       <c r="B218" s="18" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C218" s="15" t="s">
         <v>309</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="219" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7275,13 +7269,13 @@
         <v>33</v>
       </c>
       <c r="B219" s="18" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C219" s="15" t="s">
         <v>310</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="220" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7289,13 +7283,13 @@
         <v>33</v>
       </c>
       <c r="B220" s="18" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C220" s="15" t="s">
         <v>311</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="221" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7303,13 +7297,13 @@
         <v>33</v>
       </c>
       <c r="B221" s="18" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C221" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="222" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -7317,13 +7311,13 @@
         <v>33</v>
       </c>
       <c r="B222" s="21" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C222" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="223" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7331,16 +7325,16 @@
         <v>42</v>
       </c>
       <c r="B223" s="18" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C223" s="18" t="s">
         <v>232</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E223" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="224" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7348,16 +7342,16 @@
         <v>42</v>
       </c>
       <c r="B224" s="18" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C224" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="225" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7365,16 +7359,16 @@
         <v>42</v>
       </c>
       <c r="B225" s="18" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C225" s="18" t="s">
         <v>233</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="226" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7382,16 +7376,16 @@
         <v>42</v>
       </c>
       <c r="B226" s="18" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C226" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E226" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="227" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7399,16 +7393,16 @@
         <v>42</v>
       </c>
       <c r="B227" s="18" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C227" s="18" t="s">
         <v>234</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E227" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="228" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7416,16 +7410,16 @@
         <v>42</v>
       </c>
       <c r="B228" s="18" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C228" s="18" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E228" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="229" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7433,16 +7427,16 @@
         <v>42</v>
       </c>
       <c r="B229" s="18" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C229" s="18" t="s">
         <v>235</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="230" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7450,16 +7444,16 @@
         <v>42</v>
       </c>
       <c r="B230" s="18" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C230" s="18" t="s">
         <v>236</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="231" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7467,16 +7461,16 @@
         <v>42</v>
       </c>
       <c r="B231" s="18" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C231" s="18" t="s">
         <v>237</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E231" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="232" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7484,16 +7478,16 @@
         <v>42</v>
       </c>
       <c r="B232" s="18" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C232" s="18" t="s">
         <v>238</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E232" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="233" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7501,16 +7495,16 @@
         <v>42</v>
       </c>
       <c r="B233" s="18" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C233" s="18" t="s">
         <v>239</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="234" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7518,16 +7512,16 @@
         <v>42</v>
       </c>
       <c r="B234" s="18" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C234" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E234" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="235" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7535,16 +7529,16 @@
         <v>42</v>
       </c>
       <c r="B235" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C235" s="18" t="s">
         <v>240</v>
       </c>
       <c r="D235" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E235" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="236" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7552,16 +7546,16 @@
         <v>42</v>
       </c>
       <c r="B236" s="18" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C236" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D236" s="9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E236" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="237" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7569,16 +7563,16 @@
         <v>42</v>
       </c>
       <c r="B237" s="18" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C237" s="18" t="s">
         <v>241</v>
       </c>
       <c r="D237" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E237" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="238" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7586,16 +7580,16 @@
         <v>42</v>
       </c>
       <c r="B238" s="18" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C238" s="18" t="s">
         <v>237</v>
       </c>
       <c r="D238" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E238" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="239" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7603,16 +7597,16 @@
         <v>42</v>
       </c>
       <c r="B239" s="18" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C239" s="18" t="s">
         <v>45</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E239" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="240" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7620,16 +7614,16 @@
         <v>42</v>
       </c>
       <c r="B240" s="18" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C240" s="18" t="s">
         <v>242</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E240" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="241" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7637,16 +7631,16 @@
         <v>42</v>
       </c>
       <c r="B241" s="18" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C241" s="18" t="s">
         <v>243</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E241" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="242" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7654,16 +7648,16 @@
         <v>42</v>
       </c>
       <c r="B242" s="18" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C242" s="18" t="s">
         <v>244</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E242" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="243" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7671,16 +7665,16 @@
         <v>42</v>
       </c>
       <c r="B243" s="18" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C243" s="18" t="s">
         <v>245</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E243" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="244" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7688,16 +7682,16 @@
         <v>42</v>
       </c>
       <c r="B244" s="18" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C244" s="18" t="s">
         <v>246</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E244" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="245" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7705,16 +7699,16 @@
         <v>42</v>
       </c>
       <c r="B245" s="18" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C245" s="18" t="s">
         <v>46</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E245" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="246" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7722,16 +7716,16 @@
         <v>42</v>
       </c>
       <c r="B246" s="18" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C246" s="18" t="s">
         <v>247</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E246" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="247" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7739,16 +7733,16 @@
         <v>42</v>
       </c>
       <c r="B247" s="18" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C247" s="18" t="s">
         <v>248</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E247" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="248" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7756,16 +7750,16 @@
         <v>42</v>
       </c>
       <c r="B248" s="18" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C248" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D248" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E248" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="249" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7773,16 +7767,16 @@
         <v>42</v>
       </c>
       <c r="B249" s="18" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C249" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E249" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="250" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7790,16 +7784,16 @@
         <v>42</v>
       </c>
       <c r="B250" s="18" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C250" s="18" t="s">
         <v>312</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E250" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="251" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7807,16 +7801,16 @@
         <v>42</v>
       </c>
       <c r="B251" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C251" s="18" t="s">
         <v>313</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E251" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="252" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7824,16 +7818,16 @@
         <v>42</v>
       </c>
       <c r="B252" s="18" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C252" s="18" t="s">
         <v>314</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E252" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="253" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7841,16 +7835,16 @@
         <v>42</v>
       </c>
       <c r="B253" s="18" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C253" s="18" t="s">
         <v>315</v>
       </c>
       <c r="D253" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E253" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="254" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7858,16 +7852,16 @@
         <v>42</v>
       </c>
       <c r="B254" s="18" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C254" s="18" t="s">
         <v>318</v>
       </c>
       <c r="D254" s="9" t="s">
-        <v>681</v>
+        <v>601</v>
       </c>
       <c r="E254" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="255" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7875,16 +7869,16 @@
         <v>42</v>
       </c>
       <c r="B255" s="18" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C255" s="18" t="s">
         <v>319</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>681</v>
+        <v>601</v>
       </c>
       <c r="E255" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="256" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7892,16 +7886,16 @@
         <v>42</v>
       </c>
       <c r="B256" s="18" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C256" s="18" t="s">
         <v>320</v>
       </c>
       <c r="D256" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E256" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="257" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7909,16 +7903,16 @@
         <v>42</v>
       </c>
       <c r="B257" s="18" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C257" s="18" t="s">
         <v>321</v>
       </c>
       <c r="D257" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E257" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="258" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7926,16 +7920,16 @@
         <v>42</v>
       </c>
       <c r="B258" s="18" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C258" s="30" t="s">
         <v>324</v>
       </c>
       <c r="D258" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E258" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="259" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7943,16 +7937,16 @@
         <v>42</v>
       </c>
       <c r="B259" s="18" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C259" s="30" t="s">
         <v>325</v>
       </c>
       <c r="D259" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E259" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="260" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7960,16 +7954,16 @@
         <v>42</v>
       </c>
       <c r="B260" s="18" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C260" s="18" t="s">
         <v>326</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E260" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="261" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7977,16 +7971,16 @@
         <v>42</v>
       </c>
       <c r="B261" s="18" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C261" s="18" t="s">
         <v>327</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E261" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="262" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -7994,16 +7988,16 @@
         <v>42</v>
       </c>
       <c r="B262" s="18" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C262" s="18" t="s">
         <v>329</v>
       </c>
       <c r="D262" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E262" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="263" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8011,16 +8005,16 @@
         <v>42</v>
       </c>
       <c r="B263" s="18" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C263" s="18" t="s">
         <v>330</v>
       </c>
       <c r="D263" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E263" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="264" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8028,16 +8022,16 @@
         <v>42</v>
       </c>
       <c r="B264" s="18" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C264" s="18" t="s">
         <v>331</v>
       </c>
       <c r="D264" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E264" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="265" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8045,16 +8039,16 @@
         <v>42</v>
       </c>
       <c r="B265" s="18" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C265" s="18" t="s">
         <v>332</v>
       </c>
       <c r="D265" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E265" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="266" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8062,16 +8056,16 @@
         <v>42</v>
       </c>
       <c r="B266" s="18" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C266" s="18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D266" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E266" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="267" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8079,16 +8073,16 @@
         <v>42</v>
       </c>
       <c r="B267" s="18" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C267" s="18" t="s">
         <v>333</v>
       </c>
       <c r="D267" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E267" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="268" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8096,16 +8090,16 @@
         <v>42</v>
       </c>
       <c r="B268" s="18" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C268" s="18" t="s">
         <v>334</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E268" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="269" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8113,16 +8107,16 @@
         <v>42</v>
       </c>
       <c r="B269" s="18" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C269" s="18" t="s">
         <v>335</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E269" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="270" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8130,16 +8124,16 @@
         <v>42</v>
       </c>
       <c r="B270" s="18" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C270" s="30" t="s">
         <v>336</v>
       </c>
       <c r="D270" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E270" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="271" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8147,16 +8141,16 @@
         <v>42</v>
       </c>
       <c r="B271" s="18" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C271" s="30" t="s">
         <v>337</v>
       </c>
       <c r="D271" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E271" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="272" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8164,16 +8158,16 @@
         <v>42</v>
       </c>
       <c r="B272" s="18" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C272" s="30" t="s">
         <v>338</v>
       </c>
       <c r="D272" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E272" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="273" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8181,16 +8175,16 @@
         <v>42</v>
       </c>
       <c r="B273" s="18" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C273" s="30" t="s">
         <v>339</v>
       </c>
       <c r="D273" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E273" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="274" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8198,16 +8192,16 @@
         <v>42</v>
       </c>
       <c r="B274" s="18" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C274" s="30" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D274" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E274" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="275" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8215,16 +8209,16 @@
         <v>42</v>
       </c>
       <c r="B275" s="18" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C275" s="30" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D275" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E275" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="276" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8232,16 +8226,16 @@
         <v>42</v>
       </c>
       <c r="B276" s="18" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C276" s="30" t="s">
         <v>340</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E276" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="277" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8249,16 +8243,16 @@
         <v>42</v>
       </c>
       <c r="B277" s="18" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C277" s="30" t="s">
         <v>341</v>
       </c>
       <c r="D277" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E277" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="278" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8266,16 +8260,16 @@
         <v>42</v>
       </c>
       <c r="B278" s="18" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C278" s="30" t="s">
         <v>342</v>
       </c>
       <c r="D278" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E278" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="279" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8283,16 +8277,16 @@
         <v>42</v>
       </c>
       <c r="B279" s="18" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C279" s="30" t="s">
         <v>343</v>
       </c>
       <c r="D279" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E279" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="280" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8300,16 +8294,16 @@
         <v>42</v>
       </c>
       <c r="B280" s="18" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C280" s="30" t="s">
         <v>344</v>
       </c>
       <c r="D280" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E280" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="281" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8317,16 +8311,16 @@
         <v>42</v>
       </c>
       <c r="B281" s="18" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C281" s="30" t="s">
         <v>345</v>
       </c>
       <c r="D281" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E281" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="282" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8334,16 +8328,16 @@
         <v>42</v>
       </c>
       <c r="B282" s="18" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C282" s="30" t="s">
         <v>346</v>
       </c>
       <c r="D282" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E282" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="283" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8351,16 +8345,16 @@
         <v>42</v>
       </c>
       <c r="B283" s="18" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C283" s="30" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D283" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E283" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="284" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8368,16 +8362,16 @@
         <v>42</v>
       </c>
       <c r="B284" s="18" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C284" s="30" t="s">
         <v>347</v>
       </c>
       <c r="D284" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E284" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="285" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8385,16 +8379,16 @@
         <v>42</v>
       </c>
       <c r="B285" s="18" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C285" s="18" t="s">
         <v>249</v>
       </c>
       <c r="D285" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E285" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="286" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8402,16 +8396,16 @@
         <v>42</v>
       </c>
       <c r="B286" s="18" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C286" s="18" t="s">
         <v>250</v>
       </c>
       <c r="D286" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E286" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="287" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8419,16 +8413,16 @@
         <v>42</v>
       </c>
       <c r="B287" s="18" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C287" s="18" t="s">
         <v>49</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E287" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="288" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8436,16 +8430,16 @@
         <v>42</v>
       </c>
       <c r="B288" s="18" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C288" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D288" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E288" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="289" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8453,16 +8447,16 @@
         <v>42</v>
       </c>
       <c r="B289" s="18" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C289" s="18" t="s">
         <v>251</v>
       </c>
       <c r="D289" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E289" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="290" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -8470,16 +8464,16 @@
         <v>42</v>
       </c>
       <c r="B290" s="21" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C290" s="18" t="s">
         <v>252</v>
       </c>
       <c r="D290" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E290" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="291" spans="1:5" s="5" customFormat="1" ht="35" customHeight="1">
@@ -8487,16 +8481,16 @@
         <v>51</v>
       </c>
       <c r="B291" s="18" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C291" s="18" t="s">
         <v>253</v>
       </c>
       <c r="D291" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E291" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="292" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8504,16 +8498,16 @@
         <v>51</v>
       </c>
       <c r="B292" s="18" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C292" s="18" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D292" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E292" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="293" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8521,16 +8515,16 @@
         <v>51</v>
       </c>
       <c r="B293" s="18" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C293" s="18" t="s">
         <v>254</v>
       </c>
       <c r="D293" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E293" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="294" spans="1:5" s="5" customFormat="1" ht="35" customHeight="1">
@@ -8538,16 +8532,16 @@
         <v>51</v>
       </c>
       <c r="B294" s="18" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C294" s="18" t="s">
         <v>255</v>
       </c>
       <c r="D294" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E294" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="295" spans="1:5" s="5" customFormat="1" ht="35" customHeight="1">
@@ -8555,16 +8549,16 @@
         <v>51</v>
       </c>
       <c r="B295" s="18" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C295" s="18" t="s">
         <v>256</v>
       </c>
       <c r="D295" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E295" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="296" spans="1:5" s="5" customFormat="1" ht="35" customHeight="1">
@@ -8572,16 +8566,16 @@
         <v>51</v>
       </c>
       <c r="B296" s="18" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C296" s="18" t="s">
         <v>257</v>
       </c>
       <c r="D296" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E296" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="297" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8589,16 +8583,16 @@
         <v>51</v>
       </c>
       <c r="B297" s="18" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C297" s="18" t="s">
         <v>258</v>
       </c>
       <c r="D297" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E297" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="298" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -8606,16 +8600,16 @@
         <v>51</v>
       </c>
       <c r="B298" s="21" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C298" s="18" t="s">
         <v>259</v>
       </c>
       <c r="D298" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E298" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="299" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8623,16 +8617,16 @@
         <v>52</v>
       </c>
       <c r="B299" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C299" s="18" t="s">
         <v>260</v>
       </c>
       <c r="D299" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E299" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="300" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8640,16 +8634,16 @@
         <v>52</v>
       </c>
       <c r="B300" s="18" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C300" s="18" t="s">
         <v>261</v>
       </c>
       <c r="D300" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E300" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="301" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8657,16 +8651,16 @@
         <v>52</v>
       </c>
       <c r="B301" s="18" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C301" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D301" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E301" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="302" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8674,16 +8668,16 @@
         <v>52</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C302" s="18" t="s">
         <v>54</v>
       </c>
       <c r="D302" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E302" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="303" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -8691,16 +8685,16 @@
         <v>52</v>
       </c>
       <c r="B303" s="21" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C303" s="18" t="s">
         <v>262</v>
       </c>
       <c r="D303" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E303" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="304" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8708,16 +8702,16 @@
         <v>55</v>
       </c>
       <c r="B304" s="18" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C304" s="18" t="s">
         <v>263</v>
       </c>
       <c r="D304" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E304" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="305" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8725,16 +8719,16 @@
         <v>55</v>
       </c>
       <c r="B305" s="18" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C305" s="18" t="s">
         <v>264</v>
       </c>
       <c r="D305" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E305" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="306" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8742,16 +8736,16 @@
         <v>55</v>
       </c>
       <c r="B306" s="18" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C306" s="18" t="s">
         <v>265</v>
       </c>
       <c r="D306" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E306" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="307" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8759,16 +8753,16 @@
         <v>55</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C307" s="18" t="s">
         <v>316</v>
       </c>
       <c r="D307" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E307" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="308" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8776,16 +8770,16 @@
         <v>55</v>
       </c>
       <c r="B308" s="18" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C308" s="18" t="s">
         <v>266</v>
       </c>
       <c r="D308" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E308" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="309" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8793,16 +8787,16 @@
         <v>55</v>
       </c>
       <c r="B309" s="18" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C309" s="18" t="s">
         <v>267</v>
       </c>
       <c r="D309" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E309" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="310" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8810,16 +8804,16 @@
         <v>55</v>
       </c>
       <c r="B310" s="18" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C310" s="18" t="s">
         <v>268</v>
       </c>
       <c r="D310" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E310" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="311" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8827,16 +8821,16 @@
         <v>55</v>
       </c>
       <c r="B311" s="15" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C311" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D311" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E311" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="312" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8844,16 +8838,16 @@
         <v>55</v>
       </c>
       <c r="B312" s="15" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C312" s="15" t="s">
         <v>57</v>
       </c>
       <c r="D312" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E312" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="313" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8861,16 +8855,16 @@
         <v>55</v>
       </c>
       <c r="B313" s="15" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C313" s="15" t="s">
         <v>58</v>
       </c>
       <c r="D313" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E313" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="314" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -8884,10 +8878,10 @@
         <v>270</v>
       </c>
       <c r="D314" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E314" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="315" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -8895,16 +8889,16 @@
         <v>55</v>
       </c>
       <c r="B315" s="21" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C315" s="18" t="s">
         <v>271</v>
       </c>
       <c r="D315" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E315" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="316" spans="1:5" s="5" customFormat="1" ht="35" customHeight="1">
@@ -8912,16 +8906,16 @@
         <v>59</v>
       </c>
       <c r="B316" s="18" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C316" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D316" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E316" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="317" spans="1:5" s="5" customFormat="1" ht="35" customHeight="1">
@@ -8929,16 +8923,16 @@
         <v>59</v>
       </c>
       <c r="B317" s="18" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C317" s="15" t="s">
         <v>61</v>
       </c>
       <c r="D317" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E317" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="318" spans="1:5" s="5" customFormat="1" ht="35" customHeight="1">
@@ -8946,16 +8940,16 @@
         <v>59</v>
       </c>
       <c r="B318" s="18" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C318" s="15" t="s">
         <v>62</v>
       </c>
       <c r="D318" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E318" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="319" spans="1:5" s="5" customFormat="1" ht="35" customHeight="1">
@@ -8963,16 +8957,16 @@
         <v>59</v>
       </c>
       <c r="B319" s="18" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C319" s="15" t="s">
         <v>348</v>
       </c>
       <c r="D319" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E319" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="320" spans="1:5" s="5" customFormat="1" ht="35" customHeight="1">
@@ -8980,16 +8974,16 @@
         <v>59</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C320" s="15" t="s">
         <v>358</v>
       </c>
       <c r="D320" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E320" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="321" spans="1:5" s="5" customFormat="1" ht="35" customHeight="1">
@@ -8997,16 +8991,16 @@
         <v>59</v>
       </c>
       <c r="B321" s="15" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C321" s="15" t="s">
         <v>359</v>
       </c>
       <c r="D321" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E321" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="322" spans="1:5" s="5" customFormat="1" ht="35" customHeight="1">
@@ -9014,16 +9008,16 @@
         <v>59</v>
       </c>
       <c r="B322" s="15" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C322" s="15" t="s">
         <v>357</v>
       </c>
       <c r="D322" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E322" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="323" spans="1:5" s="5" customFormat="1" ht="35" customHeight="1">
@@ -9031,16 +9025,16 @@
         <v>59</v>
       </c>
       <c r="B323" s="18" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C323" s="15" t="s">
         <v>349</v>
       </c>
       <c r="D323" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E323" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="324" spans="1:5" s="5" customFormat="1" ht="35" customHeight="1">
@@ -9048,16 +9042,16 @@
         <v>59</v>
       </c>
       <c r="B324" s="18" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C324" s="15" t="s">
         <v>350</v>
       </c>
       <c r="D324" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E324" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="325" spans="1:5" s="5" customFormat="1" ht="35" customHeight="1">
@@ -9065,16 +9059,16 @@
         <v>59</v>
       </c>
       <c r="B325" s="18" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C325" s="15" t="s">
         <v>351</v>
       </c>
       <c r="D325" s="9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E325" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="326" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9082,16 +9076,16 @@
         <v>59</v>
       </c>
       <c r="B326" s="18" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C326" s="18" t="s">
         <v>272</v>
       </c>
       <c r="D326" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E326" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="327" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -9099,16 +9093,16 @@
         <v>59</v>
       </c>
       <c r="B327" s="21" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C327" s="18" t="s">
         <v>273</v>
       </c>
       <c r="D327" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E327" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="328" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9116,16 +9110,16 @@
         <v>63</v>
       </c>
       <c r="B328" s="18" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C328" s="18" t="s">
         <v>274</v>
       </c>
       <c r="D328" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E328" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="329" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9133,16 +9127,16 @@
         <v>63</v>
       </c>
       <c r="B329" s="18" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C329" s="18" t="s">
         <v>275</v>
       </c>
       <c r="D329" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E329" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="330" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9150,16 +9144,16 @@
         <v>63</v>
       </c>
       <c r="B330" s="18" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C330" s="18" t="s">
         <v>352</v>
       </c>
       <c r="D330" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E330" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="331" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9167,16 +9161,16 @@
         <v>63</v>
       </c>
       <c r="B331" s="18" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C331" s="18" t="s">
         <v>353</v>
       </c>
       <c r="D331" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E331" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="332" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9184,16 +9178,16 @@
         <v>63</v>
       </c>
       <c r="B332" s="18" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C332" s="18" t="s">
         <v>274</v>
       </c>
       <c r="D332" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E332" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="333" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9201,16 +9195,16 @@
         <v>63</v>
       </c>
       <c r="B333" s="18" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C333" s="18" t="s">
         <v>328</v>
       </c>
       <c r="D333" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E333" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="334" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9218,16 +9212,16 @@
         <v>63</v>
       </c>
       <c r="B334" s="18" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C334" s="18" t="s">
         <v>276</v>
       </c>
       <c r="D334" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E334" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="335" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9235,16 +9229,16 @@
         <v>63</v>
       </c>
       <c r="B335" s="18" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C335" s="18" t="s">
         <v>277</v>
       </c>
       <c r="D335" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E335" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="336" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9252,16 +9246,16 @@
         <v>63</v>
       </c>
       <c r="B336" s="18" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C336" s="18" t="s">
         <v>278</v>
       </c>
       <c r="D336" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E336" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="337" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9269,16 +9263,16 @@
         <v>63</v>
       </c>
       <c r="B337" s="18" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C337" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D337" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E337" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="338" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9286,16 +9280,16 @@
         <v>63</v>
       </c>
       <c r="B338" s="18" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C338" s="18" t="s">
         <v>64</v>
       </c>
       <c r="D338" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E338" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="339" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9303,16 +9297,16 @@
         <v>63</v>
       </c>
       <c r="B339" s="18" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C339" s="18" t="s">
         <v>279</v>
       </c>
       <c r="D339" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E339" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="340" spans="1:5" s="3" customFormat="1" ht="35" customHeight="1">
@@ -9320,16 +9314,16 @@
         <v>63</v>
       </c>
       <c r="B340" s="21" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C340" s="18" t="s">
         <v>280</v>
       </c>
       <c r="D340" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E340" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="341" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9337,16 +9331,16 @@
         <v>65</v>
       </c>
       <c r="B341" s="18" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C341" s="18" t="s">
         <v>281</v>
       </c>
       <c r="D341" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E341" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="342" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9354,16 +9348,16 @@
         <v>65</v>
       </c>
       <c r="B342" s="18" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C342" s="18" t="s">
         <v>282</v>
       </c>
       <c r="D342" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E342" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="343" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9371,16 +9365,16 @@
         <v>65</v>
       </c>
       <c r="B343" s="18" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C343" s="18" t="s">
         <v>356</v>
       </c>
       <c r="D343" s="9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E343" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="344" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9388,16 +9382,16 @@
         <v>65</v>
       </c>
       <c r="B344" s="18" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C344" s="18" t="s">
         <v>283</v>
       </c>
       <c r="D344" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E344" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="345" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9405,16 +9399,16 @@
         <v>65</v>
       </c>
       <c r="B345" s="18" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C345" s="18" t="s">
         <v>317</v>
       </c>
       <c r="D345" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E345" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="346" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9422,16 +9416,16 @@
         <v>65</v>
       </c>
       <c r="B346" s="18" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C346" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D346" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E346" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="347" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9439,16 +9433,16 @@
         <v>65</v>
       </c>
       <c r="B347" s="18" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C347" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D347" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E347" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="348" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9456,16 +9450,16 @@
         <v>65</v>
       </c>
       <c r="B348" s="18" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C348" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D348" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E348" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="349" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9473,16 +9467,16 @@
         <v>65</v>
       </c>
       <c r="B349" s="18" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C349" s="18" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D349" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E349" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="350" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9490,16 +9484,16 @@
         <v>65</v>
       </c>
       <c r="B350" s="18" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C350" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D350" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E350" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="351" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9507,16 +9501,16 @@
         <v>65</v>
       </c>
       <c r="B351" s="18" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C351" s="18" t="s">
         <v>292</v>
       </c>
       <c r="D351" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E351" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="352" spans="1:5" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9524,16 +9518,16 @@
         <v>65</v>
       </c>
       <c r="B352" s="18" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C352" s="18" t="s">
         <v>355</v>
       </c>
       <c r="D352" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E352" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="353" spans="1:1023" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9541,16 +9535,16 @@
         <v>65</v>
       </c>
       <c r="B353" s="18" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C353" s="18" t="s">
         <v>284</v>
       </c>
       <c r="D353" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E353" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="354" spans="1:1023" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9558,16 +9552,16 @@
         <v>65</v>
       </c>
       <c r="B354" s="18" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C354" s="18" t="s">
         <v>284</v>
       </c>
       <c r="D354" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E354" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="355" spans="1:1023" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9575,16 +9569,16 @@
         <v>65</v>
       </c>
       <c r="B355" s="18" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C355" s="18" t="s">
         <v>322</v>
       </c>
       <c r="D355" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E355" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="356" spans="1:1023" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9592,16 +9586,16 @@
         <v>65</v>
       </c>
       <c r="B356" s="18" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C356" s="18" t="s">
         <v>323</v>
       </c>
       <c r="D356" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E356" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="357" spans="1:1023" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9609,16 +9603,16 @@
         <v>65</v>
       </c>
       <c r="B357" s="18" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C357" s="18" t="s">
         <v>354</v>
       </c>
       <c r="D357" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E357" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="358" spans="1:1023" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9626,16 +9620,16 @@
         <v>65</v>
       </c>
       <c r="B358" s="18" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C358" s="18" t="s">
         <v>285</v>
       </c>
       <c r="D358" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E358" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="359" spans="1:1023" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9643,16 +9637,16 @@
         <v>65</v>
       </c>
       <c r="B359" s="18" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C359" s="18" t="s">
         <v>67</v>
       </c>
       <c r="D359" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E359" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="360" spans="1:1023" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9660,16 +9654,16 @@
         <v>65</v>
       </c>
       <c r="B360" s="18" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C360" s="18" t="s">
         <v>286</v>
       </c>
       <c r="D360" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E360" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="361" spans="1:1023" s="9" customFormat="1" ht="35" customHeight="1">
@@ -9677,16 +9671,16 @@
         <v>65</v>
       </c>
       <c r="B361" s="18" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C361" s="18" t="s">
         <v>287</v>
       </c>
       <c r="D361" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E361" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="362" spans="1:1023" s="7" customFormat="1" ht="35" customHeight="1">
@@ -9694,16 +9688,16 @@
         <v>65</v>
       </c>
       <c r="B362" s="21" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C362" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D362" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E362" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="363" spans="1:1023" ht="35" customHeight="1">
@@ -9711,13 +9705,13 @@
         <v>69</v>
       </c>
       <c r="B363" s="15" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C363" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D363" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="364" spans="1:1023" ht="35" customHeight="1">
@@ -9725,13 +9719,13 @@
         <v>69</v>
       </c>
       <c r="B364" s="15" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C364" s="15" t="s">
         <v>71</v>
       </c>
       <c r="D364" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="365" spans="1:1023" ht="35" customHeight="1">
@@ -9739,13 +9733,13 @@
         <v>69</v>
       </c>
       <c r="B365" s="15" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C365" s="15" t="s">
         <v>385</v>
       </c>
       <c r="D365" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="366" spans="1:1023" ht="35" customHeight="1">
@@ -9753,13 +9747,13 @@
         <v>69</v>
       </c>
       <c r="B366" s="15" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C366" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D366" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="367" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
@@ -9767,13 +9761,13 @@
         <v>69</v>
       </c>
       <c r="B367" s="17" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C367" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D367" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E367" s="3"/>
       <c r="F367" s="3"/>
@@ -10800,16 +10794,16 @@
         <v>74</v>
       </c>
       <c r="B368" s="15" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C368" s="15" t="s">
         <v>386</v>
       </c>
       <c r="D368" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="35" customHeight="1">
@@ -10817,16 +10811,16 @@
         <v>74</v>
       </c>
       <c r="B369" s="15" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C369" s="15" t="s">
         <v>387</v>
       </c>
       <c r="D369" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="370" spans="1:5" ht="35" customHeight="1">
@@ -10834,16 +10828,16 @@
         <v>74</v>
       </c>
       <c r="B370" s="15" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C370" s="15" t="s">
         <v>388</v>
       </c>
       <c r="D370" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="371" spans="1:5" ht="35" customHeight="1">
@@ -10851,13 +10845,13 @@
         <v>74</v>
       </c>
       <c r="B371" s="15" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C371" s="15" t="s">
         <v>389</v>
       </c>
       <c r="D371" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="372" spans="1:5" ht="35" customHeight="1">
@@ -10865,13 +10859,13 @@
         <v>74</v>
       </c>
       <c r="B372" s="15" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C372" s="15" t="s">
         <v>390</v>
       </c>
       <c r="D372" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="35" customHeight="1">
@@ -10879,13 +10873,13 @@
         <v>74</v>
       </c>
       <c r="B373" s="15" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C373" s="15" t="s">
         <v>391</v>
       </c>
       <c r="D373" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="374" spans="1:5" ht="35" customHeight="1">
@@ -10893,13 +10887,13 @@
         <v>74</v>
       </c>
       <c r="B374" s="15" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C374" s="15" t="s">
         <v>392</v>
       </c>
       <c r="D374" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="375" spans="1:5" ht="35" customHeight="1">
@@ -10907,13 +10901,13 @@
         <v>74</v>
       </c>
       <c r="B375" s="15" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C375" s="15" t="s">
         <v>393</v>
       </c>
       <c r="D375" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="376" spans="1:5" ht="35" customHeight="1">
@@ -10921,13 +10915,13 @@
         <v>74</v>
       </c>
       <c r="B376" s="15" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C376" s="15" t="s">
         <v>394</v>
       </c>
       <c r="D376" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="35" customHeight="1">
@@ -10935,13 +10929,13 @@
         <v>74</v>
       </c>
       <c r="B377" s="15" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C377" s="15" t="s">
         <v>395</v>
       </c>
       <c r="D377" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="378" spans="1:5" ht="35" customHeight="1">
@@ -10949,13 +10943,13 @@
         <v>74</v>
       </c>
       <c r="B378" s="15" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C378" s="15" t="s">
         <v>396</v>
       </c>
       <c r="D378" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="35" customHeight="1">
@@ -10963,13 +10957,13 @@
         <v>74</v>
       </c>
       <c r="B379" s="15" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C379" s="15" t="s">
         <v>397</v>
       </c>
       <c r="D379" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="380" spans="1:5" ht="35" customHeight="1">
@@ -10977,16 +10971,16 @@
         <v>74</v>
       </c>
       <c r="B380" s="15" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C380" s="15" t="s">
         <v>398</v>
       </c>
       <c r="D380" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="381" spans="1:5" ht="35" customHeight="1">
@@ -10994,13 +10988,13 @@
         <v>74</v>
       </c>
       <c r="B381" s="15" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C381" s="15" t="s">
         <v>399</v>
       </c>
       <c r="D381" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="35" customHeight="1">
@@ -11008,13 +11002,13 @@
         <v>74</v>
       </c>
       <c r="B382" s="15" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C382" s="15" t="s">
         <v>400</v>
       </c>
       <c r="D382" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="35" customHeight="1">
@@ -11022,16 +11016,16 @@
         <v>74</v>
       </c>
       <c r="B383" s="15" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C383" s="15" t="s">
         <v>401</v>
       </c>
       <c r="D383" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="384" spans="1:5" ht="35" customHeight="1">
@@ -11039,16 +11033,16 @@
         <v>74</v>
       </c>
       <c r="B384" s="15" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C384" s="15" t="s">
         <v>402</v>
       </c>
       <c r="D384" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="385" spans="1:5" ht="35" customHeight="1">
@@ -11056,16 +11050,16 @@
         <v>74</v>
       </c>
       <c r="B385" s="15" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C385" s="15" t="s">
         <v>403</v>
       </c>
       <c r="D385" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="386" spans="1:5" ht="35" customHeight="1">
@@ -11073,16 +11067,16 @@
         <v>74</v>
       </c>
       <c r="B386" s="15" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C386" s="15" t="s">
         <v>404</v>
       </c>
       <c r="D386" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="35" customHeight="1">
@@ -11090,13 +11084,13 @@
         <v>74</v>
       </c>
       <c r="B387" s="15" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C387" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D387" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="388" spans="1:5" ht="35" customHeight="1">
@@ -11104,13 +11098,13 @@
         <v>74</v>
       </c>
       <c r="B388" s="15" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C388" s="15" t="s">
         <v>405</v>
       </c>
       <c r="D388" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="389" spans="1:5" ht="35" customHeight="1">
@@ -11118,13 +11112,13 @@
         <v>74</v>
       </c>
       <c r="B389" s="15" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C389" s="15" t="s">
         <v>406</v>
       </c>
       <c r="D389" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="390" spans="1:5" ht="35" customHeight="1">
@@ -11132,13 +11126,13 @@
         <v>74</v>
       </c>
       <c r="B390" s="15" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C390" s="15" t="s">
         <v>407</v>
       </c>
       <c r="D390" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="391" spans="1:5" ht="35" customHeight="1">
@@ -11146,13 +11140,13 @@
         <v>74</v>
       </c>
       <c r="B391" s="15" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C391" s="15" t="s">
         <v>408</v>
       </c>
       <c r="D391" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="392" spans="1:5" ht="35" customHeight="1">
@@ -11160,13 +11154,13 @@
         <v>74</v>
       </c>
       <c r="B392" s="15" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C392" s="15" t="s">
         <v>409</v>
       </c>
       <c r="D392" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="393" spans="1:5" ht="35" customHeight="1">
@@ -11174,13 +11168,13 @@
         <v>74</v>
       </c>
       <c r="B393" s="15" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C393" s="15" t="s">
         <v>410</v>
       </c>
       <c r="D393" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="394" spans="1:5" ht="35" customHeight="1">
@@ -11188,13 +11182,13 @@
         <v>74</v>
       </c>
       <c r="B394" s="15" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C394" s="15" t="s">
         <v>411</v>
       </c>
       <c r="D394" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="395" spans="1:5" ht="35" customHeight="1">
@@ -11202,16 +11196,16 @@
         <v>74</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C395" s="15" t="s">
         <v>412</v>
       </c>
       <c r="D395" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="396" spans="1:5" ht="35" customHeight="1">
@@ -11219,13 +11213,13 @@
         <v>74</v>
       </c>
       <c r="B396" s="15" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C396" s="15" t="s">
         <v>413</v>
       </c>
       <c r="D396" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="397" spans="1:5" ht="35" customHeight="1">
@@ -11233,13 +11227,13 @@
         <v>74</v>
       </c>
       <c r="B397" s="15" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C397" s="15" t="s">
         <v>414</v>
       </c>
       <c r="D397" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="398" spans="1:5" ht="35" customHeight="1">
@@ -11247,13 +11241,13 @@
         <v>74</v>
       </c>
       <c r="B398" s="15" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C398" s="15" t="s">
         <v>415</v>
       </c>
       <c r="D398" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="399" spans="1:5" ht="35" customHeight="1">
@@ -11261,13 +11255,13 @@
         <v>74</v>
       </c>
       <c r="B399" s="15" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C399" s="15" t="s">
         <v>415</v>
       </c>
       <c r="D399" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="400" spans="1:5" ht="35" customHeight="1">
@@ -11275,13 +11269,13 @@
         <v>74</v>
       </c>
       <c r="B400" s="15" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C400" s="15" t="s">
         <v>416</v>
       </c>
       <c r="D400" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="401" spans="1:1023" ht="35" customHeight="1">
@@ -11289,13 +11283,13 @@
         <v>74</v>
       </c>
       <c r="B401" s="15" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C401" s="15" t="s">
         <v>417</v>
       </c>
       <c r="D401" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="402" spans="1:1023" ht="35" customHeight="1">
@@ -11303,13 +11297,13 @@
         <v>74</v>
       </c>
       <c r="B402" s="15" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C402" s="15" t="s">
         <v>418</v>
       </c>
       <c r="D402" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="403" spans="1:1023" ht="35" customHeight="1">
@@ -11317,13 +11311,13 @@
         <v>74</v>
       </c>
       <c r="B403" s="15" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C403" s="15" t="s">
         <v>419</v>
       </c>
       <c r="D403" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="404" spans="1:1023" ht="35" customHeight="1">
@@ -11331,13 +11325,13 @@
         <v>74</v>
       </c>
       <c r="B404" s="15" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C404" s="15" t="s">
         <v>420</v>
       </c>
       <c r="D404" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="405" spans="1:1023" ht="35" customHeight="1">
@@ -11345,13 +11339,13 @@
         <v>74</v>
       </c>
       <c r="B405" s="15" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C405" s="15" t="s">
         <v>421</v>
       </c>
       <c r="D405" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="406" spans="1:1023" ht="35" customHeight="1">
@@ -11359,13 +11353,13 @@
         <v>74</v>
       </c>
       <c r="B406" s="15" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C406" s="15" t="s">
         <v>421</v>
       </c>
       <c r="D406" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="407" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
@@ -11373,13 +11367,13 @@
         <v>74</v>
       </c>
       <c r="B407" s="17" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C407" s="17" t="s">
         <v>422</v>
       </c>
       <c r="D407" s="29" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E407" s="3"/>
       <c r="F407" s="3"/>
@@ -12406,13 +12400,13 @@
         <v>75</v>
       </c>
       <c r="B408" s="15" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C408" s="15" t="s">
         <v>425</v>
       </c>
       <c r="D408" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="409" spans="1:1023" ht="35" customHeight="1">
@@ -12420,13 +12414,13 @@
         <v>75</v>
       </c>
       <c r="B409" s="15" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C409" s="15" t="s">
         <v>426</v>
       </c>
       <c r="D409" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="410" spans="1:1023" ht="35" customHeight="1">
@@ -12434,13 +12428,13 @@
         <v>75</v>
       </c>
       <c r="B410" s="15" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C410" s="15" t="s">
         <v>427</v>
       </c>
       <c r="D410" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="411" spans="1:1023" ht="35" customHeight="1">
@@ -12448,13 +12442,13 @@
         <v>75</v>
       </c>
       <c r="B411" s="15" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C411" s="15" t="s">
         <v>428</v>
       </c>
       <c r="D411" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="412" spans="1:1023" ht="35" customHeight="1">
@@ -12462,13 +12456,13 @@
         <v>75</v>
       </c>
       <c r="B412" s="15" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C412" s="15" t="s">
         <v>429</v>
       </c>
       <c r="D412" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="413" spans="1:1023" ht="35" customHeight="1">
@@ -12476,13 +12470,13 @@
         <v>75</v>
       </c>
       <c r="B413" s="15" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C413" s="15" t="s">
         <v>430</v>
       </c>
       <c r="D413" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="414" spans="1:1023" ht="35" customHeight="1">
@@ -12490,13 +12484,13 @@
         <v>75</v>
       </c>
       <c r="B414" s="15" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C414" s="15" t="s">
         <v>431</v>
       </c>
       <c r="D414" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="415" spans="1:1023" ht="35" customHeight="1">
@@ -12510,7 +12504,7 @@
         <v>432</v>
       </c>
       <c r="D415" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="416" spans="1:1023" ht="35" customHeight="1">
@@ -12518,13 +12512,13 @@
         <v>75</v>
       </c>
       <c r="B416" s="15" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C416" s="15" t="s">
         <v>433</v>
       </c>
       <c r="D416" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="417" spans="1:1023" ht="35" customHeight="1">
@@ -12532,13 +12526,13 @@
         <v>75</v>
       </c>
       <c r="B417" s="15" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C417" s="15" t="s">
         <v>434</v>
       </c>
       <c r="D417" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="418" spans="1:1023" ht="35" customHeight="1">
@@ -12546,13 +12540,13 @@
         <v>75</v>
       </c>
       <c r="B418" s="15" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C418" s="15" t="s">
         <v>435</v>
       </c>
       <c r="D418" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="419" spans="1:1023" ht="35" customHeight="1">
@@ -12560,13 +12554,13 @@
         <v>75</v>
       </c>
       <c r="B419" s="15" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C419" s="15" t="s">
         <v>436</v>
       </c>
       <c r="D419" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="420" spans="1:1023" ht="35" customHeight="1">
@@ -12574,13 +12568,13 @@
         <v>75</v>
       </c>
       <c r="B420" s="15" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C420" s="15" t="s">
         <v>437</v>
       </c>
       <c r="D420" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="421" spans="1:1023" ht="35" customHeight="1">
@@ -12588,13 +12582,13 @@
         <v>75</v>
       </c>
       <c r="B421" s="15" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C421" s="15" t="s">
         <v>438</v>
       </c>
       <c r="D421" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="422" spans="1:1023" ht="35" customHeight="1">
@@ -12602,13 +12596,13 @@
         <v>75</v>
       </c>
       <c r="B422" s="15" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C422" s="15" t="s">
         <v>439</v>
       </c>
       <c r="D422" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="423" spans="1:1023" ht="35" customHeight="1">
@@ -12616,13 +12610,13 @@
         <v>75</v>
       </c>
       <c r="B423" s="15" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C423" s="15" t="s">
         <v>440</v>
       </c>
       <c r="D423" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="424" spans="1:1023" ht="35" customHeight="1">
@@ -12636,7 +12630,7 @@
         <v>441</v>
       </c>
       <c r="D424" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="425" spans="1:1023" ht="35" customHeight="1">
@@ -12644,13 +12638,13 @@
         <v>75</v>
       </c>
       <c r="B425" s="15" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C425" s="15" t="s">
         <v>442</v>
       </c>
       <c r="D425" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="426" spans="1:1023" ht="35" customHeight="1">
@@ -12658,13 +12652,13 @@
         <v>75</v>
       </c>
       <c r="B426" s="15" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C426" s="15" t="s">
         <v>443</v>
       </c>
       <c r="D426" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="427" spans="1:1023" ht="35" customHeight="1">
@@ -12672,13 +12666,13 @@
         <v>75</v>
       </c>
       <c r="B427" s="15" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C427" s="15" t="s">
         <v>444</v>
       </c>
       <c r="D427" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="428" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
@@ -12686,13 +12680,13 @@
         <v>75</v>
       </c>
       <c r="B428" s="17" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C428" s="17" t="s">
         <v>76</v>
       </c>
       <c r="D428" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E428" s="3"/>
       <c r="F428" s="3"/>
@@ -13719,13 +13713,13 @@
         <v>77</v>
       </c>
       <c r="B429" s="15" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C429" s="15" t="s">
         <v>446</v>
       </c>
       <c r="D429" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="430" spans="1:1023" ht="35" customHeight="1">
@@ -13733,13 +13727,13 @@
         <v>77</v>
       </c>
       <c r="B430" s="15" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C430" s="15" t="s">
         <v>447</v>
       </c>
       <c r="D430" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="431" spans="1:1023" ht="35" customHeight="1">
@@ -13747,13 +13741,13 @@
         <v>77</v>
       </c>
       <c r="B431" s="15" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C431" s="15" t="s">
         <v>448</v>
       </c>
       <c r="D431" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="432" spans="1:1023" ht="35" customHeight="1">
@@ -13761,13 +13755,13 @@
         <v>77</v>
       </c>
       <c r="B432" s="15" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C432" s="15" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D432" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="433" spans="1:5" ht="35" customHeight="1">
@@ -13775,13 +13769,13 @@
         <v>77</v>
       </c>
       <c r="B433" s="15" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C433" s="15" t="s">
         <v>449</v>
       </c>
       <c r="D433" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="434" spans="1:5" ht="35" customHeight="1">
@@ -13789,16 +13783,16 @@
         <v>77</v>
       </c>
       <c r="B434" s="15" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C434" s="15" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D434" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="435" spans="1:5" ht="35" customHeight="1">
@@ -13806,13 +13800,13 @@
         <v>77</v>
       </c>
       <c r="B435" s="15" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C435" s="15" t="s">
         <v>450</v>
       </c>
       <c r="D435" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="436" spans="1:5" ht="35" customHeight="1">
@@ -13820,13 +13814,13 @@
         <v>77</v>
       </c>
       <c r="B436" s="15" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C436" s="15" t="s">
         <v>451</v>
       </c>
       <c r="D436" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="437" spans="1:5" ht="35" customHeight="1">
@@ -13834,13 +13828,13 @@
         <v>77</v>
       </c>
       <c r="B437" s="15" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C437" s="15" t="s">
         <v>452</v>
       </c>
       <c r="D437" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="438" spans="1:5" ht="35" customHeight="1">
@@ -13848,13 +13842,13 @@
         <v>77</v>
       </c>
       <c r="B438" s="15" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C438" s="15" t="s">
         <v>453</v>
       </c>
       <c r="D438" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="439" spans="1:5" ht="35" customHeight="1">
@@ -13862,13 +13856,13 @@
         <v>77</v>
       </c>
       <c r="B439" s="15" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C439" s="15" t="s">
         <v>454</v>
       </c>
       <c r="D439" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="440" spans="1:5" ht="35" customHeight="1">
@@ -13876,13 +13870,13 @@
         <v>77</v>
       </c>
       <c r="B440" s="15" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C440" s="15" t="s">
         <v>455</v>
       </c>
       <c r="D440" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="441" spans="1:5" ht="35" customHeight="1">
@@ -13890,13 +13884,13 @@
         <v>77</v>
       </c>
       <c r="B441" s="15" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C441" s="15" t="s">
         <v>456</v>
       </c>
       <c r="D441" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="442" spans="1:5" ht="35" customHeight="1">
@@ -13904,13 +13898,13 @@
         <v>77</v>
       </c>
       <c r="B442" s="15" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C442" s="15" t="s">
         <v>457</v>
       </c>
       <c r="D442" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="443" spans="1:5" ht="35" customHeight="1">
@@ -13918,13 +13912,13 @@
         <v>77</v>
       </c>
       <c r="B443" s="15" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C443" s="15" t="s">
         <v>458</v>
       </c>
       <c r="D443" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="444" spans="1:5" ht="35" customHeight="1">
@@ -13932,13 +13926,13 @@
         <v>77</v>
       </c>
       <c r="B444" s="15" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C444" s="15" t="s">
         <v>459</v>
       </c>
       <c r="D444" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="445" spans="1:5" ht="35" customHeight="1">
@@ -13946,13 +13940,13 @@
         <v>77</v>
       </c>
       <c r="B445" s="15" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C445" s="15" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D445" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="446" spans="1:5" ht="35" customHeight="1">
@@ -13960,13 +13954,13 @@
         <v>77</v>
       </c>
       <c r="B446" s="15" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C446" s="15" t="s">
         <v>460</v>
       </c>
       <c r="D446" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="447" spans="1:5" ht="35" customHeight="1">
@@ -13974,13 +13968,13 @@
         <v>77</v>
       </c>
       <c r="B447" s="15" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C447" s="15" t="s">
         <v>462</v>
       </c>
       <c r="D447" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="448" spans="1:5" ht="35" customHeight="1">
@@ -13988,13 +13982,13 @@
         <v>77</v>
       </c>
       <c r="B448" s="18" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C448" s="15" t="s">
         <v>463</v>
       </c>
       <c r="D448" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="449" spans="1:1023" ht="35" customHeight="1">
@@ -14002,13 +13996,13 @@
         <v>77</v>
       </c>
       <c r="B449" s="18" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C449" s="18" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D449" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="450" spans="1:1023" ht="35" customHeight="1">
@@ -14016,13 +14010,13 @@
         <v>77</v>
       </c>
       <c r="B450" s="18" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C450" s="15" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D450" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="451" spans="1:1023" ht="35" customHeight="1">
@@ -14030,13 +14024,13 @@
         <v>77</v>
       </c>
       <c r="B451" s="18" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C451" s="15" t="s">
         <v>464</v>
       </c>
       <c r="D451" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="452" spans="1:1023" ht="35" customHeight="1">
@@ -14044,13 +14038,13 @@
         <v>77</v>
       </c>
       <c r="B452" s="15" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C452" s="15" t="s">
         <v>465</v>
       </c>
       <c r="D452" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="453" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
@@ -14058,13 +14052,13 @@
         <v>77</v>
       </c>
       <c r="B453" s="17" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C453" s="17" t="s">
         <v>466</v>
       </c>
       <c r="D453" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E453" s="3"/>
       <c r="F453" s="3"/>
@@ -15091,16 +15085,16 @@
         <v>78</v>
       </c>
       <c r="B454" s="18" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C454" s="18" t="s">
         <v>467</v>
       </c>
       <c r="D454" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="455" spans="1:1023" ht="35" customHeight="1">
@@ -15108,16 +15102,16 @@
         <v>78</v>
       </c>
       <c r="B455" s="15" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C455" s="15" t="s">
         <v>461</v>
       </c>
       <c r="D455" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E455" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="456" spans="1:1023" ht="35" customHeight="1">
@@ -15125,16 +15119,16 @@
         <v>78</v>
       </c>
       <c r="B456" s="18" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C456" s="18" t="s">
         <v>468</v>
       </c>
       <c r="D456" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E456" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="457" spans="1:1023" ht="35" customHeight="1">
@@ -15142,16 +15136,16 @@
         <v>78</v>
       </c>
       <c r="B457" s="18" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C457" s="18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D457" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E457" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="458" spans="1:1023" ht="35" customHeight="1">
@@ -15159,16 +15153,16 @@
         <v>78</v>
       </c>
       <c r="B458" s="18" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C458" s="18" t="s">
         <v>469</v>
       </c>
       <c r="D458" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E458" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="459" spans="1:1023" ht="35" customHeight="1">
@@ -15176,16 +15170,16 @@
         <v>78</v>
       </c>
       <c r="B459" s="18" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C459" s="18" t="s">
         <v>470</v>
       </c>
       <c r="D459" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E459" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="460" spans="1:1023" ht="35" customHeight="1">
@@ -15193,16 +15187,16 @@
         <v>78</v>
       </c>
       <c r="B460" s="18" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C460" s="15" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D460" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E460" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="461" spans="1:1023" ht="35" customHeight="1">
@@ -15210,16 +15204,16 @@
         <v>78</v>
       </c>
       <c r="B461" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="C461" s="15" t="s">
         <v>471</v>
       </c>
       <c r="D461" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E461" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="462" spans="1:1023" ht="35" customHeight="1">
@@ -15227,16 +15221,16 @@
         <v>78</v>
       </c>
       <c r="B462" s="18" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C462" s="18" t="s">
         <v>472</v>
       </c>
       <c r="D462" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E462" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="463" spans="1:1023" ht="35" customHeight="1">
@@ -15244,16 +15238,16 @@
         <v>78</v>
       </c>
       <c r="B463" s="18" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C463" s="18" t="s">
         <v>472</v>
       </c>
       <c r="D463" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E463" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="464" spans="1:1023" ht="35" customHeight="1">
@@ -15261,16 +15255,16 @@
         <v>78</v>
       </c>
       <c r="B464" s="18" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C464" s="18" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D464" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E464" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="465" spans="1:1023" ht="35" customHeight="1">
@@ -15278,16 +15272,16 @@
         <v>78</v>
       </c>
       <c r="B465" s="18" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C465" s="15" t="s">
         <v>473</v>
       </c>
       <c r="D465" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E465" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="466" spans="1:1023" ht="35" customHeight="1">
@@ -15295,16 +15289,16 @@
         <v>78</v>
       </c>
       <c r="B466" s="18" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C466" s="18" t="s">
         <v>474</v>
       </c>
       <c r="D466" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E466" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="467" spans="1:1023" ht="35" customHeight="1">
@@ -15312,16 +15306,16 @@
         <v>78</v>
       </c>
       <c r="B467" s="18" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C467" s="18" t="s">
         <v>475</v>
       </c>
       <c r="D467" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E467" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="468" spans="1:1023" ht="35" customHeight="1">
@@ -15329,16 +15323,16 @@
         <v>78</v>
       </c>
       <c r="B468" s="18" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C468" s="18" t="s">
         <v>476</v>
       </c>
       <c r="D468" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E468" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="469" spans="1:1023" ht="35" customHeight="1">
@@ -15346,16 +15340,16 @@
         <v>78</v>
       </c>
       <c r="B469" s="18" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C469" s="18" t="s">
         <v>476</v>
       </c>
       <c r="D469" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E469" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="470" spans="1:1023" ht="35" customHeight="1">
@@ -15363,16 +15357,16 @@
         <v>78</v>
       </c>
       <c r="B470" s="18" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C470" s="18" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D470" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="471" spans="1:1023" ht="35" customHeight="1">
@@ -15380,16 +15374,16 @@
         <v>78</v>
       </c>
       <c r="B471" s="18" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C471" s="18" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D471" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E471" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="472" spans="1:1023" ht="35" customHeight="1">
@@ -15397,16 +15391,16 @@
         <v>78</v>
       </c>
       <c r="B472" s="18" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C472" s="18" t="s">
         <v>477</v>
       </c>
       <c r="D472" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E472" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="473" spans="1:1023" ht="35" customHeight="1">
@@ -15414,16 +15408,16 @@
         <v>78</v>
       </c>
       <c r="B473" s="18" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C473" s="18" t="s">
         <v>478</v>
       </c>
       <c r="D473" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="474" spans="1:1023" ht="35" customHeight="1">
@@ -15431,16 +15425,16 @@
         <v>78</v>
       </c>
       <c r="B474" s="18" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C474" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D474" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="475" spans="1:1023" ht="35" customHeight="1">
@@ -15448,16 +15442,16 @@
         <v>78</v>
       </c>
       <c r="B475" s="18" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C475" s="15" t="s">
         <v>479</v>
       </c>
       <c r="D475" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="476" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
@@ -15465,16 +15459,16 @@
         <v>78</v>
       </c>
       <c r="B476" s="21" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C476" s="17" t="s">
         <v>480</v>
       </c>
       <c r="D476" s="9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E476" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F476" s="3"/>
       <c r="G476" s="3"/>
@@ -16500,13 +16494,13 @@
         <v>79</v>
       </c>
       <c r="B477" s="18" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C477" s="18" t="s">
         <v>481</v>
       </c>
       <c r="D477" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="478" spans="1:1023" ht="35" customHeight="1">
@@ -16514,13 +16508,13 @@
         <v>79</v>
       </c>
       <c r="B478" s="18" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C478" s="18" t="s">
         <v>482</v>
       </c>
       <c r="D478" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="479" spans="1:1023" ht="35" customHeight="1">
@@ -16528,13 +16522,13 @@
         <v>79</v>
       </c>
       <c r="B479" s="18" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C479" s="18" t="s">
         <v>483</v>
       </c>
       <c r="D479" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="480" spans="1:1023" ht="35" customHeight="1">
@@ -16542,13 +16536,13 @@
         <v>79</v>
       </c>
       <c r="B480" s="18" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C480" s="18" t="s">
         <v>484</v>
       </c>
       <c r="D480" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="481" spans="1:1023" ht="35" customHeight="1">
@@ -16556,13 +16550,13 @@
         <v>79</v>
       </c>
       <c r="B481" s="18" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C481" s="15" t="s">
         <v>485</v>
       </c>
       <c r="D481" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="482" spans="1:1023" ht="35" customHeight="1">
@@ -16570,13 +16564,13 @@
         <v>79</v>
       </c>
       <c r="B482" s="18" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C482" s="15" t="s">
         <v>486</v>
       </c>
       <c r="D482" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="483" spans="1:1023" ht="35" customHeight="1">
@@ -16584,13 +16578,13 @@
         <v>79</v>
       </c>
       <c r="B483" s="18" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C483" s="18" t="s">
         <v>487</v>
       </c>
       <c r="D483" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="484" spans="1:1023" ht="35" customHeight="1">
@@ -16598,13 +16592,13 @@
         <v>79</v>
       </c>
       <c r="B484" s="18" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C484" s="15" t="s">
         <v>488</v>
       </c>
       <c r="D484" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="485" spans="1:1023" ht="35" customHeight="1">
@@ -16612,13 +16606,13 @@
         <v>79</v>
       </c>
       <c r="B485" s="18" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C485" s="15" t="s">
         <v>489</v>
       </c>
       <c r="D485" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="486" spans="1:1023" ht="35" customHeight="1">
@@ -16626,13 +16620,13 @@
         <v>79</v>
       </c>
       <c r="B486" s="18" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C486" s="15" t="s">
         <v>490</v>
       </c>
       <c r="D486" s="10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="487" spans="1:1023" ht="35" customHeight="1">
@@ -16640,13 +16634,13 @@
         <v>79</v>
       </c>
       <c r="B487" s="18" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C487" s="15" t="s">
         <v>491</v>
       </c>
       <c r="D487" s="10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="488" spans="1:1023" ht="35" customHeight="1">
@@ -16660,7 +16654,7 @@
         <v>492</v>
       </c>
       <c r="D488" s="10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="489" spans="1:1023" ht="35" customHeight="1">
@@ -16668,13 +16662,13 @@
         <v>79</v>
       </c>
       <c r="B489" s="18" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C489" s="15" t="s">
         <v>493</v>
       </c>
       <c r="D489" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="490" spans="1:1023" ht="35" customHeight="1">
@@ -16682,13 +16676,13 @@
         <v>79</v>
       </c>
       <c r="B490" s="18" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C490" s="18" t="s">
         <v>494</v>
       </c>
       <c r="D490" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="491" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
@@ -16696,13 +16690,13 @@
         <v>79</v>
       </c>
       <c r="B491" s="21" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C491" s="21" t="s">
         <v>495</v>
       </c>
       <c r="D491" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E491" s="3"/>
       <c r="F491" s="3"/>
@@ -17729,13 +17723,13 @@
         <v>80</v>
       </c>
       <c r="B492" s="18" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C492" s="18" t="s">
         <v>496</v>
       </c>
       <c r="D492" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="493" spans="1:1023" ht="35" customHeight="1">
@@ -17743,13 +17737,13 @@
         <v>80</v>
       </c>
       <c r="B493" s="18" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C493" s="18" t="s">
         <v>497</v>
       </c>
       <c r="D493" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="494" spans="1:1023" ht="35" customHeight="1">
@@ -17757,13 +17751,13 @@
         <v>80</v>
       </c>
       <c r="B494" s="18" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C494" s="18" t="s">
         <v>498</v>
       </c>
       <c r="D494" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="495" spans="1:1023" ht="35" customHeight="1">
@@ -17771,13 +17765,13 @@
         <v>80</v>
       </c>
       <c r="B495" s="18" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C495" s="18" t="s">
         <v>499</v>
       </c>
       <c r="D495" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="496" spans="1:1023" ht="35" customHeight="1">
@@ -17785,13 +17779,13 @@
         <v>80</v>
       </c>
       <c r="B496" s="18" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C496" s="18" t="s">
         <v>500</v>
       </c>
       <c r="D496" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="497" spans="1:1023" ht="35" customHeight="1">
@@ -17799,13 +17793,13 @@
         <v>80</v>
       </c>
       <c r="B497" s="18" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="C497" s="18" t="s">
         <v>501</v>
       </c>
       <c r="D497" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="498" spans="1:1023" ht="35" customHeight="1">
@@ -17813,13 +17807,13 @@
         <v>80</v>
       </c>
       <c r="B498" s="18" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C498" s="18" t="s">
         <v>502</v>
       </c>
       <c r="D498" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="499" spans="1:1023" ht="35" customHeight="1">
@@ -17827,13 +17821,13 @@
         <v>80</v>
       </c>
       <c r="B499" s="18" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C499" s="18" t="s">
         <v>503</v>
       </c>
       <c r="D499" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="500" spans="1:1023" ht="35" customHeight="1">
@@ -17841,13 +17835,13 @@
         <v>80</v>
       </c>
       <c r="B500" s="18" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C500" s="18" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D500" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="501" spans="1:1023" ht="35" customHeight="1">
@@ -17855,13 +17849,13 @@
         <v>80</v>
       </c>
       <c r="B501" s="18" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C501" s="18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D501" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="502" spans="1:1023" ht="35" customHeight="1">
@@ -17869,13 +17863,13 @@
         <v>80</v>
       </c>
       <c r="B502" s="18" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C502" s="18" t="s">
         <v>504</v>
       </c>
       <c r="D502" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="503" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
@@ -17883,13 +17877,13 @@
         <v>80</v>
       </c>
       <c r="B503" s="21" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C503" s="21" t="s">
         <v>505</v>
       </c>
       <c r="D503" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E503" s="3"/>
       <c r="F503" s="3"/>
@@ -18916,16 +18910,16 @@
         <v>81</v>
       </c>
       <c r="B504" s="24" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C504" s="15" t="s">
         <v>506</v>
       </c>
       <c r="D504" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E504" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F504" s="5"/>
       <c r="G504" s="5"/>
@@ -19951,16 +19945,16 @@
         <v>81</v>
       </c>
       <c r="B505" s="24" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C505" s="28" t="s">
         <v>507</v>
       </c>
       <c r="D505" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E505" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F505" s="5"/>
       <c r="G505" s="5"/>
@@ -20986,13 +20980,13 @@
         <v>81</v>
       </c>
       <c r="B506" s="24" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C506" s="15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D506" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="507" spans="1:1023" ht="35" customHeight="1">
@@ -21000,16 +20994,16 @@
         <v>81</v>
       </c>
       <c r="B507" s="24" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C507" s="15" t="s">
         <v>508</v>
       </c>
       <c r="D507" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E507" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="508" spans="1:1023" ht="35" customHeight="1">
@@ -21017,16 +21011,16 @@
         <v>81</v>
       </c>
       <c r="B508" s="24" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C508" s="15" t="s">
         <v>509</v>
       </c>
       <c r="D508" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E508" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="509" spans="1:1023" ht="35" customHeight="1">
@@ -21034,16 +21028,16 @@
         <v>81</v>
       </c>
       <c r="B509" s="24" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C509" s="15" t="s">
         <v>510</v>
       </c>
       <c r="D509" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E509" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="510" spans="1:1023" ht="35" customHeight="1">
@@ -21051,16 +21045,16 @@
         <v>81</v>
       </c>
       <c r="B510" s="24" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C510" s="15" t="s">
         <v>511</v>
       </c>
       <c r="D510" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E510" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="511" spans="1:1023" ht="35" customHeight="1">
@@ -21068,16 +21062,16 @@
         <v>81</v>
       </c>
       <c r="B511" s="24" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C511" s="15" t="s">
         <v>512</v>
       </c>
       <c r="D511" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="512" spans="1:1023" ht="35" customHeight="1">
@@ -21085,16 +21079,16 @@
         <v>81</v>
       </c>
       <c r="B512" s="24" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C512" s="15" t="s">
         <v>511</v>
       </c>
       <c r="D512" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E512" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="513" spans="1:1023" ht="35" customHeight="1">
@@ -21102,16 +21096,16 @@
         <v>81</v>
       </c>
       <c r="B513" s="24" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C513" s="15" t="s">
         <v>513</v>
       </c>
       <c r="D513" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E513" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="514" spans="1:1023" ht="35" customHeight="1">
@@ -21119,16 +21113,16 @@
         <v>81</v>
       </c>
       <c r="B514" s="24" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="C514" s="15" t="s">
         <v>514</v>
       </c>
       <c r="D514" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E514" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="515" spans="1:1023" ht="35" customHeight="1">
@@ -21136,16 +21130,16 @@
         <v>81</v>
       </c>
       <c r="B515" s="24" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C515" s="15" t="s">
         <v>515</v>
       </c>
       <c r="D515" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E515" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="516" spans="1:1023" ht="35" customHeight="1">
@@ -21153,16 +21147,16 @@
         <v>81</v>
       </c>
       <c r="B516" s="24" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C516" s="15" t="s">
         <v>516</v>
       </c>
       <c r="D516" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E516" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="517" spans="1:1023" ht="35" customHeight="1">
@@ -21170,16 +21164,16 @@
         <v>81</v>
       </c>
       <c r="B517" s="24" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C517" s="15" t="s">
         <v>517</v>
       </c>
       <c r="D517" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E517" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="518" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
@@ -21187,16 +21181,16 @@
         <v>81</v>
       </c>
       <c r="B518" s="26" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C518" s="17" t="s">
-        <v>518</v>
+        <v>1151</v>
+      </c>
+      <c r="C518" s="15" t="s">
+        <v>517</v>
       </c>
       <c r="D518" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E518" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F518" s="3"/>
       <c r="G518" s="3"/>
@@ -22222,13 +22216,13 @@
         <v>82</v>
       </c>
       <c r="B519" s="24" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C519" s="15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D519" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E519" s="5"/>
       <c r="F519" s="5"/>
@@ -23255,13 +23249,13 @@
         <v>82</v>
       </c>
       <c r="B520" s="24" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C520" s="15" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D520" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E520" s="5"/>
       <c r="F520" s="5"/>
@@ -24288,13 +24282,13 @@
         <v>82</v>
       </c>
       <c r="B521" s="24" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C521" s="15" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D521" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E521" s="5"/>
       <c r="F521" s="5"/>
@@ -25321,13 +25315,13 @@
         <v>82</v>
       </c>
       <c r="B522" s="24" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C522" s="15" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D522" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E522" s="5"/>
       <c r="F522" s="5"/>
@@ -26354,13 +26348,13 @@
         <v>82</v>
       </c>
       <c r="B523" s="24" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C523" s="15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D523" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E523" s="5"/>
       <c r="F523" s="5"/>
@@ -27387,13 +27381,13 @@
         <v>82</v>
       </c>
       <c r="B524" s="23" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C524" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D524" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="525" spans="1:1023" ht="52" customHeight="1">
@@ -27401,13 +27395,13 @@
         <v>82</v>
       </c>
       <c r="B525" s="23" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C525" s="15" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D525" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="526" spans="1:1023" ht="35" customHeight="1">
@@ -27415,13 +27409,13 @@
         <v>82</v>
       </c>
       <c r="B526" s="23" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C526" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D526" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="527" spans="1:1023" ht="35" customHeight="1">
@@ -27429,13 +27423,13 @@
         <v>82</v>
       </c>
       <c r="B527" s="23" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C527" s="15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D527" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="528" spans="1:1023" ht="35" customHeight="1">
@@ -27443,13 +27437,13 @@
         <v>82</v>
       </c>
       <c r="B528" s="23" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="C528" s="15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D528" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="529" spans="1:1023" ht="35" customHeight="1">
@@ -27457,13 +27451,13 @@
         <v>82</v>
       </c>
       <c r="B529" s="23" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C529" s="15" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D529" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="530" spans="1:1023" s="11" customFormat="1" ht="35" customHeight="1">
@@ -27471,13 +27465,13 @@
         <v>82</v>
       </c>
       <c r="B530" s="25" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C530" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D530" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E530" s="3"/>
       <c r="F530" s="3"/>
